--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -14000,37 +14000,37 @@
       </c>
       <c r="L30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="M30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="N30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="O30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S30" s="8" t="inlineStr">
@@ -14494,37 +14494,37 @@
       </c>
       <c r="L31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="N31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S31" s="8" t="inlineStr">
@@ -14982,37 +14982,37 @@
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="N32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S32" s="8" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -577,16 +577,16 @@
     <col customWidth="true" min="16" max="16" width="13.8359375"/>
     <col customWidth="true" min="17" max="17" width="13.8359375"/>
     <col customWidth="true" min="18" max="18" width="13.8359375"/>
-    <col customWidth="true" min="19" max="19" width="13.8359375"/>
-    <col customWidth="true" min="20" max="20" width="13.8359375"/>
-    <col customWidth="true" min="21" max="21" width="13.8359375"/>
-    <col customWidth="true" min="22" max="22" width="13.8359375"/>
+    <col customWidth="true" min="19" max="19" width="18.6015625"/>
+    <col customWidth="true" min="20" max="20" width="19.48046875"/>
+    <col customWidth="true" min="21" max="21" width="21.38671875"/>
+    <col customWidth="true" min="22" max="22" width="16.69921875"/>
     <col customWidth="true" min="23" max="23" width="13.8359375"/>
     <col customWidth="true" min="24" max="24" width="13.8359375"/>
     <col customWidth="true" min="25" max="25" width="13.8359375"/>
     <col customWidth="true" min="26" max="26" width="13.8359375"/>
     <col customWidth="true" min="27" max="27" width="13.8359375"/>
-    <col customWidth="true" min="28" max="28" width="13.8359375"/>
+    <col customWidth="true" min="28" max="28" width="20.5078125"/>
     <col customWidth="true" min="29" max="29" width="39.98828125"/>
     <col customWidth="true" min="30" max="30" width="41.015625"/>
     <col customWidth="true" min="31" max="31" width="20.359375"/>
@@ -1291,8 +1291,29 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>1.1.a</t>
+        </is>
+      </c>
+      <c r="C2" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G2" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H2" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I2" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J2" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K2" s="7">
+        <v>2020</v>
       </c>
       <c r="L2" s="4" t="inlineStr">
         <is>
@@ -1301,32 +1322,32 @@
       </c>
       <c r="M2" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="N2" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O2" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="P2" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="Q2" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="R2" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S2" s="8" t="inlineStr">
@@ -1743,8 +1764,26 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>1.1.b</t>
+        </is>
+      </c>
+      <c r="F3" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I3" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J3" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K3" s="7">
+        <v>2020</v>
       </c>
       <c r="L3" s="4" t="inlineStr">
         <is>
@@ -1753,32 +1792,32 @@
       </c>
       <c r="M3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="N3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="P3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="Q3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="R3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S3" s="8" t="inlineStr">
@@ -2195,42 +2234,69 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>2.1.a</t>
+        </is>
+      </c>
+      <c r="C4" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D4" s="6">
+        <v>70</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2012</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2013</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2015</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2016</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2017</v>
+      </c>
+      <c r="K4" s="7">
+        <v>2018</v>
       </c>
       <c r="L4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="M4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="N4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S4" s="8" t="inlineStr">
@@ -2647,42 +2713,69 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>2.1.b</t>
+        </is>
+      </c>
+      <c r="C5" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D5" s="6">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2020</v>
       </c>
       <c r="L5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="M5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="N5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S5" s="8" t="inlineStr">
@@ -3099,7 +3192,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>2.2</t>
         </is>
       </c>
       <c r="L6" s="4" t="inlineStr">
@@ -3551,42 +3644,69 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>3.1.a</t>
+        </is>
+      </c>
+      <c r="C7" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D7" s="6">
+        <v>100</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J7" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K7" s="7">
+        <v>2020</v>
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="M7" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="N7" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O7" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P7" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q7" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R7" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S7" s="8" t="inlineStr">
@@ -4003,42 +4123,69 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>3.1.b</t>
+        </is>
+      </c>
+      <c r="C8" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D8" s="6">
+        <v>190</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2020</v>
       </c>
       <c r="L8" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="M8" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="N8" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O8" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P8" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q8" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R8" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S8" s="8" t="inlineStr">
@@ -4455,42 +4602,69 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>3.1.c</t>
+        </is>
+      </c>
+      <c r="C9" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D9" s="6">
+        <v>7</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2011</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2012</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2015</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2016</v>
+      </c>
+      <c r="J9" s="7">
+        <v>2018</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2019</v>
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="M9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="N9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S9" s="8" t="inlineStr">
@@ -4907,8 +5081,17 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>3.1.d</t>
+        </is>
+      </c>
+      <c r="C10" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D10" s="6">
+        <v>19</v>
+      </c>
+      <c r="K10" s="7">
+        <v>2017</v>
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
@@ -4942,7 +5125,7 @@
       </c>
       <c r="R10" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S10" s="8" t="inlineStr">
@@ -5359,7 +5542,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>3.1.e</t>
         </is>
       </c>
       <c r="L11" s="4" t="inlineStr">
@@ -5811,8 +5994,11 @@
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>3.1.f</t>
+        </is>
+      </c>
+      <c r="K12" s="7">
+        <v>2017</v>
       </c>
       <c r="L12" s="4" t="inlineStr">
         <is>
@@ -5846,7 +6032,7 @@
       </c>
       <c r="R12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="S12" s="8" t="inlineStr">
@@ -6263,42 +6449,69 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>3.2.a</t>
+        </is>
+      </c>
+      <c r="C13" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D13" s="6">
+        <v>55</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J13" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K13" s="7">
+        <v>2020</v>
       </c>
       <c r="L13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="M13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="N13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="O13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S13" s="8" t="inlineStr">
@@ -6715,42 +6928,69 @@
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>3.2.b</t>
+        </is>
+      </c>
+      <c r="C14" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J14" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K14" s="7">
+        <v>2020</v>
       </c>
       <c r="L14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="M14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="N14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S14" s="8" t="inlineStr">
@@ -7167,8 +7407,20 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="C15" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D15" s="6">
+        <v>272.54</v>
+      </c>
+      <c r="J15" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K15" s="7">
+        <v>2021</v>
       </c>
       <c r="L15" s="4" t="inlineStr">
         <is>
@@ -7197,12 +7449,12 @@
       </c>
       <c r="Q15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S15" s="8" t="inlineStr">
@@ -7619,8 +7871,32 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>4.1.a</t>
+        </is>
+      </c>
+      <c r="C16" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D16" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J16" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K16" s="7">
+        <v>2020</v>
       </c>
       <c r="L16" s="4" t="inlineStr">
         <is>
@@ -7629,43 +7905,46 @@
       </c>
       <c r="M16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="N16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="Q16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="S16" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Verringerung des Anteils auf unter 10 % bis 2020</t>
         </is>
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Reduce the proportion to below 10 % by 2020</t>
+        </is>
+      </c>
+      <c r="U16" s="5">
+        <v>2021</v>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
@@ -7674,32 +7953,32 @@
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="X16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Y16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Z16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="AA16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="AB16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="AC16" s="8" t="inlineStr">
@@ -8071,7 +8350,7 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>4.1.b</t>
         </is>
       </c>
       <c r="L17" s="4" t="inlineStr">
@@ -8523,7 +8802,7 @@
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>4.2.a</t>
         </is>
       </c>
       <c r="L18" s="4" t="inlineStr">
@@ -8975,7 +9254,7 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>4.2.b</t>
         </is>
       </c>
       <c r="L19" s="4" t="inlineStr">
@@ -9427,7 +9706,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>5.1.a</t>
         </is>
       </c>
       <c r="L20" s="4" t="inlineStr">
@@ -9879,7 +10158,7 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>5.1.b</t>
         </is>
       </c>
       <c r="L21" s="4" t="inlineStr">
@@ -10331,7 +10610,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>5.1.c</t>
         </is>
       </c>
       <c r="L22" s="4" t="inlineStr">
@@ -10783,7 +11062,7 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>5.1.d</t>
         </is>
       </c>
       <c r="L23" s="4" t="inlineStr">
@@ -11235,7 +11514,7 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>5.1.e</t>
         </is>
       </c>
       <c r="L24" s="4" t="inlineStr">
@@ -11687,7 +11966,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>6.1.a</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr">
@@ -12139,7 +12418,7 @@
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>6.1.b</t>
         </is>
       </c>
       <c r="L26" s="4" t="inlineStr">
@@ -12591,7 +12870,7 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>6.2.a</t>
         </is>
       </c>
       <c r="L27" s="4" t="inlineStr">
@@ -13043,7 +13322,7 @@
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>6.2.b</t>
         </is>
       </c>
       <c r="L28" s="4" t="inlineStr">
@@ -15444,7 +15723,7 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>8.1</t>
         </is>
       </c>
       <c r="L33" s="4" t="inlineStr">
@@ -15896,7 +16175,7 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>8.2.a</t>
         </is>
       </c>
       <c r="L34" s="4" t="inlineStr">
@@ -16348,7 +16627,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>8.2.b</t>
         </is>
       </c>
       <c r="L35" s="4" t="inlineStr">
@@ -16800,7 +17079,7 @@
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>8.2.c</t>
         </is>
       </c>
       <c r="L36" s="4" t="inlineStr">
@@ -17252,7 +17531,7 @@
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>8.3</t>
         </is>
       </c>
       <c r="L37" s="4" t="inlineStr">
@@ -17704,7 +17983,7 @@
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>8.4</t>
         </is>
       </c>
       <c r="L38" s="4" t="inlineStr">
@@ -18156,7 +18435,7 @@
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>8.5.a</t>
         </is>
       </c>
       <c r="L39" s="4" t="inlineStr">
@@ -18608,7 +18887,7 @@
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>8.5.b</t>
         </is>
       </c>
       <c r="L40" s="4" t="inlineStr">
@@ -19060,7 +19339,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>8.6</t>
         </is>
       </c>
       <c r="L41" s="4" t="inlineStr">
@@ -19512,7 +19791,7 @@
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>9.1.a</t>
         </is>
       </c>
       <c r="L42" s="4" t="inlineStr">
@@ -19964,7 +20243,7 @@
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>9.1.b</t>
         </is>
       </c>
       <c r="L43" s="4" t="inlineStr">
@@ -20416,7 +20695,7 @@
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>10.1</t>
         </is>
       </c>
       <c r="L44" s="4" t="inlineStr">
@@ -20868,7 +21147,7 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>10.2</t>
         </is>
       </c>
       <c r="L45" s="4" t="inlineStr">
@@ -21320,7 +21599,7 @@
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>11.1.a</t>
         </is>
       </c>
       <c r="L46" s="4" t="inlineStr">
@@ -21772,7 +22051,7 @@
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>11.1.b</t>
         </is>
       </c>
       <c r="L47" s="4" t="inlineStr">
@@ -22224,7 +22503,7 @@
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>11.1.c</t>
         </is>
       </c>
       <c r="L48" s="4" t="inlineStr">
@@ -22676,7 +22955,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>11.2.a</t>
         </is>
       </c>
       <c r="L49" s="4" t="inlineStr">
@@ -23128,7 +23407,7 @@
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>11.2.b</t>
         </is>
       </c>
       <c r="L50" s="4" t="inlineStr">
@@ -23580,7 +23859,7 @@
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>11.2.c</t>
         </is>
       </c>
       <c r="L51" s="4" t="inlineStr">
@@ -24032,7 +24311,7 @@
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>11.3</t>
         </is>
       </c>
       <c r="L52" s="4" t="inlineStr">
@@ -24484,7 +24763,7 @@
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>11.4</t>
         </is>
       </c>
       <c r="L53" s="4" t="inlineStr">
@@ -24936,7 +25215,7 @@
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>12.1.a</t>
         </is>
       </c>
       <c r="L54" s="4" t="inlineStr">
@@ -25388,7 +25667,7 @@
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>12.1.ba</t>
         </is>
       </c>
       <c r="L55" s="4" t="inlineStr">
@@ -25840,7 +26119,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>12.1.bb</t>
         </is>
       </c>
       <c r="L56" s="4" t="inlineStr">
@@ -26292,7 +26571,7 @@
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>12.1.bc</t>
         </is>
       </c>
       <c r="L57" s="4" t="inlineStr">
@@ -26744,7 +27023,7 @@
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>12.2</t>
         </is>
       </c>
       <c r="L58" s="4" t="inlineStr">
@@ -27196,7 +27475,7 @@
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>12.3.a</t>
         </is>
       </c>
       <c r="L59" s="4" t="inlineStr">
@@ -27648,7 +27927,7 @@
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>12.3.b</t>
         </is>
       </c>
       <c r="L60" s="4" t="inlineStr">
@@ -28100,7 +28379,7 @@
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>13.1.a</t>
         </is>
       </c>
       <c r="L61" s="4" t="inlineStr">
@@ -28552,7 +28831,7 @@
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>13.1.b</t>
         </is>
       </c>
       <c r="L62" s="4" t="inlineStr">
@@ -29004,7 +29283,7 @@
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>14.1.aa</t>
         </is>
       </c>
       <c r="L63" s="4" t="inlineStr">
@@ -29456,7 +29735,7 @@
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>14.1.ab</t>
         </is>
       </c>
       <c r="L64" s="4" t="inlineStr">
@@ -29908,7 +30187,7 @@
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>14.1.b</t>
         </is>
       </c>
       <c r="L65" s="4" t="inlineStr">
@@ -30360,7 +30639,7 @@
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>15.1</t>
         </is>
       </c>
       <c r="L66" s="4" t="inlineStr">
@@ -30812,7 +31091,7 @@
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>15.2</t>
         </is>
       </c>
       <c r="L67" s="4" t="inlineStr">
@@ -31264,7 +31543,7 @@
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>15.3.a</t>
         </is>
       </c>
       <c r="L68" s="4" t="inlineStr">
@@ -31716,7 +31995,7 @@
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>15.3.b</t>
         </is>
       </c>
       <c r="L69" s="4" t="inlineStr">
@@ -32168,7 +32447,7 @@
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>16.1</t>
         </is>
       </c>
       <c r="L70" s="4" t="inlineStr">
@@ -32620,7 +32899,7 @@
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>16.2</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
@@ -33072,7 +33351,7 @@
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>16.3.a</t>
         </is>
       </c>
       <c r="L72" s="4" t="inlineStr">
@@ -33524,7 +33803,7 @@
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>16.3.b</t>
         </is>
       </c>
       <c r="L73" s="4" t="inlineStr">
@@ -33976,7 +34255,7 @@
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>17.1</t>
         </is>
       </c>
       <c r="L74" s="4" t="inlineStr">
@@ -34428,7 +34707,7 @@
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>17.2</t>
         </is>
       </c>
       <c r="L75" s="4" t="inlineStr">
@@ -34880,7 +35159,7 @@
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>17.3</t>
         </is>
       </c>
       <c r="L76" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -580,7 +580,7 @@
     <col customWidth="true" min="19" max="19" width="18.6015625"/>
     <col customWidth="true" min="20" max="20" width="19.48046875"/>
     <col customWidth="true" min="21" max="21" width="21.38671875"/>
-    <col customWidth="true" min="22" max="22" width="16.69921875"/>
+    <col customWidth="true" min="22" max="22" width="19.04296875"/>
     <col customWidth="true" min="23" max="23" width="13.8359375"/>
     <col customWidth="true" min="24" max="24" width="13.8359375"/>
     <col customWidth="true" min="25" max="25" width="13.8359375"/>
@@ -1294,8 +1294,8 @@
           <t>1.1.a</t>
         </is>
       </c>
-      <c r="C2" s="5">
-        <v>2030</v>
+      <c r="D2" s="6">
+        <v>0</v>
       </c>
       <c r="F2" s="7">
         <v>2015</v>
@@ -1767,6 +1767,9 @@
           <t>1.1.b</t>
         </is>
       </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
       <c r="F3" s="7">
         <v>2015</v>
       </c>
@@ -7414,7 +7417,7 @@
         <v>2030</v>
       </c>
       <c r="D15" s="6">
-        <v>272.54</v>
+        <v>272.5375</v>
       </c>
       <c r="J15" s="7">
         <v>2020</v>
@@ -7953,22 +7956,22 @@
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="X16" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="Y16" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="Z16" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="AA16" s="4" t="inlineStr">
@@ -8353,84 +8356,114 @@
           <t>4.1.b</t>
         </is>
       </c>
+      <c r="C17" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D17" s="6">
+        <v>55</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J17" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K17" s="7">
+        <v>2020</v>
+      </c>
       <c r="L17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="M17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="N17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S17" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Steigerung des Anteils auf 42 % bis 2020</t>
         </is>
       </c>
       <c r="T17" s="8" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Increase the proportion to 42 % by 2020</t>
+        </is>
+      </c>
+      <c r="U17" s="5">
+        <v>2021</v>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="X17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Y17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Z17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AA17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AB17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AC17" s="8" t="inlineStr">
@@ -8805,39 +8838,66 @@
           <t>4.2.a</t>
         </is>
       </c>
+      <c r="C18" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D18" s="6">
+        <v>35</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G18" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J18" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K18" s="7">
+        <v>2021</v>
+      </c>
       <c r="L18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="M18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="N18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S18" s="8" t="inlineStr">
@@ -9257,6 +9317,21 @@
           <t>4.2.b</t>
         </is>
       </c>
+      <c r="E19" s="7">
+        <v>2015</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J19" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K19" s="7">
+        <v>2021</v>
+      </c>
       <c r="L19" s="4" t="inlineStr">
         <is>
           <t/>
@@ -9347,39 +9422,45 @@
           <t/>
         </is>
       </c>
+      <c r="AE19" s="5">
+        <v>2020</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>60</v>
+      </c>
       <c r="AG19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AH19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AI19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AJ19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AK19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AL19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AM19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AN19" s="8" t="inlineStr">
@@ -9392,39 +9473,45 @@
           <t/>
         </is>
       </c>
+      <c r="AP19" s="5">
+        <v>2030</v>
+      </c>
+      <c r="AQ19" s="6">
+        <v>70</v>
+      </c>
       <c r="AR19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AS19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AT19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="AU19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AV19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AW19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AX19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AY19" s="8" t="inlineStr">
@@ -9709,39 +9796,66 @@
           <t>5.1.a</t>
         </is>
       </c>
+      <c r="C20" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D20" s="6">
+        <v>10</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F20" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G20" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J20" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K20" s="7">
+        <v>2021</v>
+      </c>
       <c r="L20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="N20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S20" s="8" t="inlineStr">
@@ -10161,6 +10275,18 @@
           <t>5.1.b</t>
         </is>
       </c>
+      <c r="C21" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D21" s="6">
+        <v>30</v>
+      </c>
+      <c r="J21" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K21" s="7">
+        <v>2021</v>
+      </c>
       <c r="L21" s="4" t="inlineStr">
         <is>
           <t/>
@@ -10188,12 +10314,12 @@
       </c>
       <c r="Q21" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S21" s="8" t="inlineStr">
@@ -10613,39 +10739,66 @@
           <t>5.1.c</t>
         </is>
       </c>
+      <c r="C22" s="5">
+        <v>2025</v>
+      </c>
+      <c r="D22" s="6">
+        <v>45</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2012</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2013</v>
+      </c>
+      <c r="G22" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2015</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J22" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K22" s="7">
+        <v>2021</v>
+      </c>
       <c r="L22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="M22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="N22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S22" s="8" t="inlineStr">
@@ -10657,6 +10810,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="U22" s="5">
+        <v>2021</v>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
@@ -11065,39 +11221,66 @@
           <t>5.1.d</t>
         </is>
       </c>
+      <c r="C23" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D23" s="6">
+        <v>65</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2012</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2013</v>
+      </c>
+      <c r="G23" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H23" s="7">
+        <v>2015</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2016</v>
+      </c>
+      <c r="J23" s="7">
+        <v>2017</v>
+      </c>
+      <c r="K23" s="7">
+        <v>2018</v>
+      </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="N23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S23" s="8" t="inlineStr">
@@ -11109,6 +11292,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="U23" s="5">
+        <v>2021</v>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
@@ -11517,6 +11703,12 @@
           <t>5.1.e</t>
         </is>
       </c>
+      <c r="C24" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D24" s="6">
+        <v>473.12133</v>
+      </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
           <t/>
@@ -11969,39 +12161,63 @@
           <t>6.1.a</t>
         </is>
       </c>
+      <c r="D25" s="6">
+        <v>100</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F25" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G25" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J25" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K25" s="7">
+        <v>2020</v>
+      </c>
       <c r="L25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="M25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="N25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="O25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="P25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S25" s="8" t="inlineStr">
@@ -12421,39 +12637,63 @@
           <t>6.1.b</t>
         </is>
       </c>
+      <c r="D26" s="6">
+        <v>100</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F26" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G26" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J26" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K26" s="7">
+        <v>2020</v>
+      </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="N26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="O26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S26" s="8" t="inlineStr">
@@ -12873,6 +13113,9 @@
           <t>6.2.a</t>
         </is>
       </c>
+      <c r="D27" s="6">
+        <v>6</v>
+      </c>
       <c r="L27" s="4" t="inlineStr">
         <is>
           <t/>
@@ -12917,6 +13160,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="U27" s="5">
+        <v>2021</v>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
@@ -13325,6 +13571,9 @@
           <t>6.2.b</t>
         </is>
       </c>
+      <c r="D28" s="6">
+        <v>4</v>
+      </c>
       <c r="L28" s="4" t="inlineStr">
         <is>
           <t/>
@@ -13369,6 +13618,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="U28" s="5">
+        <v>2021</v>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
@@ -13781,7 +14033,7 @@
         <v>2050</v>
       </c>
       <c r="D29" s="6">
-        <v>239.4</v>
+        <v>239.3763</v>
       </c>
       <c r="E29" s="7">
         <v>2014</v>
@@ -14279,37 +14531,37 @@
       </c>
       <c r="L30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="M30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="N30" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="O30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="P30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="Q30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="R30" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="S30" s="8" t="inlineStr">
@@ -14405,7 +14657,7 @@
       </c>
       <c r="AM30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AN30" s="8" t="inlineStr">
@@ -14461,7 +14713,7 @@
       </c>
       <c r="AY30" s="8" t="inlineStr">
         <is>
-          <t>Senkung um 50 % bis 2050 gegenüber 2008</t>
+          <t/>
         </is>
       </c>
       <c r="AZ30" s="8" t="inlineStr">
@@ -14611,7 +14863,13 @@
         </is>
       </c>
       <c r="CI30" s="5">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="CJ30" s="5">
+        <v>0</v>
+      </c>
+      <c r="CK30" s="6">
+        <v>0</v>
       </c>
       <c r="CL30" s="4" t="inlineStr">
         <is>
@@ -14773,37 +15031,37 @@
       </c>
       <c r="L31" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="N31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="O31" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="P31" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="Q31" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="R31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="S31" s="8" t="inlineStr">
@@ -14864,6 +15122,9 @@
       <c r="AE31" s="5">
         <v>2020</v>
       </c>
+      <c r="AF31" s="6">
+        <v>18</v>
+      </c>
       <c r="AG31" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
@@ -14896,7 +15157,7 @@
       </c>
       <c r="AM31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AN31" s="8" t="inlineStr">
@@ -14912,6 +15173,9 @@
       <c r="AP31" s="5">
         <v>2030</v>
       </c>
+      <c r="AQ31" s="6">
+        <v>30</v>
+      </c>
       <c r="AR31" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
@@ -14949,7 +15213,7 @@
       </c>
       <c r="AY31" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 45 % bis 2040</t>
+          <t/>
         </is>
       </c>
       <c r="AZ31" s="8" t="inlineStr">
@@ -14960,6 +15224,9 @@
       <c r="BA31" s="5">
         <v>2040</v>
       </c>
+      <c r="BB31" s="6">
+        <v>45</v>
+      </c>
       <c r="BC31" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
@@ -15008,6 +15275,9 @@
       <c r="BL31" s="5">
         <v>2050</v>
       </c>
+      <c r="BM31" s="6">
+        <v>60</v>
+      </c>
       <c r="BN31" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
@@ -15144,41 +15414,47 @@
         </is>
       </c>
       <c r="CU31" s="5">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="CV31" s="5">
+        <v>2050</v>
+      </c>
+      <c r="CW31" s="6">
+        <v>60</v>
       </c>
       <c r="CX31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="CY31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="CZ31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DA31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="DB31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="DC31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="DD31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="DE31" s="8" t="inlineStr">
@@ -15261,37 +15537,37 @@
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="N32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="O32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="P32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="Q32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="R32" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="S32" s="8" t="inlineStr">
@@ -15352,6 +15628,9 @@
       <c r="AE32" s="5">
         <v>2020</v>
       </c>
+      <c r="AF32" s="6">
+        <v>35</v>
+      </c>
       <c r="AG32" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
@@ -15384,7 +15663,7 @@
       </c>
       <c r="AM32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AN32" s="8" t="inlineStr">
@@ -15400,6 +15679,9 @@
       <c r="AP32" s="5">
         <v>2030</v>
       </c>
+      <c r="AQ32" s="6">
+        <v>65</v>
+      </c>
       <c r="AR32" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
@@ -15437,7 +15719,7 @@
       </c>
       <c r="AY32" s="8" t="inlineStr">
         <is>
-          <t>Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
+          <t/>
         </is>
       </c>
       <c r="AZ32" s="8" t="inlineStr">
@@ -15448,6 +15730,9 @@
       <c r="BA32" s="5">
         <v>2050</v>
       </c>
+      <c r="BB32" s="6">
+        <v>80</v>
+      </c>
       <c r="BC32" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
@@ -15584,11 +15869,14 @@
         </is>
       </c>
       <c r="CI32" s="5">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="CJ32" s="5">
         <v>2030</v>
       </c>
+      <c r="CK32" s="6">
+        <v>50</v>
+      </c>
       <c r="CL32" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
@@ -15596,7 +15884,7 @@
       </c>
       <c r="CM32" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="CN32" s="4" t="inlineStr">
@@ -15621,7 +15909,7 @@
       </c>
       <c r="CR32" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="CS32" s="8" t="inlineStr">
@@ -15634,39 +15922,48 @@
           <t/>
         </is>
       </c>
+      <c r="CU32" s="5">
+        <v>2021</v>
+      </c>
+      <c r="CV32" s="5">
+        <v>2050</v>
+      </c>
+      <c r="CW32" s="6">
+        <v>80</v>
+      </c>
       <c r="CX32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="CY32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="CZ32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DA32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DB32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DC32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DD32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DE32" s="8" t="inlineStr">
@@ -15726,39 +16023,66 @@
           <t>8.1</t>
         </is>
       </c>
+      <c r="C33" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D33" s="6">
+        <v>160.2</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2012</v>
+      </c>
+      <c r="F33" s="7">
+        <v>2013</v>
+      </c>
+      <c r="G33" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H33" s="7">
+        <v>2015</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2016</v>
+      </c>
+      <c r="J33" s="7">
+        <v>2017</v>
+      </c>
+      <c r="K33" s="7">
+        <v>2018</v>
+      </c>
       <c r="L33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="M33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="N33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="O33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S33" s="8" t="inlineStr">
@@ -16178,39 +16502,63 @@
           <t>8.2.a</t>
         </is>
       </c>
+      <c r="D34" s="6">
+        <v>-3</v>
+      </c>
+      <c r="E34" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F34" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G34" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J34" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K34" s="7">
+        <v>2021</v>
+      </c>
       <c r="L34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="M34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="N34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="R34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="S34" s="8" t="inlineStr">
@@ -16630,39 +16978,63 @@
           <t>8.2.b</t>
         </is>
       </c>
+      <c r="D35" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="E35" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F35" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G35" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H35" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I35" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J35" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K35" s="7">
+        <v>2021</v>
+      </c>
       <c r="L35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="N35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="Q35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="R35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="S35" s="8" t="inlineStr">
@@ -17082,39 +17454,63 @@
           <t>8.2.c</t>
         </is>
       </c>
+      <c r="D36" s="6">
+        <v>60</v>
+      </c>
+      <c r="E36" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F36" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G36" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H36" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I36" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J36" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K36" s="7">
+        <v>2021</v>
+      </c>
       <c r="L36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="M36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="N36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="S36" s="8" t="inlineStr">
@@ -17534,39 +17930,60 @@
           <t>8.3</t>
         </is>
       </c>
+      <c r="E37" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F37" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G37" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H37" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I37" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J37" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K37" s="7">
+        <v>2021</v>
+      </c>
       <c r="L37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="M37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="N37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S37" s="8" t="inlineStr">
@@ -17986,39 +18403,60 @@
           <t>8.4</t>
         </is>
       </c>
+      <c r="E38" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F38" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G38" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H38" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I38" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J38" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K38" s="7">
+        <v>2021</v>
+      </c>
       <c r="L38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="M38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="N38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="R38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S38" s="8" t="inlineStr">
@@ -18438,39 +18876,66 @@
           <t>8.5.a</t>
         </is>
       </c>
+      <c r="C39" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D39" s="6">
+        <v>78</v>
+      </c>
+      <c r="E39" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F39" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G39" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H39" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I39" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J39" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K39" s="7">
+        <v>2021</v>
+      </c>
       <c r="L39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="M39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="N39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S39" s="8" t="inlineStr">
@@ -18890,39 +19355,66 @@
           <t>8.5.b</t>
         </is>
       </c>
+      <c r="C40" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D40" s="6">
+        <v>60</v>
+      </c>
+      <c r="E40" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F40" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G40" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H40" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I40" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J40" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K40" s="7">
+        <v>2021</v>
+      </c>
       <c r="L40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="M40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="N40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S40" s="8" t="inlineStr">
@@ -19342,6 +19834,18 @@
           <t>8.6</t>
         </is>
       </c>
+      <c r="C41" s="5">
+        <v>2030</v>
+      </c>
+      <c r="I41" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J41" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K41" s="7">
+        <v>2021</v>
+      </c>
       <c r="L41" s="4" t="inlineStr">
         <is>
           <t/>
@@ -19364,17 +19868,17 @@
       </c>
       <c r="P41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="Q41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="S41" s="8" t="inlineStr">
@@ -19794,39 +20298,63 @@
           <t>9.1.a</t>
         </is>
       </c>
+      <c r="D42" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E42" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F42" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G42" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H42" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I42" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J42" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K42" s="7">
+        <v>2020</v>
+      </c>
       <c r="L42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="M42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="N42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S42" s="8" t="inlineStr">
@@ -20246,6 +20774,12 @@
           <t>9.1.b</t>
         </is>
       </c>
+      <c r="C43" s="5">
+        <v>2025</v>
+      </c>
+      <c r="D43" s="6">
+        <v>100</v>
+      </c>
       <c r="L43" s="4" t="inlineStr">
         <is>
           <t/>
@@ -20698,39 +21232,66 @@
           <t>10.1</t>
         </is>
       </c>
+      <c r="C44" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F44" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G44" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H44" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I44" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J44" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K44" s="7">
+        <v>2020</v>
+      </c>
       <c r="L44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="M44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="N44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="O44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="P44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="Q44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="R44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="S44" s="8" t="inlineStr">
@@ -21150,39 +21711,63 @@
           <t>10.2</t>
         </is>
       </c>
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F45" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G45" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H45" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I45" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J45" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K45" s="7">
+        <v>2020</v>
+      </c>
       <c r="L45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="M45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="N45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="O45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="P45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="Q45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="S45" s="8" t="inlineStr">
@@ -21602,39 +22187,66 @@
           <t>11.1.a</t>
         </is>
       </c>
+      <c r="C46" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D46" s="6">
+        <v>30</v>
+      </c>
+      <c r="E46" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F46" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G46" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H46" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I46" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J46" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K46" s="7">
+        <v>2020</v>
+      </c>
       <c r="L46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="N46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S46" s="8" t="inlineStr">
@@ -22054,39 +22666,60 @@
           <t>11.1.b</t>
         </is>
       </c>
+      <c r="E47" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F47" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G47" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H47" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I47" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J47" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K47" s="7">
+        <v>2020</v>
+      </c>
       <c r="L47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="M47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="N47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="P47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="Q47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S47" s="8" t="inlineStr">
@@ -22506,39 +23139,60 @@
           <t>11.1.c</t>
         </is>
       </c>
+      <c r="E48" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F48" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G48" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H48" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I48" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J48" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K48" s="7">
+        <v>2020</v>
+      </c>
       <c r="L48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="M48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="N48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="O48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="P48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="Q48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="R48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="S48" s="8" t="inlineStr">
@@ -22958,39 +23612,66 @@
           <t>11.2.a</t>
         </is>
       </c>
+      <c r="C49" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D49" s="6">
+        <v>85</v>
+      </c>
+      <c r="E49" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F49" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G49" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H49" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I49" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J49" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K49" s="7">
+        <v>2020</v>
+      </c>
       <c r="L49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="M49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="N49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="O49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="P49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="Q49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="R49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S49" s="8" t="inlineStr">
@@ -23410,39 +24091,66 @@
           <t>11.2.b</t>
         </is>
       </c>
+      <c r="C50" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D50" s="6">
+        <v>85</v>
+      </c>
+      <c r="E50" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F50" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G50" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H50" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I50" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J50" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K50" s="7">
+        <v>2020</v>
+      </c>
       <c r="L50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="M50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="N50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="O50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="P50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="Q50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="R50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S50" s="8" t="inlineStr">
@@ -24314,39 +25022,66 @@
           <t>11.3</t>
         </is>
       </c>
+      <c r="C52" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D52" s="6">
+        <v>13</v>
+      </c>
+      <c r="E52" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F52" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G52" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H52" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I52" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J52" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K52" s="7">
+        <v>2020</v>
+      </c>
       <c r="L52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="M52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="N52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S52" s="8" t="inlineStr">
@@ -24766,39 +25501,66 @@
           <t>11.4</t>
         </is>
       </c>
+      <c r="C53" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D53" s="6">
+        <v>50</v>
+      </c>
+      <c r="E53" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F53" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G53" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H53" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I53" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J53" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K53" s="7">
+        <v>2021</v>
+      </c>
       <c r="L53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="M53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="N53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S53" s="8" t="inlineStr">
@@ -25218,6 +25980,21 @@
           <t>12.1.a</t>
         </is>
       </c>
+      <c r="C54" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D54" s="6">
+        <v>34</v>
+      </c>
+      <c r="I54" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J54" s="7">
+        <v>2018</v>
+      </c>
+      <c r="K54" s="7">
+        <v>2019</v>
+      </c>
       <c r="L54" s="4" t="inlineStr">
         <is>
           <t/>
@@ -25240,17 +26017,17 @@
       </c>
       <c r="P54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S54" s="8" t="inlineStr">
@@ -25670,6 +26447,18 @@
           <t>12.1.ba</t>
         </is>
       </c>
+      <c r="H55" s="7">
+        <v>2015</v>
+      </c>
+      <c r="I55" s="7">
+        <v>2016</v>
+      </c>
+      <c r="J55" s="7">
+        <v>2017</v>
+      </c>
+      <c r="K55" s="7">
+        <v>2018</v>
+      </c>
       <c r="L55" s="4" t="inlineStr">
         <is>
           <t/>
@@ -25687,22 +26476,22 @@
       </c>
       <c r="O55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="Q55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="S55" s="8" t="inlineStr">
@@ -26122,6 +26911,18 @@
           <t>12.1.bb</t>
         </is>
       </c>
+      <c r="H56" s="7">
+        <v>2014</v>
+      </c>
+      <c r="I56" s="7">
+        <v>2015</v>
+      </c>
+      <c r="J56" s="7">
+        <v>2016</v>
+      </c>
+      <c r="K56" s="7">
+        <v>2017</v>
+      </c>
       <c r="L56" s="4" t="inlineStr">
         <is>
           <t/>
@@ -26139,22 +26940,22 @@
       </c>
       <c r="O56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="Q56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="R56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S56" s="8" t="inlineStr">
@@ -26574,6 +27375,18 @@
           <t>12.1.bc</t>
         </is>
       </c>
+      <c r="H57" s="7">
+        <v>2014</v>
+      </c>
+      <c r="I57" s="7">
+        <v>2015</v>
+      </c>
+      <c r="J57" s="7">
+        <v>2016</v>
+      </c>
+      <c r="K57" s="7">
+        <v>2017</v>
+      </c>
       <c r="L57" s="4" t="inlineStr">
         <is>
           <t/>
@@ -26591,22 +27404,22 @@
       </c>
       <c r="O57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="Q57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="R57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S57" s="8" t="inlineStr">
@@ -27026,39 +27839,66 @@
           <t>12.2</t>
         </is>
       </c>
+      <c r="C58" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D58" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E58" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F58" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G58" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H58" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I58" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J58" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K58" s="7">
+        <v>2021</v>
+      </c>
       <c r="L58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="M58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="N58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S58" s="8" t="inlineStr">
@@ -27478,6 +28318,15 @@
           <t>12.3.a</t>
         </is>
       </c>
+      <c r="C59" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D59" s="6">
+        <v>210.8</v>
+      </c>
+      <c r="K59" s="7">
+        <v>2020</v>
+      </c>
       <c r="L59" s="4" t="inlineStr">
         <is>
           <t/>
@@ -27510,7 +28359,7 @@
       </c>
       <c r="R59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S59" s="8" t="inlineStr">
@@ -27930,6 +28779,9 @@
           <t>12.3.b</t>
         </is>
       </c>
+      <c r="K60" s="7">
+        <v>2020</v>
+      </c>
       <c r="L60" s="4" t="inlineStr">
         <is>
           <t/>
@@ -27962,7 +28814,7 @@
       </c>
       <c r="R60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="S60" s="8" t="inlineStr">
@@ -28382,6 +29234,21 @@
           <t>13.1.a</t>
         </is>
       </c>
+      <c r="E61" s="7">
+        <v>2015</v>
+      </c>
+      <c r="H61" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I61" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J61" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K61" s="7">
+        <v>2021</v>
+      </c>
       <c r="L61" s="4" t="inlineStr">
         <is>
           <t/>
@@ -28472,39 +29339,45 @@
           <t/>
         </is>
       </c>
+      <c r="AE61" s="5">
+        <v>2020</v>
+      </c>
+      <c r="AF61" s="6">
+        <v>60</v>
+      </c>
       <c r="AG61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AH61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AI61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AJ61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AK61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AL61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AM61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AN61" s="8" t="inlineStr">
@@ -28517,39 +29390,45 @@
           <t/>
         </is>
       </c>
+      <c r="AP61" s="5">
+        <v>2030</v>
+      </c>
+      <c r="AQ61" s="6">
+        <v>45</v>
+      </c>
       <c r="AR61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AS61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AT61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AU61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AV61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="AW61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AX61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AY61" s="8" t="inlineStr">
@@ -28562,39 +29441,45 @@
           <t/>
         </is>
       </c>
+      <c r="BA61" s="5">
+        <v>2050</v>
+      </c>
+      <c r="BB61" s="6">
+        <v>0</v>
+      </c>
       <c r="BC61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BD61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BE61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BF61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BG61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BH61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="BI61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="BJ61" s="8" t="inlineStr">
@@ -28742,39 +29627,48 @@
           <t/>
         </is>
       </c>
+      <c r="CU61" s="5">
+        <v>2021</v>
+      </c>
+      <c r="CV61" s="5">
+        <v>2040</v>
+      </c>
+      <c r="CW61" s="6">
+        <v>30</v>
+      </c>
       <c r="CX61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="CY61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="CZ61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DA61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DB61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="DC61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DD61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DE61" s="8" t="inlineStr">
@@ -28787,39 +29681,48 @@
           <t/>
         </is>
       </c>
+      <c r="DG61" s="5">
+        <v>2021</v>
+      </c>
+      <c r="DH61" s="5">
+        <v>2050</v>
+      </c>
+      <c r="DI61" s="6">
+        <v>20</v>
+      </c>
       <c r="DJ61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DK61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DL61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DM61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="DN61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DO61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DP61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
     </row>
@@ -28834,6 +29737,27 @@
           <t>13.1.b</t>
         </is>
       </c>
+      <c r="C62" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D62" s="6">
+        <v>4</v>
+      </c>
+      <c r="G62" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H62" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I62" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J62" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K62" s="7">
+        <v>2020</v>
+      </c>
       <c r="L62" s="4" t="inlineStr">
         <is>
           <t/>
@@ -28846,27 +29770,27 @@
       </c>
       <c r="N62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="Q62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S62" s="8" t="inlineStr">
@@ -29286,39 +30210,63 @@
           <t>14.1.aa</t>
         </is>
       </c>
+      <c r="D63" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="E63" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F63" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G63" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H63" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I63" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J63" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K63" s="7">
+        <v>2020</v>
+      </c>
       <c r="L63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="M63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="N63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S63" s="8" t="inlineStr">
@@ -29738,39 +30686,63 @@
           <t>14.1.ab</t>
         </is>
       </c>
+      <c r="D64" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="E64" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F64" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G64" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H64" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I64" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J64" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K64" s="7">
+        <v>2020</v>
+      </c>
       <c r="L64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="M64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="N64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S64" s="8" t="inlineStr">
@@ -30190,39 +31162,66 @@
           <t>14.1.b</t>
         </is>
       </c>
+      <c r="C65" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D65" s="6">
+        <v>100</v>
+      </c>
+      <c r="E65" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F65" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G65" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H65" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I65" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J65" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K65" s="7">
+        <v>2020</v>
+      </c>
       <c r="L65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="M65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="N65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="P65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="Q65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S65" s="8" t="inlineStr">
@@ -30642,39 +31641,66 @@
           <t>15.1</t>
         </is>
       </c>
+      <c r="C66" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D66" s="6">
+        <v>100</v>
+      </c>
+      <c r="E66" s="7">
+        <v>2010</v>
+      </c>
+      <c r="F66" s="7">
+        <v>2011</v>
+      </c>
+      <c r="G66" s="7">
+        <v>2012</v>
+      </c>
+      <c r="H66" s="7">
+        <v>2013</v>
+      </c>
+      <c r="I66" s="7">
+        <v>2014</v>
+      </c>
+      <c r="J66" s="7">
+        <v>2015</v>
+      </c>
+      <c r="K66" s="7">
+        <v>2016</v>
+      </c>
       <c r="L66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="M66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="N66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="P66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="Q66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S66" s="8" t="inlineStr">
@@ -31094,39 +32120,66 @@
           <t>15.2</t>
         </is>
       </c>
+      <c r="C67" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D67" s="6">
+        <v>50</v>
+      </c>
+      <c r="E67" s="7">
+        <v>2009</v>
+      </c>
+      <c r="F67" s="7">
+        <v>2010</v>
+      </c>
+      <c r="G67" s="7">
+        <v>2011</v>
+      </c>
+      <c r="H67" s="7">
+        <v>2012</v>
+      </c>
+      <c r="I67" s="7">
+        <v>2013</v>
+      </c>
+      <c r="J67" s="7">
+        <v>2014</v>
+      </c>
+      <c r="K67" s="7">
+        <v>2015</v>
+      </c>
       <c r="L67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="M67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="N67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S67" s="8" t="inlineStr">
@@ -31546,39 +32599,63 @@
           <t>15.3.a</t>
         </is>
       </c>
+      <c r="C68" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E68" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F68" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G68" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H68" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I68" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J68" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K68" s="7">
+        <v>2020</v>
+      </c>
       <c r="L68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="M68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="N68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="Q68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S68" s="8" t="inlineStr">
@@ -31998,39 +33075,63 @@
           <t>15.3.b</t>
         </is>
       </c>
+      <c r="C69" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E69" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F69" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G69" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H69" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I69" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J69" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K69" s="7">
+        <v>2020</v>
+      </c>
       <c r="L69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="M69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="N69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S69" s="8" t="inlineStr">
@@ -32450,84 +33551,114 @@
           <t>16.1</t>
         </is>
       </c>
+      <c r="C70" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D70" s="6">
+        <v>6499.9</v>
+      </c>
+      <c r="E70" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F70" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G70" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H70" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I70" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J70" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K70" s="7">
+        <v>2021</v>
+      </c>
       <c r="L70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="N70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S70" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 7 000 bis 2030</t>
         </is>
       </c>
       <c r="T70" s="8" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 7,000 by 2030</t>
+        </is>
+      </c>
+      <c r="U70" s="5">
+        <v>2021</v>
       </c>
       <c r="V70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="W70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="X70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="Y70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="Z70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="AA70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="AB70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="AC70" s="8" t="inlineStr">
@@ -32902,39 +34033,63 @@
           <t>16.2</t>
         </is>
       </c>
+      <c r="D71" s="6">
+        <v>15</v>
+      </c>
+      <c r="E71" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F71" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G71" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H71" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I71" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J71" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K71" s="7">
+        <v>2020</v>
+      </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="M71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="N71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S71" s="8" t="inlineStr">
@@ -33354,6 +34509,24 @@
           <t>16.3.a</t>
         </is>
       </c>
+      <c r="C72" s="5">
+        <v>2030</v>
+      </c>
+      <c r="G72" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H72" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I72" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J72" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K72" s="7">
+        <v>2021</v>
+      </c>
       <c r="L72" s="4" t="inlineStr">
         <is>
           <t/>
@@ -33366,27 +34539,27 @@
       </c>
       <c r="N72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="O72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="P72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="Q72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="R72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="S72" s="8" t="inlineStr">
@@ -33806,6 +34979,21 @@
           <t>16.3.b</t>
         </is>
       </c>
+      <c r="C73" s="5">
+        <v>2030</v>
+      </c>
+      <c r="H73" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I73" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J73" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K73" s="7">
+        <v>2021</v>
+      </c>
       <c r="L73" s="4" t="inlineStr">
         <is>
           <t/>
@@ -33823,22 +35011,22 @@
       </c>
       <c r="O73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="P73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S73" s="8" t="inlineStr">
@@ -34258,6 +35446,12 @@
           <t>17.1</t>
         </is>
       </c>
+      <c r="C74" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D74" s="6">
+        <v>0.7</v>
+      </c>
       <c r="L74" s="4" t="inlineStr">
         <is>
           <t/>
@@ -34710,6 +35904,21 @@
           <t>17.2</t>
         </is>
       </c>
+      <c r="E75" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H75" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I75" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J75" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K75" s="7">
+        <v>2020</v>
+      </c>
       <c r="L75" s="4" t="inlineStr">
         <is>
           <t/>
@@ -34800,39 +36009,45 @@
           <t/>
         </is>
       </c>
+      <c r="AE75" s="5">
+        <v>2020</v>
+      </c>
+      <c r="AF75" s="6">
+        <v>236.78</v>
+      </c>
       <c r="AG75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AH75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AI75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AJ75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AK75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AL75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AM75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AN75" s="8" t="inlineStr">
@@ -34845,39 +36060,45 @@
           <t/>
         </is>
       </c>
+      <c r="AP75" s="5">
+        <v>2030</v>
+      </c>
+      <c r="AQ75" s="6">
+        <v>272.1763</v>
+      </c>
       <c r="AR75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AS75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AT75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AU75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AV75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AW75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AX75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AY75" s="8" t="inlineStr">
@@ -35162,39 +36383,66 @@
           <t>17.3</t>
         </is>
       </c>
+      <c r="C76" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D76" s="6">
+        <v>1.42827</v>
+      </c>
+      <c r="E76" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F76" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G76" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H76" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I76" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J76" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K76" s="7">
+        <v>2021</v>
+      </c>
       <c r="L76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="M76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="N76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S76" s="8" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -9414,12 +9414,12 @@
       </c>
       <c r="AC19" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 60 % bis 2020</t>
         </is>
       </c>
       <c r="AD19" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase to 60% by 2020</t>
         </is>
       </c>
       <c r="AE19" s="5">
@@ -9465,12 +9465,12 @@
       </c>
       <c r="AN19" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 70 % bis 2030</t>
         </is>
       </c>
       <c r="AO19" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase to 70% by 2030</t>
         </is>
       </c>
       <c r="AP19" s="5">
@@ -14713,7 +14713,7 @@
       </c>
       <c r="AY30" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Senkung um 50 % bis 2050 gegenüber 2008</t>
         </is>
       </c>
       <c r="AZ30" s="8" t="inlineStr">
@@ -15213,7 +15213,7 @@
       </c>
       <c r="AY31" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg 45 % bis 2040</t>
         </is>
       </c>
       <c r="AZ31" s="8" t="inlineStr">
@@ -15719,7 +15719,7 @@
       </c>
       <c r="AY32" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
         </is>
       </c>
       <c r="AZ32" s="8" t="inlineStr">
@@ -29331,12 +29331,12 @@
       </c>
       <c r="AC61" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Minderung um mindestens 40 % bis 2020 gegenüber 1990</t>
         </is>
       </c>
       <c r="AD61" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduce by at least 40% by 2020 compared to 1990</t>
         </is>
       </c>
       <c r="AE61" s="5">
@@ -29382,12 +29382,12 @@
       </c>
       <c r="AN61" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Minderung um mindestens 55 % bis 2030, gegenüber 1990</t>
         </is>
       </c>
       <c r="AO61" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduce by at least by at least 55% by 2030, compared to 1990</t>
         </is>
       </c>
       <c r="AP61" s="5">
@@ -29433,12 +29433,12 @@
       </c>
       <c r="AY61" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Erreichung von Treibhausgasneutralität bis 2050</t>
         </is>
       </c>
       <c r="AZ61" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Greenhouse gas neutrality to be achieved by 2050</t>
         </is>
       </c>
       <c r="BA61" s="5">
@@ -36001,12 +36001,12 @@
       </c>
       <c r="AC75" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
         </is>
       </c>
       <c r="AD75" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase the number by 10% from 2015 to 2020</t>
         </is>
       </c>
       <c r="AE75" s="5">
@@ -36052,12 +36052,12 @@
       </c>
       <c r="AN75" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Verstetigung</t>
         </is>
       </c>
       <c r="AO75" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Stabilisation</t>
         </is>
       </c>
       <c r="AP75" s="5">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -7956,22 +7956,22 @@
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="X16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Y16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Z16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="AA16" s="4" t="inlineStr">
@@ -9414,12 +9414,12 @@
       </c>
       <c r="AC19" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 60 % bis 2020</t>
+          <t/>
         </is>
       </c>
       <c r="AD19" s="8" t="inlineStr">
         <is>
-          <t>Increase to 60% by 2020</t>
+          <t/>
         </is>
       </c>
       <c r="AE19" s="5">
@@ -9465,12 +9465,12 @@
       </c>
       <c r="AN19" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 70 % bis 2030</t>
+          <t/>
         </is>
       </c>
       <c r="AO19" s="8" t="inlineStr">
         <is>
-          <t>Increase to 70% by 2030</t>
+          <t/>
         </is>
       </c>
       <c r="AP19" s="5">
@@ -14713,7 +14713,7 @@
       </c>
       <c r="AY30" s="8" t="inlineStr">
         <is>
-          <t>Senkung um 50 % bis 2050 gegenüber 2008</t>
+          <t/>
         </is>
       </c>
       <c r="AZ30" s="8" t="inlineStr">
@@ -15213,7 +15213,7 @@
       </c>
       <c r="AY31" s="8" t="inlineStr">
         <is>
-          <t>Anstieg 45 % bis 2040</t>
+          <t/>
         </is>
       </c>
       <c r="AZ31" s="8" t="inlineStr">
@@ -15424,37 +15424,37 @@
       </c>
       <c r="CX31" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="CY31" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="CZ31" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DA31" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DB31" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DC31" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DD31" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DE31" s="8" t="inlineStr">
@@ -15719,7 +15719,7 @@
       </c>
       <c r="AY32" s="8" t="inlineStr">
         <is>
-          <t>Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
+          <t/>
         </is>
       </c>
       <c r="AZ32" s="8" t="inlineStr">
@@ -29331,12 +29331,12 @@
       </c>
       <c r="AC61" s="8" t="inlineStr">
         <is>
-          <t>Minderung um mindestens 40 % bis 2020 gegenüber 1990</t>
+          <t/>
         </is>
       </c>
       <c r="AD61" s="8" t="inlineStr">
         <is>
-          <t>Reduce by at least 40% by 2020 compared to 1990</t>
+          <t/>
         </is>
       </c>
       <c r="AE61" s="5">
@@ -29382,12 +29382,12 @@
       </c>
       <c r="AN61" s="8" t="inlineStr">
         <is>
-          <t>Minderung um mindestens 55 % bis 2030, gegenüber 1990</t>
+          <t/>
         </is>
       </c>
       <c r="AO61" s="8" t="inlineStr">
         <is>
-          <t>Reduce by at least by at least 55% by 2030, compared to 1990</t>
+          <t/>
         </is>
       </c>
       <c r="AP61" s="5">
@@ -29433,12 +29433,12 @@
       </c>
       <c r="AY61" s="8" t="inlineStr">
         <is>
-          <t>Erreichung von Treibhausgasneutralität bis 2050</t>
+          <t/>
         </is>
       </c>
       <c r="AZ61" s="8" t="inlineStr">
         <is>
-          <t>Greenhouse gas neutrality to be achieved by 2050</t>
+          <t/>
         </is>
       </c>
       <c r="BA61" s="5">
@@ -33638,27 +33638,27 @@
       </c>
       <c r="X70" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Y70" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Z70" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AA70" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AB70" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AC70" s="8" t="inlineStr">
@@ -36001,12 +36001,12 @@
       </c>
       <c r="AC75" s="8" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
+          <t/>
         </is>
       </c>
       <c r="AD75" s="8" t="inlineStr">
         <is>
-          <t>Increase the number by 10% from 2015 to 2020</t>
+          <t/>
         </is>
       </c>
       <c r="AE75" s="5">
@@ -36052,12 +36052,12 @@
       </c>
       <c r="AN75" s="8" t="inlineStr">
         <is>
-          <t>Verstetigung</t>
+          <t/>
         </is>
       </c>
       <c r="AO75" s="8" t="inlineStr">
         <is>
-          <t>Stabilisation</t>
+          <t/>
         </is>
       </c>
       <c r="AP75" s="5">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -9516,12 +9516,12 @@
       </c>
       <c r="AD19" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 60 % bis 2020</t>
         </is>
       </c>
       <c r="AE19" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase to 60% by 2020</t>
         </is>
       </c>
       <c r="AF19" s="5">
@@ -9567,12 +9567,12 @@
       </c>
       <c r="AO19" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 70 % bis 2030</t>
         </is>
       </c>
       <c r="AP19" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase to 70% by 2030</t>
         </is>
       </c>
       <c r="AQ19" s="5">
@@ -14870,7 +14870,7 @@
       </c>
       <c r="AZ30" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Senkung um 50 % bis 2050 gegenüber 2008</t>
         </is>
       </c>
       <c r="BA30" s="8" t="inlineStr">
@@ -15375,7 +15375,7 @@
       </c>
       <c r="AZ31" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 45 % bis 2040</t>
         </is>
       </c>
       <c r="BA31" s="8" t="inlineStr">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="AZ32" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
         </is>
       </c>
       <c r="BA32" s="8" t="inlineStr">
@@ -15898,7 +15898,7 @@
         <v>2050</v>
       </c>
       <c r="BC32" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BD32" s="4" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
       </c>
       <c r="BJ32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="BK32" s="8" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -29649,12 +29649,12 @@
       </c>
       <c r="AD61" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Minderung um mindestens 40 % bis 2020 gegenüber 1990</t>
         </is>
       </c>
       <c r="AE61" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduce by at least 40% by 2020, compared to 1990</t>
         </is>
       </c>
       <c r="AF61" s="5">
@@ -29700,12 +29700,12 @@
       </c>
       <c r="AO61" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Minderung um mindestens 55 % bis 2030, gegenüber 1990</t>
         </is>
       </c>
       <c r="AP61" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduce by at least 55% by 2030, compared to 1990</t>
         </is>
       </c>
       <c r="AQ61" s="5">
@@ -29751,12 +29751,12 @@
       </c>
       <c r="AZ61" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Erreichung von Treibhausgasneutralität bis 2050</t>
         </is>
       </c>
       <c r="BA61" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Greenhouse gas neutrality to be achieved by 2050</t>
         </is>
       </c>
       <c r="BB61" s="5">
@@ -36395,12 +36395,12 @@
       </c>
       <c r="AD75" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
         </is>
       </c>
       <c r="AE75" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase the number by 10% from 2015 to 2020</t>
         </is>
       </c>
       <c r="AF75" s="5">
@@ -36446,12 +36446,12 @@
       </c>
       <c r="AO75" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Verstetigung</t>
         </is>
       </c>
       <c r="AP75" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Stabilisation</t>
         </is>
       </c>
       <c r="AQ75" s="5">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -7563,7 +7563,7 @@
         <v>2030</v>
       </c>
       <c r="F15" s="6">
-        <v>272.5375</v>
+        <v>272.5</v>
       </c>
       <c r="L15" s="7">
         <v>2020</v>
@@ -11949,7 +11949,7 @@
         <v>2030</v>
       </c>
       <c r="F24" s="6">
-        <v>473.12133</v>
+        <v>473.1</v>
       </c>
       <c r="N24" s="4" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>2050</v>
       </c>
       <c r="F29" s="6">
-        <v>239.3763</v>
+        <v>239.4</v>
       </c>
       <c r="G29" s="7">
         <v>2014</v>
@@ -34263,7 +34263,7 @@
         <v>2030</v>
       </c>
       <c r="F70" s="6">
-        <v>6499.9</v>
+        <v>6500</v>
       </c>
       <c r="G70" s="7">
         <v>2015</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -551,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DR76"/>
+  <dimension ref="A1:DR77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -37625,6 +37625,468 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="4" t="inlineStr">
+        <is>
+          <t>Z06_B02_P01_Ib01_I00</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U77" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V77" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE77" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF77" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP77" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ77" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA77" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB77" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BH77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BJ77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL77" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM77" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BQ77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BS77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BT77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BV77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BW77" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BX77" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CB77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CC77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CD77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CG77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CH77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CI77" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CJ77" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CN77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CO77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CQ77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CR77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CS77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CT77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CU77" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CV77" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CZ77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DA77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DB77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DC77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DD77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DE77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DF77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG77" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH77" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DL77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DM77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DN77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DO77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DP77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DQ77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DR77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -561,7 +561,7 @@
   <cols>
     <col customWidth="true" min="1" max="1" width="23.14453125"/>
     <col customWidth="true" min="2" max="2" width="13.8359375"/>
-    <col customWidth="true" min="3" max="3" width="13.8359375"/>
+    <col customWidth="true" min="3" max="3" width="50.9765625"/>
     <col customWidth="true" min="4" max="4" width="13.8359375"/>
     <col customWidth="true" min="5" max="5" width="13.8359375"/>
     <col customWidth="true" min="6" max="6" width="13.8359375"/>
@@ -13367,12 +13367,12 @@
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I01</t>
+          <t>Z06_B02_P01_Ib01_I00</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>6.2.a</t>
+          <t/>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
@@ -13382,11 +13382,8 @@
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="F27" s="6">
-        <v>6</v>
+          <t/>
+        </is>
       </c>
       <c r="N27" s="4" t="inlineStr">
         <is>
@@ -13432,9 +13429,6 @@
         <is>
           <t/>
         </is>
-      </c>
-      <c r="W27" s="5">
-        <v>2021</v>
       </c>
       <c r="X27" s="4" t="inlineStr">
         <is>
@@ -13835,12 +13829,12 @@
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I02</t>
+          <t>Z06_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>6.2.b</t>
+          <t>6.2.a</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
@@ -13854,7 +13848,7 @@
         </is>
       </c>
       <c r="F28" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N28" s="4" t="inlineStr">
         <is>
@@ -14303,12 +14297,12 @@
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01</t>
+          <t>Z06_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>7.1.a</t>
+          <t>6.2.b</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
@@ -14318,69 +14312,45 @@
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="E29" s="5">
-        <v>2050</v>
+          <t>J</t>
+        </is>
       </c>
       <c r="F29" s="6">
-        <v>239.4</v>
-      </c>
-      <c r="G29" s="7">
-        <v>2014</v>
-      </c>
-      <c r="H29" s="7">
-        <v>2015</v>
-      </c>
-      <c r="I29" s="7">
-        <v>2016</v>
-      </c>
-      <c r="J29" s="7">
-        <v>2017</v>
-      </c>
-      <c r="K29" s="7">
-        <v>2018</v>
-      </c>
-      <c r="L29" s="7">
-        <v>2019</v>
-      </c>
-      <c r="M29" s="7">
-        <v>2020</v>
+        <v>4</v>
       </c>
       <c r="N29" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="O29" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="P29" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="Q29" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="R29" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="S29" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="T29" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="U29" s="8" t="inlineStr">
@@ -14392,6 +14362,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="W29" s="5">
+        <v>2021</v>
       </c>
       <c r="X29" s="4" t="inlineStr">
         <is>
@@ -14792,12 +14765,12 @@
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02</t>
+          <t>Z07_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>7.1.b</t>
+          <t>7.1.a</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
@@ -14810,60 +14783,66 @@
           <t>K</t>
         </is>
       </c>
+      <c r="E30" s="5">
+        <v>2050</v>
+      </c>
+      <c r="F30" s="6">
+        <v>239.4</v>
+      </c>
       <c r="G30" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H30" s="7">
         <v>2015</v>
       </c>
-      <c r="H30" s="7">
+      <c r="I30" s="7">
         <v>2016</v>
       </c>
-      <c r="I30" s="7">
+      <c r="J30" s="7">
         <v>2017</v>
       </c>
-      <c r="J30" s="7">
+      <c r="K30" s="7">
         <v>2018</v>
       </c>
-      <c r="K30" s="7">
+      <c r="L30" s="7">
         <v>2019</v>
       </c>
-      <c r="L30" s="7">
+      <c r="M30" s="7">
         <v>2020</v>
       </c>
-      <c r="M30" s="7">
-        <v>2021</v>
-      </c>
       <c r="N30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U30" s="8" t="inlineStr">
@@ -14913,155 +14892,137 @@
       </c>
       <c r="AE30" s="8" t="inlineStr">
         <is>
-          <t>Senkung um 20 % bis 2020 gegenüber 2008</t>
+          <t/>
         </is>
       </c>
       <c r="AF30" s="8" t="inlineStr">
         <is>
-          <t>Reduction by 20% by 2020 compared to 2008</t>
-        </is>
-      </c>
-      <c r="AG30" s="5">
-        <v>2020</v>
-      </c>
-      <c r="AH30" s="6">
-        <v>80</v>
+          <t/>
+        </is>
       </c>
       <c r="AI30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AJ30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AK30" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="AL30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AM30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AN30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AO30" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AP30" s="8" t="inlineStr">
         <is>
-          <t>Senkung um 30 % bis 2030 gegenüber 2008</t>
+          <t/>
         </is>
       </c>
       <c r="AQ30" s="8" t="inlineStr">
         <is>
-          <t>Reduction by 30% by 2030 compared to 2008</t>
-        </is>
-      </c>
-      <c r="AR30" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AS30" s="6">
-        <v>70</v>
+          <t/>
+        </is>
       </c>
       <c r="AT30" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="AU30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AV30" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="AW30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AX30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AY30" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AZ30" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BA30" s="8" t="inlineStr">
         <is>
-          <t>Senkung um 50 % bis 2050 gegenüber 2008</t>
+          <t/>
         </is>
       </c>
       <c r="BB30" s="8" t="inlineStr">
         <is>
-          <t>Reduction 50% by 2050 compared to 2008</t>
-        </is>
-      </c>
-      <c r="BC30" s="5">
-        <v>2050</v>
-      </c>
-      <c r="BD30" s="6">
-        <v>50</v>
+          <t/>
+        </is>
       </c>
       <c r="BE30" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BF30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BG30" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="BH30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BI30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BJ30" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BK30" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BL30" s="8" t="inlineStr">
@@ -15163,15 +15124,6 @@
         <is>
           <t/>
         </is>
-      </c>
-      <c r="CK30" s="5">
-        <v>2021</v>
-      </c>
-      <c r="CL30" s="5">
-        <v>0</v>
-      </c>
-      <c r="CM30" s="6">
-        <v>0</v>
       </c>
       <c r="CN30" s="4" t="inlineStr">
         <is>
@@ -15302,12 +15254,12 @@
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01</t>
+          <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>7.2.a</t>
+          <t>7.1.b</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
@@ -15423,206 +15375,200 @@
       </c>
       <c r="AE31" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 18 % bis 2020</t>
+          <t>Senkung um 20 % bis 2020 gegenüber 2008</t>
         </is>
       </c>
       <c r="AF31" s="8" t="inlineStr">
         <is>
-          <t>Increase to 18% by 2020</t>
+          <t>Reduction by 20% by 2020 compared to 2008</t>
         </is>
       </c>
       <c r="AG31" s="5">
         <v>2020</v>
       </c>
       <c r="AH31" s="6">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="AI31" s="4" t="inlineStr">
         <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AJ31" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AK31" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="AL31" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AM31" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AN31" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AO31" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="AJ31" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="AK31" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="AL31" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="AM31" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="AN31" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="AO31" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
       <c r="AP31" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 30 % bis 2030</t>
+          <t>Senkung um 30 % bis 2030 gegenüber 2008</t>
         </is>
       </c>
       <c r="AQ31" s="8" t="inlineStr">
         <is>
-          <t>Increase to 30% by 2030</t>
+          <t>Reduction by 30% by 2030 compared to 2008</t>
         </is>
       </c>
       <c r="AR31" s="5">
         <v>2030</v>
       </c>
       <c r="AS31" s="6">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AT31" s="4" t="inlineStr">
         <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="AU31" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="AU31" s="4" t="inlineStr">
+      <c r="AV31" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="AW31" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="AV31" s="4" t="inlineStr">
+      <c r="AX31" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="AW31" s="4" t="inlineStr">
+      <c r="AY31" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AZ31" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BA31" s="8" t="inlineStr">
+        <is>
+          <t>Senkung um 50 % bis 2050 gegenüber 2008</t>
+        </is>
+      </c>
+      <c r="BB31" s="8" t="inlineStr">
+        <is>
+          <t>Reduction 50% by 2050 compared to 2008</t>
+        </is>
+      </c>
+      <c r="BC31" s="5">
+        <v>2050</v>
+      </c>
+      <c r="BD31" s="6">
+        <v>50</v>
+      </c>
+      <c r="BE31" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BF31" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="AX31" s="4" t="inlineStr">
+      <c r="BG31" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="BH31" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="AY31" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
-        </is>
-      </c>
-      <c r="AZ31" s="4" t="inlineStr">
+      <c r="BI31" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="BA31" s="8" t="inlineStr">
-        <is>
-          <t>Anstieg auf 45 % bis 2040</t>
-        </is>
-      </c>
-      <c r="BB31" s="8" t="inlineStr">
-        <is>
-          <t>Increase to 45% by 2040</t>
-        </is>
-      </c>
-      <c r="BC31" s="5">
-        <v>2040</v>
-      </c>
-      <c r="BD31" s="6">
-        <v>45</v>
-      </c>
-      <c r="BE31" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BF31" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BG31" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BH31" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BI31" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
       <c r="BJ31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="BK31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="BL31" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 60 % bis 2050</t>
+          <t/>
         </is>
       </c>
       <c r="BM31" s="8" t="inlineStr">
         <is>
-          <t>Increase to 60% by 2050</t>
-        </is>
-      </c>
-      <c r="BN31" s="5">
-        <v>2050</v>
-      </c>
-      <c r="BO31" s="6">
-        <v>60</v>
+          <t/>
+        </is>
       </c>
       <c r="BP31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BQ31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BR31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BS31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BT31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BU31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BV31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BW31" s="8" t="inlineStr">
@@ -15680,6 +15626,15 @@
           <t/>
         </is>
       </c>
+      <c r="CK31" s="5">
+        <v>2021</v>
+      </c>
+      <c r="CL31" s="5">
+        <v>0</v>
+      </c>
+      <c r="CM31" s="6">
+        <v>0</v>
+      </c>
       <c r="CN31" s="4" t="inlineStr">
         <is>
           <t/>
@@ -15725,48 +15680,39 @@
           <t/>
         </is>
       </c>
-      <c r="CW31" s="5">
-        <v>2021</v>
-      </c>
-      <c r="CX31" s="5">
-        <v>2050</v>
-      </c>
-      <c r="CY31" s="6">
-        <v>60</v>
-      </c>
       <c r="CZ31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DA31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DB31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DC31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DD31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DE31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DF31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DG31" s="8" t="inlineStr">
@@ -15818,12 +15764,12 @@
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
+          <t>Z07_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>7.2.b</t>
+          <t>7.2.a</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
@@ -15939,19 +15885,19 @@
       </c>
       <c r="AE32" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens 35 % bis 2020</t>
+          <t>Anstieg auf 18 % bis 2020</t>
         </is>
       </c>
       <c r="AF32" s="8" t="inlineStr">
         <is>
-          <t>Increase to at least 35% by 2020</t>
+          <t>Increase to 18% by 2020</t>
         </is>
       </c>
       <c r="AG32" s="5">
         <v>2020</v>
       </c>
       <c r="AH32" s="6">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="AI32" s="4" t="inlineStr">
         <is>
@@ -15960,29 +15906,29 @@
       </c>
       <c r="AJ32" s="4" t="inlineStr">
         <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AK32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AL32" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="AK32" s="4" t="inlineStr">
+      <c r="AM32" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="AL32" s="4" t="inlineStr">
+      <c r="AN32" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="AM32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="AN32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
       <c r="AO32" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
@@ -15990,50 +15936,50 @@
       </c>
       <c r="AP32" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 65 % bis 2030</t>
+          <t>Anstieg auf 30 % bis 2030</t>
         </is>
       </c>
       <c r="AQ32" s="8" t="inlineStr">
         <is>
-          <t>Increase to 65% by 2030</t>
+          <t>Increase to 30% by 2030</t>
         </is>
       </c>
       <c r="AR32" s="5">
         <v>2030</v>
       </c>
       <c r="AS32" s="6">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AT32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AU32" s="4" t="inlineStr">
         <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AV32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AW32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AX32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AY32" s="4" t="inlineStr">
+        <is>
           <t>Leicht bewölkt</t>
         </is>
       </c>
-      <c r="AV32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="AW32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="AX32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="AY32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
       <c r="AZ32" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
@@ -16041,98 +15987,104 @@
       </c>
       <c r="BA32" s="8" t="inlineStr">
         <is>
-          <t>Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
+          <t>Anstieg auf 45 % bis 2040</t>
         </is>
       </c>
       <c r="BB32" s="8" t="inlineStr">
         <is>
-          <t>Greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
+          <t>Increase to 45% by 2040</t>
         </is>
       </c>
       <c r="BC32" s="5">
+        <v>2040</v>
+      </c>
+      <c r="BD32" s="6">
+        <v>45</v>
+      </c>
+      <c r="BE32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BF32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BG32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BH32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BI32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BJ32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BK32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BL32" s="8" t="inlineStr">
+        <is>
+          <t>Anstieg auf 60 % bis 2050</t>
+        </is>
+      </c>
+      <c r="BM32" s="8" t="inlineStr">
+        <is>
+          <t>Increase to 60% by 2050</t>
+        </is>
+      </c>
+      <c r="BN32" s="5">
         <v>2050</v>
       </c>
-      <c r="BD32" s="6">
-        <v>100</v>
-      </c>
-      <c r="BE32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="BF32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="BG32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="BH32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="BI32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="BJ32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="BK32" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
-        </is>
-      </c>
-      <c r="BL32" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BM32" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="BO32" s="6">
+        <v>60</v>
       </c>
       <c r="BP32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BQ32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BR32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BS32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BT32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BU32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BV32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BW32" s="8" t="inlineStr">
@@ -16182,56 +16134,47 @@
       </c>
       <c r="CI32" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 50 % bis 2030</t>
+          <t/>
         </is>
       </c>
       <c r="CJ32" s="8" t="inlineStr">
         <is>
-          <t>Increase to 50% by 2030</t>
-        </is>
-      </c>
-      <c r="CK32" s="5">
-        <v>2021</v>
-      </c>
-      <c r="CL32" s="5">
-        <v>2030</v>
-      </c>
-      <c r="CM32" s="6">
-        <v>50</v>
+          <t/>
+        </is>
       </c>
       <c r="CN32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="CO32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="CP32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="CQ32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="CR32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="CS32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="CT32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="CU32" s="8" t="inlineStr">
@@ -16251,41 +16194,41 @@
         <v>2050</v>
       </c>
       <c r="CY32" s="6">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="CZ32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DA32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DB32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DC32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DD32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DE32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DF32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DG32" s="8" t="inlineStr">
@@ -16337,12 +16280,12 @@
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01_P01_Ib01_I01</t>
+          <t>Z07_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>7.2.b</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
@@ -16355,246 +16298,258 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E33" s="5">
+      <c r="G33" s="7">
+        <v>2015</v>
+      </c>
+      <c r="H33" s="7">
+        <v>2016</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J33" s="7">
+        <v>2018</v>
+      </c>
+      <c r="K33" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L33" s="7">
+        <v>2020</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2021</v>
+      </c>
+      <c r="N33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U33" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V33" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE33" s="8" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens 35 % bis 2020</t>
+        </is>
+      </c>
+      <c r="AF33" s="8" t="inlineStr">
+        <is>
+          <t>Increase to at least 35% by 2020</t>
+        </is>
+      </c>
+      <c r="AG33" s="5">
+        <v>2020</v>
+      </c>
+      <c r="AH33" s="6">
+        <v>35</v>
+      </c>
+      <c r="AI33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AJ33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AK33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AL33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AM33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AN33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AO33" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AP33" s="8" t="inlineStr">
+        <is>
+          <t>Anstieg auf 65 % bis 2030</t>
+        </is>
+      </c>
+      <c r="AQ33" s="8" t="inlineStr">
+        <is>
+          <t>Increase to 65% by 2030</t>
+        </is>
+      </c>
+      <c r="AR33" s="5">
         <v>2030</v>
       </c>
-      <c r="F33" s="6">
-        <v>160.2</v>
-      </c>
-      <c r="G33" s="7">
-        <v>2012</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2013</v>
-      </c>
-      <c r="I33" s="7">
-        <v>2014</v>
-      </c>
-      <c r="J33" s="7">
-        <v>2015</v>
-      </c>
-      <c r="K33" s="7">
-        <v>2016</v>
-      </c>
-      <c r="L33" s="7">
-        <v>2017</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2018</v>
-      </c>
-      <c r="N33" s="4" t="inlineStr">
+      <c r="AS33" s="6">
+        <v>65</v>
+      </c>
+      <c r="AT33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AU33" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="AV33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AW33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AX33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AY33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AZ33" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="O33" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="P33" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
-        </is>
-      </c>
-      <c r="Q33" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="R33" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="S33" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="T33" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="U33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AT33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AU33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AV33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AW33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AX33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AY33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AZ33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="BA33" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
         </is>
       </c>
       <c r="BB33" s="8" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
+        </is>
+      </c>
+      <c r="BC33" s="5">
+        <v>2050</v>
+      </c>
+      <c r="BD33" s="6">
+        <v>100</v>
       </c>
       <c r="BE33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="BF33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="BG33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="BH33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="BI33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="BJ33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="BK33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="BL33" s="8" t="inlineStr">
@@ -16689,47 +16644,56 @@
       </c>
       <c r="CI33" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 50 % bis 2030</t>
         </is>
       </c>
       <c r="CJ33" s="8" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Increase to 50% by 2030</t>
+        </is>
+      </c>
+      <c r="CK33" s="5">
+        <v>2021</v>
+      </c>
+      <c r="CL33" s="5">
+        <v>2030</v>
+      </c>
+      <c r="CM33" s="6">
+        <v>50</v>
       </c>
       <c r="CN33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="CO33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="CP33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="CQ33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="CR33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="CS33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="CT33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="CU33" s="8" t="inlineStr">
@@ -16742,39 +16706,48 @@
           <t/>
         </is>
       </c>
+      <c r="CW33" s="5">
+        <v>2021</v>
+      </c>
+      <c r="CX33" s="5">
+        <v>2050</v>
+      </c>
+      <c r="CY33" s="6">
+        <v>80</v>
+      </c>
       <c r="CZ33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DA33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DB33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DC33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DD33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DE33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DF33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DG33" s="8" t="inlineStr">
@@ -16826,12 +16799,12 @@
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01_I01</t>
+          <t>Z08_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>8.2.a</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
@@ -16841,66 +16814,69 @@
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>J</t>
-        </is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="E34" s="5">
+        <v>2030</v>
       </c>
       <c r="F34" s="6">
-        <v>-3</v>
+        <v>160.2</v>
       </c>
       <c r="G34" s="7">
+        <v>2012</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2013</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2014</v>
+      </c>
+      <c r="J34" s="7">
         <v>2015</v>
       </c>
-      <c r="H34" s="7">
+      <c r="K34" s="7">
         <v>2016</v>
       </c>
-      <c r="I34" s="7">
+      <c r="L34" s="7">
         <v>2017</v>
       </c>
-      <c r="J34" s="7">
+      <c r="M34" s="7">
         <v>2018</v>
       </c>
-      <c r="K34" s="7">
-        <v>2019</v>
-      </c>
-      <c r="L34" s="7">
-        <v>2020</v>
-      </c>
-      <c r="M34" s="7">
-        <v>2021</v>
-      </c>
       <c r="N34" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O34" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P34" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="Q34" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R34" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S34" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T34" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U34" s="8" t="inlineStr">
@@ -17312,12 +17288,12 @@
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01_I02</t>
+          <t>Z08_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>8.2.b</t>
+          <t>8.2.a</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
@@ -17331,7 +17307,7 @@
         </is>
       </c>
       <c r="F35" s="6">
-        <v>-0.5</v>
+        <v>-3</v>
       </c>
       <c r="G35" s="7">
         <v>2015</v>
@@ -17376,7 +17352,7 @@
       </c>
       <c r="R35" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S35" s="4" t="inlineStr">
@@ -17798,12 +17774,12 @@
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib02_I01</t>
+          <t>Z08_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>8.2.c</t>
+          <t>8.2.b</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
@@ -17817,7 +17793,7 @@
         </is>
       </c>
       <c r="F36" s="6">
-        <v>60</v>
+        <v>-0.5</v>
       </c>
       <c r="G36" s="7">
         <v>2015</v>
@@ -17842,32 +17818,32 @@
       </c>
       <c r="N36" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O36" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P36" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q36" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R36" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S36" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="T36" s="4" t="inlineStr">
@@ -18284,12 +18260,12 @@
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03_P01_Ib01_I01</t>
+          <t>Z08_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2.c</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
@@ -18299,8 +18275,11 @@
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>R</t>
-        </is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="F37" s="6">
+        <v>60</v>
       </c>
       <c r="G37" s="7">
         <v>2015</v>
@@ -18325,7 +18304,7 @@
       </c>
       <c r="N37" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O37" s="4" t="inlineStr">
@@ -18335,27 +18314,27 @@
       </c>
       <c r="P37" s="4" t="inlineStr">
         <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="Q37" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="R37" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="Q37" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="R37" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
       <c r="S37" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T37" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="U37" s="8" t="inlineStr">
@@ -18767,12 +18746,12 @@
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04_P01_Ib01_I01</t>
+          <t>Z08_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
@@ -18808,32 +18787,32 @@
       </c>
       <c r="N38" s="4" t="inlineStr">
         <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="O38" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="P38" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="O38" s="4" t="inlineStr">
+      <c r="Q38" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="P38" s="4" t="inlineStr">
+      <c r="R38" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="Q38" s="4" t="inlineStr">
+      <c r="S38" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
-        </is>
-      </c>
-      <c r="R38" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="S38" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="T38" s="4" t="inlineStr">
@@ -19250,12 +19229,12 @@
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01_I01</t>
+          <t>Z08_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>8.5.a</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
@@ -19265,14 +19244,8 @@
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="E39" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F39" s="6">
-        <v>78</v>
+          <t>R</t>
+        </is>
       </c>
       <c r="G39" s="7">
         <v>2015</v>
@@ -19322,7 +19295,7 @@
       </c>
       <c r="S39" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="T39" s="4" t="inlineStr">
@@ -19739,12 +19712,12 @@
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01_I02</t>
+          <t>Z08_B05_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>8.5.b</t>
+          <t>8.5.a</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
@@ -19761,7 +19734,7 @@
         <v>2030</v>
       </c>
       <c r="F40" s="6">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G40" s="7">
         <v>2015</v>
@@ -20228,12 +20201,12 @@
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01_I01</t>
+          <t>Z08_B05_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5.b</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
@@ -20243,12 +20216,27 @@
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="E41" s="5">
         <v>2030</v>
       </c>
+      <c r="F41" s="6">
+        <v>60</v>
+      </c>
+      <c r="G41" s="7">
+        <v>2015</v>
+      </c>
+      <c r="H41" s="7">
+        <v>2016</v>
+      </c>
+      <c r="I41" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J41" s="7">
+        <v>2018</v>
+      </c>
       <c r="K41" s="7">
         <v>2019</v>
       </c>
@@ -20260,37 +20248,37 @@
       </c>
       <c r="N41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R41" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S41" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="T41" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U41" s="8" t="inlineStr">
@@ -20702,12 +20690,12 @@
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib01_I01</t>
+          <t>Z08_B06_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>9.1.a</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
@@ -20717,66 +20705,54 @@
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="F42" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="G42" s="7">
-        <v>2014</v>
-      </c>
-      <c r="H42" s="7">
-        <v>2015</v>
-      </c>
-      <c r="I42" s="7">
-        <v>2016</v>
-      </c>
-      <c r="J42" s="7">
-        <v>2017</v>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="E42" s="5">
+        <v>2030</v>
       </c>
       <c r="K42" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L42" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M42" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N42" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R42" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="S42" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="O42" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="P42" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="Q42" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="R42" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="S42" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
       <c r="T42" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="U42" s="8" t="inlineStr">
@@ -21188,12 +21164,12 @@
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib02_I01</t>
+          <t>Z09_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>9.1.b</t>
+          <t>9.1.a</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
@@ -21203,48 +21179,66 @@
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E43" s="5">
-        <v>2025</v>
+          <t>K</t>
+        </is>
       </c>
       <c r="F43" s="6">
-        <v>100</v>
+        <v>3.5</v>
+      </c>
+      <c r="G43" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H43" s="7">
+        <v>2015</v>
+      </c>
+      <c r="I43" s="7">
+        <v>2016</v>
+      </c>
+      <c r="J43" s="7">
+        <v>2017</v>
+      </c>
+      <c r="K43" s="7">
+        <v>2018</v>
+      </c>
+      <c r="L43" s="7">
+        <v>2019</v>
+      </c>
+      <c r="M43" s="7">
+        <v>2020</v>
       </c>
       <c r="N43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U43" s="8" t="inlineStr">
@@ -21656,12 +21650,12 @@
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01_P01_Ib01_I01</t>
+          <t>Z09_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>9.1.b</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
@@ -21675,65 +21669,44 @@
         </is>
       </c>
       <c r="E44" s="5">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="F44" s="6">
-        <v>0</v>
-      </c>
-      <c r="G44" s="7">
-        <v>2014</v>
-      </c>
-      <c r="H44" s="7">
-        <v>2015</v>
-      </c>
-      <c r="I44" s="7">
-        <v>2016</v>
-      </c>
-      <c r="J44" s="7">
-        <v>2017</v>
-      </c>
-      <c r="K44" s="7">
-        <v>2018</v>
-      </c>
-      <c r="L44" s="7">
-        <v>2019</v>
-      </c>
-      <c r="M44" s="7">
-        <v>2020</v>
+        <v>100</v>
       </c>
       <c r="N44" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="O44" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="P44" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="Q44" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="R44" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="S44" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="T44" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="U44" s="8" t="inlineStr">
@@ -22145,12 +22118,12 @@
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02_P01_Ib01_I01</t>
+          <t>Z10_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
@@ -22160,8 +22133,11 @@
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>J</t>
-        </is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E45" s="5">
+        <v>2030</v>
       </c>
       <c r="F45" s="6">
         <v>0</v>
@@ -22189,22 +22165,22 @@
       </c>
       <c r="N45" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O45" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P45" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="Q45" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="R45" s="4" t="inlineStr">
@@ -22214,7 +22190,7 @@
       </c>
       <c r="S45" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="T45" s="4" t="inlineStr">
@@ -22631,12 +22607,12 @@
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib01_I01</t>
+          <t>Z10_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>11.1.a</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
@@ -22646,14 +22622,11 @@
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="E46" s="5">
-        <v>2030</v>
+          <t>J</t>
+        </is>
       </c>
       <c r="F46" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G46" s="7">
         <v>2014</v>
@@ -22678,37 +22651,37 @@
       </c>
       <c r="N46" s="4" t="inlineStr">
         <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="O46" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="P46" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="Q46" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="R46" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="S46" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="O46" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="P46" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="Q46" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="R46" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="S46" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
       <c r="T46" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="U46" s="8" t="inlineStr">
@@ -23120,23 +23093,29 @@
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02_I01</t>
+          <t>Z11_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>11.1.b</t>
+          <t>11.1.a</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_4YAVERAGE</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>R</t>
-        </is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="E47" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F47" s="6">
+        <v>30</v>
       </c>
       <c r="G47" s="7">
         <v>2014</v>
@@ -23161,7 +23140,7 @@
       </c>
       <c r="N47" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O47" s="4" t="inlineStr">
@@ -23176,12 +23155,12 @@
       </c>
       <c r="Q47" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R47" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S47" s="4" t="inlineStr">
@@ -23191,7 +23170,7 @@
       </c>
       <c r="T47" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U47" s="8" t="inlineStr">
@@ -23603,12 +23582,12 @@
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03_I01</t>
+          <t>Z11_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>11.1.c</t>
+          <t>11.1.b</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
@@ -23644,37 +23623,37 @@
       </c>
       <c r="N48" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="O48" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P48" s="4" t="inlineStr">
         <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="Q48" s="4" t="inlineStr">
+        <is>
           <t>Leicht bewölkt</t>
         </is>
       </c>
-      <c r="Q48" s="4" t="inlineStr">
+      <c r="R48" s="4" t="inlineStr">
         <is>
           <t>Leicht bewölkt</t>
         </is>
       </c>
-      <c r="R48" s="4" t="inlineStr">
+      <c r="S48" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="T48" s="4" t="inlineStr">
         <is>
           <t>Leicht bewölkt</t>
-        </is>
-      </c>
-      <c r="S48" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
-        </is>
-      </c>
-      <c r="T48" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
         </is>
       </c>
       <c r="U48" s="8" t="inlineStr">
@@ -24086,12 +24065,12 @@
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01_I01</t>
+          <t>Z11_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>11.2.a</t>
+          <t>11.1.c</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
@@ -24101,14 +24080,8 @@
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="E49" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F49" s="6">
-        <v>85</v>
+          <t>R</t>
+        </is>
       </c>
       <c r="G49" s="7">
         <v>2014</v>
@@ -24138,32 +24111,32 @@
       </c>
       <c r="O49" s="4" t="inlineStr">
         <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="P49" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="Q49" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="R49" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="S49" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="T49" s="4" t="inlineStr">
+        <is>
           <t>Blitz</t>
-        </is>
-      </c>
-      <c r="P49" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
-        </is>
-      </c>
-      <c r="Q49" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
-        </is>
-      </c>
-      <c r="R49" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
-        </is>
-      </c>
-      <c r="S49" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
-        </is>
-      </c>
-      <c r="T49" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
         </is>
       </c>
       <c r="U49" s="8" t="inlineStr">
@@ -24575,12 +24548,12 @@
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02_I01</t>
+          <t>Z11_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>11.2.b</t>
+          <t>11.2.a</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
@@ -24652,7 +24625,7 @@
       </c>
       <c r="T50" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U50" s="8" t="inlineStr">
@@ -25064,12 +25037,12 @@
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03_I01</t>
+          <t>Z11_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>11.2.c</t>
+          <t>11.2.b</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
@@ -25079,42 +25052,69 @@
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>R</t>
-        </is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="E51" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F51" s="6">
+        <v>85</v>
+      </c>
+      <c r="G51" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H51" s="7">
+        <v>2015</v>
+      </c>
+      <c r="I51" s="7">
+        <v>2016</v>
+      </c>
+      <c r="J51" s="7">
+        <v>2017</v>
+      </c>
+      <c r="K51" s="7">
+        <v>2018</v>
+      </c>
+      <c r="L51" s="7">
+        <v>2019</v>
+      </c>
+      <c r="M51" s="7">
+        <v>2020</v>
       </c>
       <c r="N51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="O51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="P51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="Q51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="R51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="S51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="T51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U51" s="8" t="inlineStr">
@@ -25526,12 +25526,12 @@
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01_I01</t>
+          <t>Z11_B02_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>11.2.c</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
@@ -25541,69 +25541,42 @@
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="E52" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F52" s="6">
-        <v>13</v>
-      </c>
-      <c r="G52" s="7">
-        <v>2014</v>
-      </c>
-      <c r="H52" s="7">
-        <v>2015</v>
-      </c>
-      <c r="I52" s="7">
-        <v>2016</v>
-      </c>
-      <c r="J52" s="7">
-        <v>2017</v>
-      </c>
-      <c r="K52" s="7">
-        <v>2018</v>
-      </c>
-      <c r="L52" s="7">
-        <v>2019</v>
-      </c>
-      <c r="M52" s="7">
-        <v>2020</v>
+          <t>R</t>
+        </is>
       </c>
       <c r="N52" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="O52" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="P52" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="Q52" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="R52" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="S52" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="T52" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="U52" s="8" t="inlineStr">
@@ -26015,12 +25988,12 @@
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01_I01</t>
+          <t>Z11_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
@@ -26037,42 +26010,42 @@
         <v>2030</v>
       </c>
       <c r="F53" s="6">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G53" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H53" s="7">
         <v>2015</v>
       </c>
-      <c r="H53" s="7">
+      <c r="I53" s="7">
         <v>2016</v>
       </c>
-      <c r="I53" s="7">
+      <c r="J53" s="7">
         <v>2017</v>
       </c>
-      <c r="J53" s="7">
+      <c r="K53" s="7">
         <v>2018</v>
       </c>
-      <c r="K53" s="7">
+      <c r="L53" s="7">
         <v>2019</v>
       </c>
-      <c r="L53" s="7">
+      <c r="M53" s="7">
         <v>2020</v>
       </c>
-      <c r="M53" s="7">
-        <v>2021</v>
-      </c>
       <c r="N53" s="4" t="inlineStr">
         <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="O53" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="P53" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
-        </is>
-      </c>
-      <c r="O53" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="P53" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
         </is>
       </c>
       <c r="Q53" s="4" t="inlineStr">
@@ -26504,12 +26477,12 @@
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01_I01</t>
+          <t>Z11_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>12.1.a</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
@@ -26526,50 +26499,62 @@
         <v>2030</v>
       </c>
       <c r="F54" s="6">
-        <v>34</v>
+        <v>50</v>
+      </c>
+      <c r="G54" s="7">
+        <v>2015</v>
+      </c>
+      <c r="H54" s="7">
+        <v>2016</v>
+      </c>
+      <c r="I54" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J54" s="7">
+        <v>2018</v>
       </c>
       <c r="K54" s="7">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="L54" s="7">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="M54" s="7">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="N54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R54" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S54" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="T54" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U54" s="8" t="inlineStr">
@@ -26981,12 +26966,12 @@
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I01</t>
+          <t>Z12_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>12.1.ba</t>
+          <t>12.1.a</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
@@ -26996,20 +26981,23 @@
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J55" s="7">
-        <v>2015</v>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="E55" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F55" s="6">
+        <v>34</v>
       </c>
       <c r="K55" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="L55" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="M55" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="N55" s="4" t="inlineStr">
         <is>
@@ -27028,12 +27016,12 @@
       </c>
       <c r="Q55" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="R55" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S55" s="4" t="inlineStr">
@@ -27043,7 +27031,7 @@
       </c>
       <c r="T55" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U55" s="8" t="inlineStr">
@@ -27455,12 +27443,12 @@
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I02</t>
+          <t>Z12_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>12.1.bb</t>
+          <t>12.1.ba</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
@@ -27474,16 +27462,16 @@
         </is>
       </c>
       <c r="J56" s="7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="K56" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="L56" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="M56" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N56" s="4" t="inlineStr">
         <is>
@@ -27502,22 +27490,22 @@
       </c>
       <c r="Q56" s="4" t="inlineStr">
         <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="R56" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="S56" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="R56" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
-        </is>
-      </c>
-      <c r="S56" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
-        </is>
-      </c>
       <c r="T56" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="U56" s="8" t="inlineStr">
@@ -27929,12 +27917,12 @@
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I03</t>
+          <t>Z12_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>12.1.bc</t>
+          <t>12.1.bb</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
@@ -28403,12 +28391,12 @@
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01_I01</t>
+          <t>Z12_B01_P01_Ib02_I03</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>12.1.bc</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
@@ -28418,69 +28406,54 @@
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="E58" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F58" s="6">
-        <v>5000</v>
-      </c>
-      <c r="G58" s="7">
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J58" s="7">
+        <v>2014</v>
+      </c>
+      <c r="K58" s="7">
         <v>2015</v>
       </c>
-      <c r="H58" s="7">
+      <c r="L58" s="7">
         <v>2016</v>
       </c>
-      <c r="I58" s="7">
+      <c r="M58" s="7">
         <v>2017</v>
       </c>
-      <c r="J58" s="7">
-        <v>2018</v>
-      </c>
-      <c r="K58" s="7">
-        <v>2019</v>
-      </c>
-      <c r="L58" s="7">
-        <v>2020</v>
-      </c>
-      <c r="M58" s="7">
-        <v>2021</v>
-      </c>
       <c r="N58" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q58" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="O58" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="P58" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="Q58" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
       <c r="R58" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S58" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="T58" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U58" s="8" t="inlineStr">
@@ -28892,12 +28865,12 @@
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I01</t>
+          <t>Z12_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>12.3.a</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
@@ -28911,47 +28884,65 @@
         </is>
       </c>
       <c r="E59" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F59" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G59" s="7">
+        <v>2015</v>
+      </c>
+      <c r="H59" s="7">
+        <v>2016</v>
+      </c>
+      <c r="I59" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J59" s="7">
+        <v>2018</v>
+      </c>
+      <c r="K59" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L59" s="7">
         <v>2020</v>
       </c>
-      <c r="F59" s="6">
-        <v>210.8</v>
-      </c>
       <c r="M59" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T59" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U59" s="8" t="inlineStr">
@@ -29363,12 +29354,12 @@
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I02</t>
+          <t>Z12_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>12.3.b</t>
+          <t>12.3.a</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
@@ -29378,8 +29369,14 @@
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>R</t>
-        </is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="E60" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F60" s="6">
+        <v>210.8</v>
       </c>
       <c r="M60" s="7">
         <v>2020</v>
@@ -29416,7 +29413,7 @@
       </c>
       <c r="T60" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U60" s="8" t="inlineStr">
@@ -29828,12 +29825,12 @@
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>13.1.a</t>
+          <t>12.3.b</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
@@ -29843,30 +29840,12 @@
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="G61" s="7">
-        <v>2015</v>
-      </c>
-      <c r="H61" s="7">
-        <v>2016</v>
-      </c>
-      <c r="I61" s="7">
-        <v>2017</v>
-      </c>
-      <c r="J61" s="7">
-        <v>2018</v>
-      </c>
-      <c r="K61" s="7">
-        <v>2019</v>
-      </c>
-      <c r="L61" s="7">
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M61" s="7">
         <v>2020</v>
       </c>
-      <c r="M61" s="7">
-        <v>2021</v>
-      </c>
       <c r="N61" s="4" t="inlineStr">
         <is>
           <t/>
@@ -29899,7 +29878,7 @@
       </c>
       <c r="T61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="U61" s="8" t="inlineStr">
@@ -29949,155 +29928,137 @@
       </c>
       <c r="AE61" s="8" t="inlineStr">
         <is>
-          <t>Minderung um mindestens 40 % bis 2020 gegenüber 1990</t>
+          <t/>
         </is>
       </c>
       <c r="AF61" s="8" t="inlineStr">
         <is>
-          <t>Reduce by at least 40% by 2020, compared to 1990</t>
-        </is>
-      </c>
-      <c r="AG61" s="5">
-        <v>2020</v>
-      </c>
-      <c r="AH61" s="6">
-        <v>60</v>
+          <t/>
+        </is>
       </c>
       <c r="AI61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AJ61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AK61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AL61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AM61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AN61" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AO61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AP61" s="8" t="inlineStr">
         <is>
-          <t>Minderung um mindestens 55 % bis 2030, gegenüber 1990</t>
+          <t/>
         </is>
       </c>
       <c r="AQ61" s="8" t="inlineStr">
         <is>
-          <t>Reduce by at least 55% by 2030, compared to 1990</t>
-        </is>
-      </c>
-      <c r="AR61" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AS61" s="6">
-        <v>45</v>
+          <t/>
+        </is>
       </c>
       <c r="AT61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AU61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AV61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AW61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AX61" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="AY61" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AZ61" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BA61" s="8" t="inlineStr">
         <is>
-          <t>Erreichung von Treibhausgasneutralität bis 2050</t>
+          <t/>
         </is>
       </c>
       <c r="BB61" s="8" t="inlineStr">
         <is>
-          <t>Greenhouse gas neutrality to be achieved by 2050</t>
-        </is>
-      </c>
-      <c r="BC61" s="5">
-        <v>2050</v>
-      </c>
-      <c r="BD61" s="6">
-        <v>0</v>
+          <t/>
+        </is>
       </c>
       <c r="BE61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BF61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BG61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BH61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BI61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BJ61" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BK61" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BL61" s="8" t="inlineStr">
@@ -30245,48 +30206,39 @@
           <t/>
         </is>
       </c>
-      <c r="CW61" s="5">
-        <v>2021</v>
-      </c>
-      <c r="CX61" s="5">
-        <v>2040</v>
-      </c>
-      <c r="CY61" s="6">
-        <v>30</v>
-      </c>
       <c r="CZ61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DA61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DB61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DC61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DD61" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="DE61" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="DF61" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="DG61" s="8" t="inlineStr">
@@ -30299,60 +30251,51 @@
           <t/>
         </is>
       </c>
-      <c r="DI61" s="5">
-        <v>2021</v>
-      </c>
-      <c r="DJ61" s="5">
-        <v>2050</v>
-      </c>
-      <c r="DK61" s="6">
-        <v>20</v>
-      </c>
       <c r="DL61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DM61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DN61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DO61" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="DP61" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="DQ61" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="DR61" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01_I01</t>
+          <t>Z13_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>13.1.b</t>
+          <t>13.1.a</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
@@ -30365,422 +30308,449 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E62" s="5">
+      <c r="G62" s="7">
+        <v>2015</v>
+      </c>
+      <c r="H62" s="7">
+        <v>2016</v>
+      </c>
+      <c r="I62" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J62" s="7">
+        <v>2018</v>
+      </c>
+      <c r="K62" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L62" s="7">
         <v>2020</v>
       </c>
-      <c r="F62" s="6">
-        <v>4</v>
-      </c>
-      <c r="I62" s="7">
-        <v>2016</v>
-      </c>
-      <c r="J62" s="7">
-        <v>2017</v>
-      </c>
-      <c r="K62" s="7">
-        <v>2018</v>
-      </c>
-      <c r="L62" s="7">
-        <v>2019</v>
-      </c>
       <c r="M62" s="7">
+        <v>2021</v>
+      </c>
+      <c r="N62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE62" s="8" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens 40 % bis 2020 gegenüber 1990</t>
+        </is>
+      </c>
+      <c r="AF62" s="8" t="inlineStr">
+        <is>
+          <t>Reduce by at least 40% by 2020, compared to 1990</t>
+        </is>
+      </c>
+      <c r="AG62" s="5">
         <v>2020</v>
       </c>
-      <c r="N62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P62" s="4" t="inlineStr">
+      <c r="AH62" s="6">
+        <v>60</v>
+      </c>
+      <c r="AI62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AJ62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AK62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AL62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AM62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AN62" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="Q62" s="4" t="inlineStr">
+      <c r="AO62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AP62" s="8" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens 55 % bis 2030, gegenüber 1990</t>
+        </is>
+      </c>
+      <c r="AQ62" s="8" t="inlineStr">
+        <is>
+          <t>Reduce by at least 55% by 2030, compared to 1990</t>
+        </is>
+      </c>
+      <c r="AR62" s="5">
+        <v>2030</v>
+      </c>
+      <c r="AS62" s="6">
+        <v>45</v>
+      </c>
+      <c r="AT62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AU62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AV62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AW62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AX62" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="AY62" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="R62" s="4" t="inlineStr">
+      <c r="AZ62" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BA62" s="8" t="inlineStr">
+        <is>
+          <t>Erreichung von Treibhausgasneutralität bis 2050</t>
+        </is>
+      </c>
+      <c r="BB62" s="8" t="inlineStr">
+        <is>
+          <t>Greenhouse gas neutrality to be achieved by 2050</t>
+        </is>
+      </c>
+      <c r="BC62" s="5">
+        <v>2050</v>
+      </c>
+      <c r="BD62" s="6">
+        <v>0</v>
+      </c>
+      <c r="BE62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BF62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BG62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BH62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BI62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BJ62" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BK62" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BL62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BQ62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BS62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BT62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BV62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BW62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BX62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CB62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CC62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CD62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CG62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CH62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CI62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CJ62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CN62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CO62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CQ62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CR62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CS62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CT62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CU62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CV62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CW62" s="5">
+        <v>2021</v>
+      </c>
+      <c r="CX62" s="5">
+        <v>2040</v>
+      </c>
+      <c r="CY62" s="6">
+        <v>30</v>
+      </c>
+      <c r="CZ62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="DA62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="DB62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="DC62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="DD62" s="4" t="inlineStr">
         <is>
           <t>Leicht bewölkt</t>
         </is>
       </c>
-      <c r="S62" s="4" t="inlineStr">
+      <c r="DE62" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="T62" s="4" t="inlineStr">
+      <c r="DF62" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="U62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AT62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AU62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AV62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AW62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AX62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AY62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AZ62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BA62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BB62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BE62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BG62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BH62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BJ62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BK62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BM62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BP62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BR62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BT62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BU62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BV62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BW62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BX62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CB62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CC62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CD62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CE62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CF62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CG62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CH62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CI62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CJ62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CN62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CO62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CP62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CQ62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CR62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CS62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CT62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CU62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CV62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CZ62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DA62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DB62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DC62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DD62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DE62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DF62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DG62" s="8" t="inlineStr">
         <is>
           <t/>
@@ -30791,51 +30761,60 @@
           <t/>
         </is>
       </c>
+      <c r="DI62" s="5">
+        <v>2021</v>
+      </c>
+      <c r="DJ62" s="5">
+        <v>2050</v>
+      </c>
+      <c r="DK62" s="6">
+        <v>20</v>
+      </c>
       <c r="DL62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DM62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DN62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DO62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="DP62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DQ62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DR62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I01</t>
+          <t>Z13_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>14.1.aa</t>
+          <t>13.1.b</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
@@ -30845,17 +30824,14 @@
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>J</t>
-        </is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="E63" s="5">
+        <v>2020</v>
       </c>
       <c r="F63" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="G63" s="7">
-        <v>2014</v>
-      </c>
-      <c r="H63" s="7">
-        <v>2015</v>
+        <v>4</v>
       </c>
       <c r="I63" s="7">
         <v>2016</v>
@@ -30874,37 +30850,37 @@
       </c>
       <c r="N63" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="O63" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="P63" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q63" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R63" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S63" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="T63" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U63" s="8" t="inlineStr">
@@ -31316,12 +31292,12 @@
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I02</t>
+          <t>Z14_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>14.1.ab</t>
+          <t>14.1.aa</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
@@ -31335,7 +31311,7 @@
         </is>
       </c>
       <c r="F64" s="6">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="G64" s="7">
         <v>2014</v>
@@ -31390,7 +31366,7 @@
       </c>
       <c r="T64" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U64" s="8" t="inlineStr">
@@ -31802,12 +31778,12 @@
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01</t>
+          <t>Z14_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>14.1.b</t>
+          <t>14.1.ab</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
@@ -31817,14 +31793,11 @@
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="E65" s="5">
-        <v>2020</v>
+          <t>J</t>
+        </is>
       </c>
       <c r="F65" s="6">
-        <v>100</v>
+        <v>2.8</v>
       </c>
       <c r="G65" s="7">
         <v>2014</v>
@@ -31864,12 +31837,12 @@
       </c>
       <c r="Q65" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R65" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S65" s="4" t="inlineStr">
@@ -31879,7 +31852,7 @@
       </c>
       <c r="T65" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U65" s="8" t="inlineStr">
@@ -32291,12 +32264,12 @@
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>14.1.b</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
@@ -32310,40 +32283,40 @@
         </is>
       </c>
       <c r="E66" s="5">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="F66" s="6">
         <v>100</v>
       </c>
       <c r="G66" s="7">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="H66" s="7">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="I66" s="7">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="J66" s="7">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="K66" s="7">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="L66" s="7">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="M66" s="7">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="N66" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O66" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P66" s="4" t="inlineStr">
@@ -32780,12 +32753,12 @@
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01_I01</t>
+          <t>Z15_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
@@ -32802,62 +32775,62 @@
         <v>2030</v>
       </c>
       <c r="F67" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G67" s="7">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="H67" s="7">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="I67" s="7">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="J67" s="7">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="K67" s="7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="L67" s="7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="M67" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="N67" s="4" t="inlineStr">
         <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="O67" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="P67" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="O67" s="4" t="inlineStr">
+      <c r="Q67" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="R67" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="S67" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="P67" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="Q67" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="R67" s="4" t="inlineStr">
+      <c r="T67" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
-        </is>
-      </c>
-      <c r="S67" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="T67" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="U67" s="8" t="inlineStr">
@@ -33269,12 +33242,12 @@
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I01</t>
+          <t>Z15_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>15.3.a</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
@@ -33284,41 +33257,44 @@
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>K</t>
         </is>
       </c>
       <c r="E68" s="5">
         <v>2030</v>
       </c>
+      <c r="F68" s="6">
+        <v>50</v>
+      </c>
       <c r="G68" s="7">
+        <v>2009</v>
+      </c>
+      <c r="H68" s="7">
+        <v>2010</v>
+      </c>
+      <c r="I68" s="7">
+        <v>2011</v>
+      </c>
+      <c r="J68" s="7">
+        <v>2012</v>
+      </c>
+      <c r="K68" s="7">
+        <v>2013</v>
+      </c>
+      <c r="L68" s="7">
         <v>2014</v>
       </c>
-      <c r="H68" s="7">
+      <c r="M68" s="7">
         <v>2015</v>
       </c>
-      <c r="I68" s="7">
-        <v>2016</v>
-      </c>
-      <c r="J68" s="7">
-        <v>2017</v>
-      </c>
-      <c r="K68" s="7">
-        <v>2018</v>
-      </c>
-      <c r="L68" s="7">
-        <v>2019</v>
-      </c>
-      <c r="M68" s="7">
-        <v>2020</v>
-      </c>
       <c r="N68" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O68" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P68" s="4" t="inlineStr">
@@ -33333,12 +33309,12 @@
       </c>
       <c r="R68" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S68" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T68" s="4" t="inlineStr">
@@ -33755,12 +33731,12 @@
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I02</t>
+          <t>Z15_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>15.3.b</t>
+          <t>15.3.a</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
@@ -33804,22 +33780,22 @@
       </c>
       <c r="O69" s="4" t="inlineStr">
         <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="P69" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="P69" s="4" t="inlineStr">
+      <c r="Q69" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="Q69" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
       <c r="R69" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S69" s="4" t="inlineStr">
@@ -34241,12 +34217,12 @@
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z15_B02_P02_Ib01_I02</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>16.1</t>
+          <t>15.3.b</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
@@ -34256,44 +34232,41 @@
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>R</t>
         </is>
       </c>
       <c r="E70" s="5">
         <v>2030</v>
       </c>
-      <c r="F70" s="6">
-        <v>6500</v>
-      </c>
       <c r="G70" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H70" s="7">
         <v>2015</v>
       </c>
-      <c r="H70" s="7">
+      <c r="I70" s="7">
         <v>2016</v>
       </c>
-      <c r="I70" s="7">
+      <c r="J70" s="7">
         <v>2017</v>
       </c>
-      <c r="J70" s="7">
+      <c r="K70" s="7">
         <v>2018</v>
       </c>
-      <c r="K70" s="7">
+      <c r="L70" s="7">
         <v>2019</v>
       </c>
-      <c r="L70" s="7">
+      <c r="M70" s="7">
         <v>2020</v>
       </c>
-      <c r="M70" s="7">
-        <v>2021</v>
-      </c>
       <c r="N70" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="O70" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P70" s="4" t="inlineStr">
@@ -34318,55 +34291,52 @@
       </c>
       <c r="T70" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="U70" s="8" t="inlineStr">
         <is>
-          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 7 000 bis 2030</t>
+          <t/>
         </is>
       </c>
       <c r="V70" s="8" t="inlineStr">
         <is>
-          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 7,000 by 2030</t>
-        </is>
-      </c>
-      <c r="W70" s="5">
-        <v>2021</v>
+          <t/>
+        </is>
       </c>
       <c r="X70" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="Y70" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="Z70" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AA70" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AB70" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AC70" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AD70" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AE70" s="8" t="inlineStr">
@@ -34733,12 +34703,12 @@
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01</t>
+          <t>Z16_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
@@ -34748,111 +34718,117 @@
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>J</t>
-        </is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="E71" s="5">
+        <v>2030</v>
       </c>
       <c r="F71" s="6">
-        <v>15</v>
+        <v>6500</v>
       </c>
       <c r="G71" s="7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H71" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I71" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J71" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K71" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L71" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M71" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N71" s="4" t="inlineStr">
         <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="O71" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="P71" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="O71" s="4" t="inlineStr">
+      <c r="Q71" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="P71" s="4" t="inlineStr">
+      <c r="R71" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="Q71" s="4" t="inlineStr">
+      <c r="S71" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="R71" s="4" t="inlineStr">
+      <c r="T71" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="S71" s="4" t="inlineStr">
+      <c r="U71" s="8" t="inlineStr">
+        <is>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 7 000 bis 2030</t>
+        </is>
+      </c>
+      <c r="V71" s="8" t="inlineStr">
+        <is>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 7,000 by 2030</t>
+        </is>
+      </c>
+      <c r="W71" s="5">
+        <v>2021</v>
+      </c>
+      <c r="X71" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="Y71" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="Z71" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="T71" s="4" t="inlineStr">
+      <c r="AA71" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="U71" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V71" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X71" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y71" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z71" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA71" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AB71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AC71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AD71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AE71" s="8" t="inlineStr">
@@ -35219,12 +35195,12 @@
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>16.3.a</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
@@ -35234,60 +35210,66 @@
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E72" s="5">
-        <v>2030</v>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="F72" s="6">
+        <v>15</v>
+      </c>
+      <c r="G72" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H72" s="7">
+        <v>2015</v>
       </c>
       <c r="I72" s="7">
+        <v>2016</v>
+      </c>
+      <c r="J72" s="7">
         <v>2017</v>
       </c>
-      <c r="J72" s="7">
+      <c r="K72" s="7">
         <v>2018</v>
       </c>
-      <c r="K72" s="7">
+      <c r="L72" s="7">
         <v>2019</v>
       </c>
-      <c r="L72" s="7">
+      <c r="M72" s="7">
         <v>2020</v>
       </c>
-      <c r="M72" s="7">
-        <v>2021</v>
-      </c>
       <c r="N72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P72" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q72" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R72" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S72" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="T72" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U72" s="8" t="inlineStr">
@@ -35699,12 +35681,12 @@
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02</t>
+          <t>Z16_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>16.3.b</t>
+          <t>16.3.a</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
@@ -35720,6 +35702,9 @@
       <c r="E73" s="5">
         <v>2030</v>
       </c>
+      <c r="I73" s="7">
+        <v>2017</v>
+      </c>
       <c r="J73" s="7">
         <v>2018</v>
       </c>
@@ -35744,7 +35729,7 @@
       </c>
       <c r="P73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="Q73" s="4" t="inlineStr">
@@ -35754,17 +35739,17 @@
       </c>
       <c r="R73" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S73" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="T73" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="U73" s="8" t="inlineStr">
@@ -36176,12 +36161,12 @@
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>16.3.b</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
@@ -36191,14 +36176,23 @@
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>R</t>
         </is>
       </c>
       <c r="E74" s="5">
         <v>2030</v>
       </c>
-      <c r="F74" s="6">
-        <v>0.7</v>
+      <c r="J74" s="7">
+        <v>2018</v>
+      </c>
+      <c r="K74" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L74" s="7">
+        <v>2020</v>
+      </c>
+      <c r="M74" s="7">
+        <v>2021</v>
       </c>
       <c r="N74" s="4" t="inlineStr">
         <is>
@@ -36217,22 +36211,22 @@
       </c>
       <c r="Q74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="R74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="T74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U74" s="8" t="inlineStr">
@@ -36644,12 +36638,12 @@
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>17.2</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
@@ -36662,26 +36656,11 @@
           <t>K</t>
         </is>
       </c>
-      <c r="G75" s="7">
-        <v>2014</v>
-      </c>
-      <c r="H75" s="7">
-        <v>2015</v>
-      </c>
-      <c r="I75" s="7">
-        <v>2016</v>
-      </c>
-      <c r="J75" s="7">
-        <v>2017</v>
-      </c>
-      <c r="K75" s="7">
-        <v>2018</v>
-      </c>
-      <c r="L75" s="7">
-        <v>2019</v>
-      </c>
-      <c r="M75" s="7">
-        <v>2020</v>
+      <c r="E75" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F75" s="6">
+        <v>0.7</v>
       </c>
       <c r="N75" s="4" t="inlineStr">
         <is>
@@ -36765,104 +36744,92 @@
       </c>
       <c r="AE75" s="8" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
+          <t/>
         </is>
       </c>
       <c r="AF75" s="8" t="inlineStr">
         <is>
-          <t>Increase the number by 10% from 2015 to 2020</t>
-        </is>
-      </c>
-      <c r="AG75" s="5">
-        <v>2020</v>
-      </c>
-      <c r="AH75" s="6">
-        <v>236.78</v>
+          <t/>
+        </is>
       </c>
       <c r="AI75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AJ75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AK75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AL75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AM75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AN75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AO75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AP75" s="8" t="inlineStr">
         <is>
-          <t>Verstetigung</t>
+          <t/>
         </is>
       </c>
       <c r="AQ75" s="8" t="inlineStr">
         <is>
-          <t>Stabilisation</t>
-        </is>
-      </c>
-      <c r="AR75" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AS75" s="6">
-        <v>272.1763</v>
+          <t/>
+        </is>
       </c>
       <c r="AT75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AU75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AV75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AW75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AX75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AY75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AZ75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BA75" s="8" t="inlineStr">
@@ -37139,12 +37106,12 @@
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>Z17_B03_P01_Ib01_I01</t>
+          <t>Z17_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>17.2</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
@@ -37157,201 +37124,207 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E76" s="5">
+      <c r="G76" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H76" s="7">
+        <v>2015</v>
+      </c>
+      <c r="I76" s="7">
+        <v>2016</v>
+      </c>
+      <c r="J76" s="7">
+        <v>2017</v>
+      </c>
+      <c r="K76" s="7">
+        <v>2018</v>
+      </c>
+      <c r="L76" s="7">
+        <v>2019</v>
+      </c>
+      <c r="M76" s="7">
+        <v>2020</v>
+      </c>
+      <c r="N76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U76" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V76" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE76" s="8" t="inlineStr">
+        <is>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
+        </is>
+      </c>
+      <c r="AF76" s="8" t="inlineStr">
+        <is>
+          <t>Increase the number by 10% from 2015 to 2020</t>
+        </is>
+      </c>
+      <c r="AG76" s="5">
+        <v>2020</v>
+      </c>
+      <c r="AH76" s="6">
+        <v>236.78</v>
+      </c>
+      <c r="AI76" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AJ76" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AK76" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AL76" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AM76" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AN76" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AO76" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AP76" s="8" t="inlineStr">
+        <is>
+          <t>Verstetigung</t>
+        </is>
+      </c>
+      <c r="AQ76" s="8" t="inlineStr">
+        <is>
+          <t>Stabilisation</t>
+        </is>
+      </c>
+      <c r="AR76" s="5">
         <v>2030</v>
       </c>
-      <c r="F76" s="6">
-        <v>1.42827</v>
-      </c>
-      <c r="G76" s="7">
-        <v>2015</v>
-      </c>
-      <c r="H76" s="7">
-        <v>2016</v>
-      </c>
-      <c r="I76" s="7">
-        <v>2017</v>
-      </c>
-      <c r="J76" s="7">
-        <v>2018</v>
-      </c>
-      <c r="K76" s="7">
-        <v>2019</v>
-      </c>
-      <c r="L76" s="7">
-        <v>2020</v>
-      </c>
-      <c r="M76" s="7">
-        <v>2021</v>
-      </c>
-      <c r="N76" s="4" t="inlineStr">
+      <c r="AS76" s="6">
+        <v>272.1763</v>
+      </c>
+      <c r="AT76" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="O76" s="4" t="inlineStr">
+      <c r="AU76" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="P76" s="4" t="inlineStr">
+      <c r="AV76" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="Q76" s="4" t="inlineStr">
+      <c r="AW76" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="R76" s="4" t="inlineStr">
+      <c r="AX76" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="S76" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="T76" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="U76" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V76" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE76" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF76" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP76" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ76" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AT76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AU76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AV76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AW76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AX76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AY76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AZ76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="BA76" s="8" t="inlineStr">
@@ -37628,12 +37601,12 @@
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I00</t>
+          <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>17.3</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
@@ -37643,42 +37616,69 @@
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="E77" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F77" s="6">
+        <v>1.42827</v>
+      </c>
+      <c r="G77" s="7">
+        <v>2015</v>
+      </c>
+      <c r="H77" s="7">
+        <v>2016</v>
+      </c>
+      <c r="I77" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J77" s="7">
+        <v>2018</v>
+      </c>
+      <c r="K77" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L77" s="7">
+        <v>2020</v>
+      </c>
+      <c r="M77" s="7">
+        <v>2021</v>
       </c>
       <c r="N77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U77" s="8" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -15421,7 +15421,7 @@
       </c>
       <c r="AO31" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AP31" s="8" t="inlineStr">
@@ -24558,7 +24558,7 @@
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_FINENTRANS</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
@@ -25047,7 +25047,7 @@
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_ENINPASSTRA</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -28875,7 +28875,7 @@
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_LOCATIONS</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
@@ -32274,7 +32274,7 @@
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_COMMEXPL</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
@@ -37239,7 +37239,7 @@
         <v>2020</v>
       </c>
       <c r="AH76" s="6">
-        <v>236.78</v>
+        <v>236780</v>
       </c>
       <c r="AI76" s="4" t="inlineStr">
         <is>
@@ -37290,7 +37290,7 @@
         <v>2030</v>
       </c>
       <c r="AS76" s="6">
-        <v>272.1763</v>
+        <v>272176</v>
       </c>
       <c r="AT76" s="4" t="inlineStr">
         <is>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -1316,6 +1316,9 @@
           <t>J</t>
         </is>
       </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
       <c r="H2" s="7">
         <v>2015</v>
       </c>
@@ -1796,6 +1799,9 @@
           <t>J</t>
         </is>
       </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
       <c r="H3" s="7">
         <v>2015</v>
       </c>
@@ -2769,7 +2775,7 @@
         <v>2030</v>
       </c>
       <c r="F5" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G5" s="7">
         <v>2014</v>
@@ -2837,39 +2843,42 @@
           <t/>
         </is>
       </c>
+      <c r="W5" s="5">
+        <v>2023</v>
+      </c>
       <c r="X5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Y5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Z5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AA5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AB5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AC5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AD5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AE5" s="8" t="inlineStr">
@@ -7563,7 +7572,7 @@
         <v>2030</v>
       </c>
       <c r="F15" s="6">
-        <v>272.5</v>
+        <v>272.5375</v>
       </c>
       <c r="L15" s="7">
         <v>2020</v>
@@ -10493,11 +10502,14 @@
       <c r="F21" s="6">
         <v>30</v>
       </c>
+      <c r="K21" s="7">
+        <v>2020</v>
+      </c>
       <c r="L21" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M21" s="7">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="N21" s="4" t="inlineStr">
         <is>
@@ -10521,7 +10533,7 @@
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S21" s="4" t="inlineStr">
@@ -11460,29 +11472,29 @@
         <v>65</v>
       </c>
       <c r="G23" s="7">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H23" s="7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="I23" s="7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="J23" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="K23" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="L23" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="M23" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="N23" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O23" s="4" t="inlineStr">
@@ -11512,7 +11524,7 @@
       </c>
       <c r="T23" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="U23" s="8" t="inlineStr">
@@ -11949,7 +11961,7 @@
         <v>2030</v>
       </c>
       <c r="F24" s="6">
-        <v>473.1</v>
+        <v>473.12133</v>
       </c>
       <c r="N24" s="4" t="inlineStr">
         <is>
@@ -13385,6 +13397,9 @@
           <t/>
         </is>
       </c>
+      <c r="F27" s="6">
+        <v>6</v>
+      </c>
       <c r="N27" s="4" t="inlineStr">
         <is>
           <t/>
@@ -13429,6 +13444,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="W27" s="5">
+        <v>2021</v>
       </c>
       <c r="X27" s="4" t="inlineStr">
         <is>
@@ -13848,7 +13866,7 @@
         </is>
       </c>
       <c r="F28" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N28" s="4" t="inlineStr">
         <is>
@@ -14315,42 +14333,66 @@
           <t>J</t>
         </is>
       </c>
+      <c r="E29" s="5">
+        <v>2050</v>
+      </c>
       <c r="F29" s="6">
-        <v>4</v>
+        <v>239.3763</v>
+      </c>
+      <c r="G29" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H29" s="7">
+        <v>2015</v>
+      </c>
+      <c r="I29" s="7">
+        <v>2016</v>
+      </c>
+      <c r="J29" s="7">
+        <v>2017</v>
+      </c>
+      <c r="K29" s="7">
+        <v>2018</v>
+      </c>
+      <c r="L29" s="7">
+        <v>2019</v>
+      </c>
+      <c r="M29" s="7">
+        <v>2020</v>
       </c>
       <c r="N29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U29" s="8" t="inlineStr">
@@ -14362,9 +14404,6 @@
         <is>
           <t/>
         </is>
-      </c>
-      <c r="W29" s="5">
-        <v>2021</v>
       </c>
       <c r="X29" s="4" t="inlineStr">
         <is>
@@ -14783,246 +14822,258 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E30" s="5">
+      <c r="G30" s="7">
+        <v>2015</v>
+      </c>
+      <c r="H30" s="7">
+        <v>2016</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J30" s="7">
+        <v>2018</v>
+      </c>
+      <c r="K30" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L30" s="7">
+        <v>2020</v>
+      </c>
+      <c r="M30" s="7">
+        <v>2021</v>
+      </c>
+      <c r="N30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U30" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V30" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE30" s="8" t="inlineStr">
+        <is>
+          <t>Senkung um 20 % bis 2020 gegenüber 2008</t>
+        </is>
+      </c>
+      <c r="AF30" s="8" t="inlineStr">
+        <is>
+          <t>Reduction by 20% by 2020 compared to 2008</t>
+        </is>
+      </c>
+      <c r="AG30" s="5">
+        <v>2020</v>
+      </c>
+      <c r="AH30" s="6">
+        <v>80</v>
+      </c>
+      <c r="AI30" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AJ30" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AK30" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="AL30" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AM30" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AN30" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AO30" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AP30" s="8" t="inlineStr">
+        <is>
+          <t>Senkung um 30 % bis 2030 gegenüber 2008</t>
+        </is>
+      </c>
+      <c r="AQ30" s="8" t="inlineStr">
+        <is>
+          <t>Reduction by 30% by 2030 compared to 2008</t>
+        </is>
+      </c>
+      <c r="AR30" s="5">
+        <v>2030</v>
+      </c>
+      <c r="AS30" s="6">
+        <v>70</v>
+      </c>
+      <c r="AT30" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="AU30" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AV30" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="AW30" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AX30" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AY30" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AZ30" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BA30" s="8" t="inlineStr">
+        <is>
+          <t>Senkung um 50 % bis 2050 gegenüber 2008</t>
+        </is>
+      </c>
+      <c r="BB30" s="8" t="inlineStr">
+        <is>
+          <t>Reduction 50% by 2050 compared to 2008</t>
+        </is>
+      </c>
+      <c r="BC30" s="5">
         <v>2050</v>
       </c>
-      <c r="F30" s="6">
-        <v>239.4</v>
-      </c>
-      <c r="G30" s="7">
-        <v>2014</v>
-      </c>
-      <c r="H30" s="7">
-        <v>2015</v>
-      </c>
-      <c r="I30" s="7">
-        <v>2016</v>
-      </c>
-      <c r="J30" s="7">
-        <v>2017</v>
-      </c>
-      <c r="K30" s="7">
-        <v>2018</v>
-      </c>
-      <c r="L30" s="7">
-        <v>2019</v>
-      </c>
-      <c r="M30" s="7">
-        <v>2020</v>
-      </c>
-      <c r="N30" s="4" t="inlineStr">
+      <c r="BD30" s="6">
+        <v>50</v>
+      </c>
+      <c r="BE30" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BF30" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="O30" s="4" t="inlineStr">
+      <c r="BG30" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="BH30" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="P30" s="4" t="inlineStr">
+      <c r="BI30" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="Q30" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="R30" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="S30" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="T30" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="U30" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V30" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE30" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF30" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP30" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ30" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AT30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AU30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AV30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AW30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AX30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AY30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AZ30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BA30" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BB30" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BE30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BG30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BH30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="BJ30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="BK30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="BL30" s="8" t="inlineStr">
@@ -15124,6 +15175,15 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CK30" s="5">
+        <v>2021</v>
+      </c>
+      <c r="CL30" s="5">
+        <v>0</v>
+      </c>
+      <c r="CM30" s="6">
+        <v>0</v>
       </c>
       <c r="CN30" s="4" t="inlineStr">
         <is>
@@ -15375,200 +15435,206 @@
       </c>
       <c r="AE31" s="8" t="inlineStr">
         <is>
-          <t>Senkung um 20 % bis 2020 gegenüber 2008</t>
+          <t>Anstieg auf 18 % bis 2020</t>
         </is>
       </c>
       <c r="AF31" s="8" t="inlineStr">
         <is>
-          <t>Reduction by 20% by 2020 compared to 2008</t>
+          <t>Increase to 18% by 2020</t>
         </is>
       </c>
       <c r="AG31" s="5">
         <v>2020</v>
       </c>
       <c r="AH31" s="6">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="AI31" s="4" t="inlineStr">
         <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AJ31" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="AJ31" s="4" t="inlineStr">
+      <c r="AK31" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="AK31" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
-        </is>
-      </c>
       <c r="AL31" s="4" t="inlineStr">
         <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AM31" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AN31" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AO31" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="AM31" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="AN31" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="AO31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AP31" s="8" t="inlineStr">
         <is>
-          <t>Senkung um 30 % bis 2030 gegenüber 2008</t>
+          <t>Anstieg auf 30 % bis 2030</t>
         </is>
       </c>
       <c r="AQ31" s="8" t="inlineStr">
         <is>
-          <t>Reduction by 30% by 2030 compared to 2008</t>
+          <t>Increase to 30% by 2030</t>
         </is>
       </c>
       <c r="AR31" s="5">
         <v>2030</v>
       </c>
       <c r="AS31" s="6">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AT31" s="4" t="inlineStr">
         <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AU31" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AV31" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AW31" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AX31" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AY31" s="4" t="inlineStr">
+        <is>
           <t>Leicht bewölkt</t>
         </is>
       </c>
-      <c r="AU31" s="4" t="inlineStr">
+      <c r="AZ31" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="AV31" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
-        </is>
-      </c>
-      <c r="AW31" s="4" t="inlineStr">
+      <c r="BA31" s="8" t="inlineStr">
+        <is>
+          <t>Anstieg auf 45 % bis 2040</t>
+        </is>
+      </c>
+      <c r="BB31" s="8" t="inlineStr">
+        <is>
+          <t>Increase to 45% by 2040</t>
+        </is>
+      </c>
+      <c r="BC31" s="5">
+        <v>2040</v>
+      </c>
+      <c r="BD31" s="6">
+        <v>45</v>
+      </c>
+      <c r="BE31" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="AX31" s="4" t="inlineStr">
+      <c r="BF31" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="AY31" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="AZ31" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="BA31" s="8" t="inlineStr">
-        <is>
-          <t>Senkung um 50 % bis 2050 gegenüber 2008</t>
-        </is>
-      </c>
-      <c r="BB31" s="8" t="inlineStr">
-        <is>
-          <t>Reduction 50% by 2050 compared to 2008</t>
-        </is>
-      </c>
-      <c r="BC31" s="5">
+      <c r="BG31" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BH31" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BI31" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BJ31" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BK31" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BL31" s="8" t="inlineStr">
+        <is>
+          <t>Anstieg auf 60 % bis 2050</t>
+        </is>
+      </c>
+      <c r="BM31" s="8" t="inlineStr">
+        <is>
+          <t>Increase to 60% by 2050</t>
+        </is>
+      </c>
+      <c r="BN31" s="5">
         <v>2050</v>
       </c>
-      <c r="BD31" s="6">
-        <v>50</v>
-      </c>
-      <c r="BE31" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="BF31" s="4" t="inlineStr">
+      <c r="BO31" s="6">
+        <v>60</v>
+      </c>
+      <c r="BP31" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="BG31" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
-        </is>
-      </c>
-      <c r="BH31" s="4" t="inlineStr">
+      <c r="BQ31" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="BI31" s="4" t="inlineStr">
+      <c r="BR31" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="BJ31" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="BK31" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="BL31" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BM31" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BP31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BR31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="BS31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BT31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BU31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BV31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BW31" s="8" t="inlineStr">
@@ -15626,93 +15692,93 @@
           <t/>
         </is>
       </c>
-      <c r="CK31" s="5">
+      <c r="CN31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CO31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CQ31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CR31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CS31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CT31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CU31" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CV31" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CW31" s="5">
         <v>2021</v>
       </c>
-      <c r="CL31" s="5">
-        <v>0</v>
-      </c>
-      <c r="CM31" s="6">
-        <v>0</v>
-      </c>
-      <c r="CN31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CO31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CP31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CQ31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CR31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CS31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CT31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CU31" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CV31" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="CX31" s="5">
+        <v>2050</v>
+      </c>
+      <c r="CY31" s="6">
+        <v>60</v>
       </c>
       <c r="CZ31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DA31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DB31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DC31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DD31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DE31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DF31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DG31" s="8" t="inlineStr">
@@ -15885,19 +15951,19 @@
       </c>
       <c r="AE32" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 18 % bis 2020</t>
+          <t>Anstieg auf mindestens 35 % bis 2020</t>
         </is>
       </c>
       <c r="AF32" s="8" t="inlineStr">
         <is>
-          <t>Increase to 18% by 2020</t>
+          <t>Increase to at least 35% by 2020</t>
         </is>
       </c>
       <c r="AG32" s="5">
         <v>2020</v>
       </c>
       <c r="AH32" s="6">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="AI32" s="4" t="inlineStr">
         <is>
@@ -15906,275 +15972,278 @@
       </c>
       <c r="AJ32" s="4" t="inlineStr">
         <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AK32" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AL32" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AM32" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AN32" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AO32" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="AK32" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="AL32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="AM32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="AN32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="AO32" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
       <c r="AP32" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 30 % bis 2030</t>
+          <t>Anstieg auf 65 % bis 2030</t>
         </is>
       </c>
       <c r="AQ32" s="8" t="inlineStr">
         <is>
-          <t>Increase to 30% by 2030</t>
+          <t>Increase to 65% by 2030</t>
         </is>
       </c>
       <c r="AR32" s="5">
         <v>2030</v>
       </c>
       <c r="AS32" s="6">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AT32" s="4" t="inlineStr">
         <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AU32" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="AV32" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AW32" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AX32" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AY32" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AZ32" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="AU32" s="4" t="inlineStr">
+      <c r="BA32" s="8" t="inlineStr">
+        <is>
+          <t>Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
+        </is>
+      </c>
+      <c r="BB32" s="8" t="inlineStr">
+        <is>
+          <t>Greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
+        </is>
+      </c>
+      <c r="BC32" s="5">
+        <v>2050</v>
+      </c>
+      <c r="BD32" s="6">
+        <v>100</v>
+      </c>
+      <c r="BE32" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BF32" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BG32" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BH32" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BI32" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BJ32" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BK32" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="BL32" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM32" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BQ32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BS32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BT32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BV32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BW32" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BX32" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CB32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CC32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CD32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CG32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CH32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CI32" s="8" t="inlineStr">
+        <is>
+          <t>Anstieg auf 50 % bis 2030</t>
+        </is>
+      </c>
+      <c r="CJ32" s="8" t="inlineStr">
+        <is>
+          <t>Increase to 50% by 2030</t>
+        </is>
+      </c>
+      <c r="CK32" s="5">
+        <v>2023</v>
+      </c>
+      <c r="CL32" s="5">
+        <v>2030</v>
+      </c>
+      <c r="CM32" s="6">
+        <v>65</v>
+      </c>
+      <c r="CN32" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="CO32" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="CP32" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="CQ32" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="CR32" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="CS32" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="CT32" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
-        </is>
-      </c>
-      <c r="AV32" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="AW32" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="AX32" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="AY32" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
-        </is>
-      </c>
-      <c r="AZ32" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BA32" s="8" t="inlineStr">
-        <is>
-          <t>Anstieg auf 45 % bis 2040</t>
-        </is>
-      </c>
-      <c r="BB32" s="8" t="inlineStr">
-        <is>
-          <t>Increase to 45% by 2040</t>
-        </is>
-      </c>
-      <c r="BC32" s="5">
-        <v>2040</v>
-      </c>
-      <c r="BD32" s="6">
-        <v>45</v>
-      </c>
-      <c r="BE32" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BF32" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BG32" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BH32" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BI32" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BJ32" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BK32" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BL32" s="8" t="inlineStr">
-        <is>
-          <t>Anstieg auf 60 % bis 2050</t>
-        </is>
-      </c>
-      <c r="BM32" s="8" t="inlineStr">
-        <is>
-          <t>Increase to 60% by 2050</t>
-        </is>
-      </c>
-      <c r="BN32" s="5">
-        <v>2050</v>
-      </c>
-      <c r="BO32" s="6">
-        <v>60</v>
-      </c>
-      <c r="BP32" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BQ32" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BR32" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BS32" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BT32" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BU32" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BV32" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BW32" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BX32" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CB32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CC32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CD32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CE32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CF32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CG32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CH32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CI32" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CJ32" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CN32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CO32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CP32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CQ32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CR32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CS32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CT32" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="CU32" s="8" t="inlineStr">
@@ -16194,41 +16263,41 @@
         <v>2050</v>
       </c>
       <c r="CY32" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="CZ32" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DA32" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DB32" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DC32" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DD32" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DE32" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DF32" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DG32" s="8" t="inlineStr">
@@ -16298,60 +16367,66 @@
           <t>K</t>
         </is>
       </c>
+      <c r="E33" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F33" s="6">
+        <v>160.2</v>
+      </c>
       <c r="G33" s="7">
+        <v>2012</v>
+      </c>
+      <c r="H33" s="7">
+        <v>2013</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2014</v>
+      </c>
+      <c r="J33" s="7">
         <v>2015</v>
       </c>
-      <c r="H33" s="7">
+      <c r="K33" s="7">
         <v>2016</v>
       </c>
-      <c r="I33" s="7">
+      <c r="L33" s="7">
         <v>2017</v>
       </c>
-      <c r="J33" s="7">
+      <c r="M33" s="7">
         <v>2018</v>
       </c>
-      <c r="K33" s="7">
-        <v>2019</v>
-      </c>
-      <c r="L33" s="7">
-        <v>2020</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2021</v>
-      </c>
       <c r="N33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="Q33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U33" s="8" t="inlineStr">
@@ -16401,155 +16476,137 @@
       </c>
       <c r="AE33" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens 35 % bis 2020</t>
+          <t/>
         </is>
       </c>
       <c r="AF33" s="8" t="inlineStr">
         <is>
-          <t>Increase to at least 35% by 2020</t>
-        </is>
-      </c>
-      <c r="AG33" s="5">
-        <v>2020</v>
-      </c>
-      <c r="AH33" s="6">
-        <v>35</v>
+          <t/>
+        </is>
       </c>
       <c r="AI33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AJ33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AK33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AL33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AM33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AN33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AO33" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AP33" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 65 % bis 2030</t>
+          <t/>
         </is>
       </c>
       <c r="AQ33" s="8" t="inlineStr">
         <is>
-          <t>Increase to 65% by 2030</t>
-        </is>
-      </c>
-      <c r="AR33" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AS33" s="6">
-        <v>65</v>
+          <t/>
+        </is>
       </c>
       <c r="AT33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AU33" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="AV33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AW33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AX33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AY33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AZ33" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BA33" s="8" t="inlineStr">
         <is>
-          <t>Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
+          <t/>
         </is>
       </c>
       <c r="BB33" s="8" t="inlineStr">
         <is>
-          <t>Greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
-        </is>
-      </c>
-      <c r="BC33" s="5">
-        <v>2050</v>
-      </c>
-      <c r="BD33" s="6">
-        <v>100</v>
+          <t/>
+        </is>
       </c>
       <c r="BE33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BF33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BG33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BH33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BI33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BJ33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BK33" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="BL33" s="8" t="inlineStr">
@@ -16644,56 +16701,47 @@
       </c>
       <c r="CI33" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 50 % bis 2030</t>
+          <t/>
         </is>
       </c>
       <c r="CJ33" s="8" t="inlineStr">
         <is>
-          <t>Increase to 50% by 2030</t>
-        </is>
-      </c>
-      <c r="CK33" s="5">
-        <v>2021</v>
-      </c>
-      <c r="CL33" s="5">
-        <v>2030</v>
-      </c>
-      <c r="CM33" s="6">
-        <v>50</v>
+          <t/>
+        </is>
       </c>
       <c r="CN33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="CO33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="CP33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="CQ33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="CR33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="CS33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="CT33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="CU33" s="8" t="inlineStr">
@@ -16706,48 +16754,39 @@
           <t/>
         </is>
       </c>
-      <c r="CW33" s="5">
-        <v>2021</v>
-      </c>
-      <c r="CX33" s="5">
-        <v>2050</v>
-      </c>
-      <c r="CY33" s="6">
-        <v>80</v>
-      </c>
       <c r="CZ33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="DA33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="DB33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="DC33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="DD33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="DE33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="DF33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="DG33" s="8" t="inlineStr">
@@ -16817,66 +16856,63 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E34" s="5">
-        <v>2030</v>
-      </c>
       <c r="F34" s="6">
-        <v>160.2</v>
+        <v>-3</v>
       </c>
       <c r="G34" s="7">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="H34" s="7">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="I34" s="7">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="J34" s="7">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="K34" s="7">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="L34" s="7">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="M34" s="7">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="N34" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O34" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P34" s="4" t="inlineStr">
         <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="Q34" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="R34" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="S34" s="4" t="inlineStr">
+        <is>
           <t>Blitz</t>
         </is>
       </c>
-      <c r="Q34" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="R34" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="S34" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
       <c r="T34" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="U34" s="8" t="inlineStr">
@@ -17307,7 +17343,7 @@
         </is>
       </c>
       <c r="F35" s="6">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="G35" s="7">
         <v>2015</v>
@@ -17352,7 +17388,7 @@
       </c>
       <c r="R35" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S35" s="4" t="inlineStr">
@@ -17793,7 +17829,7 @@
         </is>
       </c>
       <c r="F36" s="6">
-        <v>-0.5</v>
+        <v>60</v>
       </c>
       <c r="G36" s="7">
         <v>2015</v>
@@ -17818,32 +17854,32 @@
       </c>
       <c r="N36" s="4" t="inlineStr">
         <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="O36" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="P36" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="Q36" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="R36" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="O36" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="P36" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="Q36" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="R36" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
-        </is>
-      </c>
       <c r="S36" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T36" s="4" t="inlineStr">
@@ -18278,9 +18314,6 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F37" s="6">
-        <v>60</v>
-      </c>
       <c r="G37" s="7">
         <v>2015</v>
       </c>
@@ -18304,22 +18337,22 @@
       </c>
       <c r="N37" s="4" t="inlineStr">
         <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="O37" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="O37" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
       <c r="P37" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q37" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R37" s="4" t="inlineStr">
@@ -18329,12 +18362,12 @@
       </c>
       <c r="S37" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="T37" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U37" s="8" t="inlineStr">
@@ -18787,32 +18820,32 @@
       </c>
       <c r="N38" s="4" t="inlineStr">
         <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="O38" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="P38" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="Q38" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="R38" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="S38" s="4" t="inlineStr">
+        <is>
           <t>Leicht bewölkt</t>
-        </is>
-      </c>
-      <c r="O38" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="P38" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="Q38" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="R38" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="S38" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
         </is>
       </c>
       <c r="T38" s="4" t="inlineStr">
@@ -19247,6 +19280,12 @@
           <t>R</t>
         </is>
       </c>
+      <c r="E39" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F39" s="6">
+        <v>78</v>
+      </c>
       <c r="G39" s="7">
         <v>2015</v>
       </c>
@@ -19295,7 +19334,7 @@
       </c>
       <c r="S39" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="T39" s="4" t="inlineStr">
@@ -19734,7 +19773,7 @@
         <v>2030</v>
       </c>
       <c r="F40" s="6">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G40" s="7">
         <v>2015</v>
@@ -20222,21 +20261,6 @@
       <c r="E41" s="5">
         <v>2030</v>
       </c>
-      <c r="F41" s="6">
-        <v>60</v>
-      </c>
-      <c r="G41" s="7">
-        <v>2015</v>
-      </c>
-      <c r="H41" s="7">
-        <v>2016</v>
-      </c>
-      <c r="I41" s="7">
-        <v>2017</v>
-      </c>
-      <c r="J41" s="7">
-        <v>2018</v>
-      </c>
       <c r="K41" s="7">
         <v>2019</v>
       </c>
@@ -20248,37 +20272,37 @@
       </c>
       <c r="N41" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="O41" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="P41" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="Q41" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="R41" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S41" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T41" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="U41" s="8" t="inlineStr">
@@ -20708,41 +20732,53 @@
           <t>J</t>
         </is>
       </c>
-      <c r="E42" s="5">
-        <v>2030</v>
+      <c r="F42" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="G42" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H42" s="7">
+        <v>2015</v>
+      </c>
+      <c r="I42" s="7">
+        <v>2016</v>
+      </c>
+      <c r="J42" s="7">
+        <v>2017</v>
       </c>
       <c r="K42" s="7">
+        <v>2018</v>
+      </c>
+      <c r="L42" s="7">
         <v>2019</v>
       </c>
-      <c r="L42" s="7">
+      <c r="M42" s="7">
         <v>2020</v>
       </c>
-      <c r="M42" s="7">
-        <v>2021</v>
-      </c>
       <c r="N42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R42" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S42" s="4" t="inlineStr">
@@ -20752,7 +20788,7 @@
       </c>
       <c r="T42" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U42" s="8" t="inlineStr">
@@ -21182,63 +21218,45 @@
           <t>K</t>
         </is>
       </c>
+      <c r="E43" s="5">
+        <v>2025</v>
+      </c>
       <c r="F43" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="G43" s="7">
-        <v>2014</v>
-      </c>
-      <c r="H43" s="7">
-        <v>2015</v>
-      </c>
-      <c r="I43" s="7">
-        <v>2016</v>
-      </c>
-      <c r="J43" s="7">
-        <v>2017</v>
-      </c>
-      <c r="K43" s="7">
-        <v>2018</v>
-      </c>
-      <c r="L43" s="7">
-        <v>2019</v>
-      </c>
-      <c r="M43" s="7">
-        <v>2020</v>
+        <v>100</v>
       </c>
       <c r="N43" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="O43" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="P43" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="Q43" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="R43" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="S43" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="T43" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="U43" s="8" t="inlineStr">
@@ -21669,44 +21687,65 @@
         </is>
       </c>
       <c r="E44" s="5">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="F44" s="6">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="G44" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H44" s="7">
+        <v>2015</v>
+      </c>
+      <c r="I44" s="7">
+        <v>2016</v>
+      </c>
+      <c r="J44" s="7">
+        <v>2017</v>
+      </c>
+      <c r="K44" s="7">
+        <v>2018</v>
+      </c>
+      <c r="L44" s="7">
+        <v>2019</v>
+      </c>
+      <c r="M44" s="7">
+        <v>2020</v>
       </c>
       <c r="N44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="Q44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="R44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="S44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="T44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="U44" s="8" t="inlineStr">
@@ -22136,9 +22175,6 @@
           <t>R</t>
         </is>
       </c>
-      <c r="E45" s="5">
-        <v>2030</v>
-      </c>
       <c r="F45" s="6">
         <v>0</v>
       </c>
@@ -22165,32 +22201,32 @@
       </c>
       <c r="N45" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="O45" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="P45" s="4" t="inlineStr">
         <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="Q45" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="R45" s="4" t="inlineStr">
+        <is>
           <t>Blitz</t>
         </is>
       </c>
-      <c r="Q45" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
-        </is>
-      </c>
-      <c r="R45" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
-        </is>
-      </c>
       <c r="S45" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="T45" s="4" t="inlineStr">
@@ -22625,8 +22661,11 @@
           <t>J</t>
         </is>
       </c>
+      <c r="E46" s="5">
+        <v>2030</v>
+      </c>
       <c r="F46" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G46" s="7">
         <v>2014</v>
@@ -22651,27 +22690,27 @@
       </c>
       <c r="N46" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O46" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P46" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q46" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R46" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S46" s="4" t="inlineStr">
@@ -22681,7 +22720,7 @@
       </c>
       <c r="T46" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U46" s="8" t="inlineStr">
@@ -23111,12 +23150,6 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E47" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F47" s="6">
-        <v>30</v>
-      </c>
       <c r="G47" s="7">
         <v>2014</v>
       </c>
@@ -23140,37 +23173,37 @@
       </c>
       <c r="N47" s="4" t="inlineStr">
         <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="O47" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="O47" s="4" t="inlineStr">
+      <c r="P47" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="P47" s="4" t="inlineStr">
+      <c r="Q47" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="R47" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="S47" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="Q47" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="R47" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="S47" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
       <c r="T47" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="U47" s="8" t="inlineStr">
@@ -23623,19 +23656,19 @@
       </c>
       <c r="N48" s="4" t="inlineStr">
         <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="O48" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="P48" s="4" t="inlineStr">
+        <is>
           <t>Leicht bewölkt</t>
         </is>
       </c>
-      <c r="O48" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="P48" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
       <c r="Q48" s="4" t="inlineStr">
         <is>
           <t>Leicht bewölkt</t>
@@ -23648,12 +23681,12 @@
       </c>
       <c r="S48" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="T48" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="U48" s="8" t="inlineStr">
@@ -24083,6 +24116,12 @@
           <t>R</t>
         </is>
       </c>
+      <c r="E49" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F49" s="6">
+        <v>85</v>
+      </c>
       <c r="G49" s="7">
         <v>2014</v>
       </c>
@@ -24111,32 +24150,32 @@
       </c>
       <c r="O49" s="4" t="inlineStr">
         <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="P49" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="Q49" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="R49" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="S49" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="T49" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
-        </is>
-      </c>
-      <c r="P49" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
-        </is>
-      </c>
-      <c r="Q49" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
-        </is>
-      </c>
-      <c r="R49" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
-        </is>
-      </c>
-      <c r="S49" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
-        </is>
-      </c>
-      <c r="T49" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
         </is>
       </c>
       <c r="U49" s="8" t="inlineStr">
@@ -24625,7 +24664,7 @@
       </c>
       <c r="T50" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U50" s="8" t="inlineStr">
@@ -25055,66 +25094,39 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E51" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F51" s="6">
-        <v>85</v>
-      </c>
-      <c r="G51" s="7">
-        <v>2014</v>
-      </c>
-      <c r="H51" s="7">
-        <v>2015</v>
-      </c>
-      <c r="I51" s="7">
-        <v>2016</v>
-      </c>
-      <c r="J51" s="7">
-        <v>2017</v>
-      </c>
-      <c r="K51" s="7">
-        <v>2018</v>
-      </c>
-      <c r="L51" s="7">
-        <v>2019</v>
-      </c>
-      <c r="M51" s="7">
-        <v>2020</v>
-      </c>
       <c r="N51" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="O51" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="P51" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="Q51" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="R51" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="S51" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="T51" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="U51" s="8" t="inlineStr">
@@ -25544,39 +25556,66 @@
           <t>R</t>
         </is>
       </c>
+      <c r="E52" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F52" s="6">
+        <v>13</v>
+      </c>
+      <c r="G52" s="7">
+        <v>2015</v>
+      </c>
+      <c r="H52" s="7">
+        <v>2016</v>
+      </c>
+      <c r="I52" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J52" s="7">
+        <v>2018</v>
+      </c>
+      <c r="K52" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L52" s="7">
+        <v>2020</v>
+      </c>
+      <c r="M52" s="7">
+        <v>2021</v>
+      </c>
       <c r="N52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="O52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="T52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U52" s="8" t="inlineStr">
@@ -26010,42 +26049,42 @@
         <v>2030</v>
       </c>
       <c r="F53" s="6">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="G53" s="7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H53" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I53" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J53" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K53" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L53" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M53" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N53" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O53" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P53" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q53" s="4" t="inlineStr">
@@ -26499,62 +26538,50 @@
         <v>2030</v>
       </c>
       <c r="F54" s="6">
-        <v>50</v>
-      </c>
-      <c r="G54" s="7">
-        <v>2015</v>
-      </c>
-      <c r="H54" s="7">
-        <v>2016</v>
-      </c>
-      <c r="I54" s="7">
+        <v>34</v>
+      </c>
+      <c r="K54" s="7">
         <v>2017</v>
       </c>
-      <c r="J54" s="7">
+      <c r="L54" s="7">
         <v>2018</v>
       </c>
-      <c r="K54" s="7">
+      <c r="M54" s="7">
         <v>2019</v>
       </c>
-      <c r="L54" s="7">
-        <v>2020</v>
-      </c>
-      <c r="M54" s="7">
-        <v>2021</v>
-      </c>
       <c r="N54" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R54" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="O54" s="4" t="inlineStr">
+      <c r="S54" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="P54" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="Q54" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="R54" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="S54" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
       <c r="T54" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U54" s="8" t="inlineStr">
@@ -26984,21 +27011,18 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E55" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F55" s="6">
-        <v>34</v>
+      <c r="J55" s="7">
+        <v>2015</v>
       </c>
       <c r="K55" s="7">
+        <v>2016</v>
+      </c>
+      <c r="L55" s="7">
         <v>2017</v>
       </c>
-      <c r="L55" s="7">
+      <c r="M55" s="7">
         <v>2018</v>
       </c>
-      <c r="M55" s="7">
-        <v>2019</v>
-      </c>
       <c r="N55" s="4" t="inlineStr">
         <is>
           <t/>
@@ -27016,22 +27040,22 @@
       </c>
       <c r="Q55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R55" s="4" t="inlineStr">
         <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="S55" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="S55" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
       <c r="T55" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="U55" s="8" t="inlineStr">
@@ -27462,17 +27486,17 @@
         </is>
       </c>
       <c r="J56" s="7">
+        <v>2014</v>
+      </c>
+      <c r="K56" s="7">
         <v>2015</v>
       </c>
-      <c r="K56" s="7">
+      <c r="L56" s="7">
         <v>2016</v>
       </c>
-      <c r="L56" s="7">
+      <c r="M56" s="7">
         <v>2017</v>
       </c>
-      <c r="M56" s="7">
-        <v>2018</v>
-      </c>
       <c r="N56" s="4" t="inlineStr">
         <is>
           <t/>
@@ -27490,22 +27514,22 @@
       </c>
       <c r="Q56" s="4" t="inlineStr">
         <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="R56" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="S56" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="T56" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
-        </is>
-      </c>
-      <c r="R56" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
-        </is>
-      </c>
-      <c r="S56" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="T56" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
         </is>
       </c>
       <c r="U56" s="8" t="inlineStr">
@@ -28409,31 +28433,46 @@
           <t>R</t>
         </is>
       </c>
+      <c r="E58" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F58" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G58" s="7">
+        <v>2015</v>
+      </c>
+      <c r="H58" s="7">
+        <v>2016</v>
+      </c>
+      <c r="I58" s="7">
+        <v>2017</v>
+      </c>
       <c r="J58" s="7">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="K58" s="7">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="L58" s="7">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="M58" s="7">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="N58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q58" s="4" t="inlineStr">
@@ -28443,17 +28482,17 @@
       </c>
       <c r="R58" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S58" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T58" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U58" s="8" t="inlineStr">
@@ -28884,65 +28923,47 @@
         </is>
       </c>
       <c r="E59" s="5">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="F59" s="6">
-        <v>5000</v>
-      </c>
-      <c r="G59" s="7">
-        <v>2015</v>
-      </c>
-      <c r="H59" s="7">
-        <v>2016</v>
-      </c>
-      <c r="I59" s="7">
-        <v>2017</v>
-      </c>
-      <c r="J59" s="7">
-        <v>2018</v>
-      </c>
-      <c r="K59" s="7">
-        <v>2019</v>
-      </c>
-      <c r="L59" s="7">
+        <v>210.8</v>
+      </c>
+      <c r="M59" s="7">
         <v>2020</v>
       </c>
-      <c r="M59" s="7">
-        <v>2021</v>
-      </c>
       <c r="N59" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="O59" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="P59" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="Q59" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="R59" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="S59" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="T59" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U59" s="8" t="inlineStr">
@@ -29372,12 +29393,6 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E60" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F60" s="6">
-        <v>210.8</v>
-      </c>
       <c r="M60" s="7">
         <v>2020</v>
       </c>
@@ -29413,7 +29428,7 @@
       </c>
       <c r="T60" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="U60" s="8" t="inlineStr">
@@ -29843,222 +29858,258 @@
           <t>R</t>
         </is>
       </c>
+      <c r="G61" s="7">
+        <v>2015</v>
+      </c>
+      <c r="H61" s="7">
+        <v>2016</v>
+      </c>
+      <c r="I61" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J61" s="7">
+        <v>2018</v>
+      </c>
+      <c r="K61" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L61" s="7">
+        <v>2020</v>
+      </c>
       <c r="M61" s="7">
+        <v>2021</v>
+      </c>
+      <c r="N61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U61" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V61" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE61" s="8" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens 40 % bis 2020 gegenüber 1990</t>
+        </is>
+      </c>
+      <c r="AF61" s="8" t="inlineStr">
+        <is>
+          <t>Reduce by at least 40% by 2020, compared to 1990</t>
+        </is>
+      </c>
+      <c r="AG61" s="5">
         <v>2020</v>
       </c>
-      <c r="N61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T61" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
-        </is>
-      </c>
-      <c r="U61" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V61" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE61" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF61" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="AH61" s="6">
+        <v>60</v>
       </c>
       <c r="AI61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AJ61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AK61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AL61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AM61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AN61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AO61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AP61" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Minderung um mindestens 55 % bis 2030, gegenüber 1990</t>
         </is>
       </c>
       <c r="AQ61" s="8" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Reduce by at least 55% by 2030, compared to 1990</t>
+        </is>
+      </c>
+      <c r="AR61" s="5">
+        <v>2030</v>
+      </c>
+      <c r="AS61" s="6">
+        <v>45</v>
       </c>
       <c r="AT61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AU61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AV61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AW61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AX61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="AY61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AZ61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="BA61" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Erreichung von Treibhausgasneutralität bis 2050</t>
         </is>
       </c>
       <c r="BB61" s="8" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Greenhouse gas neutrality to be achieved by 2050</t>
+        </is>
+      </c>
+      <c r="BC61" s="5">
+        <v>2050</v>
+      </c>
+      <c r="BD61" s="6">
+        <v>0</v>
       </c>
       <c r="BE61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BF61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BG61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BH61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BI61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BJ61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="BK61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="BL61" s="8" t="inlineStr">
@@ -30206,39 +30257,48 @@
           <t/>
         </is>
       </c>
+      <c r="CW61" s="5">
+        <v>2021</v>
+      </c>
+      <c r="CX61" s="5">
+        <v>2040</v>
+      </c>
+      <c r="CY61" s="6">
+        <v>30</v>
+      </c>
       <c r="CZ61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DA61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DB61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DC61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DD61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="DE61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DF61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DG61" s="8" t="inlineStr">
@@ -30250,6 +30310,15 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="DI61" s="5">
+        <v>2023</v>
+      </c>
+      <c r="DJ61" s="5">
+        <v>0</v>
+      </c>
+      <c r="DK61" s="6">
+        <v>0</v>
       </c>
       <c r="DL61" s="4" t="inlineStr">
         <is>
@@ -30308,27 +30377,27 @@
           <t>K</t>
         </is>
       </c>
-      <c r="G62" s="7">
-        <v>2015</v>
-      </c>
-      <c r="H62" s="7">
+      <c r="E62" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F62" s="6">
+        <v>4</v>
+      </c>
+      <c r="I62" s="7">
         <v>2016</v>
       </c>
-      <c r="I62" s="7">
+      <c r="J62" s="7">
         <v>2017</v>
       </c>
-      <c r="J62" s="7">
+      <c r="K62" s="7">
         <v>2018</v>
       </c>
-      <c r="K62" s="7">
+      <c r="L62" s="7">
         <v>2019</v>
       </c>
-      <c r="L62" s="7">
+      <c r="M62" s="7">
         <v>2020</v>
       </c>
-      <c r="M62" s="7">
-        <v>2021</v>
-      </c>
       <c r="N62" s="4" t="inlineStr">
         <is>
           <t/>
@@ -30341,27 +30410,27 @@
       </c>
       <c r="P62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="T62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U62" s="8" t="inlineStr">
@@ -30411,155 +30480,137 @@
       </c>
       <c r="AE62" s="8" t="inlineStr">
         <is>
-          <t>Minderung um mindestens 40 % bis 2020 gegenüber 1990</t>
+          <t/>
         </is>
       </c>
       <c r="AF62" s="8" t="inlineStr">
         <is>
-          <t>Reduce by at least 40% by 2020, compared to 1990</t>
-        </is>
-      </c>
-      <c r="AG62" s="5">
-        <v>2020</v>
-      </c>
-      <c r="AH62" s="6">
-        <v>60</v>
+          <t/>
+        </is>
       </c>
       <c r="AI62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AJ62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AK62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AL62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AM62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AN62" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AO62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AP62" s="8" t="inlineStr">
         <is>
-          <t>Minderung um mindestens 55 % bis 2030, gegenüber 1990</t>
+          <t/>
         </is>
       </c>
       <c r="AQ62" s="8" t="inlineStr">
         <is>
-          <t>Reduce by at least 55% by 2030, compared to 1990</t>
-        </is>
-      </c>
-      <c r="AR62" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AS62" s="6">
-        <v>45</v>
+          <t/>
+        </is>
       </c>
       <c r="AT62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AU62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AV62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AW62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AX62" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="AY62" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AZ62" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BA62" s="8" t="inlineStr">
         <is>
-          <t>Erreichung von Treibhausgasneutralität bis 2050</t>
+          <t/>
         </is>
       </c>
       <c r="BB62" s="8" t="inlineStr">
         <is>
-          <t>Greenhouse gas neutrality to be achieved by 2050</t>
-        </is>
-      </c>
-      <c r="BC62" s="5">
-        <v>2050</v>
-      </c>
-      <c r="BD62" s="6">
-        <v>0</v>
+          <t/>
+        </is>
       </c>
       <c r="BE62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BF62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BG62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BH62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BI62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BJ62" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BK62" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BL62" s="8" t="inlineStr">
@@ -30707,48 +30758,39 @@
           <t/>
         </is>
       </c>
-      <c r="CW62" s="5">
-        <v>2021</v>
-      </c>
-      <c r="CX62" s="5">
-        <v>2040</v>
-      </c>
-      <c r="CY62" s="6">
-        <v>30</v>
-      </c>
       <c r="CZ62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DA62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DB62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DC62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DD62" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="DE62" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="DF62" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="DG62" s="8" t="inlineStr">
@@ -30761,48 +30803,39 @@
           <t/>
         </is>
       </c>
-      <c r="DI62" s="5">
-        <v>2021</v>
-      </c>
-      <c r="DJ62" s="5">
-        <v>2050</v>
-      </c>
-      <c r="DK62" s="6">
-        <v>20</v>
-      </c>
       <c r="DL62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DM62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DN62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DO62" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="DP62" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="DQ62" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="DR62" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -30827,11 +30860,14 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E63" s="5">
-        <v>2020</v>
-      </c>
       <c r="F63" s="6">
-        <v>4</v>
+        <v>2.6</v>
+      </c>
+      <c r="G63" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H63" s="7">
+        <v>2015</v>
       </c>
       <c r="I63" s="7">
         <v>2016</v>
@@ -30850,37 +30886,37 @@
       </c>
       <c r="N63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P63" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q63" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R63" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S63" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T63" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U63" s="8" t="inlineStr">
@@ -31311,7 +31347,7 @@
         </is>
       </c>
       <c r="F64" s="6">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="G64" s="7">
         <v>2014</v>
@@ -31366,7 +31402,7 @@
       </c>
       <c r="T64" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U64" s="8" t="inlineStr">
@@ -31796,8 +31832,11 @@
           <t>J</t>
         </is>
       </c>
+      <c r="E65" s="5">
+        <v>2020</v>
+      </c>
       <c r="F65" s="6">
-        <v>2.8</v>
+        <v>100</v>
       </c>
       <c r="G65" s="7">
         <v>2014</v>
@@ -31837,22 +31876,22 @@
       </c>
       <c r="Q65" s="4" t="inlineStr">
         <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="R65" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="S65" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="R65" s="4" t="inlineStr">
+      <c r="T65" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
-        </is>
-      </c>
-      <c r="S65" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="T65" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
         </is>
       </c>
       <c r="U65" s="8" t="inlineStr">
@@ -32283,40 +32322,40 @@
         </is>
       </c>
       <c r="E66" s="5">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="F66" s="6">
         <v>100</v>
       </c>
       <c r="G66" s="7">
+        <v>2010</v>
+      </c>
+      <c r="H66" s="7">
+        <v>2011</v>
+      </c>
+      <c r="I66" s="7">
+        <v>2012</v>
+      </c>
+      <c r="J66" s="7">
+        <v>2013</v>
+      </c>
+      <c r="K66" s="7">
         <v>2014</v>
       </c>
-      <c r="H66" s="7">
+      <c r="L66" s="7">
         <v>2015</v>
       </c>
-      <c r="I66" s="7">
+      <c r="M66" s="7">
         <v>2016</v>
       </c>
-      <c r="J66" s="7">
-        <v>2017</v>
-      </c>
-      <c r="K66" s="7">
-        <v>2018</v>
-      </c>
-      <c r="L66" s="7">
-        <v>2019</v>
-      </c>
-      <c r="M66" s="7">
-        <v>2020</v>
-      </c>
       <c r="N66" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="O66" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="P66" s="4" t="inlineStr">
@@ -32775,54 +32814,54 @@
         <v>2030</v>
       </c>
       <c r="F67" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G67" s="7">
+        <v>2009</v>
+      </c>
+      <c r="H67" s="7">
         <v>2010</v>
       </c>
-      <c r="H67" s="7">
+      <c r="I67" s="7">
         <v>2011</v>
       </c>
-      <c r="I67" s="7">
+      <c r="J67" s="7">
         <v>2012</v>
       </c>
-      <c r="J67" s="7">
+      <c r="K67" s="7">
         <v>2013</v>
       </c>
-      <c r="K67" s="7">
+      <c r="L67" s="7">
         <v>2014</v>
       </c>
-      <c r="L67" s="7">
+      <c r="M67" s="7">
         <v>2015</v>
       </c>
-      <c r="M67" s="7">
-        <v>2016</v>
-      </c>
       <c r="N67" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O67" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P67" s="4" t="inlineStr">
         <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="Q67" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="R67" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="Q67" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
-        </is>
-      </c>
-      <c r="R67" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
-        </is>
-      </c>
       <c r="S67" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
@@ -32830,7 +32869,7 @@
       </c>
       <c r="T67" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="U67" s="8" t="inlineStr">
@@ -33263,38 +33302,35 @@
       <c r="E68" s="5">
         <v>2030</v>
       </c>
-      <c r="F68" s="6">
-        <v>50</v>
-      </c>
       <c r="G68" s="7">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="H68" s="7">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="I68" s="7">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="J68" s="7">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="K68" s="7">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="L68" s="7">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="M68" s="7">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="N68" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="O68" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="P68" s="4" t="inlineStr">
@@ -33309,12 +33345,12 @@
       </c>
       <c r="R68" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S68" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="T68" s="4" t="inlineStr">
@@ -33780,7 +33816,7 @@
       </c>
       <c r="O69" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P69" s="4" t="inlineStr">
@@ -33795,7 +33831,7 @@
       </c>
       <c r="R69" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S69" s="4" t="inlineStr">
@@ -34238,105 +34274,111 @@
       <c r="E70" s="5">
         <v>2030</v>
       </c>
+      <c r="F70" s="6">
+        <v>6499.9</v>
+      </c>
       <c r="G70" s="7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H70" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I70" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J70" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K70" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L70" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M70" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N70" s="4" t="inlineStr">
         <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="O70" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="P70" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="Q70" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="R70" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="S70" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="T70" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="U70" s="8" t="inlineStr">
+        <is>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 7 000 bis 2030</t>
+        </is>
+      </c>
+      <c r="V70" s="8" t="inlineStr">
+        <is>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 7,000 by 2030</t>
+        </is>
+      </c>
+      <c r="W70" s="5">
+        <v>2021</v>
+      </c>
+      <c r="X70" s="4" t="inlineStr">
+        <is>
           <t>Leicht bewölkt</t>
         </is>
       </c>
-      <c r="O70" s="4" t="inlineStr">
+      <c r="Y70" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="Z70" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="P70" s="4" t="inlineStr">
+      <c r="AA70" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="Q70" s="4" t="inlineStr">
+      <c r="AB70" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="R70" s="4" t="inlineStr">
+      <c r="AC70" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="S70" s="4" t="inlineStr">
+      <c r="AD70" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
-        </is>
-      </c>
-      <c r="T70" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
-        </is>
-      </c>
-      <c r="U70" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V70" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X70" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y70" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z70" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA70" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB70" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC70" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD70" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="AE70" s="8" t="inlineStr">
@@ -34721,41 +34763,38 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E71" s="5">
-        <v>2030</v>
-      </c>
       <c r="F71" s="6">
-        <v>6500</v>
+        <v>15</v>
       </c>
       <c r="G71" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H71" s="7">
         <v>2015</v>
       </c>
-      <c r="H71" s="7">
+      <c r="I71" s="7">
         <v>2016</v>
       </c>
-      <c r="I71" s="7">
+      <c r="J71" s="7">
         <v>2017</v>
       </c>
-      <c r="J71" s="7">
+      <c r="K71" s="7">
         <v>2018</v>
       </c>
-      <c r="K71" s="7">
+      <c r="L71" s="7">
         <v>2019</v>
       </c>
-      <c r="L71" s="7">
+      <c r="M71" s="7">
         <v>2020</v>
       </c>
-      <c r="M71" s="7">
-        <v>2021</v>
-      </c>
       <c r="N71" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O71" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P71" s="4" t="inlineStr">
@@ -34785,50 +34824,47 @@
       </c>
       <c r="U71" s="8" t="inlineStr">
         <is>
-          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 7 000 bis 2030</t>
+          <t/>
         </is>
       </c>
       <c r="V71" s="8" t="inlineStr">
         <is>
-          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 7,000 by 2030</t>
-        </is>
-      </c>
-      <c r="W71" s="5">
-        <v>2021</v>
+          <t/>
+        </is>
       </c>
       <c r="X71" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="Y71" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="Z71" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AA71" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AB71" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AC71" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AD71" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AE71" s="8" t="inlineStr">
@@ -35213,63 +35249,57 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F72" s="6">
-        <v>15</v>
-      </c>
-      <c r="G72" s="7">
-        <v>2014</v>
-      </c>
-      <c r="H72" s="7">
-        <v>2015</v>
+      <c r="E72" s="5">
+        <v>2030</v>
       </c>
       <c r="I72" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J72" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K72" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L72" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M72" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N72" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="O72" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="P72" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="Q72" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="R72" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S72" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="T72" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="U72" s="8" t="inlineStr">
@@ -35702,9 +35732,6 @@
       <c r="E73" s="5">
         <v>2030</v>
       </c>
-      <c r="I73" s="7">
-        <v>2017</v>
-      </c>
       <c r="J73" s="7">
         <v>2018</v>
       </c>
@@ -35729,27 +35756,27 @@
       </c>
       <c r="P73" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q73" s="4" t="inlineStr">
+        <is>
           <t>Leicht bewölkt</t>
         </is>
       </c>
-      <c r="Q73" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
-        </is>
-      </c>
       <c r="R73" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S73" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="T73" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U73" s="8" t="inlineStr">
@@ -36182,17 +36209,8 @@
       <c r="E74" s="5">
         <v>2030</v>
       </c>
-      <c r="J74" s="7">
-        <v>2018</v>
-      </c>
-      <c r="K74" s="7">
-        <v>2019</v>
-      </c>
-      <c r="L74" s="7">
-        <v>2020</v>
-      </c>
-      <c r="M74" s="7">
-        <v>2021</v>
+      <c r="F74" s="6">
+        <v>0.7</v>
       </c>
       <c r="N74" s="4" t="inlineStr">
         <is>
@@ -36211,22 +36229,22 @@
       </c>
       <c r="Q74" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="R74" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="S74" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="T74" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="U74" s="8" t="inlineStr">
@@ -36657,44 +36675,65 @@
         </is>
       </c>
       <c r="E75" s="5">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="F75" s="6">
-        <v>0.7</v>
+        <v>236.78</v>
+      </c>
+      <c r="G75" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H75" s="7">
+        <v>2015</v>
+      </c>
+      <c r="I75" s="7">
+        <v>2016</v>
+      </c>
+      <c r="J75" s="7">
+        <v>2017</v>
+      </c>
+      <c r="K75" s="7">
+        <v>2018</v>
+      </c>
+      <c r="L75" s="7">
+        <v>2019</v>
+      </c>
+      <c r="M75" s="7">
+        <v>2020</v>
       </c>
       <c r="N75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="T75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U75" s="8" t="inlineStr">
@@ -36744,12 +36783,12 @@
       </c>
       <c r="AE75" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
         </is>
       </c>
       <c r="AF75" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase the number by 10% from 2015 to 2020</t>
         </is>
       </c>
       <c r="AI75" s="4" t="inlineStr">
@@ -36789,47 +36828,50 @@
       </c>
       <c r="AP75" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Verstetigung</t>
         </is>
       </c>
       <c r="AQ75" s="8" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Stabilisation</t>
+        </is>
+      </c>
+      <c r="AS75" s="6">
+        <v>236.78</v>
       </c>
       <c r="AT75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AU75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AV75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AW75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AX75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AY75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AZ75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="BA75" s="8" t="inlineStr">
@@ -37124,60 +37166,66 @@
           <t>K</t>
         </is>
       </c>
+      <c r="E76" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F76" s="6">
+        <v>1.42827</v>
+      </c>
       <c r="G76" s="7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H76" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I76" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J76" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K76" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L76" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M76" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U76" s="8" t="inlineStr">
@@ -37227,104 +37275,92 @@
       </c>
       <c r="AE76" s="8" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
+          <t/>
         </is>
       </c>
       <c r="AF76" s="8" t="inlineStr">
         <is>
-          <t>Increase the number by 10% from 2015 to 2020</t>
-        </is>
-      </c>
-      <c r="AG76" s="5">
-        <v>2020</v>
-      </c>
-      <c r="AH76" s="6">
-        <v>236780</v>
+          <t/>
+        </is>
       </c>
       <c r="AI76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AJ76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AK76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AL76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AM76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AN76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AO76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AP76" s="8" t="inlineStr">
         <is>
-          <t>Verstetigung</t>
+          <t/>
         </is>
       </c>
       <c r="AQ76" s="8" t="inlineStr">
         <is>
-          <t>Stabilisation</t>
-        </is>
-      </c>
-      <c r="AR76" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AS76" s="6">
-        <v>272176</v>
+          <t/>
+        </is>
       </c>
       <c r="AT76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AU76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AV76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AW76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AX76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AY76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AZ76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BA76" s="8" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -13397,9 +13397,6 @@
           <t/>
         </is>
       </c>
-      <c r="F27" s="6">
-        <v>6</v>
-      </c>
       <c r="N27" s="4" t="inlineStr">
         <is>
           <t/>
@@ -13444,9 +13441,6 @@
         <is>
           <t/>
         </is>
-      </c>
-      <c r="W27" s="5">
-        <v>2021</v>
       </c>
       <c r="X27" s="4" t="inlineStr">
         <is>
@@ -13866,7 +13860,7 @@
         </is>
       </c>
       <c r="F28" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N28" s="4" t="inlineStr">
         <is>
@@ -14333,66 +14327,42 @@
           <t>J</t>
         </is>
       </c>
-      <c r="E29" s="5">
-        <v>2050</v>
-      </c>
       <c r="F29" s="6">
-        <v>239.3763</v>
-      </c>
-      <c r="G29" s="7">
-        <v>2014</v>
-      </c>
-      <c r="H29" s="7">
-        <v>2015</v>
-      </c>
-      <c r="I29" s="7">
-        <v>2016</v>
-      </c>
-      <c r="J29" s="7">
-        <v>2017</v>
-      </c>
-      <c r="K29" s="7">
-        <v>2018</v>
-      </c>
-      <c r="L29" s="7">
-        <v>2019</v>
-      </c>
-      <c r="M29" s="7">
-        <v>2020</v>
+        <v>4</v>
       </c>
       <c r="N29" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="O29" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="P29" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="Q29" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="R29" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="S29" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="T29" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="U29" s="8" t="inlineStr">
@@ -14404,6 +14374,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="W29" s="5">
+        <v>2021</v>
       </c>
       <c r="X29" s="4" t="inlineStr">
         <is>
@@ -14822,60 +14795,66 @@
           <t>K</t>
         </is>
       </c>
+      <c r="E30" s="5">
+        <v>2050</v>
+      </c>
+      <c r="F30" s="6">
+        <v>239.3763</v>
+      </c>
       <c r="G30" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H30" s="7">
         <v>2015</v>
       </c>
-      <c r="H30" s="7">
+      <c r="I30" s="7">
         <v>2016</v>
       </c>
-      <c r="I30" s="7">
+      <c r="J30" s="7">
         <v>2017</v>
       </c>
-      <c r="J30" s="7">
+      <c r="K30" s="7">
         <v>2018</v>
       </c>
-      <c r="K30" s="7">
+      <c r="L30" s="7">
         <v>2019</v>
       </c>
-      <c r="L30" s="7">
+      <c r="M30" s="7">
         <v>2020</v>
       </c>
-      <c r="M30" s="7">
-        <v>2021</v>
-      </c>
       <c r="N30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U30" s="8" t="inlineStr">
@@ -14925,155 +14904,137 @@
       </c>
       <c r="AE30" s="8" t="inlineStr">
         <is>
-          <t>Senkung um 20 % bis 2020 gegenüber 2008</t>
+          <t/>
         </is>
       </c>
       <c r="AF30" s="8" t="inlineStr">
         <is>
-          <t>Reduction by 20% by 2020 compared to 2008</t>
-        </is>
-      </c>
-      <c r="AG30" s="5">
-        <v>2020</v>
-      </c>
-      <c r="AH30" s="6">
-        <v>80</v>
+          <t/>
+        </is>
       </c>
       <c r="AI30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AJ30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AK30" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="AL30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AM30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AN30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AO30" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AP30" s="8" t="inlineStr">
         <is>
-          <t>Senkung um 30 % bis 2030 gegenüber 2008</t>
+          <t/>
         </is>
       </c>
       <c r="AQ30" s="8" t="inlineStr">
         <is>
-          <t>Reduction by 30% by 2030 compared to 2008</t>
-        </is>
-      </c>
-      <c r="AR30" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AS30" s="6">
-        <v>70</v>
+          <t/>
+        </is>
       </c>
       <c r="AT30" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="AU30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AV30" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="AW30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AX30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AY30" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AZ30" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BA30" s="8" t="inlineStr">
         <is>
-          <t>Senkung um 50 % bis 2050 gegenüber 2008</t>
+          <t/>
         </is>
       </c>
       <c r="BB30" s="8" t="inlineStr">
         <is>
-          <t>Reduction 50% by 2050 compared to 2008</t>
-        </is>
-      </c>
-      <c r="BC30" s="5">
-        <v>2050</v>
-      </c>
-      <c r="BD30" s="6">
-        <v>50</v>
+          <t/>
+        </is>
       </c>
       <c r="BE30" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BF30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BG30" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="BH30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BI30" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BJ30" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BK30" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BL30" s="8" t="inlineStr">
@@ -15175,15 +15136,6 @@
         <is>
           <t/>
         </is>
-      </c>
-      <c r="CK30" s="5">
-        <v>2021</v>
-      </c>
-      <c r="CL30" s="5">
-        <v>0</v>
-      </c>
-      <c r="CM30" s="6">
-        <v>0</v>
       </c>
       <c r="CN30" s="4" t="inlineStr">
         <is>
@@ -15435,206 +15387,200 @@
       </c>
       <c r="AE31" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 18 % bis 2020</t>
+          <t>Senkung um 20 % bis 2020 gegenüber 2008</t>
         </is>
       </c>
       <c r="AF31" s="8" t="inlineStr">
         <is>
-          <t>Increase to 18% by 2020</t>
+          <t>Reduction by 20% by 2020 compared to 2008</t>
         </is>
       </c>
       <c r="AG31" s="5">
         <v>2020</v>
       </c>
       <c r="AH31" s="6">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="AI31" s="4" t="inlineStr">
         <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AJ31" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AK31" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="AL31" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AM31" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AN31" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AO31" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="AJ31" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="AK31" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="AL31" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="AM31" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="AN31" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="AO31" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
       <c r="AP31" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 30 % bis 2030</t>
+          <t>Senkung um 30 % bis 2030 gegenüber 2008</t>
         </is>
       </c>
       <c r="AQ31" s="8" t="inlineStr">
         <is>
-          <t>Increase to 30% by 2030</t>
+          <t>Reduction by 30% by 2030 compared to 2008</t>
         </is>
       </c>
       <c r="AR31" s="5">
         <v>2030</v>
       </c>
       <c r="AS31" s="6">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AT31" s="4" t="inlineStr">
         <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="AU31" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="AU31" s="4" t="inlineStr">
+      <c r="AV31" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="AW31" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="AV31" s="4" t="inlineStr">
+      <c r="AX31" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="AW31" s="4" t="inlineStr">
+      <c r="AY31" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AZ31" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BA31" s="8" t="inlineStr">
+        <is>
+          <t>Senkung um 50 % bis 2050 gegenüber 2008</t>
+        </is>
+      </c>
+      <c r="BB31" s="8" t="inlineStr">
+        <is>
+          <t>Reduction 50% by 2050 compared to 2008</t>
+        </is>
+      </c>
+      <c r="BC31" s="5">
+        <v>2050</v>
+      </c>
+      <c r="BD31" s="6">
+        <v>50</v>
+      </c>
+      <c r="BE31" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BF31" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="AX31" s="4" t="inlineStr">
+      <c r="BG31" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="BH31" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="AY31" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
-        </is>
-      </c>
-      <c r="AZ31" s="4" t="inlineStr">
+      <c r="BI31" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="BA31" s="8" t="inlineStr">
-        <is>
-          <t>Anstieg auf 45 % bis 2040</t>
-        </is>
-      </c>
-      <c r="BB31" s="8" t="inlineStr">
-        <is>
-          <t>Increase to 45% by 2040</t>
-        </is>
-      </c>
-      <c r="BC31" s="5">
-        <v>2040</v>
-      </c>
-      <c r="BD31" s="6">
-        <v>45</v>
-      </c>
-      <c r="BE31" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BF31" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BG31" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BH31" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BI31" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
       <c r="BJ31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="BK31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="BL31" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 60 % bis 2050</t>
+          <t/>
         </is>
       </c>
       <c r="BM31" s="8" t="inlineStr">
         <is>
-          <t>Increase to 60% by 2050</t>
-        </is>
-      </c>
-      <c r="BN31" s="5">
-        <v>2050</v>
-      </c>
-      <c r="BO31" s="6">
-        <v>60</v>
+          <t/>
+        </is>
       </c>
       <c r="BP31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BQ31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BR31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BS31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BT31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BU31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BV31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BW31" s="8" t="inlineStr">
@@ -15692,6 +15638,15 @@
           <t/>
         </is>
       </c>
+      <c r="CK31" s="5">
+        <v>2021</v>
+      </c>
+      <c r="CL31" s="5">
+        <v>0</v>
+      </c>
+      <c r="CM31" s="6">
+        <v>0</v>
+      </c>
       <c r="CN31" s="4" t="inlineStr">
         <is>
           <t/>
@@ -15737,48 +15692,39 @@
           <t/>
         </is>
       </c>
-      <c r="CW31" s="5">
-        <v>2021</v>
-      </c>
-      <c r="CX31" s="5">
-        <v>2050</v>
-      </c>
-      <c r="CY31" s="6">
-        <v>60</v>
-      </c>
       <c r="CZ31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DA31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DB31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DC31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DD31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DE31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DF31" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DG31" s="8" t="inlineStr">
@@ -15951,19 +15897,19 @@
       </c>
       <c r="AE32" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens 35 % bis 2020</t>
+          <t>Anstieg auf 18 % bis 2020</t>
         </is>
       </c>
       <c r="AF32" s="8" t="inlineStr">
         <is>
-          <t>Increase to at least 35% by 2020</t>
+          <t>Increase to 18% by 2020</t>
         </is>
       </c>
       <c r="AG32" s="5">
         <v>2020</v>
       </c>
       <c r="AH32" s="6">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="AI32" s="4" t="inlineStr">
         <is>
@@ -15972,29 +15918,29 @@
       </c>
       <c r="AJ32" s="4" t="inlineStr">
         <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AK32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AL32" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="AK32" s="4" t="inlineStr">
+      <c r="AM32" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="AL32" s="4" t="inlineStr">
+      <c r="AN32" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="AM32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="AN32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
       <c r="AO32" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
@@ -16002,50 +15948,50 @@
       </c>
       <c r="AP32" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 65 % bis 2030</t>
+          <t>Anstieg auf 30 % bis 2030</t>
         </is>
       </c>
       <c r="AQ32" s="8" t="inlineStr">
         <is>
-          <t>Increase to 65% by 2030</t>
+          <t>Increase to 30% by 2030</t>
         </is>
       </c>
       <c r="AR32" s="5">
         <v>2030</v>
       </c>
       <c r="AS32" s="6">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AT32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AU32" s="4" t="inlineStr">
         <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AV32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AW32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AX32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AY32" s="4" t="inlineStr">
+        <is>
           <t>Leicht bewölkt</t>
         </is>
       </c>
-      <c r="AV32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="AW32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="AX32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="AY32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
       <c r="AZ32" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
@@ -16053,98 +15999,104 @@
       </c>
       <c r="BA32" s="8" t="inlineStr">
         <is>
-          <t>Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
+          <t>Anstieg auf 45 % bis 2040</t>
         </is>
       </c>
       <c r="BB32" s="8" t="inlineStr">
         <is>
-          <t>Greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
+          <t>Increase to 45% by 2040</t>
         </is>
       </c>
       <c r="BC32" s="5">
+        <v>2040</v>
+      </c>
+      <c r="BD32" s="6">
+        <v>45</v>
+      </c>
+      <c r="BE32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BF32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BG32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BH32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BI32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BJ32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BK32" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BL32" s="8" t="inlineStr">
+        <is>
+          <t>Anstieg auf 60 % bis 2050</t>
+        </is>
+      </c>
+      <c r="BM32" s="8" t="inlineStr">
+        <is>
+          <t>Increase to 60% by 2050</t>
+        </is>
+      </c>
+      <c r="BN32" s="5">
         <v>2050</v>
       </c>
-      <c r="BD32" s="6">
-        <v>100</v>
-      </c>
-      <c r="BE32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="BF32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="BG32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="BH32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="BI32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="BJ32" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="BK32" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
-        </is>
-      </c>
-      <c r="BL32" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BM32" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="BO32" s="6">
+        <v>60</v>
       </c>
       <c r="BP32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BQ32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BR32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BS32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BT32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BU32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BV32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="BW32" s="8" t="inlineStr">
@@ -16194,56 +16146,47 @@
       </c>
       <c r="CI32" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 50 % bis 2030</t>
+          <t/>
         </is>
       </c>
       <c r="CJ32" s="8" t="inlineStr">
         <is>
-          <t>Increase to 50% by 2030</t>
-        </is>
-      </c>
-      <c r="CK32" s="5">
-        <v>2023</v>
-      </c>
-      <c r="CL32" s="5">
-        <v>2030</v>
-      </c>
-      <c r="CM32" s="6">
-        <v>65</v>
+          <t/>
+        </is>
       </c>
       <c r="CN32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="CO32" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="CP32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="CQ32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="CR32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="CS32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="CT32" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="CU32" s="8" t="inlineStr">
@@ -16263,41 +16206,41 @@
         <v>2050</v>
       </c>
       <c r="CY32" s="6">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="CZ32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DA32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DB32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DC32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DD32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DE32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DF32" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DG32" s="8" t="inlineStr">
@@ -16367,383 +16310,404 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E33" s="5">
+      <c r="G33" s="7">
+        <v>2015</v>
+      </c>
+      <c r="H33" s="7">
+        <v>2016</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J33" s="7">
+        <v>2018</v>
+      </c>
+      <c r="K33" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L33" s="7">
+        <v>2020</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2021</v>
+      </c>
+      <c r="N33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U33" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V33" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE33" s="8" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens 35 % bis 2020</t>
+        </is>
+      </c>
+      <c r="AF33" s="8" t="inlineStr">
+        <is>
+          <t>Increase to at least 35% by 2020</t>
+        </is>
+      </c>
+      <c r="AG33" s="5">
+        <v>2020</v>
+      </c>
+      <c r="AH33" s="6">
+        <v>35</v>
+      </c>
+      <c r="AI33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AJ33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AK33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AL33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AM33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AN33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AO33" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AP33" s="8" t="inlineStr">
+        <is>
+          <t>Anstieg auf 65 % bis 2030</t>
+        </is>
+      </c>
+      <c r="AQ33" s="8" t="inlineStr">
+        <is>
+          <t>Increase to 65% by 2030</t>
+        </is>
+      </c>
+      <c r="AR33" s="5">
         <v>2030</v>
       </c>
-      <c r="F33" s="6">
-        <v>160.2</v>
-      </c>
-      <c r="G33" s="7">
-        <v>2012</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2013</v>
-      </c>
-      <c r="I33" s="7">
-        <v>2014</v>
-      </c>
-      <c r="J33" s="7">
-        <v>2015</v>
-      </c>
-      <c r="K33" s="7">
-        <v>2016</v>
-      </c>
-      <c r="L33" s="7">
-        <v>2017</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2018</v>
-      </c>
-      <c r="N33" s="4" t="inlineStr">
+      <c r="AS33" s="6">
+        <v>65</v>
+      </c>
+      <c r="AT33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AU33" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="AV33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AW33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AX33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AY33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AZ33" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="O33" s="4" t="inlineStr">
+      <c r="BA33" s="8" t="inlineStr">
+        <is>
+          <t>Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
+        </is>
+      </c>
+      <c r="BB33" s="8" t="inlineStr">
+        <is>
+          <t>Greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
+        </is>
+      </c>
+      <c r="BC33" s="5">
+        <v>2050</v>
+      </c>
+      <c r="BD33" s="6">
+        <v>100</v>
+      </c>
+      <c r="BE33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BF33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BG33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BH33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BI33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BJ33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BK33" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="BL33" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM33" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BQ33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BS33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BT33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BV33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BW33" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BX33" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CB33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CC33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CD33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CG33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CH33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CI33" s="8" t="inlineStr">
+        <is>
+          <t>Anstieg auf 50 % bis 2030</t>
+        </is>
+      </c>
+      <c r="CJ33" s="8" t="inlineStr">
+        <is>
+          <t>Increase to 50% by 2030</t>
+        </is>
+      </c>
+      <c r="CK33" s="5">
+        <v>2023</v>
+      </c>
+      <c r="CL33" s="5">
+        <v>2030</v>
+      </c>
+      <c r="CM33" s="6">
+        <v>65</v>
+      </c>
+      <c r="CN33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="CO33" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="CP33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="CQ33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="CR33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="CS33" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="CT33" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="P33" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
-        </is>
-      </c>
-      <c r="Q33" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="R33" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="S33" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="T33" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="U33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AT33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AU33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AV33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AW33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AX33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AY33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AZ33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BA33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BB33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BE33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BG33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BH33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BJ33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BK33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BM33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BP33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BR33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BT33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BU33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BV33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BW33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BX33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CB33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CC33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CD33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CE33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CF33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CG33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CH33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CI33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CJ33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CN33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CO33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CP33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CQ33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CR33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CS33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CT33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="CU33" s="8" t="inlineStr">
         <is>
           <t/>
@@ -16754,39 +16718,48 @@
           <t/>
         </is>
       </c>
+      <c r="CW33" s="5">
+        <v>2021</v>
+      </c>
+      <c r="CX33" s="5">
+        <v>2050</v>
+      </c>
+      <c r="CY33" s="6">
+        <v>80</v>
+      </c>
       <c r="CZ33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DA33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DB33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DC33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DD33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DE33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DF33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DG33" s="8" t="inlineStr">
@@ -16856,63 +16829,66 @@
           <t>K</t>
         </is>
       </c>
+      <c r="E34" s="5">
+        <v>2030</v>
+      </c>
       <c r="F34" s="6">
-        <v>-3</v>
+        <v>160.2</v>
       </c>
       <c r="G34" s="7">
+        <v>2012</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2013</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2014</v>
+      </c>
+      <c r="J34" s="7">
         <v>2015</v>
       </c>
-      <c r="H34" s="7">
+      <c r="K34" s="7">
         <v>2016</v>
       </c>
-      <c r="I34" s="7">
+      <c r="L34" s="7">
         <v>2017</v>
       </c>
-      <c r="J34" s="7">
+      <c r="M34" s="7">
         <v>2018</v>
       </c>
-      <c r="K34" s="7">
-        <v>2019</v>
-      </c>
-      <c r="L34" s="7">
-        <v>2020</v>
-      </c>
-      <c r="M34" s="7">
-        <v>2021</v>
-      </c>
       <c r="N34" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O34" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P34" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="Q34" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R34" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S34" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T34" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U34" s="8" t="inlineStr">
@@ -17343,7 +17319,7 @@
         </is>
       </c>
       <c r="F35" s="6">
-        <v>-0.5</v>
+        <v>-3</v>
       </c>
       <c r="G35" s="7">
         <v>2015</v>
@@ -17388,7 +17364,7 @@
       </c>
       <c r="R35" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S35" s="4" t="inlineStr">
@@ -17829,7 +17805,7 @@
         </is>
       </c>
       <c r="F36" s="6">
-        <v>60</v>
+        <v>-0.5</v>
       </c>
       <c r="G36" s="7">
         <v>2015</v>
@@ -17854,32 +17830,32 @@
       </c>
       <c r="N36" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O36" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P36" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q36" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R36" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S36" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="T36" s="4" t="inlineStr">
@@ -18314,6 +18290,9 @@
           <t>J</t>
         </is>
       </c>
+      <c r="F37" s="6">
+        <v>60</v>
+      </c>
       <c r="G37" s="7">
         <v>2015</v>
       </c>
@@ -18337,7 +18316,7 @@
       </c>
       <c r="N37" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O37" s="4" t="inlineStr">
@@ -18347,27 +18326,27 @@
       </c>
       <c r="P37" s="4" t="inlineStr">
         <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="Q37" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="R37" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="Q37" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="R37" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
       <c r="S37" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T37" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="U37" s="8" t="inlineStr">
@@ -18820,32 +18799,32 @@
       </c>
       <c r="N38" s="4" t="inlineStr">
         <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="O38" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="P38" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="O38" s="4" t="inlineStr">
+      <c r="Q38" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="P38" s="4" t="inlineStr">
+      <c r="R38" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="Q38" s="4" t="inlineStr">
+      <c r="S38" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
-        </is>
-      </c>
-      <c r="R38" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="S38" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="T38" s="4" t="inlineStr">
@@ -19280,12 +19259,6 @@
           <t>R</t>
         </is>
       </c>
-      <c r="E39" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F39" s="6">
-        <v>78</v>
-      </c>
       <c r="G39" s="7">
         <v>2015</v>
       </c>
@@ -19334,7 +19307,7 @@
       </c>
       <c r="S39" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="T39" s="4" t="inlineStr">
@@ -19773,7 +19746,7 @@
         <v>2030</v>
       </c>
       <c r="F40" s="6">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G40" s="7">
         <v>2015</v>
@@ -20261,6 +20234,21 @@
       <c r="E41" s="5">
         <v>2030</v>
       </c>
+      <c r="F41" s="6">
+        <v>60</v>
+      </c>
+      <c r="G41" s="7">
+        <v>2015</v>
+      </c>
+      <c r="H41" s="7">
+        <v>2016</v>
+      </c>
+      <c r="I41" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J41" s="7">
+        <v>2018</v>
+      </c>
       <c r="K41" s="7">
         <v>2019</v>
       </c>
@@ -20272,37 +20260,37 @@
       </c>
       <c r="N41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R41" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S41" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="T41" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U41" s="8" t="inlineStr">
@@ -20732,63 +20720,51 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F42" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="G42" s="7">
-        <v>2014</v>
-      </c>
-      <c r="H42" s="7">
-        <v>2015</v>
-      </c>
-      <c r="I42" s="7">
-        <v>2016</v>
-      </c>
-      <c r="J42" s="7">
-        <v>2017</v>
+      <c r="E42" s="5">
+        <v>2030</v>
       </c>
       <c r="K42" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L42" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M42" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N42" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R42" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="S42" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="O42" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="P42" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="Q42" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="R42" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="S42" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
       <c r="T42" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="U42" s="8" t="inlineStr">
@@ -21218,45 +21194,63 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E43" s="5">
-        <v>2025</v>
-      </c>
       <c r="F43" s="6">
-        <v>100</v>
+        <v>3.5</v>
+      </c>
+      <c r="G43" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H43" s="7">
+        <v>2015</v>
+      </c>
+      <c r="I43" s="7">
+        <v>2016</v>
+      </c>
+      <c r="J43" s="7">
+        <v>2017</v>
+      </c>
+      <c r="K43" s="7">
+        <v>2018</v>
+      </c>
+      <c r="L43" s="7">
+        <v>2019</v>
+      </c>
+      <c r="M43" s="7">
+        <v>2020</v>
       </c>
       <c r="N43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U43" s="8" t="inlineStr">
@@ -21687,65 +21681,44 @@
         </is>
       </c>
       <c r="E44" s="5">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="F44" s="6">
-        <v>0</v>
-      </c>
-      <c r="G44" s="7">
-        <v>2014</v>
-      </c>
-      <c r="H44" s="7">
-        <v>2015</v>
-      </c>
-      <c r="I44" s="7">
-        <v>2016</v>
-      </c>
-      <c r="J44" s="7">
-        <v>2017</v>
-      </c>
-      <c r="K44" s="7">
-        <v>2018</v>
-      </c>
-      <c r="L44" s="7">
-        <v>2019</v>
-      </c>
-      <c r="M44" s="7">
-        <v>2020</v>
+        <v>100</v>
       </c>
       <c r="N44" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="O44" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="P44" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="Q44" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="R44" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="S44" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="T44" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="U44" s="8" t="inlineStr">
@@ -22175,6 +22148,9 @@
           <t>R</t>
         </is>
       </c>
+      <c r="E45" s="5">
+        <v>2030</v>
+      </c>
       <c r="F45" s="6">
         <v>0</v>
       </c>
@@ -22201,22 +22177,22 @@
       </c>
       <c r="N45" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O45" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P45" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="Q45" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="R45" s="4" t="inlineStr">
@@ -22226,7 +22202,7 @@
       </c>
       <c r="S45" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="T45" s="4" t="inlineStr">
@@ -22661,11 +22637,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="E46" s="5">
-        <v>2030</v>
-      </c>
       <c r="F46" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G46" s="7">
         <v>2014</v>
@@ -22690,37 +22663,37 @@
       </c>
       <c r="N46" s="4" t="inlineStr">
         <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="O46" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="P46" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="Q46" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="R46" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="S46" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="O46" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="P46" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="Q46" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="R46" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="S46" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
       <c r="T46" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="U46" s="8" t="inlineStr">
@@ -23150,6 +23123,12 @@
           <t>K</t>
         </is>
       </c>
+      <c r="E47" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F47" s="6">
+        <v>30</v>
+      </c>
       <c r="G47" s="7">
         <v>2014</v>
       </c>
@@ -23173,7 +23152,7 @@
       </c>
       <c r="N47" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O47" s="4" t="inlineStr">
@@ -23188,12 +23167,12 @@
       </c>
       <c r="Q47" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R47" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S47" s="4" t="inlineStr">
@@ -23203,7 +23182,7 @@
       </c>
       <c r="T47" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U47" s="8" t="inlineStr">
@@ -23656,37 +23635,37 @@
       </c>
       <c r="N48" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="O48" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P48" s="4" t="inlineStr">
         <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="Q48" s="4" t="inlineStr">
+        <is>
           <t>Leicht bewölkt</t>
         </is>
       </c>
-      <c r="Q48" s="4" t="inlineStr">
+      <c r="R48" s="4" t="inlineStr">
         <is>
           <t>Leicht bewölkt</t>
         </is>
       </c>
-      <c r="R48" s="4" t="inlineStr">
+      <c r="S48" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="T48" s="4" t="inlineStr">
         <is>
           <t>Leicht bewölkt</t>
-        </is>
-      </c>
-      <c r="S48" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
-        </is>
-      </c>
-      <c r="T48" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
         </is>
       </c>
       <c r="U48" s="8" t="inlineStr">
@@ -24116,12 +24095,6 @@
           <t>R</t>
         </is>
       </c>
-      <c r="E49" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F49" s="6">
-        <v>85</v>
-      </c>
       <c r="G49" s="7">
         <v>2014</v>
       </c>
@@ -24150,32 +24123,32 @@
       </c>
       <c r="O49" s="4" t="inlineStr">
         <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="P49" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="Q49" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="R49" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="S49" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="T49" s="4" t="inlineStr">
+        <is>
           <t>Blitz</t>
-        </is>
-      </c>
-      <c r="P49" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
-        </is>
-      </c>
-      <c r="Q49" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
-        </is>
-      </c>
-      <c r="R49" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
-        </is>
-      </c>
-      <c r="S49" s="4" t="inlineStr">
-        <is>
-          <t>Blitz</t>
-        </is>
-      </c>
-      <c r="T49" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
         </is>
       </c>
       <c r="U49" s="8" t="inlineStr">
@@ -24664,7 +24637,7 @@
       </c>
       <c r="T50" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U50" s="8" t="inlineStr">
@@ -25094,39 +25067,66 @@
           <t>K</t>
         </is>
       </c>
+      <c r="E51" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F51" s="6">
+        <v>85</v>
+      </c>
+      <c r="G51" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H51" s="7">
+        <v>2015</v>
+      </c>
+      <c r="I51" s="7">
+        <v>2016</v>
+      </c>
+      <c r="J51" s="7">
+        <v>2017</v>
+      </c>
+      <c r="K51" s="7">
+        <v>2018</v>
+      </c>
+      <c r="L51" s="7">
+        <v>2019</v>
+      </c>
+      <c r="M51" s="7">
+        <v>2020</v>
+      </c>
       <c r="N51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="O51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="P51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="Q51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="R51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="S51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="T51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U51" s="8" t="inlineStr">
@@ -25556,66 +25556,39 @@
           <t>R</t>
         </is>
       </c>
-      <c r="E52" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F52" s="6">
-        <v>13</v>
-      </c>
-      <c r="G52" s="7">
-        <v>2015</v>
-      </c>
-      <c r="H52" s="7">
-        <v>2016</v>
-      </c>
-      <c r="I52" s="7">
-        <v>2017</v>
-      </c>
-      <c r="J52" s="7">
-        <v>2018</v>
-      </c>
-      <c r="K52" s="7">
-        <v>2019</v>
-      </c>
-      <c r="L52" s="7">
-        <v>2020</v>
-      </c>
-      <c r="M52" s="7">
-        <v>2021</v>
-      </c>
       <c r="N52" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="O52" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="P52" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="Q52" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="R52" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="S52" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="T52" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="U52" s="8" t="inlineStr">
@@ -26049,7 +26022,7 @@
         <v>2030</v>
       </c>
       <c r="F53" s="6">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G53" s="7">
         <v>2015</v>
@@ -26074,7 +26047,7 @@
       </c>
       <c r="N53" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="O53" s="4" t="inlineStr">
@@ -26538,50 +26511,62 @@
         <v>2030</v>
       </c>
       <c r="F54" s="6">
-        <v>34</v>
+        <v>50</v>
+      </c>
+      <c r="G54" s="7">
+        <v>2015</v>
+      </c>
+      <c r="H54" s="7">
+        <v>2016</v>
+      </c>
+      <c r="I54" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J54" s="7">
+        <v>2018</v>
       </c>
       <c r="K54" s="7">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="L54" s="7">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="M54" s="7">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="N54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R54" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S54" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="T54" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U54" s="8" t="inlineStr">
@@ -27011,17 +26996,20 @@
           <t>K</t>
         </is>
       </c>
-      <c r="J55" s="7">
-        <v>2015</v>
+      <c r="E55" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F55" s="6">
+        <v>34</v>
       </c>
       <c r="K55" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="L55" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="M55" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="N55" s="4" t="inlineStr">
         <is>
@@ -27040,12 +27028,12 @@
       </c>
       <c r="Q55" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="R55" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S55" s="4" t="inlineStr">
@@ -27055,7 +27043,7 @@
       </c>
       <c r="T55" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U55" s="8" t="inlineStr">
@@ -27486,16 +27474,16 @@
         </is>
       </c>
       <c r="J56" s="7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="K56" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="L56" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="M56" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N56" s="4" t="inlineStr">
         <is>
@@ -27514,22 +27502,22 @@
       </c>
       <c r="Q56" s="4" t="inlineStr">
         <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="R56" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="S56" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="R56" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
-        </is>
-      </c>
-      <c r="S56" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
-        </is>
-      </c>
       <c r="T56" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="U56" s="8" t="inlineStr">
@@ -28433,66 +28421,51 @@
           <t>R</t>
         </is>
       </c>
-      <c r="E58" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F58" s="6">
-        <v>5000</v>
-      </c>
-      <c r="G58" s="7">
+      <c r="J58" s="7">
+        <v>2014</v>
+      </c>
+      <c r="K58" s="7">
         <v>2015</v>
       </c>
-      <c r="H58" s="7">
+      <c r="L58" s="7">
         <v>2016</v>
       </c>
-      <c r="I58" s="7">
+      <c r="M58" s="7">
         <v>2017</v>
       </c>
-      <c r="J58" s="7">
-        <v>2018</v>
-      </c>
-      <c r="K58" s="7">
-        <v>2019</v>
-      </c>
-      <c r="L58" s="7">
-        <v>2020</v>
-      </c>
-      <c r="M58" s="7">
-        <v>2021</v>
-      </c>
       <c r="N58" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q58" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="O58" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="P58" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="Q58" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
       <c r="R58" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S58" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="T58" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U58" s="8" t="inlineStr">
@@ -28923,47 +28896,65 @@
         </is>
       </c>
       <c r="E59" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F59" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G59" s="7">
+        <v>2015</v>
+      </c>
+      <c r="H59" s="7">
+        <v>2016</v>
+      </c>
+      <c r="I59" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J59" s="7">
+        <v>2018</v>
+      </c>
+      <c r="K59" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L59" s="7">
         <v>2020</v>
       </c>
-      <c r="F59" s="6">
-        <v>210.8</v>
-      </c>
       <c r="M59" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T59" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U59" s="8" t="inlineStr">
@@ -29393,6 +29384,12 @@
           <t>K</t>
         </is>
       </c>
+      <c r="E60" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F60" s="6">
+        <v>210.8</v>
+      </c>
       <c r="M60" s="7">
         <v>2020</v>
       </c>
@@ -29428,7 +29425,7 @@
       </c>
       <c r="T60" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U60" s="8" t="inlineStr">
@@ -29858,27 +29855,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="G61" s="7">
-        <v>2015</v>
-      </c>
-      <c r="H61" s="7">
-        <v>2016</v>
-      </c>
-      <c r="I61" s="7">
-        <v>2017</v>
-      </c>
-      <c r="J61" s="7">
-        <v>2018</v>
-      </c>
-      <c r="K61" s="7">
-        <v>2019</v>
-      </c>
-      <c r="L61" s="7">
+      <c r="M61" s="7">
         <v>2020</v>
       </c>
-      <c r="M61" s="7">
-        <v>2021</v>
-      </c>
       <c r="N61" s="4" t="inlineStr">
         <is>
           <t/>
@@ -29911,7 +29890,7 @@
       </c>
       <c r="T61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="U61" s="8" t="inlineStr">
@@ -29961,155 +29940,137 @@
       </c>
       <c r="AE61" s="8" t="inlineStr">
         <is>
-          <t>Minderung um mindestens 40 % bis 2020 gegenüber 1990</t>
+          <t/>
         </is>
       </c>
       <c r="AF61" s="8" t="inlineStr">
         <is>
-          <t>Reduce by at least 40% by 2020, compared to 1990</t>
-        </is>
-      </c>
-      <c r="AG61" s="5">
-        <v>2020</v>
-      </c>
-      <c r="AH61" s="6">
-        <v>60</v>
+          <t/>
+        </is>
       </c>
       <c r="AI61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AJ61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AK61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AL61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AM61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AN61" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AO61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AP61" s="8" t="inlineStr">
         <is>
-          <t>Minderung um mindestens 55 % bis 2030, gegenüber 1990</t>
+          <t/>
         </is>
       </c>
       <c r="AQ61" s="8" t="inlineStr">
         <is>
-          <t>Reduce by at least 55% by 2030, compared to 1990</t>
-        </is>
-      </c>
-      <c r="AR61" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AS61" s="6">
-        <v>45</v>
+          <t/>
+        </is>
       </c>
       <c r="AT61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AU61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AV61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AW61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AX61" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="AY61" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AZ61" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BA61" s="8" t="inlineStr">
         <is>
-          <t>Erreichung von Treibhausgasneutralität bis 2050</t>
+          <t/>
         </is>
       </c>
       <c r="BB61" s="8" t="inlineStr">
         <is>
-          <t>Greenhouse gas neutrality to be achieved by 2050</t>
-        </is>
-      </c>
-      <c r="BC61" s="5">
-        <v>2050</v>
-      </c>
-      <c r="BD61" s="6">
-        <v>0</v>
+          <t/>
+        </is>
       </c>
       <c r="BE61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BF61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BG61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BH61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BI61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BJ61" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BK61" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BL61" s="8" t="inlineStr">
@@ -30257,48 +30218,39 @@
           <t/>
         </is>
       </c>
-      <c r="CW61" s="5">
-        <v>2021</v>
-      </c>
-      <c r="CX61" s="5">
-        <v>2040</v>
-      </c>
-      <c r="CY61" s="6">
-        <v>30</v>
-      </c>
       <c r="CZ61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DA61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DB61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DC61" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DD61" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="DE61" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="DF61" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="DG61" s="8" t="inlineStr">
@@ -30310,15 +30262,6 @@
         <is>
           <t/>
         </is>
-      </c>
-      <c r="DI61" s="5">
-        <v>2023</v>
-      </c>
-      <c r="DJ61" s="5">
-        <v>0</v>
-      </c>
-      <c r="DK61" s="6">
-        <v>0</v>
       </c>
       <c r="DL61" s="4" t="inlineStr">
         <is>
@@ -30377,422 +30320,449 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E62" s="5">
+      <c r="G62" s="7">
+        <v>2015</v>
+      </c>
+      <c r="H62" s="7">
+        <v>2016</v>
+      </c>
+      <c r="I62" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J62" s="7">
+        <v>2018</v>
+      </c>
+      <c r="K62" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L62" s="7">
         <v>2020</v>
       </c>
-      <c r="F62" s="6">
-        <v>4</v>
-      </c>
-      <c r="I62" s="7">
-        <v>2016</v>
-      </c>
-      <c r="J62" s="7">
-        <v>2017</v>
-      </c>
-      <c r="K62" s="7">
-        <v>2018</v>
-      </c>
-      <c r="L62" s="7">
-        <v>2019</v>
-      </c>
       <c r="M62" s="7">
+        <v>2021</v>
+      </c>
+      <c r="N62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE62" s="8" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens 40 % bis 2020 gegenüber 1990</t>
+        </is>
+      </c>
+      <c r="AF62" s="8" t="inlineStr">
+        <is>
+          <t>Reduce by at least 40% by 2020, compared to 1990</t>
+        </is>
+      </c>
+      <c r="AG62" s="5">
         <v>2020</v>
       </c>
-      <c r="N62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P62" s="4" t="inlineStr">
+      <c r="AH62" s="6">
+        <v>60</v>
+      </c>
+      <c r="AI62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AJ62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AK62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AL62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AM62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AN62" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="Q62" s="4" t="inlineStr">
+      <c r="AO62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AP62" s="8" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens 55 % bis 2030, gegenüber 1990</t>
+        </is>
+      </c>
+      <c r="AQ62" s="8" t="inlineStr">
+        <is>
+          <t>Reduce by at least 55% by 2030, compared to 1990</t>
+        </is>
+      </c>
+      <c r="AR62" s="5">
+        <v>2030</v>
+      </c>
+      <c r="AS62" s="6">
+        <v>45</v>
+      </c>
+      <c r="AT62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AU62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AV62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AW62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AX62" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="AY62" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="R62" s="4" t="inlineStr">
+      <c r="AZ62" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BA62" s="8" t="inlineStr">
+        <is>
+          <t>Erreichung von Treibhausgasneutralität bis 2050</t>
+        </is>
+      </c>
+      <c r="BB62" s="8" t="inlineStr">
+        <is>
+          <t>Greenhouse gas neutrality to be achieved by 2050</t>
+        </is>
+      </c>
+      <c r="BC62" s="5">
+        <v>2050</v>
+      </c>
+      <c r="BD62" s="6">
+        <v>0</v>
+      </c>
+      <c r="BE62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BF62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BG62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BH62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BI62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BJ62" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BK62" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BL62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BQ62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BS62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BT62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BV62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BW62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BX62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CB62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CC62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CD62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CG62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CH62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CI62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CJ62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CN62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CO62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CQ62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CR62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CS62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CT62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CU62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CV62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CW62" s="5">
+        <v>2021</v>
+      </c>
+      <c r="CX62" s="5">
+        <v>2040</v>
+      </c>
+      <c r="CY62" s="6">
+        <v>30</v>
+      </c>
+      <c r="CZ62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="DA62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="DB62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="DC62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="DD62" s="4" t="inlineStr">
         <is>
           <t>Leicht bewölkt</t>
         </is>
       </c>
-      <c r="S62" s="4" t="inlineStr">
+      <c r="DE62" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="T62" s="4" t="inlineStr">
+      <c r="DF62" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="U62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AT62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AU62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AV62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AW62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AX62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AY62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AZ62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BA62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BB62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BE62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BG62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BH62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BJ62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BK62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BM62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BP62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BR62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BT62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BU62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BV62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BW62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BX62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CB62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CC62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CD62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CE62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CF62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CG62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CH62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CI62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CJ62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CN62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CO62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CP62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CQ62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CR62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CS62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CT62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CU62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CV62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CZ62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DA62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DB62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DC62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DD62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DE62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DF62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DG62" s="8" t="inlineStr">
         <is>
           <t/>
@@ -30802,6 +30772,15 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="DI62" s="5">
+        <v>2023</v>
+      </c>
+      <c r="DJ62" s="5">
+        <v>0</v>
+      </c>
+      <c r="DK62" s="6">
+        <v>0</v>
       </c>
       <c r="DL62" s="4" t="inlineStr">
         <is>
@@ -30860,14 +30839,11 @@
           <t>K</t>
         </is>
       </c>
+      <c r="E63" s="5">
+        <v>2020</v>
+      </c>
       <c r="F63" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="G63" s="7">
-        <v>2014</v>
-      </c>
-      <c r="H63" s="7">
-        <v>2015</v>
+        <v>4</v>
       </c>
       <c r="I63" s="7">
         <v>2016</v>
@@ -30886,37 +30862,37 @@
       </c>
       <c r="N63" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="O63" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="P63" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q63" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R63" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S63" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="T63" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U63" s="8" t="inlineStr">
@@ -31347,7 +31323,7 @@
         </is>
       </c>
       <c r="F64" s="6">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="G64" s="7">
         <v>2014</v>
@@ -31402,7 +31378,7 @@
       </c>
       <c r="T64" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U64" s="8" t="inlineStr">
@@ -31832,11 +31808,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="E65" s="5">
-        <v>2020</v>
-      </c>
       <c r="F65" s="6">
-        <v>100</v>
+        <v>2.8</v>
       </c>
       <c r="G65" s="7">
         <v>2014</v>
@@ -31876,12 +31849,12 @@
       </c>
       <c r="Q65" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R65" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S65" s="4" t="inlineStr">
@@ -31891,7 +31864,7 @@
       </c>
       <c r="T65" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U65" s="8" t="inlineStr">
@@ -32322,40 +32295,40 @@
         </is>
       </c>
       <c r="E66" s="5">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="F66" s="6">
         <v>100</v>
       </c>
       <c r="G66" s="7">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="H66" s="7">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="I66" s="7">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="J66" s="7">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="K66" s="7">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="L66" s="7">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="M66" s="7">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="N66" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O66" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P66" s="4" t="inlineStr">
@@ -32814,62 +32787,62 @@
         <v>2030</v>
       </c>
       <c r="F67" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G67" s="7">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="H67" s="7">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="I67" s="7">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="J67" s="7">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="K67" s="7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="L67" s="7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="M67" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="N67" s="4" t="inlineStr">
         <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="O67" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="P67" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="O67" s="4" t="inlineStr">
+      <c r="Q67" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="R67" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="S67" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="P67" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="Q67" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="R67" s="4" t="inlineStr">
+      <c r="T67" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
-        </is>
-      </c>
-      <c r="S67" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="T67" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="U67" s="8" t="inlineStr">
@@ -33302,35 +33275,38 @@
       <c r="E68" s="5">
         <v>2030</v>
       </c>
+      <c r="F68" s="6">
+        <v>50</v>
+      </c>
       <c r="G68" s="7">
+        <v>2009</v>
+      </c>
+      <c r="H68" s="7">
+        <v>2010</v>
+      </c>
+      <c r="I68" s="7">
+        <v>2011</v>
+      </c>
+      <c r="J68" s="7">
+        <v>2012</v>
+      </c>
+      <c r="K68" s="7">
+        <v>2013</v>
+      </c>
+      <c r="L68" s="7">
         <v>2014</v>
       </c>
-      <c r="H68" s="7">
+      <c r="M68" s="7">
         <v>2015</v>
       </c>
-      <c r="I68" s="7">
-        <v>2016</v>
-      </c>
-      <c r="J68" s="7">
-        <v>2017</v>
-      </c>
-      <c r="K68" s="7">
-        <v>2018</v>
-      </c>
-      <c r="L68" s="7">
-        <v>2019</v>
-      </c>
-      <c r="M68" s="7">
-        <v>2020</v>
-      </c>
       <c r="N68" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O68" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="P68" s="4" t="inlineStr">
@@ -33345,12 +33321,12 @@
       </c>
       <c r="R68" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S68" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T68" s="4" t="inlineStr">
@@ -33816,22 +33792,22 @@
       </c>
       <c r="O69" s="4" t="inlineStr">
         <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="P69" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="P69" s="4" t="inlineStr">
+      <c r="Q69" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="Q69" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
       <c r="R69" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S69" s="4" t="inlineStr">
@@ -34274,38 +34250,35 @@
       <c r="E70" s="5">
         <v>2030</v>
       </c>
-      <c r="F70" s="6">
-        <v>6499.9</v>
-      </c>
       <c r="G70" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H70" s="7">
         <v>2015</v>
       </c>
-      <c r="H70" s="7">
+      <c r="I70" s="7">
         <v>2016</v>
       </c>
-      <c r="I70" s="7">
+      <c r="J70" s="7">
         <v>2017</v>
       </c>
-      <c r="J70" s="7">
+      <c r="K70" s="7">
         <v>2018</v>
       </c>
-      <c r="K70" s="7">
+      <c r="L70" s="7">
         <v>2019</v>
       </c>
-      <c r="L70" s="7">
+      <c r="M70" s="7">
         <v>2020</v>
       </c>
-      <c r="M70" s="7">
-        <v>2021</v>
-      </c>
       <c r="N70" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="O70" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P70" s="4" t="inlineStr">
@@ -34330,55 +34303,52 @@
       </c>
       <c r="T70" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="U70" s="8" t="inlineStr">
         <is>
-          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 7 000 bis 2030</t>
+          <t/>
         </is>
       </c>
       <c r="V70" s="8" t="inlineStr">
         <is>
-          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 7,000 by 2030</t>
-        </is>
-      </c>
-      <c r="W70" s="5">
-        <v>2021</v>
+          <t/>
+        </is>
       </c>
       <c r="X70" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="Y70" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="Z70" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AA70" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AB70" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AC70" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AD70" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AE70" s="8" t="inlineStr">
@@ -34763,108 +34733,114 @@
           <t>K</t>
         </is>
       </c>
+      <c r="E71" s="5">
+        <v>2030</v>
+      </c>
       <c r="F71" s="6">
-        <v>15</v>
+        <v>6499.9</v>
       </c>
       <c r="G71" s="7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H71" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I71" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J71" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K71" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L71" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M71" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N71" s="4" t="inlineStr">
         <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="O71" s="4" t="inlineStr">
+        <is>
+          <t>Blitz</t>
+        </is>
+      </c>
+      <c r="P71" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="O71" s="4" t="inlineStr">
+      <c r="Q71" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="P71" s="4" t="inlineStr">
+      <c r="R71" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="Q71" s="4" t="inlineStr">
+      <c r="S71" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="R71" s="4" t="inlineStr">
+      <c r="T71" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="S71" s="4" t="inlineStr">
+      <c r="U71" s="8" t="inlineStr">
+        <is>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 7 000 bis 2030</t>
+        </is>
+      </c>
+      <c r="V71" s="8" t="inlineStr">
+        <is>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 7,000 by 2030</t>
+        </is>
+      </c>
+      <c r="W71" s="5">
+        <v>2021</v>
+      </c>
+      <c r="X71" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="Y71" s="4" t="inlineStr">
+        <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="Z71" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="T71" s="4" t="inlineStr">
+      <c r="AA71" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="U71" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V71" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X71" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y71" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z71" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA71" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AB71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AC71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AD71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AE71" s="8" t="inlineStr">
@@ -35249,57 +35225,63 @@
           <t>J</t>
         </is>
       </c>
-      <c r="E72" s="5">
-        <v>2030</v>
+      <c r="F72" s="6">
+        <v>15</v>
+      </c>
+      <c r="G72" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H72" s="7">
+        <v>2015</v>
       </c>
       <c r="I72" s="7">
+        <v>2016</v>
+      </c>
+      <c r="J72" s="7">
         <v>2017</v>
       </c>
-      <c r="J72" s="7">
+      <c r="K72" s="7">
         <v>2018</v>
       </c>
-      <c r="K72" s="7">
+      <c r="L72" s="7">
         <v>2019</v>
       </c>
-      <c r="L72" s="7">
+      <c r="M72" s="7">
         <v>2020</v>
       </c>
-      <c r="M72" s="7">
-        <v>2021</v>
-      </c>
       <c r="N72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P72" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q72" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R72" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S72" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="T72" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U72" s="8" t="inlineStr">
@@ -35732,6 +35714,9 @@
       <c r="E73" s="5">
         <v>2030</v>
       </c>
+      <c r="I73" s="7">
+        <v>2017</v>
+      </c>
       <c r="J73" s="7">
         <v>2018</v>
       </c>
@@ -35756,7 +35741,7 @@
       </c>
       <c r="P73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="Q73" s="4" t="inlineStr">
@@ -35766,17 +35751,17 @@
       </c>
       <c r="R73" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="S73" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="T73" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="U73" s="8" t="inlineStr">
@@ -36209,8 +36194,17 @@
       <c r="E74" s="5">
         <v>2030</v>
       </c>
-      <c r="F74" s="6">
-        <v>0.7</v>
+      <c r="J74" s="7">
+        <v>2018</v>
+      </c>
+      <c r="K74" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L74" s="7">
+        <v>2020</v>
+      </c>
+      <c r="M74" s="7">
+        <v>2021</v>
       </c>
       <c r="N74" s="4" t="inlineStr">
         <is>
@@ -36229,22 +36223,22 @@
       </c>
       <c r="Q74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="R74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="T74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U74" s="8" t="inlineStr">
@@ -36675,65 +36669,44 @@
         </is>
       </c>
       <c r="E75" s="5">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="F75" s="6">
-        <v>236.78</v>
-      </c>
-      <c r="G75" s="7">
-        <v>2014</v>
-      </c>
-      <c r="H75" s="7">
-        <v>2015</v>
-      </c>
-      <c r="I75" s="7">
-        <v>2016</v>
-      </c>
-      <c r="J75" s="7">
-        <v>2017</v>
-      </c>
-      <c r="K75" s="7">
-        <v>2018</v>
-      </c>
-      <c r="L75" s="7">
-        <v>2019</v>
-      </c>
-      <c r="M75" s="7">
-        <v>2020</v>
+        <v>0.7</v>
       </c>
       <c r="N75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="O75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="P75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="Q75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="R75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="S75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="T75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="U75" s="8" t="inlineStr">
@@ -36783,12 +36756,12 @@
       </c>
       <c r="AE75" s="8" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
+          <t/>
         </is>
       </c>
       <c r="AF75" s="8" t="inlineStr">
         <is>
-          <t>Increase the number by 10% from 2015 to 2020</t>
+          <t/>
         </is>
       </c>
       <c r="AI75" s="4" t="inlineStr">
@@ -36828,50 +36801,47 @@
       </c>
       <c r="AP75" s="8" t="inlineStr">
         <is>
-          <t>Verstetigung</t>
+          <t/>
         </is>
       </c>
       <c r="AQ75" s="8" t="inlineStr">
         <is>
-          <t>Stabilisation</t>
-        </is>
-      </c>
-      <c r="AS75" s="6">
-        <v>236.78</v>
+          <t/>
+        </is>
       </c>
       <c r="AT75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AU75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AV75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AW75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AX75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AY75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AZ75" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BA75" s="8" t="inlineStr">
@@ -37167,32 +37137,32 @@
         </is>
       </c>
       <c r="E76" s="5">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="F76" s="6">
-        <v>1.42827</v>
+        <v>236.78</v>
       </c>
       <c r="G76" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H76" s="7">
         <v>2015</v>
       </c>
-      <c r="H76" s="7">
+      <c r="I76" s="7">
         <v>2016</v>
       </c>
-      <c r="I76" s="7">
+      <c r="J76" s="7">
         <v>2017</v>
       </c>
-      <c r="J76" s="7">
+      <c r="K76" s="7">
         <v>2018</v>
       </c>
-      <c r="K76" s="7">
+      <c r="L76" s="7">
         <v>2019</v>
       </c>
-      <c r="L76" s="7">
+      <c r="M76" s="7">
         <v>2020</v>
       </c>
-      <c r="M76" s="7">
-        <v>2021</v>
-      </c>
       <c r="N76" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
@@ -37220,12 +37190,12 @@
       </c>
       <c r="S76" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="T76" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U76" s="8" t="inlineStr">
@@ -37275,12 +37245,12 @@
       </c>
       <c r="AE76" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
         </is>
       </c>
       <c r="AF76" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase the number by 10% from 2015 to 2020</t>
         </is>
       </c>
       <c r="AI76" s="4" t="inlineStr">
@@ -37320,47 +37290,50 @@
       </c>
       <c r="AP76" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Verstetigung</t>
         </is>
       </c>
       <c r="AQ76" s="8" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Stabilisation</t>
+        </is>
+      </c>
+      <c r="AS76" s="6">
+        <v>236.78</v>
       </c>
       <c r="AT76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AU76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AV76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AW76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AX76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AY76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AZ76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="BA76" s="8" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -34737,7 +34737,7 @@
         <v>2030</v>
       </c>
       <c r="F71" s="6">
-        <v>6499.9</v>
+        <v>6500</v>
       </c>
       <c r="G71" s="7">
         <v>2015</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -37303,17 +37303,17 @@
       </c>
       <c r="AT76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AU76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AV76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AW76" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -37136,12 +37136,6 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E76" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F76" s="6">
-        <v>236.78</v>
-      </c>
       <c r="G76" s="7">
         <v>2014</v>
       </c>
@@ -37165,129 +37159,135 @@
       </c>
       <c r="N76" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U76" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V76" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE76" s="8" t="inlineStr">
+        <is>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
+        </is>
+      </c>
+      <c r="AF76" s="8" t="inlineStr">
+        <is>
+          <t>Increase the number by 10% from 2015 to 2020</t>
+        </is>
+      </c>
+      <c r="AG76" s="5">
+        <v>2020</v>
+      </c>
+      <c r="AH76" s="6">
+        <v>236.78</v>
+      </c>
+      <c r="AI76" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="O76" s="4" t="inlineStr">
+      <c r="AJ76" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="P76" s="4" t="inlineStr">
+      <c r="AK76" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="Q76" s="4" t="inlineStr">
+      <c r="AL76" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="R76" s="4" t="inlineStr">
+      <c r="AM76" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="S76" s="4" t="inlineStr">
+      <c r="AN76" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="T76" s="4" t="inlineStr">
+      <c r="AO76" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="U76" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V76" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE76" s="8" t="inlineStr">
-        <is>
-          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
-        </is>
-      </c>
-      <c r="AF76" s="8" t="inlineStr">
-        <is>
-          <t>Increase the number by 10% from 2015 to 2020</t>
-        </is>
-      </c>
-      <c r="AI76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AP76" s="8" t="inlineStr">
         <is>
           <t>Verstetigung</t>
@@ -37297,6 +37297,9 @@
         <is>
           <t>Stabilisation</t>
         </is>
+      </c>
+      <c r="AR76" s="5">
+        <v>0</v>
       </c>
       <c r="AS76" s="6">
         <v>236.78</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -37251,7 +37251,7 @@
         <v>2020</v>
       </c>
       <c r="AH76" s="6">
-        <v>236.78</v>
+        <v>236780</v>
       </c>
       <c r="AI76" s="4" t="inlineStr">
         <is>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="AS76" s="6">
-        <v>236.78</v>
+        <v>236780</v>
       </c>
       <c r="AT76" s="4" t="inlineStr">
         <is>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>6.2</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -22140,7 +22140,7 @@
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_DIFFERENCE</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -13379,12 +13379,12 @@
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I00</t>
+          <t>Z06_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.2.a</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
@@ -13394,8 +13394,11 @@
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="F27" s="6">
+        <v>6</v>
       </c>
       <c r="N27" s="4" t="inlineStr">
         <is>
@@ -13441,6 +13444,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="W27" s="5">
+        <v>2021</v>
       </c>
       <c r="X27" s="4" t="inlineStr">
         <is>
@@ -13841,12 +13847,12 @@
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I01</t>
+          <t>Z06_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>6.2.a</t>
+          <t>6.2.b</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
@@ -13860,7 +13866,7 @@
         </is>
       </c>
       <c r="F28" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N28" s="4" t="inlineStr">
         <is>
@@ -14309,12 +14315,12 @@
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I02</t>
+          <t>Z06_B02_P01_Ib01_I03</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>6.2.b</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
@@ -14324,11 +14330,8 @@
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="F29" s="6">
-        <v>4</v>
+          <t/>
+        </is>
       </c>
       <c r="N29" s="4" t="inlineStr">
         <is>
@@ -14374,9 +14377,6 @@
         <is>
           <t/>
         </is>
-      </c>
-      <c r="W29" s="5">
-        <v>2021</v>
       </c>
       <c r="X29" s="4" t="inlineStr">
         <is>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -1319,37 +1319,40 @@
       <c r="F2" s="6">
         <v>0</v>
       </c>
+      <c r="G2" s="7">
+        <v>2015</v>
+      </c>
       <c r="H2" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I2" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J2" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K2" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L2" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M2" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N2" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="O2" s="4" t="inlineStr">
         <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="P2" s="4" t="inlineStr">
+        <is>
           <t>Leicht bewölkt</t>
-        </is>
-      </c>
-      <c r="P2" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
         </is>
       </c>
       <c r="Q2" s="4" t="inlineStr">
@@ -2778,25 +2781,25 @@
         <v>30</v>
       </c>
       <c r="G5" s="7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H5" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I5" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J5" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K5" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L5" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M5" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N5" s="4" t="inlineStr">
         <is>
@@ -6125,8 +6128,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="L12" s="7">
+        <v>2017</v>
+      </c>
       <c r="M12" s="7">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="N12" s="4" t="inlineStr">
         <is>
@@ -6155,7 +6161,7 @@
       </c>
       <c r="S12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="T12" s="4" t="inlineStr">
@@ -8048,27 +8054,30 @@
       <c r="F16" s="6">
         <v>9.5</v>
       </c>
+      <c r="G16" s="7">
+        <v>2015</v>
+      </c>
       <c r="H16" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I16" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J16" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K16" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L16" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M16" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O16" s="4" t="inlineStr">
@@ -8083,7 +8092,7 @@
       </c>
       <c r="Q16" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="R16" s="4" t="inlineStr">
@@ -8116,12 +8125,12 @@
       </c>
       <c r="X16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Y16" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Z16" s="4" t="inlineStr">
@@ -8131,7 +8140,7 @@
       </c>
       <c r="AA16" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="AB16" s="4" t="inlineStr">
@@ -8538,25 +8547,25 @@
         <v>55</v>
       </c>
       <c r="G17" s="7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H17" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I17" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J17" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K17" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L17" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M17" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N17" s="4" t="inlineStr">
         <is>
@@ -13397,9 +13406,6 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F27" s="6">
-        <v>6</v>
-      </c>
       <c r="N27" s="4" t="inlineStr">
         <is>
           <t/>
@@ -13444,9 +13450,6 @@
         <is>
           <t/>
         </is>
-      </c>
-      <c r="W27" s="5">
-        <v>2021</v>
       </c>
       <c r="X27" s="4" t="inlineStr">
         <is>
@@ -13866,7 +13869,7 @@
         </is>
       </c>
       <c r="F28" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N28" s="4" t="inlineStr">
         <is>
@@ -14333,6 +14336,9 @@
           <t/>
         </is>
       </c>
+      <c r="F29" s="6">
+        <v>4</v>
+      </c>
       <c r="N29" s="4" t="inlineStr">
         <is>
           <t/>
@@ -14377,6 +14383,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="W29" s="5">
+        <v>2021</v>
       </c>
       <c r="X29" s="4" t="inlineStr">
         <is>
@@ -14802,25 +14811,25 @@
         <v>239.3763</v>
       </c>
       <c r="G30" s="7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H30" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I30" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J30" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K30" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L30" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M30" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N30" s="4" t="inlineStr">
         <is>
@@ -15433,7 +15442,7 @@
       </c>
       <c r="AO31" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="AP31" s="8" t="inlineStr">
@@ -15484,7 +15493,7 @@
       </c>
       <c r="AZ31" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="BA31" s="8" t="inlineStr">
@@ -16719,13 +16728,13 @@
         </is>
       </c>
       <c r="CW33" s="5">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="CX33" s="5">
         <v>2050</v>
       </c>
       <c r="CY33" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="CZ33" s="4" t="inlineStr">
         <is>
@@ -16759,7 +16768,7 @@
       </c>
       <c r="DF33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="DG33" s="8" t="inlineStr">
@@ -18346,7 +18355,7 @@
       </c>
       <c r="T37" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U37" s="8" t="inlineStr">
@@ -22155,25 +22164,25 @@
         <v>0</v>
       </c>
       <c r="G45" s="7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H45" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I45" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J45" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K45" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L45" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M45" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N45" s="4" t="inlineStr">
         <is>
@@ -22182,7 +22191,7 @@
       </c>
       <c r="O45" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="P45" s="4" t="inlineStr">
@@ -22641,25 +22650,25 @@
         <v>0</v>
       </c>
       <c r="G46" s="7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H46" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I46" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J46" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K46" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L46" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M46" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N46" s="4" t="inlineStr">
         <is>
@@ -22678,17 +22687,17 @@
       </c>
       <c r="Q46" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="R46" s="4" t="inlineStr">
         <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="S46" s="4" t="inlineStr">
+        <is>
           <t>Blitz</t>
-        </is>
-      </c>
-      <c r="S46" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
         </is>
       </c>
       <c r="T46" s="4" t="inlineStr">
@@ -30674,39 +30683,48 @@
           <t/>
         </is>
       </c>
+      <c r="CK62" s="5">
+        <v>2023</v>
+      </c>
+      <c r="CL62" s="5">
+        <v>2030</v>
+      </c>
+      <c r="CM62" s="6">
+        <v>45</v>
+      </c>
       <c r="CN62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="CO62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="CP62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="CQ62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="CR62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="CS62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="CT62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="CU62" s="8" t="inlineStr">
@@ -30720,13 +30738,13 @@
         </is>
       </c>
       <c r="CW62" s="5">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="CX62" s="5">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="CY62" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="CZ62" s="4" t="inlineStr">
         <is>
@@ -30750,7 +30768,7 @@
       </c>
       <c r="DD62" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DE62" s="4" t="inlineStr">
@@ -35229,25 +35247,25 @@
         <v>15</v>
       </c>
       <c r="G72" s="7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H72" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I72" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J72" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K72" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L72" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M72" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N72" s="4" t="inlineStr">
         <is>
@@ -37137,25 +37155,25 @@
         </is>
       </c>
       <c r="G76" s="7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H76" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I76" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J76" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K76" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L76" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M76" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N76" s="4" t="inlineStr">
         <is>
@@ -37316,7 +37334,7 @@
       </c>
       <c r="AV76" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AW76" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -561,7 +561,7 @@
   <cols>
     <col customWidth="true" min="1" max="1" width="23.14453125"/>
     <col customWidth="true" min="2" max="2" width="13.8359375"/>
-    <col customWidth="true" min="3" max="3" width="50.9765625"/>
+    <col customWidth="true" min="3" max="3" width="17.87109375"/>
     <col customWidth="true" min="4" max="4" width="13.8359375"/>
     <col customWidth="true" min="5" max="5" width="13.8359375"/>
     <col customWidth="true" min="6" max="6" width="13.8359375"/>
@@ -6128,12 +6128,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="L12" s="7">
+      <c r="M12" s="7">
         <v>2017</v>
       </c>
-      <c r="M12" s="7">
-        <v>2021</v>
-      </c>
       <c r="N12" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6161,7 +6158,7 @@
       </c>
       <c r="S12" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t/>
         </is>
       </c>
       <c r="T12" s="4" t="inlineStr">
@@ -9574,7 +9571,7 @@
       </c>
       <c r="T19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U19" s="8" t="inlineStr">
@@ -9670,7 +9667,7 @@
       </c>
       <c r="AO19" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AP19" s="8" t="inlineStr">
@@ -15346,7 +15343,7 @@
       </c>
       <c r="T31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="U31" s="8" t="inlineStr">
@@ -15442,7 +15439,7 @@
       </c>
       <c r="AO31" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="AP31" s="8" t="inlineStr">
@@ -15856,7 +15853,7 @@
       </c>
       <c r="T32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U32" s="8" t="inlineStr">
@@ -15952,7 +15949,7 @@
       </c>
       <c r="AO32" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AP32" s="8" t="inlineStr">
@@ -16372,7 +16369,7 @@
       </c>
       <c r="T33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U33" s="8" t="inlineStr">
@@ -16468,7 +16465,7 @@
       </c>
       <c r="AO33" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AP33" s="8" t="inlineStr">
@@ -16728,13 +16725,13 @@
         </is>
       </c>
       <c r="CW33" s="5">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="CX33" s="5">
         <v>2050</v>
       </c>
       <c r="CY33" s="6">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="CZ33" s="4" t="inlineStr">
         <is>
@@ -16768,7 +16765,7 @@
       </c>
       <c r="DF33" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="DG33" s="8" t="inlineStr">
@@ -18355,7 +18352,7 @@
       </c>
       <c r="T37" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="U37" s="8" t="inlineStr">
@@ -30382,7 +30379,7 @@
       </c>
       <c r="T62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U62" s="8" t="inlineStr">
@@ -30478,7 +30475,7 @@
       </c>
       <c r="AO62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AP62" s="8" t="inlineStr">
@@ -30683,92 +30680,83 @@
           <t/>
         </is>
       </c>
-      <c r="CK62" s="5">
-        <v>2023</v>
-      </c>
-      <c r="CL62" s="5">
-        <v>2030</v>
-      </c>
-      <c r="CM62" s="6">
-        <v>45</v>
-      </c>
       <c r="CN62" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CO62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CQ62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CR62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CS62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CT62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CU62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CV62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CW62" s="5">
+        <v>2021</v>
+      </c>
+      <c r="CX62" s="5">
+        <v>2040</v>
+      </c>
+      <c r="CY62" s="6">
+        <v>30</v>
+      </c>
+      <c r="CZ62" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="CO62" s="4" t="inlineStr">
+      <c r="DA62" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="CP62" s="4" t="inlineStr">
+      <c r="DB62" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="CQ62" s="4" t="inlineStr">
+      <c r="DC62" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="CR62" s="4" t="inlineStr">
+      <c r="DD62" s="4" t="inlineStr">
         <is>
           <t>Leicht bewölkt</t>
-        </is>
-      </c>
-      <c r="CS62" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="CT62" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="CU62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CV62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CW62" s="5">
-        <v>2023</v>
-      </c>
-      <c r="CX62" s="5">
-        <v>2050</v>
-      </c>
-      <c r="CY62" s="6">
-        <v>0</v>
-      </c>
-      <c r="CZ62" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="DA62" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="DB62" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="DC62" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="DD62" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
         </is>
       </c>
       <c r="DE62" s="4" t="inlineStr">
@@ -35247,25 +35235,25 @@
         <v>15</v>
       </c>
       <c r="G72" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H72" s="7">
         <v>2015</v>
       </c>
-      <c r="H72" s="7">
+      <c r="I72" s="7">
         <v>2016</v>
       </c>
-      <c r="I72" s="7">
+      <c r="J72" s="7">
         <v>2017</v>
       </c>
-      <c r="J72" s="7">
+      <c r="K72" s="7">
         <v>2018</v>
       </c>
-      <c r="K72" s="7">
+      <c r="L72" s="7">
         <v>2019</v>
       </c>
-      <c r="L72" s="7">
+      <c r="M72" s="7">
         <v>2020</v>
-      </c>
-      <c r="M72" s="7">
-        <v>2021</v>
       </c>
       <c r="N72" s="4" t="inlineStr">
         <is>
@@ -37154,24 +37142,6 @@
           <t>K</t>
         </is>
       </c>
-      <c r="G76" s="7">
-        <v>2015</v>
-      </c>
-      <c r="H76" s="7">
-        <v>2016</v>
-      </c>
-      <c r="I76" s="7">
-        <v>2017</v>
-      </c>
-      <c r="J76" s="7">
-        <v>2018</v>
-      </c>
-      <c r="K76" s="7">
-        <v>2019</v>
-      </c>
-      <c r="L76" s="7">
-        <v>2020</v>
-      </c>
       <c r="M76" s="7">
         <v>2021</v>
       </c>
@@ -37207,7 +37177,7 @@
       </c>
       <c r="T76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="U76" s="8" t="inlineStr">
@@ -37303,7 +37273,7 @@
       </c>
       <c r="AO76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AP76" s="8" t="inlineStr">
@@ -37324,37 +37294,37 @@
       </c>
       <c r="AT76" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AU76" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AV76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AW76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AX76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AY76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AZ76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BA76" s="8" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -6128,8 +6128,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="L12" s="7">
+        <v>2017</v>
+      </c>
       <c r="M12" s="7">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="N12" s="4" t="inlineStr">
         <is>
@@ -6158,7 +6161,7 @@
       </c>
       <c r="S12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Blitz</t>
         </is>
       </c>
       <c r="T12" s="4" t="inlineStr">
@@ -9036,29 +9039,29 @@
         <v>35</v>
       </c>
       <c r="G18" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H18" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="I18" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="J18" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="K18" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="L18" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M18" s="7">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="N18" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="O18" s="4" t="inlineStr">
@@ -9519,25 +9522,25 @@
         </is>
       </c>
       <c r="G19" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H19" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="I19" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="J19" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="K19" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="L19" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M19" s="7">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="N19" s="4" t="inlineStr">
         <is>
@@ -9566,7 +9569,7 @@
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T19" s="4" t="inlineStr">
@@ -9662,7 +9665,7 @@
       </c>
       <c r="AN19" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AO19" s="4" t="inlineStr">
@@ -9693,12 +9696,12 @@
       </c>
       <c r="AU19" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="AV19" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AW19" s="4" t="inlineStr">
@@ -18352,7 +18355,7 @@
       </c>
       <c r="T37" s="4" t="inlineStr">
         <is>
-          <t>Blitz</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U37" s="8" t="inlineStr">
@@ -35235,25 +35238,25 @@
         <v>15</v>
       </c>
       <c r="G72" s="7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H72" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I72" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J72" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K72" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L72" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M72" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N72" s="4" t="inlineStr">
         <is>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -13438,7 +13438,7 @@
       </c>
       <c r="T27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>#BEZUG!</t>
         </is>
       </c>
       <c r="U27" s="8" t="inlineStr">
@@ -15346,7 +15346,7 @@
       </c>
       <c r="T31" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="U31" s="8" t="inlineStr">
@@ -15856,7 +15856,7 @@
       </c>
       <c r="T32" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="U32" s="8" t="inlineStr">
@@ -16372,7 +16372,7 @@
       </c>
       <c r="T33" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="U33" s="8" t="inlineStr">
@@ -30382,7 +30382,7 @@
       </c>
       <c r="T62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="U62" s="8" t="inlineStr">
@@ -37145,42 +37145,66 @@
           <t>K</t>
         </is>
       </c>
+      <c r="E76" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F76" s="6">
+        <v>236780</v>
+      </c>
+      <c r="G76" s="7">
+        <v>2015</v>
+      </c>
+      <c r="H76" s="7">
+        <v>2016</v>
+      </c>
+      <c r="I76" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J76" s="7">
+        <v>2018</v>
+      </c>
+      <c r="K76" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L76" s="7">
+        <v>2020</v>
+      </c>
       <c r="M76" s="7">
         <v>2021</v>
       </c>
       <c r="N76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Q76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="R76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="S76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="T76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="U76" s="8" t="inlineStr">
@@ -37238,40 +37262,34 @@
           <t>Increase the number by 10% from 2015 to 2020</t>
         </is>
       </c>
-      <c r="AG76" s="5">
-        <v>2020</v>
-      </c>
-      <c r="AH76" s="6">
-        <v>236780</v>
-      </c>
       <c r="AI76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AJ76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AK76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AL76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AM76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AN76" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AO76" s="4" t="inlineStr">
@@ -37288,46 +37306,43 @@
         <is>
           <t>Stabilisation</t>
         </is>
-      </c>
-      <c r="AR76" s="5">
-        <v>0</v>
       </c>
       <c r="AS76" s="6">
         <v>236780</v>
       </c>
       <c r="AT76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AU76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AV76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AW76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AX76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AY76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AZ76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="BA76" s="8" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -37145,12 +37145,6 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E76" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F76" s="6">
-        <v>236780</v>
-      </c>
       <c r="G76" s="7">
         <v>2015</v>
       </c>
@@ -37174,122 +37168,128 @@
       </c>
       <c r="N76" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U76" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V76" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE76" s="8" t="inlineStr">
+        <is>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
+        </is>
+      </c>
+      <c r="AF76" s="8" t="inlineStr">
+        <is>
+          <t>Increase the number by 10% from 2015 to 2020</t>
+        </is>
+      </c>
+      <c r="AG76" s="5">
+        <v>2020</v>
+      </c>
+      <c r="AH76" s="6">
+        <v>236780</v>
+      </c>
+      <c r="AI76" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="O76" s="4" t="inlineStr">
+      <c r="AJ76" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="P76" s="4" t="inlineStr">
+      <c r="AK76" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="Q76" s="4" t="inlineStr">
+      <c r="AL76" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="R76" s="4" t="inlineStr">
+      <c r="AM76" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="S76" s="4" t="inlineStr">
+      <c r="AN76" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
-        </is>
-      </c>
-      <c r="T76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U76" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V76" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE76" s="8" t="inlineStr">
-        <is>
-          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
-        </is>
-      </c>
-      <c r="AF76" s="8" t="inlineStr">
-        <is>
-          <t>Increase the number by 10% from 2015 to 2020</t>
-        </is>
-      </c>
-      <c r="AI76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN76" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="AO76" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -9574,7 +9574,7 @@
       </c>
       <c r="T19" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="U19" s="8" t="inlineStr">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="T27" s="4" t="inlineStr">
         <is>
-          <t>#BEZUG!</t>
+          <t/>
         </is>
       </c>
       <c r="U27" s="8" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -16674,13 +16674,13 @@
         </is>
       </c>
       <c r="CK33" s="5">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="CL33" s="5">
         <v>2030</v>
       </c>
       <c r="CM33" s="6">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="CN33" s="4" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
       </c>
       <c r="CO33" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="CP33" s="4" t="inlineStr">
@@ -16714,7 +16714,7 @@
       </c>
       <c r="CT33" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="CU33" s="8" t="inlineStr">
@@ -30683,39 +30683,48 @@
           <t/>
         </is>
       </c>
+      <c r="CK62" s="5">
+        <v>2023</v>
+      </c>
+      <c r="CL62" s="5">
+        <v>2030</v>
+      </c>
+      <c r="CM62" s="6">
+        <v>45</v>
+      </c>
       <c r="CN62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="CO62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="CP62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="CQ62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="CR62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="CS62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="CT62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="CU62" s="8" t="inlineStr">
@@ -30729,13 +30738,13 @@
         </is>
       </c>
       <c r="CW62" s="5">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="CX62" s="5">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="CY62" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="CZ62" s="4" t="inlineStr">
         <is>
@@ -30759,7 +30768,7 @@
       </c>
       <c r="DD62" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="DE62" s="4" t="inlineStr">
@@ -30849,10 +30858,10 @@
         </is>
       </c>
       <c r="E63" s="5">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="F63" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I63" s="7">
         <v>2016</v>
@@ -30891,62 +30900,65 @@
       </c>
       <c r="R63" s="4" t="inlineStr">
         <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="S63" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="T63" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="U63" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V63" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W63" s="5">
+        <v>2023</v>
+      </c>
+      <c r="X63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z63" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AA63" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AB63" s="4" t="inlineStr">
+        <is>
           <t>Leicht bewölkt</t>
         </is>
       </c>
-      <c r="S63" s="4" t="inlineStr">
+      <c r="AC63" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="T63" s="4" t="inlineStr">
+      <c r="AD63" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
-        </is>
-      </c>
-      <c r="U63" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V63" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X63" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y63" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z63" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA63" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB63" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC63" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD63" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="AE63" s="8" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -2838,16 +2838,16 @@
       </c>
       <c r="U5" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf 20 % bis 2030</t>
         </is>
       </c>
       <c r="V5" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase the proportion of organically farmed agricultural land to 20% by 2030</t>
         </is>
       </c>
       <c r="W5" s="5">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="X5" s="4" t="inlineStr">
         <is>
@@ -9569,57 +9569,60 @@
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U19" s="8" t="inlineStr">
+        <is>
+          <t>Anstieg auf 60 % bis 2020 und auf 70 % bis 2030</t>
+        </is>
+      </c>
+      <c r="V19" s="8" t="inlineStr">
+        <is>
+          <t>Increase to 60% by 2020 and to 70% by 2030</t>
+        </is>
+      </c>
+      <c r="W19" s="5">
+        <v>2022</v>
+      </c>
+      <c r="X19" s="4" t="inlineStr">
+        <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="T19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U19" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V19" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="Y19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Z19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AA19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AB19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AC19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AD19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AE19" s="8" t="inlineStr">
@@ -9632,35 +9635,29 @@
           <t>Increase to 60% by 2020</t>
         </is>
       </c>
-      <c r="AG19" s="5">
-        <v>2020</v>
-      </c>
-      <c r="AH19" s="6">
-        <v>60</v>
-      </c>
       <c r="AI19" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AJ19" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AK19" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AL19" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AM19" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AN19" s="4" t="inlineStr">
@@ -9824,39 +9821,45 @@
           <t/>
         </is>
       </c>
+      <c r="BZ19" s="5">
+        <v>2020</v>
+      </c>
+      <c r="CA19" s="6">
+        <v>60</v>
+      </c>
       <c r="CB19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="CC19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="CD19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="CE19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="CF19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="CG19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="CH19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="CI19" s="8" t="inlineStr">
@@ -16377,12 +16380,12 @@
       </c>
       <c r="U33" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf mindestens 35 % bis 2020, 65 % bis 2030 und Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
         </is>
       </c>
       <c r="V33" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase to at least 35% by 2020, 65% by 2030, and greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
         </is>
       </c>
       <c r="X33" s="4" t="inlineStr">
@@ -30387,12 +30390,12 @@
       </c>
       <c r="U62" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Minderung um mindestens 40 % bis 2020, um mindestens 55 % bis 2030, jeweils gegenüber 1990; Erreichung von Treibhausgasneutralität bis 2050</t>
         </is>
       </c>
       <c r="V62" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduce by at least 40% by 2020 and by at least 55% by 2030, in each case compared to 1990; greenhouse gas neutrality to be achieved by 2050</t>
         </is>
       </c>
       <c r="X62" s="4" t="inlineStr">
@@ -30915,16 +30918,16 @@
       </c>
       <c r="U63" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Verdopplung der Finanzierung bis 2020 gegenüber 2014</t>
         </is>
       </c>
       <c r="V63" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Double finance by 2020 compared to 2014</t>
         </is>
       </c>
       <c r="W63" s="5">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="X63" s="4" t="inlineStr">
         <is>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -9627,12 +9627,12 @@
       </c>
       <c r="AE19" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 60 % bis 2020</t>
+          <t/>
         </is>
       </c>
       <c r="AF19" s="8" t="inlineStr">
         <is>
-          <t>Increase to 60% by 2020</t>
+          <t/>
         </is>
       </c>
       <c r="AI19" s="4" t="inlineStr">
@@ -9813,13 +9813,16 @@
       </c>
       <c r="BW19" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 60 % bis 2020</t>
         </is>
       </c>
       <c r="BX19" s="8" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Increase to 60% by 2020</t>
+        </is>
+      </c>
+      <c r="BY19" s="5">
+        <v>2022</v>
       </c>
       <c r="BZ19" s="5">
         <v>2020</v>
@@ -9859,7 +9862,7 @@
       </c>
       <c r="CH19" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="CI19" s="8" t="inlineStr">
@@ -13453,6 +13456,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="W27" s="5">
+        <v>2021</v>
       </c>
       <c r="X27" s="4" t="inlineStr">
         <is>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -13412,6 +13412,12 @@
           <t>J</t>
         </is>
       </c>
+      <c r="L27" s="7">
+        <v>2017</v>
+      </c>
+      <c r="M27" s="7">
+        <v>2018</v>
+      </c>
       <c r="N27" s="4" t="inlineStr">
         <is>
           <t/>
@@ -13449,12 +13455,12 @@
       </c>
       <c r="U27" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>10 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="V27" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>10 million people per year by 2020</t>
         </is>
       </c>
       <c r="W27" s="5">
@@ -13487,12 +13493,12 @@
       </c>
       <c r="AC27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AD27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AE27" s="8" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -640,7 +640,7 @@
     <col customWidth="true" min="79" max="79" width="13.8359375"/>
     <col customWidth="true" min="80" max="80" width="13.8359375"/>
     <col customWidth="true" min="81" max="81" width="22.265625"/>
-    <col customWidth="true" min="82" max="82" width="13.8359375"/>
+    <col customWidth="true" min="82" max="82" width="18.1640625"/>
     <col customWidth="true" min="83" max="83" width="13.8359375"/>
     <col customWidth="true" min="84" max="84" width="33.25"/>
     <col customWidth="true" min="85" max="85" width="13.8359375"/>
@@ -9521,6 +9521,12 @@
           <t>K</t>
         </is>
       </c>
+      <c r="E19" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F19" s="6">
+        <v>70</v>
+      </c>
       <c r="G19" s="7">
         <v>2016</v>
       </c>
@@ -9544,37 +9550,37 @@
       </c>
       <c r="N19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="O19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="P19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="Q19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="T19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="U19" s="8" t="inlineStr">
@@ -9672,53 +9678,47 @@
       </c>
       <c r="AP19" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 70 % bis 2030</t>
+          <t/>
         </is>
       </c>
       <c r="AQ19" s="8" t="inlineStr">
         <is>
-          <t>Increase to 70% by 2030</t>
-        </is>
-      </c>
-      <c r="AR19" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AS19" s="6">
-        <v>70</v>
+          <t/>
+        </is>
       </c>
       <c r="AT19" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AU19" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="AV19" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AW19" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AX19" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AY19" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="AZ19" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="BA19" s="8" t="inlineStr">
@@ -16488,48 +16488,48 @@
       </c>
       <c r="AP33" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 65 % bis 2030</t>
+          <t>Anstieg auf 80 % bis 2030</t>
         </is>
       </c>
       <c r="AQ33" s="8" t="inlineStr">
         <is>
-          <t>Increase to 65% by 2030</t>
+          <t>Increase to 80% by 2030</t>
         </is>
       </c>
       <c r="AR33" s="5">
         <v>2030</v>
       </c>
       <c r="AS33" s="6">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AT33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="AU33" s="4" t="inlineStr">
         <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AV33" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AW33" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AX33" s="4" t="inlineStr">
+        <is>
           <t>Leicht bewölkt</t>
         </is>
       </c>
-      <c r="AV33" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="AW33" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="AX33" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
       <c r="AY33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="AZ33" s="4" t="inlineStr">
@@ -16539,53 +16539,47 @@
       </c>
       <c r="BA33" s="8" t="inlineStr">
         <is>
-          <t>Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
+          <t/>
         </is>
       </c>
       <c r="BB33" s="8" t="inlineStr">
         <is>
-          <t>Greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
-        </is>
-      </c>
-      <c r="BC33" s="5">
-        <v>2050</v>
-      </c>
-      <c r="BD33" s="6">
-        <v>100</v>
+          <t/>
+        </is>
       </c>
       <c r="BE33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BF33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BG33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BH33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BI33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BJ33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="BK33" s="4" t="inlineStr">
         <is>
-          <t>Leicht bewölkt</t>
+          <t/>
         </is>
       </c>
       <c r="BL33" s="8" t="inlineStr">
@@ -16680,22 +16674,22 @@
       </c>
       <c r="CI33" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 50 % bis 2030</t>
+          <t>Anstieg auf 65 % bis 2030</t>
         </is>
       </c>
       <c r="CJ33" s="8" t="inlineStr">
         <is>
-          <t>Increase to 50% by 2030</t>
+          <t>Increase to 65% by 2030</t>
         </is>
       </c>
       <c r="CK33" s="5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="CL33" s="5">
         <v>2030</v>
       </c>
       <c r="CM33" s="6">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="CN33" s="4" t="inlineStr">
         <is>
@@ -16704,52 +16698,52 @@
       </c>
       <c r="CO33" s="4" t="inlineStr">
         <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="CP33" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="CP33" s="4" t="inlineStr">
+      <c r="CQ33" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="CQ33" s="4" t="inlineStr">
+      <c r="CR33" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="CR33" s="4" t="inlineStr">
+      <c r="CS33" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="CS33" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
       <c r="CT33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Wolke</t>
         </is>
       </c>
       <c r="CU33" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
         </is>
       </c>
       <c r="CV33" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
         </is>
       </c>
       <c r="CW33" s="5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="CX33" s="5">
         <v>2050</v>
       </c>
       <c r="CY33" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="CZ33" s="4" t="inlineStr">
         <is>
@@ -16783,7 +16777,7 @@
       </c>
       <c r="DF33" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="DG33" s="8" t="inlineStr">
@@ -30344,6 +30338,12 @@
           <t>K</t>
         </is>
       </c>
+      <c r="E62" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F62" s="6">
+        <v>35</v>
+      </c>
       <c r="G62" s="7">
         <v>2015</v>
       </c>
@@ -30402,12 +30402,12 @@
       </c>
       <c r="U62" s="8" t="inlineStr">
         <is>
-          <t>Minderung um mindestens 40 % bis 2020, um mindestens 55 % bis 2030, jeweils gegenüber 1990; Erreichung von Treibhausgasneutralität bis 2050</t>
+          <t/>
         </is>
       </c>
       <c r="V62" s="8" t="inlineStr">
         <is>
-          <t>Reduce by at least 40% by 2020 and by at least 55% by 2030, in each case compared to 1990; greenhouse gas neutrality to be achieved by 2050</t>
+          <t/>
         </is>
       </c>
       <c r="X62" s="4" t="inlineStr">
@@ -30498,19 +30498,19 @@
       </c>
       <c r="AP62" s="8" t="inlineStr">
         <is>
-          <t>Minderung um mindestens 55 % bis 2030, gegenüber 1990</t>
+          <t>Minderung um mindestens 65 % bis 2030</t>
         </is>
       </c>
       <c r="AQ62" s="8" t="inlineStr">
         <is>
-          <t>Reduce by at least 55% by 2030, compared to 1990</t>
+          <t>Reduce by at least 65% by 2030</t>
         </is>
       </c>
       <c r="AR62" s="5">
         <v>2030</v>
       </c>
       <c r="AS62" s="6">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AT62" s="4" t="inlineStr">
         <is>
@@ -30534,113 +30534,119 @@
       </c>
       <c r="AX62" s="4" t="inlineStr">
         <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AY62" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="AZ62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BA62" s="8" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens 88 % bis 2040</t>
+        </is>
+      </c>
+      <c r="BB62" s="8" t="inlineStr">
+        <is>
+          <t>Reduce by at least 88% by 2040</t>
+        </is>
+      </c>
+      <c r="BC62" s="5">
+        <v>2040</v>
+      </c>
+      <c r="BD62" s="6">
+        <v>12</v>
+      </c>
+      <c r="BE62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BF62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BG62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BH62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BI62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BJ62" s="4" t="inlineStr">
+        <is>
+          <t>Sonne</t>
+        </is>
+      </c>
+      <c r="BK62" s="4" t="inlineStr">
+        <is>
           <t>Leicht bewölkt</t>
         </is>
       </c>
-      <c r="AY62" s="4" t="inlineStr">
+      <c r="BL62" s="8" t="inlineStr">
+        <is>
+          <t>Treibhausgasneutralität bis 2045</t>
+        </is>
+      </c>
+      <c r="BM62" s="8" t="inlineStr">
+        <is>
+          <t>Greenhouse gas neutrality to be achieved by 2045</t>
+        </is>
+      </c>
+      <c r="BN62" s="5">
+        <v>2045</v>
+      </c>
+      <c r="BO62" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BQ62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BR62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BS62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BT62" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="BU62" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="AZ62" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="BA62" s="8" t="inlineStr">
-        <is>
-          <t>Erreichung von Treibhausgasneutralität bis 2050</t>
-        </is>
-      </c>
-      <c r="BB62" s="8" t="inlineStr">
-        <is>
-          <t>Greenhouse gas neutrality to be achieved by 2050</t>
-        </is>
-      </c>
-      <c r="BC62" s="5">
-        <v>2050</v>
-      </c>
-      <c r="BD62" s="6">
-        <v>0</v>
-      </c>
-      <c r="BE62" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BF62" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BG62" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BH62" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BI62" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="BJ62" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="BK62" s="4" t="inlineStr">
-        <is>
-          <t>Sonne</t>
-        </is>
-      </c>
-      <c r="BL62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BM62" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BP62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BR62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BT62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BU62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="BV62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="BW62" s="8" t="inlineStr">
@@ -30690,16 +30696,16 @@
       </c>
       <c r="CI62" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Minderung um mindestens 55 % bis 2030</t>
         </is>
       </c>
       <c r="CJ62" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduce by at least 55% by 2030</t>
         </is>
       </c>
       <c r="CK62" s="5">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="CL62" s="5">
         <v>2030</v>
@@ -30752,48 +30758,39 @@
           <t/>
         </is>
       </c>
-      <c r="CW62" s="5">
-        <v>2023</v>
-      </c>
-      <c r="CX62" s="5">
-        <v>2050</v>
-      </c>
-      <c r="CY62" s="6">
-        <v>0</v>
-      </c>
       <c r="CZ62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DA62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DB62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DC62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DD62" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="DE62" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="DF62" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="DG62" s="8" t="inlineStr">
@@ -30805,15 +30802,6 @@
         <is>
           <t/>
         </is>
-      </c>
-      <c r="DI62" s="5">
-        <v>2023</v>
-      </c>
-      <c r="DJ62" s="5">
-        <v>0</v>
-      </c>
-      <c r="DK62" s="6">
-        <v>0</v>
       </c>
       <c r="DL62" s="4" t="inlineStr">
         <is>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -9550,175 +9550,184 @@
       </c>
       <c r="N19" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U19" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V19" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE19" s="8" t="inlineStr">
+        <is>
+          <t>Anstieg auf 60 % bis 2020</t>
+        </is>
+      </c>
+      <c r="AF19" s="8" t="inlineStr">
+        <is>
+          <t>Increase to 60% by 2020</t>
+        </is>
+      </c>
+      <c r="AG19" s="5">
+        <v>2020</v>
+      </c>
+      <c r="AH19" s="6">
+        <v>60</v>
+      </c>
+      <c r="AI19" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AJ19" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AK19" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AL19" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AM19" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AN19" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AO19" s="4" t="inlineStr">
+        <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="AP19" s="8" t="inlineStr">
+        <is>
+          <t>Anstieg auf 70 % bis 2030</t>
+        </is>
+      </c>
+      <c r="AQ19" s="8" t="inlineStr">
+        <is>
+          <t>Increase to 70% by 2030</t>
+        </is>
+      </c>
+      <c r="AR19" s="5">
+        <v>2030</v>
+      </c>
+      <c r="AS19" s="6">
+        <v>70</v>
+      </c>
+      <c r="AT19" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="O19" s="4" t="inlineStr">
+      <c r="AU19" s="4" t="inlineStr">
         <is>
           <t>Leicht bewölkt</t>
         </is>
       </c>
-      <c r="P19" s="4" t="inlineStr">
+      <c r="AV19" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="Q19" s="4" t="inlineStr">
+      <c r="AW19" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="R19" s="4" t="inlineStr">
+      <c r="AX19" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="S19" s="4" t="inlineStr">
+      <c r="AY19" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="T19" s="4" t="inlineStr">
+      <c r="AZ19" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
-        </is>
-      </c>
-      <c r="U19" s="8" t="inlineStr">
-        <is>
-          <t>Anstieg auf 60 % bis 2020 und auf 70 % bis 2030</t>
-        </is>
-      </c>
-      <c r="V19" s="8" t="inlineStr">
-        <is>
-          <t>Increase to 60% by 2020 and to 70% by 2030</t>
-        </is>
-      </c>
-      <c r="W19" s="5">
-        <v>2022</v>
-      </c>
-      <c r="X19" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="Y19" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="Z19" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="AA19" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="AB19" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="AC19" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="AD19" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
-        </is>
-      </c>
-      <c r="AE19" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF19" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP19" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ19" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AT19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AU19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AV19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AW19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AX19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AY19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AZ19" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="BA19" s="8" t="inlineStr">
@@ -13412,6 +13421,9 @@
           <t>J</t>
         </is>
       </c>
+      <c r="F27" s="6">
+        <v>6</v>
+      </c>
       <c r="L27" s="7">
         <v>2017</v>
       </c>
@@ -13455,16 +13467,13 @@
       </c>
       <c r="U27" s="8" t="inlineStr">
         <is>
-          <t>10 Millionen Menschen pro Jahr bis 2030</t>
+          <t/>
         </is>
       </c>
       <c r="V27" s="8" t="inlineStr">
         <is>
-          <t>10 million people per year by 2020</t>
-        </is>
-      </c>
-      <c r="W27" s="5">
-        <v>2021</v>
+          <t/>
+        </is>
       </c>
       <c r="X27" s="4" t="inlineStr">
         <is>
@@ -13493,12 +13502,12 @@
       </c>
       <c r="AC27" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AD27" s="4" t="inlineStr">
         <is>
-          <t>Sonne</t>
+          <t/>
         </is>
       </c>
       <c r="AE27" s="8" t="inlineStr">
@@ -13884,7 +13893,7 @@
         </is>
       </c>
       <c r="F28" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N28" s="4" t="inlineStr">
         <is>
@@ -13930,9 +13939,6 @@
         <is>
           <t/>
         </is>
-      </c>
-      <c r="W28" s="5">
-        <v>2021</v>
       </c>
       <c r="X28" s="4" t="inlineStr">
         <is>
@@ -14352,7 +14358,7 @@
         </is>
       </c>
       <c r="F29" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N29" s="4" t="inlineStr">
         <is>
@@ -14391,12 +14397,12 @@
       </c>
       <c r="U29" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>10 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="V29" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>10 million people per year by 2020</t>
         </is>
       </c>
       <c r="W29" s="5">
@@ -14429,12 +14435,12 @@
       </c>
       <c r="AC29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AD29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="AE29" s="8" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -9822,51 +9822,42 @@
       </c>
       <c r="BW19" s="8" t="inlineStr">
         <is>
-          <t>Anstieg auf 60 % bis 2020</t>
+          <t/>
         </is>
       </c>
       <c r="BX19" s="8" t="inlineStr">
         <is>
-          <t>Increase to 60% by 2020</t>
-        </is>
-      </c>
-      <c r="BY19" s="5">
-        <v>2022</v>
-      </c>
-      <c r="BZ19" s="5">
-        <v>2020</v>
-      </c>
-      <c r="CA19" s="6">
-        <v>60</v>
+          <t/>
+        </is>
       </c>
       <c r="CB19" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="CC19" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="CD19" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="CE19" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="CF19" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="CG19" s="4" t="inlineStr">
         <is>
-          <t>Wolke</t>
+          <t/>
         </is>
       </c>
       <c r="CH19" s="4" t="inlineStr">
@@ -14354,7 +14345,7 @@
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K</t>
         </is>
       </c>
       <c r="F29" s="6">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -10992,7 +10992,7 @@
         <v>2025</v>
       </c>
       <c r="F22" s="6">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G22" s="7">
         <v>2012</v>
@@ -30863,20 +30863,23 @@
       <c r="F63" s="6">
         <v>6</v>
       </c>
+      <c r="H63" s="7">
+        <v>2016</v>
+      </c>
       <c r="I63" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J63" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K63" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L63" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M63" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N63" s="4" t="inlineStr">
         <is>
@@ -30885,7 +30888,7 @@
       </c>
       <c r="O63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="P63" s="4" t="inlineStr">
@@ -30895,12 +30898,12 @@
       </c>
       <c r="Q63" s="4" t="inlineStr">
         <is>
+          <t>Wolke</t>
+        </is>
+      </c>
+      <c r="R63" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
-        </is>
-      </c>
-      <c r="R63" s="4" t="inlineStr">
-        <is>
-          <t>Wolke</t>
         </is>
       </c>
       <c r="S63" s="4" t="inlineStr">
@@ -30933,7 +30936,7 @@
       </c>
       <c r="Y63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonne</t>
         </is>
       </c>
       <c r="Z63" s="4" t="inlineStr">
@@ -30943,12 +30946,12 @@
       </c>
       <c r="AA63" s="4" t="inlineStr">
         <is>
+          <t>Leicht bewölkt</t>
+        </is>
+      </c>
+      <c r="AB63" s="4" t="inlineStr">
+        <is>
           <t>Sonne</t>
-        </is>
-      </c>
-      <c r="AB63" s="4" t="inlineStr">
-        <is>
-          <t>Leicht bewölkt</t>
         </is>
       </c>
       <c r="AC63" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -3101,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="T16" s="8">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="W16" s="6" t="inlineStr">
         <is>
@@ -15792,13 +15792,13 @@
       <c r="P95" s="4" t="inlineStr">
         <is>
           <t>Ziel: 
-52 %</t>
+52</t>
         </is>
       </c>
       <c r="Q95" s="4" t="inlineStr">
         <is>
-          <t>Target: 
-52%</t>
+          <t>Target:
+52</t>
         </is>
       </c>
       <c r="R95" s="5" t="b">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -3170,7 +3170,7 @@
       </c>
       <c r="AJ16" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AK16" s="4" t="inlineStr">
@@ -10041,7 +10041,7 @@
         <v>1</v>
       </c>
       <c r="S59" s="8">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="T59" s="8">
         <v>3.8</v>
@@ -17381,10 +17381,10 @@
         <v>1</v>
       </c>
       <c r="S105" s="8">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="T105" s="8">
-        <v>237000</v>
+        <v>250000</v>
       </c>
       <c r="U105" s="7">
         <v>2019</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -10041,7 +10041,7 @@
         <v>1</v>
       </c>
       <c r="S59" s="8">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="T59" s="8">
         <v>3.8</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -566,7 +566,7 @@
     <col customWidth="true" min="5" max="5" width="32.078125"/>
     <col customWidth="true" min="6" max="6" width="10.10546875"/>
     <col customWidth="true" min="7" max="7" width="58.15234375"/>
-    <col customWidth="true" min="8" max="8" width="49.65625"/>
+    <col customWidth="true" min="8" max="8" width="62.83984375"/>
     <col customWidth="true" min="9" max="9" width="8.7890625"/>
     <col customWidth="true" min="10" max="10" width="13.8359375"/>
     <col customWidth="true" min="11" max="11" width="10.69140625"/>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion of organically farmed agricultural land to &lt;b&gt;30%&lt;/b&gt; by 2030</t>
+          <t>Increase the proportion of organically farmed agricultural land to &lt;b&gt;30 %&lt;/b&gt; by 2030</t>
         </is>
       </c>
       <c r="I5" s="4" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion of organically farmed agricultural land to &lt;b&gt;20%&lt;/b&gt; by 2030</t>
+          <t>Increase the proportion of organically farmed agricultural land to &lt;b&gt;20 %&lt;/b&gt; by 2030</t>
         </is>
       </c>
       <c r="I6" s="4" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H10" s="4" t="inlineStr">
         <is>
-          <t>Reduction to 7% by 2030</t>
+          <t>Reduction to 7 % by 2030</t>
         </is>
       </c>
       <c r="I10" s="4" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H11" s="4" t="inlineStr">
         <is>
-          <t>Reduction to 19% by 2030</t>
+          <t>Reduction to 19 % by 2030</t>
         </is>
       </c>
       <c r="I11" s="4" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="H14" s="4" t="inlineStr">
         <is>
-          <t>Reduction of emissions to 55% of 2005 level (unweighted average of the five pollutants) by 2030</t>
+          <t>Reduction of emissions to 55 % of 2005 level (unweighted average of the five pollutants) by 2030</t>
         </is>
       </c>
       <c r="I14" s="4" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="H17" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion to &lt;b&gt;9.5%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Reduce the proportion to &lt;b&gt;9.5 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I17" s="4" t="inlineStr">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="H18" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion to &lt;b&gt;10%&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+          <t>Reduce the proportion to &lt;b&gt;10 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I18" s="4" t="inlineStr">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="H19" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to &lt;b&gt;55%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Increase the proportion to &lt;b&gt;55 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I19" s="4" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to &lt;b&gt;24%&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+          <t>Increase the proportion to &lt;b&gt;24 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
-          <t>Increase to 35% by 2030</t>
+          <t>Increase to 35 % by 2030</t>
         </is>
       </c>
       <c r="I21" s="4" t="inlineStr">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
-          <t>Increase to &lt;b&gt;60%&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+          <t>Increase to &lt;b&gt;60 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I22" s="4" t="inlineStr">
@@ -4192,7 +4192,7 @@
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
-          <t>Increase to &lt;b&gt;70%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Increase to &lt;b&gt;70 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I23" s="4" t="inlineStr">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>Reduce the gap to 10% by 2020</t>
+          <t>Reduce the gap to 10 % by 2020</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="H26" s="4" t="inlineStr">
         <is>
-          <t>30% women on supervisory boards of listed and fully co-determined companies by 2030</t>
+          <t>30 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
         </is>
       </c>
       <c r="I26" s="4" t="inlineStr">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="H28" s="4" t="inlineStr">
         <is>
-          <t>65% by 2030</t>
+          <t>65 % by 2030</t>
         </is>
       </c>
       <c r="I28" s="4" t="inlineStr">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="H36" s="4" t="inlineStr">
         <is>
-          <t>Reduction by &lt;b&gt;20%&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt; compared to 2008</t>
+          <t>Reduction by &lt;b&gt;20 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt; compared to 2008</t>
         </is>
       </c>
       <c r="I36" s="4" t="inlineStr">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="H37" s="4" t="inlineStr">
         <is>
-          <t>Reduction by &lt;b&gt;30%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt; compared to 2008</t>
+          <t>Reduction by &lt;b&gt;30 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt; compared to 2008</t>
         </is>
       </c>
       <c r="I37" s="4" t="inlineStr">
@@ -6619,7 +6619,7 @@
       </c>
       <c r="H38" s="4" t="inlineStr">
         <is>
-          <t>Reduction by &lt;b&gt;50%&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt; compared to 2008</t>
+          <t>Reduction by &lt;b&gt;50 %&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt; compared to 2008</t>
         </is>
       </c>
       <c r="I38" s="4" t="inlineStr">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="H39" s="4" t="inlineStr">
         <is>
-          <t>Increase to &lt;b&gt;18%&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+          <t>Increase to &lt;b&gt;18 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="H40" s="4" t="inlineStr">
         <is>
-          <t>Increase to &lt;b&gt;30%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Increase to &lt;b&gt;30 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I40" s="4" t="inlineStr">
@@ -7105,7 +7105,7 @@
       </c>
       <c r="H41" s="4" t="inlineStr">
         <is>
-          <t>Increase to &lt;b&gt;45%&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Increase to &lt;b&gt;45 %&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I41" s="4" t="inlineStr">
@@ -7268,7 +7268,7 @@
       </c>
       <c r="H42" s="4" t="inlineStr">
         <is>
-          <t>Increase to &lt;b&gt;60%&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Increase to &lt;b&gt;60 %&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I42" s="4" t="inlineStr">
@@ -7431,7 +7431,7 @@
       </c>
       <c r="H43" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least &lt;b&gt;35%&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+          <t>Increase to at least &lt;b&gt;35 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I43" s="4" t="inlineStr">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="H44" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least &lt;b&gt;80%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Increase to at least &lt;b&gt;80 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I44" s="4" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="H47" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least &lt;b&gt;50%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Increase to at least &lt;b&gt;50 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I47" s="4" t="inlineStr">
@@ -8249,7 +8249,7 @@
       </c>
       <c r="H48" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least &lt;b&gt;65%&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Increase to at least &lt;b&gt;65 %&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I48" s="4" t="inlineStr">
@@ -8412,7 +8412,7 @@
       </c>
       <c r="H49" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least &lt;b&gt;80%&lt;/b&gt; by 2050&lt;/b&gt;</t>
+          <t>Increase to at least &lt;b&gt;80 %&lt;/b&gt; by 2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I49" s="4" t="inlineStr">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="H51" s="4" t="inlineStr">
         <is>
-          <t>Annual government deficit less than 3% of GDP, to be maintained until 2030</t>
+          <t>Annual government deficit less than 3 % of GDP, to be maintained until 2030</t>
         </is>
       </c>
       <c r="I51" s="4" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="H52" s="4" t="inlineStr">
         <is>
-          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5% of GDP, to be maintained until 2030</t>
+          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of GDP, to be maintained until 2030</t>
         </is>
       </c>
       <c r="I52" s="4" t="inlineStr">
@@ -9058,7 +9058,7 @@
       </c>
       <c r="H53" s="4" t="inlineStr">
         <is>
-          <t>Ratio of government debt to GDP must not exceed  60%, to be maintained until 2030</t>
+          <t>Ratio of government debt to GDP must not exceed  60 %, to be maintained until 2030</t>
         </is>
       </c>
       <c r="I53" s="4" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="H56" s="4" t="inlineStr">
         <is>
-          <t>Increase to 78% by 2030</t>
+          <t>Increase to 78 % by 2030</t>
         </is>
       </c>
       <c r="I56" s="4" t="inlineStr">
@@ -9689,7 +9689,7 @@
       </c>
       <c r="H57" s="4" t="inlineStr">
         <is>
-          <t>Increase to 60% by 2030</t>
+          <t>Increase to 60 % by 2030</t>
         </is>
       </c>
       <c r="I57" s="4" t="inlineStr">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="H59" s="4" t="inlineStr">
         <is>
-          <t>At least &lt;b&gt;3.5%&lt;/b&gt; of GDP per year by &lt;b&gt;2025&lt;/b&gt;</t>
+          <t>At least &lt;b&gt;3.5 %&lt;/b&gt; of GDP per year by &lt;b&gt;2025&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I59" s="4" t="inlineStr">
@@ -10041,7 +10041,7 @@
         <v>1</v>
       </c>
       <c r="S59" s="8">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="T59" s="8">
         <v>3.8</v>
@@ -10172,7 +10172,7 @@
       </c>
       <c r="H60" s="4" t="inlineStr">
         <is>
-          <t>At least &lt;b&gt;3%&lt;/b&gt; of GDP per year by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>At least &lt;b&gt;3 %&lt;/b&gt; of GDP per year by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I60" s="4" t="inlineStr">
@@ -11582,7 +11582,7 @@
       </c>
       <c r="H69" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 15–20% by 2030</t>
+          <t>Reduction by 15–20 % by 2030</t>
         </is>
       </c>
       <c r="I69" s="4" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="H70" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 15–20% by 2030</t>
+          <t>Reduction by 15–20 % by 2030</t>
         </is>
       </c>
       <c r="I70" s="4" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="H72" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion of people who are overburdened to 13% by 2030</t>
+          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
         </is>
       </c>
       <c r="I72" s="4" t="inlineStr">
@@ -12396,7 +12396,7 @@
       </c>
       <c r="H74" s="4" t="inlineStr">
         <is>
-          <t>Increase the market share to 34% by 2030</t>
+          <t>Increase the market share to 34 % by 2030</t>
         </is>
       </c>
       <c r="I74" s="4" t="inlineStr">
@@ -13178,7 +13178,7 @@
       </c>
       <c r="H79" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 95% by 2020</t>
+          <t>Increase the proportion to 95 % by 2020</t>
         </is>
       </c>
       <c r="I79" s="4" t="inlineStr">
@@ -13492,7 +13492,7 @@
       </c>
       <c r="H81" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;40%&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;40 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I81" s="4" t="inlineStr">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="H82" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;65%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;65 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I82" s="4" t="inlineStr">
@@ -13818,7 +13818,7 @@
       </c>
       <c r="H83" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;88%&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;88 %&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I83" s="4" t="inlineStr">
@@ -14153,7 +14153,7 @@
       </c>
       <c r="H85" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;55%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;55 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I85" s="4" t="inlineStr">
@@ -14479,7 +14479,7 @@
       </c>
       <c r="H87" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;70%&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;70 %&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I87" s="4" t="inlineStr">
@@ -14642,7 +14642,7 @@
       </c>
       <c r="H88" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;80%&lt;/b&gt; to &lt;b&gt;95%&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;80 %&lt;/b&gt; to &lt;b&gt;95 %&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I88" s="4" t="inlineStr">
@@ -15153,7 +15153,7 @@
       </c>
       <c r="Q91" s="4" t="inlineStr">
         <is>
-          <t>Annual target Baltic sea: 2,6</t>
+          <t>Annual target Baltic Sea: 2,6</t>
         </is>
       </c>
       <c r="R91" s="5" t="b">
@@ -15310,7 +15310,7 @@
       </c>
       <c r="Q92" s="4" t="inlineStr">
         <is>
-          <t>Annual target North sea: 2,8</t>
+          <t>Annual target North Sea: 2,8</t>
         </is>
       </c>
       <c r="R92" s="5" t="b">
@@ -17029,7 +17029,7 @@
       </c>
       <c r="H103" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 0.7% of gross national income by 2030</t>
+          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
         </is>
       </c>
       <c r="I103" s="4" t="inlineStr">
@@ -17192,7 +17192,7 @@
       </c>
       <c r="H104" s="4" t="inlineStr">
         <is>
-          <t>Increase the number by 10% from 2015 to 2020</t>
+          <t>Increase the number by 10 % from 2015 to 2020</t>
         </is>
       </c>
       <c r="I104" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -17384,7 +17384,7 @@
         <v>15.5</v>
       </c>
       <c r="T105" s="8">
-        <v>250000</v>
+        <v>255000</v>
       </c>
       <c r="U105" s="7">
         <v>2019</v>
@@ -17547,10 +17547,10 @@
         <v>1</v>
       </c>
       <c r="S106" s="8">
-        <v>19.8</v>
+        <v>19</v>
       </c>
       <c r="T106" s="8">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="W106" s="6" t="inlineStr">
         <is>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -1351,12 +1351,12 @@
       </c>
       <c r="W5" s="6" t="inlineStr">
         <is>
-          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher: 20 % bis 2030).</t>
+          <t>Der Zielwert des Indikators wurde im &lt;a href=https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1“ &gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; vom 30. November 2022 an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (30 % bis 2030).</t>
         </is>
       </c>
       <c r="X5" s="6" t="inlineStr">
         <is>
-          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously: 20% by 2030).</t>
+          <t>The target value of the indicator was adjusted to the agreements in the coalition agreement in the &lt;a href=https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1" &gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt; of November 30, 2022. Since this resolution came into force, the revised target (30% by 2030) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y5" s="4" t="inlineStr">
@@ -1511,12 +1511,12 @@
       </c>
       <c r="W6" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Das Zieljahr des Indikators wurde im Rah-men der &lt;a href=“https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1“&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; (Kabinettbeschluss vom 7. Novem-ber 2018) an die Vereinbarungen im Koaliti-onsvertrag festgelegt. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (20 % bis 2030) bis es im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie vom 30. November 2022 erneut angepasst wurde.</t>
         </is>
       </c>
       <c r="X6" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>The target year of the indicator was adjusted as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1588964/1b24acbed2b731744c2ffa4ca9f3a6fc/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt; (Federal Cabinet resolution of No-vember 7, 2018). Since this resolution came into force, the revised target (20 % by 2030) had applied to the indicator until it was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy of November 30, 2022.</t>
         </is>
       </c>
       <c r="Y6" s="4" t="inlineStr">
@@ -3268,12 +3268,12 @@
       </c>
       <c r="W17" s="6" t="inlineStr">
         <is>
-          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher: 10 % bis 2020).</t>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; (Kabinettbeschluss vom 10. März 2021) angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (9,5 % bis 2030).</t>
         </is>
       </c>
       <c r="X17" s="6" t="inlineStr">
         <is>
-          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously: 10% by 2020).</t>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href=” https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the Ger-man Sustainable Development Strategy 2021&lt;/a&gt; (Federal Cabinet resolution of March 10, 2021). Since this resolution came into force, the revised target (9.5 % by 2030) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y17" s="4" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="W19" s="6" t="inlineStr">
         <is>
-          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher: 42 % bis 2020).</t>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; (Kabinettbeschluss vom 10. März 2021) angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geän-derte Ziel (55 % bis 2030).</t>
         </is>
       </c>
       <c r="X19" s="6" t="inlineStr">
         <is>
-          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously: 42% by 2020).</t>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href=” https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt; (Federal Cabinet resolution of March 10, 2021). Since this resolution came into force, the revised target (55 % by 2030) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y19" s="4" t="inlineStr">
@@ -5687,12 +5687,12 @@
       </c>
       <c r="W32" s="6" t="inlineStr">
         <is>
-          <t>Seit 2019 wird die Zeitreihe für die Bereiche Trinkwasserversorgung und Sanitärversorgung getrennt ausgewiesen.</t>
+          <t>Der Indikator und der Zielwert wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; (Kabinettbeschluss vom 10. März 2021) angepasst und differenziert nach 6.2.a Trinkwasserzugang und 6.2.b Anschluss an Abwasserentsorgung. Seit Inkrafttreten dieses Beschlusses gilt für die Indikatoren die geänderten Ziele (6.2.a: 6 Millionen Menschen pro Jahr bis 2030; 6.2.b: 4 Millionen Menschen pro Jahr bis 2030).</t>
         </is>
       </c>
       <c r="X32" s="6" t="inlineStr">
         <is>
-          <t>Beginning in 2019, the time series for drinking water supply and sanitation will be reported separately.</t>
+          <t>The indicator and the target value were ad-justed and differentiated as 6.2.a – Access to drinking water and 6.2.b – Access to sani-tation as part of the &lt;a href=” https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the Ger-man Sustainable Development Strategy 2021&lt;/a&gt; (Federal Cabinet resolution of March 10, 2021). Since this resolution came into force, the revised targets (6.2.a: 6 mil-lion people per year by 2030; 6.2.b: 4 million people per year by 2030) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y32" s="4" t="inlineStr">
@@ -7639,12 +7639,12 @@
       </c>
       <c r="W44" s="6" t="inlineStr">
         <is>
-          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher: 65 % bis 2030).</t>
+          <t>Der Zielwert des Indikators wurde im &lt;a href=https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1“ &gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; vom 30. November 2022 an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (80 % bis 2030).</t>
         </is>
       </c>
       <c r="X44" s="6" t="inlineStr">
         <is>
-          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously: 65% by 2030).</t>
+          <t>The target value of the indicator was adjusted to the agreements in the coalition agreement in the &lt;a href=https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1" &gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt; of November 30, 2022. Since this resolution came into force, the revised target (80% by 2030) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y44" s="4" t="inlineStr">
@@ -7802,12 +7802,12 @@
       </c>
       <c r="W45" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Der Zielwert des Indikators wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1“&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; (Kabinettbeschluss vom 7. Novem-ber 2018) an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (65 % bis 2030) bis es im Rahmen Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021erneut angepasst wurde.</t>
         </is>
       </c>
       <c r="X45" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>The target value of the indicator adjusted to the agreements in the coalition agreement in the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1588964/1b24acbed2b731744c2ffa4ca9f3a6fc/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt; (Federal Cabinet resolution of November 7, 2018). Since this resolution came into force, the revised target (65 % by 2030) had applied to the indicator until it was adjusted again as part of the update of the German Sustainable Development Strategy 2021.</t>
         </is>
       </c>
       <c r="Y45" s="4" t="inlineStr">
@@ -8291,12 +8291,12 @@
       </c>
       <c r="W48" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Der Zielwert des Indikators wurde im Rah-men der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; (Kabinettbeschluss vom 10. März 2021) angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das ge-änderte Ziel (65 % bis 2030) bis er im Rah-men des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie vom 30. November 2022 erneut angepasst wurde.</t>
         </is>
       </c>
       <c r="X48" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href=” https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt; (Federal Cabinet resolution of March 10, 2021). Since this resolution came into force, the revised target (65 % by 2030) has applied to the indicator until it was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy of November 30, 2022.</t>
         </is>
       </c>
       <c r="Y48" s="4" t="inlineStr">
@@ -10051,12 +10051,12 @@
       </c>
       <c r="W59" s="6" t="inlineStr">
         <is>
-          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher: 3 % bis 2030).</t>
+          <t>Der Zielwert des Indikators wurden im Rah-men der &lt;a href=“https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1“&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; (Kabinettbeschluss vom 7. Novem-ber 2018) an die Vereinbarungen im Koaliti-onsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (3,5 % bis 2025).</t>
         </is>
       </c>
       <c r="X59" s="6" t="inlineStr">
         <is>
-          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously: 3% by 2030).</t>
+          <t>The target value of the indicator was adjusted as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1588964/1b24acbed2b731744c2ffa4ca9f3a6fc/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt; (Federal Cabinet resolution of No-vember 7, 2018). Since this resolution came into force, the revised target (3.5 % by 2025) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y59" s="4" t="inlineStr">
@@ -13697,12 +13697,12 @@
       </c>
       <c r="W82" s="6" t="inlineStr">
         <is>
-          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher: mindestens 55 % bis 2030 gegenüber 1990; Erreichung von Treibhausgasneutralität bis 2050).</t>
+          <t>Die Zielwerte und -jahre des Indikators wurden im &lt;a href=https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1“ &gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; vom 30. November 2022 an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gelten für den Indikator die geänderten Ziele (65 % bis 2030, 88 % bis 2040, Erreichung der Treibhausgasneutralität bis 2045).</t>
         </is>
       </c>
       <c r="X82" s="6" t="inlineStr">
         <is>
-          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously: at least 55% by 2030; Greenhouse gas neutrality to be achieved by 2050).</t>
+          <t>The target values and years of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href=https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1" &gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt; of November 30, 2022. Since this resolution came into force, the revised targets (65 % by 2030, 88 % by 2040, Greenhouse-gas neutrality by 2045) have applied to the indicator.</t>
         </is>
       </c>
       <c r="Y82" s="4" t="inlineStr">
@@ -14358,12 +14358,12 @@
       </c>
       <c r="W86" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Das Ziel des Indikators wurde im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; (Kabinettbeschluss vom 10. März 2021) angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das ge-änderte Ziel (Erreichung von Treibhausgas-neutralität bis 2050) bis es im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie vom 30. November 2022 erneut angepasst wurde.</t>
         </is>
       </c>
       <c r="X86" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>The target of the indicator was adjusted as part of the &lt;a href=” https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the Ger-man Sustainable Development Strategy 2021&lt;/a&gt; (Federal Cabinet resolution of March 10, 2021). Since this resolution came into force, the revised target (Greenhouse-gas neutrality) has applied to the indicator until it was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy of No-vember 30, 2022.</t>
         </is>
       </c>
       <c r="Y86" s="4" t="inlineStr">
@@ -14841,12 +14841,12 @@
       </c>
       <c r="W89" s="6" t="inlineStr">
         <is>
-          <t>Eine Verdopplung der internationalen Klimafinanzierung von 2014 entsprach einer Erhöhung auf 4 Mrd. Euro.</t>
+          <t>Eine Verdopplung der internationalen Klimafinanzierung von 2014 entsprach einer Erhöhung auf 4 Milliarden Euro.</t>
         </is>
       </c>
       <c r="X89" s="6" t="inlineStr">
         <is>
-          <t>A doubling of international climate finance from 2014 corresponds to an increase to 4 bn. euro.</t>
+          <t>A doubling of international climate finance from 2014 corresponds to an increase to 4 billion euro.</t>
         </is>
       </c>
       <c r="Y89" s="4" t="inlineStr">
@@ -15007,12 +15007,12 @@
       </c>
       <c r="W90" s="6" t="inlineStr">
         <is>
-          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs).</t>
+          <t>Zielwert und -jahr des Indikators wurden im &lt;a href=https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1“ &gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; vom 30. November 2022 an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 Milliarden Euro bis spätestens 2025).</t>
         </is>
       </c>
       <c r="X90" s="6" t="inlineStr">
         <is>
-          <t>New target as part of the further development of targets of the German Sustainability Strategy (target for 2020 not applicable due to date of expiration).</t>
+          <t>The target value and year of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href=https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1" &gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt; of November 30, 2022. Since this resolution came into force, the revised target (6 billion euros by 2025 at the latest) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y90" s="4" t="inlineStr">
@@ -16283,12 +16283,12 @@
       </c>
       <c r="W98" s="6" t="inlineStr">
         <is>
-          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher: 7 000 bis 2030).</t>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; (Kabinettbeschluss vom 10. März 2021) angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 500 bis 2030).</t>
         </is>
       </c>
       <c r="X98" s="6" t="inlineStr">
         <is>
-          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously: 7,000 by 2030).</t>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href=” https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the Ger-man Sustainable Development Strategy 2021&lt;/a&gt; (Federal Cabinet resolution of March 10, 2021). Since this resolution came into force, the revised target (6,500 by 2030) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y98" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -1511,12 +1511,12 @@
       </c>
       <c r="W6" s="6" t="inlineStr">
         <is>
-          <t>Das Zieljahr des Indikators wurde im Rah-men der &lt;a href=“https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1“&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; (Kabinettbeschluss vom 7. Novem-ber 2018) an die Vereinbarungen im Koaliti-onsvertrag festgelegt. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (20 % bis 2030) bis es im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie vom 30. November 2022 erneut angepasst wurde.</t>
+          <t>Das Zieljahr des Indikators wurde im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1“&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; (Kabinettbeschluss vom 7. November 2018) als Resultat der Vereinbarungen im Koalitionsvertrag festgelegt. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (20 % bis 2030) bis es im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie erneut angepasst wurde.</t>
         </is>
       </c>
       <c r="X6" s="6" t="inlineStr">
         <is>
-          <t>The target year of the indicator was adjusted as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1588964/1b24acbed2b731744c2ffa4ca9f3a6fc/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt; (Federal Cabinet resolution of No-vember 7, 2018). Since this resolution came into force, the revised target (20 % by 2030) had applied to the indicator until it was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy of November 30, 2022.</t>
+          <t>The target year of the indicator was defined in accordance to the coalition agreement as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1588964/1b24acbed2b731744c2ffa4ca9f3a6fc/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt; (Federal Cabinet resolution of November 7, 2018). Since this resolution came into force, the revised target (20 % by 2030) had applied to the indicator until it was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
         </is>
       </c>
       <c r="Y6" s="4" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="X17" s="6" t="inlineStr">
         <is>
-          <t>The target value and year of the indicator were adjusted as part of the &lt;a href=” https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the Ger-man Sustainable Development Strategy 2021&lt;/a&gt; (Federal Cabinet resolution of March 10, 2021). Since this resolution came into force, the revised target (9.5 % by 2030) has applied to the indicator.</t>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href=” https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt; (Federal Cabinet resolution of March 10, 2021). Since this resolution came into force, the revised target (9.5 % by 2030) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y17" s="4" t="inlineStr">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="W19" s="6" t="inlineStr">
         <is>
-          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; (Kabinettbeschluss vom 10. März 2021) angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geän-derte Ziel (55 % bis 2030).</t>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; (Kabinettbeschluss vom 10. März 2021) angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (55 % bis 2030).</t>
         </is>
       </c>
       <c r="X19" s="6" t="inlineStr">
@@ -5687,12 +5687,12 @@
       </c>
       <c r="W32" s="6" t="inlineStr">
         <is>
-          <t>Der Indikator und der Zielwert wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; (Kabinettbeschluss vom 10. März 2021) angepasst und differenziert nach 6.2.a Trinkwasserzugang und 6.2.b Anschluss an Abwasserentsorgung. Seit Inkrafttreten dieses Beschlusses gilt für die Indikatoren die geänderten Ziele (6.2.a: 6 Millionen Menschen pro Jahr bis 2030; 6.2.b: 4 Millionen Menschen pro Jahr bis 2030).</t>
+          <t>Der Indikator und der Zielwert wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; (Kabinettbeschluss vom 10. März 2021) angepasst und differenziert nach 6.2.a Trinkwasserzugang und 6.2.b Anschluss an Abwasserentsorgung. Seit Inkrafttreten dieses Beschlusses gelten für die Indikatoren die geänderten Ziele (6.2.a: 6 Millionen Menschen pro Jahr bis 2030; 6.2.b: 4 Millionen Menschen pro Jahr bis 2030).</t>
         </is>
       </c>
       <c r="X32" s="6" t="inlineStr">
         <is>
-          <t>The indicator and the target value were ad-justed and differentiated as 6.2.a – Access to drinking water and 6.2.b – Access to sani-tation as part of the &lt;a href=” https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the Ger-man Sustainable Development Strategy 2021&lt;/a&gt; (Federal Cabinet resolution of March 10, 2021). Since this resolution came into force, the revised targets (6.2.a: 6 mil-lion people per year by 2030; 6.2.b: 4 million people per year by 2030) has applied to the indicator.</t>
+          <t>The indicator and the target value were adjusted and differentiated as 6.2.a – Access to drinking water and 6.2.b – Access to sanitation as part of the &lt;a href=” https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt; (Federal Cabinet resolution of March 10, 2021). Since this resolution came into force, the revised targets (6.2.a: 6 million people per year by 2030; 6.2.b: 4 million people per year by 2030) have applied to the indicator.</t>
         </is>
       </c>
       <c r="Y32" s="4" t="inlineStr">
@@ -7802,7 +7802,7 @@
       </c>
       <c r="W45" s="6" t="inlineStr">
         <is>
-          <t>Der Zielwert des Indikators wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1“&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; (Kabinettbeschluss vom 7. Novem-ber 2018) an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (65 % bis 2030) bis es im Rahmen Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021erneut angepasst wurde.</t>
+          <t>Der Zielwert des Indikators wurde im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1“&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; (Kabinettbeschluss vom 7. November 2018) an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (65 % bis 2030) bis es im Rahmen Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021erneut angepasst wurde.</t>
         </is>
       </c>
       <c r="X45" s="6" t="inlineStr">
@@ -8291,12 +8291,12 @@
       </c>
       <c r="W48" s="6" t="inlineStr">
         <is>
-          <t>Der Zielwert des Indikators wurde im Rah-men der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; (Kabinettbeschluss vom 10. März 2021) angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das ge-änderte Ziel (65 % bis 2030) bis er im Rah-men des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie vom 30. November 2022 erneut angepasst wurde.</t>
+          <t/>
         </is>
       </c>
       <c r="X48" s="6" t="inlineStr">
         <is>
-          <t>The target value and year of the indicator were adjusted as part of the &lt;a href=” https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt; (Federal Cabinet resolution of March 10, 2021). Since this resolution came into force, the revised target (65 % by 2030) has applied to the indicator until it was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy of November 30, 2022.</t>
+          <t/>
         </is>
       </c>
       <c r="Y48" s="4" t="inlineStr">
@@ -10051,12 +10051,12 @@
       </c>
       <c r="W59" s="6" t="inlineStr">
         <is>
-          <t>Der Zielwert des Indikators wurden im Rah-men der &lt;a href=“https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1“&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; (Kabinettbeschluss vom 7. Novem-ber 2018) an die Vereinbarungen im Koaliti-onsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (3,5 % bis 2025).</t>
+          <t>Der Zielwert des Indikators wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1“&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; (Kabinettbeschluss vom 7. November 2018) an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (3,5 % bis 2025).</t>
         </is>
       </c>
       <c r="X59" s="6" t="inlineStr">
         <is>
-          <t>The target value of the indicator was adjusted as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1588964/1b24acbed2b731744c2ffa4ca9f3a6fc/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt; (Federal Cabinet resolution of No-vember 7, 2018). Since this resolution came into force, the revised target (3.5 % by 2025) has applied to the indicator.</t>
+          <t>The target value of the indicator was adjusted as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1588964/1b24acbed2b731744c2ffa4ca9f3a6fc/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt; (Federal Cabinet resolution of November 7, 2018). Since this resolution came into force, the revised target (3.5 % by 2025) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y59" s="4" t="inlineStr">
@@ -13697,12 +13697,12 @@
       </c>
       <c r="W82" s="6" t="inlineStr">
         <is>
-          <t>Die Zielwerte und -jahre des Indikators wurden im &lt;a href=https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1“ &gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; vom 30. November 2022 an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gelten für den Indikator die geänderten Ziele (65 % bis 2030, 88 % bis 2040, Erreichung der Treibhausgasneutralität bis 2045).</t>
+          <t/>
         </is>
       </c>
       <c r="X82" s="6" t="inlineStr">
         <is>
-          <t>The target values and years of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href=https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1" &gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt; of November 30, 2022. Since this resolution came into force, the revised targets (65 % by 2030, 88 % by 2040, Greenhouse-gas neutrality by 2045) have applied to the indicator.</t>
+          <t/>
         </is>
       </c>
       <c r="Y82" s="4" t="inlineStr">
@@ -14032,12 +14032,12 @@
       </c>
       <c r="W84" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Zielwerte und -jahre des Indikators wurden im &lt;a href=https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1“ &gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; vom 30. November 2022 an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gelten für den Indikator die geänderten Ziele (65 % bis 2030, 88 % bis 2040 und Erreichung der Treibhausgasneutralität bis 2045).</t>
         </is>
       </c>
       <c r="X84" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>The target values and years of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href=https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1" &gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt; of November 30, 2022. Since this resolution came into force, the revised targets (65 % by 2030, 88 % by 2040, Greenhouse-gas neutrality by 2045) have applied to the indicator.</t>
         </is>
       </c>
       <c r="Y84" s="4" t="inlineStr">
@@ -14358,12 +14358,12 @@
       </c>
       <c r="W86" s="6" t="inlineStr">
         <is>
-          <t>Das Ziel des Indikators wurde im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; (Kabinettbeschluss vom 10. März 2021) angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das ge-änderte Ziel (Erreichung von Treibhausgas-neutralität bis 2050) bis es im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie vom 30. November 2022 erneut angepasst wurde.</t>
+          <t>Das Ziel des Indikators wurde im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; (Kabinettbeschluss vom 10. März 2021) angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (Erreichung von Treibhausgas-neutralität bis 2050) bis es im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie erneut angepasst wurde.</t>
         </is>
       </c>
       <c r="X86" s="6" t="inlineStr">
         <is>
-          <t>The target of the indicator was adjusted as part of the &lt;a href=” https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the Ger-man Sustainable Development Strategy 2021&lt;/a&gt; (Federal Cabinet resolution of March 10, 2021). Since this resolution came into force, the revised target (Greenhouse-gas neutrality) has applied to the indicator until it was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy of No-vember 30, 2022.</t>
+          <t>The target of the indicator was adjusted as part of the &lt;a href=” https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt; (Federal Cabinet resolution of March 10, 2021). Since this resolution came into force, the revised target (Greenhouse-gas neutrality) has applied to the indicator until it was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
         </is>
       </c>
       <c r="Y86" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -1351,12 +1351,12 @@
       </c>
       <c r="W5" s="6" t="inlineStr">
         <is>
-          <t>Der Zielwert des Indikators wurde im &lt;a href=https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1“ &gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; vom 30. November 2022 an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (30 % bis 2030).</t>
+          <t>Der Zielwert des Indikators wurde im &lt;a href=“https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-da-ta.pdf?download=1“&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (30 % bis 2030).</t>
         </is>
       </c>
       <c r="X5" s="6" t="inlineStr">
         <is>
-          <t>The target value of the indicator was adjusted to the agreements in the coalition agreement in the &lt;a href=https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1" &gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt; of November 30, 2022. Since this resolution came into force, the revised target (30% by 2030) has applied to the indicator.</t>
+          <t>The target value of the indicator was adjusted to the agreements in the coalition agreement in the &lt;a href=”https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1” &gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised target (30 % by 2030) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y5" s="4" t="inlineStr">
@@ -1511,12 +1511,12 @@
       </c>
       <c r="W6" s="6" t="inlineStr">
         <is>
-          <t>Das Zieljahr des Indikators wurde im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1“&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; (Kabinettbeschluss vom 7. November 2018) als Resultat der Vereinbarungen im Koalitionsvertrag festgelegt. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (20 % bis 2030) bis es im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie erneut angepasst wurde.</t>
+          <t>Das Zieljahr des Indikators wurde im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1“&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; festgelegt. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (20 % bis 2030). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
         </is>
       </c>
       <c r="X6" s="6" t="inlineStr">
         <is>
-          <t>The target year of the indicator was defined in accordance to the coalition agreement as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1588964/1b24acbed2b731744c2ffa4ca9f3a6fc/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt; (Federal Cabinet resolution of November 7, 2018). Since this resolution came into force, the revised target (20 % by 2030) had applied to the indicator until it was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
+          <t>The target year of the indicator was defined in accordance to the coalition agreement as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1588964/1b24acbed2b731744c2ffa4ca9f3a6fc/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt;. Since this resolution came into force, the revised target (20 % by 2030) had applied to the indicator. It was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
         </is>
       </c>
       <c r="Y6" s="4" t="inlineStr">
@@ -3268,12 +3268,12 @@
       </c>
       <c r="W17" s="6" t="inlineStr">
         <is>
-          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; (Kabinettbeschluss vom 10. März 2021) angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (9,5 % bis 2030).</t>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt;Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (9,5 % bis 2030).</t>
         </is>
       </c>
       <c r="X17" s="6" t="inlineStr">
         <is>
-          <t>The target value and year of the indicator were adjusted as part of the &lt;a href=” https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt; (Federal Cabinet resolution of March 10, 2021). Since this resolution came into force, the revised target (9.5 % by 2030) has applied to the indicator.</t>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (9.5 % by 2030) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y17" s="4" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="W19" s="6" t="inlineStr">
         <is>
-          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; (Kabinettbeschluss vom 10. März 2021) angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (55 % bis 2030).</t>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (55 % bis 2030).</t>
         </is>
       </c>
       <c r="X19" s="6" t="inlineStr">
         <is>
-          <t>The target value and year of the indicator were adjusted as part of the &lt;a href=” https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt; (Federal Cabinet resolution of March 10, 2021). Since this resolution came into force, the revised target (55 % by 2030) has applied to the indicator.</t>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href=” https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (55 % by 2030) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y19" s="4" t="inlineStr">
@@ -5687,12 +5687,12 @@
       </c>
       <c r="W32" s="6" t="inlineStr">
         <is>
-          <t>Der Indikator und der Zielwert wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; (Kabinettbeschluss vom 10. März 2021) angepasst und differenziert nach 6.2.a Trinkwasserzugang und 6.2.b Anschluss an Abwasserentsorgung. Seit Inkrafttreten dieses Beschlusses gelten für die Indikatoren die geänderten Ziele (6.2.a: 6 Millionen Menschen pro Jahr bis 2030; 6.2.b: 4 Millionen Menschen pro Jahr bis 2030).</t>
+          <t>Der Indikator und der Zielwert wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst und differenziert nach 6.2.a Trinkwasserzugang und 6.2.b Anschluss an Abwasserentsorgung. Seit Inkrafttreten dieses Beschlusses gelten für die Indikatoren die geänderten Ziele (6.2.a: 6 Millionen Menschen pro Jahr bis 2030; 6.2.b: 4 Millionen Menschen pro Jahr bis 2030).</t>
         </is>
       </c>
       <c r="X32" s="6" t="inlineStr">
         <is>
-          <t>The indicator and the target value were adjusted and differentiated as 6.2.a – Access to drinking water and 6.2.b – Access to sanitation as part of the &lt;a href=” https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt; (Federal Cabinet resolution of March 10, 2021). Since this resolution came into force, the revised targets (6.2.a: 6 million people per year by 2030; 6.2.b: 4 million people per year by 2030) have applied to the indicator.</t>
+          <t>The indicator and the target value were adjusted and differentiated as 6.2.a – Access to drinking water and 6.2.b – Access to sanitation as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised targets (6.2.a: 6 million people per year by 2030; 6.2.b: 4 million people per year by 2030) have applied to the indicator.</t>
         </is>
       </c>
       <c r="Y32" s="4" t="inlineStr">
@@ -7639,12 +7639,12 @@
       </c>
       <c r="W44" s="6" t="inlineStr">
         <is>
-          <t>Der Zielwert des Indikators wurde im &lt;a href=https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1“ &gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; vom 30. November 2022 an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (80 % bis 2030).</t>
+          <t>Der Zielwert des Indikators wurde im &lt;a href=“https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1“&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (80 % bis 2030).</t>
         </is>
       </c>
       <c r="X44" s="6" t="inlineStr">
         <is>
-          <t>The target value of the indicator was adjusted to the agreements in the coalition agreement in the &lt;a href=https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1" &gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt; of November 30, 2022. Since this resolution came into force, the revised target (80% by 2030) has applied to the indicator.</t>
+          <t>The target value of the indicator was adjusted to the agreements in the coalition agreement in the &lt;a href=”https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1”&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised target (80 % by 2030) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y44" s="4" t="inlineStr">
@@ -7802,12 +7802,12 @@
       </c>
       <c r="W45" s="6" t="inlineStr">
         <is>
-          <t>Der Zielwert des Indikators wurde im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1“&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; (Kabinettbeschluss vom 7. November 2018) an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (65 % bis 2030) bis es im Rahmen Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021erneut angepasst wurde.</t>
+          <t>Der Zielwert des Indikators wurde im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (65 % bis 2030). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
         </is>
       </c>
       <c r="X45" s="6" t="inlineStr">
         <is>
-          <t>The target value of the indicator adjusted to the agreements in the coalition agreement in the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1588964/1b24acbed2b731744c2ffa4ca9f3a6fc/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt; (Federal Cabinet resolution of November 7, 2018). Since this resolution came into force, the revised target (65 % by 2030) had applied to the indicator until it was adjusted again as part of the update of the German Sustainable Development Strategy 2021.</t>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (65 % by 2030) has applied to the indicator. It was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
         </is>
       </c>
       <c r="Y45" s="4" t="inlineStr">
@@ -10051,12 +10051,12 @@
       </c>
       <c r="W59" s="6" t="inlineStr">
         <is>
-          <t>Der Zielwert des Indikators wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1“&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; (Kabinettbeschluss vom 7. November 2018) an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (3,5 % bis 2025).</t>
+          <t>Der Zielwert des Indikators wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1“&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (3,5 % bis 2025).</t>
         </is>
       </c>
       <c r="X59" s="6" t="inlineStr">
         <is>
-          <t>The target value of the indicator was adjusted as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1588964/1b24acbed2b731744c2ffa4ca9f3a6fc/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt; (Federal Cabinet resolution of November 7, 2018). Since this resolution came into force, the revised target (3.5 % by 2025) has applied to the indicator.</t>
+          <t>The target value of the indicator was adjusted as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1588964/1b24acbed2b731744c2ffa4ca9f3a6fc/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt;. Since this resolution came into force, the revised target (3.5 % by 2025) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y59" s="4" t="inlineStr">
@@ -14032,12 +14032,12 @@
       </c>
       <c r="W84" s="6" t="inlineStr">
         <is>
-          <t>Die Zielwerte und -jahre des Indikators wurden im &lt;a href=https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1“ &gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; vom 30. November 2022 an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gelten für den Indikator die geänderten Ziele (65 % bis 2030, 88 % bis 2040 und Erreichung der Treibhausgasneutralität bis 2045).</t>
+          <t>Die Zielwerte und -jahre des Indikators wurden im &lt;a href=“https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1“&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gelten für den Indikator die geänderten Ziele (65 % bis 2030, 88 % bis 2040, Erreichung der Treibhausgasneutralität bis 2045).</t>
         </is>
       </c>
       <c r="X84" s="6" t="inlineStr">
         <is>
-          <t>The target values and years of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href=https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1" &gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt; of November 30, 2022. Since this resolution came into force, the revised targets (65 % by 2030, 88 % by 2040, Greenhouse-gas neutrality by 2045) have applied to the indicator.</t>
+          <t>The target values and years of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href=”https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1”&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised targets (65 % by 2030, 88 % by 2040, Greenhouse-gas neutrality by 2045) have applied to the indicator.</t>
         </is>
       </c>
       <c r="Y84" s="4" t="inlineStr">
@@ -14358,12 +14358,12 @@
       </c>
       <c r="W86" s="6" t="inlineStr">
         <is>
-          <t>Das Ziel des Indikators wurde im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; (Kabinettbeschluss vom 10. März 2021) angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (Erreichung von Treibhausgas-neutralität bis 2050) bis es im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie erneut angepasst wurde.</t>
+          <t>Das Ziel des Indikators wurde im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (Erreichung von Treibhausgas-neutralität bis 2050). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
         </is>
       </c>
       <c r="X86" s="6" t="inlineStr">
         <is>
-          <t>The target of the indicator was adjusted as part of the &lt;a href=” https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt; (Federal Cabinet resolution of March 10, 2021). Since this resolution came into force, the revised target (Greenhouse-gas neutrality) has applied to the indicator until it was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
+          <t>The target of the indicator was adjusted as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (Greenhouse-gas neutrality) had applied to the indicator. It was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
         </is>
       </c>
       <c r="Y86" s="4" t="inlineStr">
@@ -15007,12 +15007,12 @@
       </c>
       <c r="W90" s="6" t="inlineStr">
         <is>
-          <t>Zielwert und -jahr des Indikators wurden im &lt;a href=https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1“ &gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; vom 30. November 2022 an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 Milliarden Euro bis spätestens 2025).</t>
+          <t>Zielwert und -jahr des Indikators wurden im &lt;a href=“https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1“&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 Milliarden Euro bis spätestens 2025).</t>
         </is>
       </c>
       <c r="X90" s="6" t="inlineStr">
         <is>
-          <t>The target value and year of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href=https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1" &gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt; of November 30, 2022. Since this resolution came into force, the revised target (6 billion euros by 2025 at the latest) has applied to the indicator.</t>
+          <t>The target value and year of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href=”https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1”&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised target (6 billion euros by 2025 at the latest) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y90" s="4" t="inlineStr">
@@ -16283,12 +16283,12 @@
       </c>
       <c r="W98" s="6" t="inlineStr">
         <is>
-          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; (Kabinettbeschluss vom 10. März 2021) angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 500 bis 2030).</t>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 500 bis 2030).</t>
         </is>
       </c>
       <c r="X98" s="6" t="inlineStr">
         <is>
-          <t>The target value and year of the indicator were adjusted as part of the &lt;a href=” https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the Ger-man Sustainable Development Strategy 2021&lt;/a&gt; (Federal Cabinet resolution of March 10, 2021). Since this resolution came into force, the revised target (6,500 by 2030) has applied to the indicator.</t>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (6,500 by 2030) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y98" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -581,8 +581,8 @@
     <col customWidth="true" min="20" max="20" width="18.30859375"/>
     <col customWidth="true" min="21" max="21" width="13.62109375"/>
     <col customWidth="true" min="22" max="22" width="8.203125"/>
-    <col customWidth="true" min="23" max="23" width="59.6171875"/>
-    <col customWidth="true" min="24" max="24" width="39.40234375"/>
+    <col customWidth="true" min="23" max="23" width="46.58203125"/>
+    <col customWidth="true" min="24" max="24" width="76.171875"/>
     <col customWidth="true" min="25" max="25" width="13.8359375"/>
     <col customWidth="true" min="26" max="26" width="13.8359375"/>
     <col customWidth="true" min="27" max="27" width="13.8359375"/>
@@ -1351,12 +1351,12 @@
       </c>
       <c r="W5" s="6" t="inlineStr">
         <is>
-          <t>Der Zielwert des Indikators wurde im &lt;a href=“https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-da-ta.pdf?download=1“&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (30 % bis 2030).</t>
+          <t>Der Zielwert des Indikators wurde im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-da-ta.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (30 % bis 2030).</t>
         </is>
       </c>
       <c r="X5" s="6" t="inlineStr">
         <is>
-          <t>The target value of the indicator was adjusted to the agreements in the coalition agreement in the &lt;a href=”https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1” &gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised target (30 % by 2030) has applied to the indicator.</t>
+          <t>The target value of the indicator was adjusted to the agreements in the coalition agreement in the &lt;a href="https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1" &gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised target (30 % by 2030) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y5" s="4" t="inlineStr">
@@ -1511,12 +1511,12 @@
       </c>
       <c r="W6" s="6" t="inlineStr">
         <is>
-          <t>Das Zieljahr des Indikators wurde im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1“&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; festgelegt. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (20 % bis 2030). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
+          <t>Das Zieljahr des Indikators wurde im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1"&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; festgelegt. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (20 % bis 2030). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
         </is>
       </c>
       <c r="X6" s="6" t="inlineStr">
         <is>
-          <t>The target year of the indicator was defined in accordance to the coalition agreement as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1588964/1b24acbed2b731744c2ffa4ca9f3a6fc/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt;. Since this resolution came into force, the revised target (20 % by 2030) had applied to the indicator. It was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
+          <t>The target year of the indicator was defined in accordance to the coalition agreement as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1588964/1b24acbed2b731744c2ffa4ca9f3a6fc/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt;. Since this resolution came into force, the revised target (20 % by 2030) had applied to the indicator. It was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
         </is>
       </c>
       <c r="Y6" s="4" t="inlineStr">
@@ -3268,12 +3268,12 @@
       </c>
       <c r="W17" s="6" t="inlineStr">
         <is>
-          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt;Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (9,5 % bis 2030).</t>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt;Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (9,5 % bis 2030).</t>
         </is>
       </c>
       <c r="X17" s="6" t="inlineStr">
         <is>
-          <t>The target value and year of the indicator were adjusted as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (9.5 % by 2030) has applied to the indicator.</t>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (9.5 % by 2030) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y17" s="4" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="W19" s="6" t="inlineStr">
         <is>
-          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (55 % bis 2030).</t>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (55 % bis 2030).</t>
         </is>
       </c>
       <c r="X19" s="6" t="inlineStr">
         <is>
-          <t>The target value and year of the indicator were adjusted as part of the &lt;a href=” https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (55 % by 2030) has applied to the indicator.</t>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (55 % by 2030) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y19" s="4" t="inlineStr">
@@ -5687,12 +5687,12 @@
       </c>
       <c r="W32" s="6" t="inlineStr">
         <is>
-          <t>Der Indikator und der Zielwert wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst und differenziert nach 6.2.a Trinkwasserzugang und 6.2.b Anschluss an Abwasserentsorgung. Seit Inkrafttreten dieses Beschlusses gelten für die Indikatoren die geänderten Ziele (6.2.a: 6 Millionen Menschen pro Jahr bis 2030; 6.2.b: 4 Millionen Menschen pro Jahr bis 2030).</t>
+          <t>Der Indikator und der Zielwert wurden im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst und differenziert nach 6.2.a Trinkwasserzugang und 6.2.b Anschluss an Abwasserentsorgung. Seit Inkrafttreten dieses Beschlusses gelten für die Indikatoren die geänderten Ziele (6.2.a: 6 Millionen Menschen pro Jahr bis 2030; 6.2.b: 4 Millionen Menschen pro Jahr bis 2030).</t>
         </is>
       </c>
       <c r="X32" s="6" t="inlineStr">
         <is>
-          <t>The indicator and the target value were adjusted and differentiated as 6.2.a – Access to drinking water and 6.2.b – Access to sanitation as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised targets (6.2.a: 6 million people per year by 2030; 6.2.b: 4 million people per year by 2030) have applied to the indicator.</t>
+          <t>The indicator and the target value were adjusted and differentiated as 6.2.a – Access to drinking water and 6.2.b – Access to sanitation as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised targets (6.2.a: 6 million people per year by 2030; 6.2.b: 4 million people per year by 2030) have applied to the indicator.</t>
         </is>
       </c>
       <c r="Y32" s="4" t="inlineStr">
@@ -7639,12 +7639,12 @@
       </c>
       <c r="W44" s="6" t="inlineStr">
         <is>
-          <t>Der Zielwert des Indikators wurde im &lt;a href=“https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1“&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (80 % bis 2030).</t>
+          <t>Der Zielwert des Indikators wurde im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (80 % bis 2030).</t>
         </is>
       </c>
       <c r="X44" s="6" t="inlineStr">
         <is>
-          <t>The target value of the indicator was adjusted to the agreements in the coalition agreement in the &lt;a href=”https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1”&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised target (80 % by 2030) has applied to the indicator.</t>
+          <t>The target value of the indicator was adjusted to the agreements in the coalition agreement in the &lt;a href="https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1"&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised target (80 % by 2030) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y44" s="4" t="inlineStr">
@@ -7802,12 +7802,12 @@
       </c>
       <c r="W45" s="6" t="inlineStr">
         <is>
-          <t>Der Zielwert des Indikators wurde im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (65 % bis 2030). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
+          <t>Der Zielwert des Indikators wurde im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (65 % bis 2030). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
         </is>
       </c>
       <c r="X45" s="6" t="inlineStr">
         <is>
-          <t>The target value and year of the indicator were adjusted as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (65 % by 2030) has applied to the indicator. It was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (65 % by 2030) has applied to the indicator. It was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
         </is>
       </c>
       <c r="Y45" s="4" t="inlineStr">
@@ -10051,12 +10051,12 @@
       </c>
       <c r="W59" s="6" t="inlineStr">
         <is>
-          <t>Der Zielwert des Indikators wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1“&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (3,5 % bis 2025).</t>
+          <t>Der Zielwert des Indikators wurden im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1"&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (3,5 % bis 2025).</t>
         </is>
       </c>
       <c r="X59" s="6" t="inlineStr">
         <is>
-          <t>The target value of the indicator was adjusted as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1588964/1b24acbed2b731744c2ffa4ca9f3a6fc/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt;. Since this resolution came into force, the revised target (3.5 % by 2025) has applied to the indicator.</t>
+          <t>The target value of the indicator was adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1588964/1b24acbed2b731744c2ffa4ca9f3a6fc/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt;. Since this resolution came into force, the revised target (3.5 % by 2025) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y59" s="4" t="inlineStr">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="W64" s="6" t="inlineStr">
         <is>
-          <t>Beide Ziele „Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss“ und „Angleichung des Anteils an die Quote deutscher Schulabgänger“ sollen parallel erfüllt werden, sodass für die Gesamtbewertung des Indikators die Einzelbewertungen zusammengeführt werden, indem jeweils das "schlechtere" Wettersymbol übernommen wird.</t>
+          <t>Beide Ziele „Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss“ und „Angleichung des Anteils an die Quote deutscher Schulabgänger“ sollen parallel erfüllt werden, sodass für die Gesamtbewertung des Indikators die Einzelbewertungen zusammengeführt werden, indem jeweils das „schlechtere“ Wettersymbol übernommen wird.</t>
         </is>
       </c>
       <c r="X64" s="6" t="inlineStr">
@@ -14032,12 +14032,12 @@
       </c>
       <c r="W84" s="6" t="inlineStr">
         <is>
-          <t>Die Zielwerte und -jahre des Indikators wurden im &lt;a href=“https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1“&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gelten für den Indikator die geänderten Ziele (65 % bis 2030, 88 % bis 2040, Erreichung der Treibhausgasneutralität bis 2045).</t>
+          <t>Die Zielwerte und -jahre des Indikators wurden im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gelten für den Indikator die geänderten Ziele (65 % bis 2030, 88 % bis 2040, Erreichung der Treibhausgasneutralität bis 2045).</t>
         </is>
       </c>
       <c r="X84" s="6" t="inlineStr">
         <is>
-          <t>The target values and years of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href=”https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1”&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised targets (65 % by 2030, 88 % by 2040, Greenhouse-gas neutrality by 2045) have applied to the indicator.</t>
+          <t>The target values and years of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href="https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1"&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised targets (65 % by 2030, 88 % by 2040, Greenhouse-gas neutrality by 2045) have applied to the indicator.</t>
         </is>
       </c>
       <c r="Y84" s="4" t="inlineStr">
@@ -14358,12 +14358,12 @@
       </c>
       <c r="W86" s="6" t="inlineStr">
         <is>
-          <t>Das Ziel des Indikators wurde im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (Erreichung von Treibhausgas-neutralität bis 2050). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
+          <t>Das Ziel des Indikators wurde im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (Erreichung von Treibhausgas-neutralität bis 2050). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
         </is>
       </c>
       <c r="X86" s="6" t="inlineStr">
         <is>
-          <t>The target of the indicator was adjusted as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (Greenhouse-gas neutrality) had applied to the indicator. It was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
+          <t>The target of the indicator was adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (Greenhouse-gas neutrality) had applied to the indicator. It was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
         </is>
       </c>
       <c r="Y86" s="4" t="inlineStr">
@@ -15007,12 +15007,12 @@
       </c>
       <c r="W90" s="6" t="inlineStr">
         <is>
-          <t>Zielwert und -jahr des Indikators wurden im &lt;a href=“https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1“&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 Milliarden Euro bis spätestens 2025).</t>
+          <t>Zielwert und -jahr des Indikators wurden im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 Milliarden Euro bis spätestens 2025).</t>
         </is>
       </c>
       <c r="X90" s="6" t="inlineStr">
         <is>
-          <t>The target value and year of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href=”https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1”&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised target (6 billion euros by 2025 at the latest) has applied to the indicator.</t>
+          <t>The target value and year of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href="https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1"&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised target (6 billion euros by 2025 at the latest) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y90" s="4" t="inlineStr">
@@ -16283,12 +16283,12 @@
       </c>
       <c r="W98" s="6" t="inlineStr">
         <is>
-          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href=“https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1“&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 500 bis 2030).</t>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 500 bis 2030).</t>
         </is>
       </c>
       <c r="X98" s="6" t="inlineStr">
         <is>
-          <t>The target value and year of the indicator were adjusted as part of the &lt;a href=”https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1”&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (6,500 by 2030) has applied to the indicator.</t>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (6,500 by 2030) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y98" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -1351,7 +1351,7 @@
       </c>
       <c r="W5" s="6" t="inlineStr">
         <is>
-          <t>Der Zielwert des Indikators wurde im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-da-ta.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (30 % bis 2030).</t>
+          <t>Der Zielwert des Indikators wurde im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (30 % bis 2030).</t>
         </is>
       </c>
       <c r="X5" s="6" t="inlineStr">
@@ -17349,7 +17349,7 @@
       </c>
       <c r="H105" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Steadying the 2020 target value</t>
         </is>
       </c>
       <c r="I105" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -4536,6 +4536,9 @@
           <t>10</t>
         </is>
       </c>
+      <c r="M25" s="7">
+        <v>2020</v>
+      </c>
       <c r="P25" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4589,32 +4592,32 @@
       </c>
       <c r="AD25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AE25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AF25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AG25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AH25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AI25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AJ25" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -1143,7 +1143,7 @@
       </c>
       <c r="H4" s="4" t="inlineStr">
         <is>
-          <t>Reduction of the nitrogen surpluses of the overall balance for Germany to 70 kilo-grams per hectare of utilised agricultural area on an annual average between 2028 and 2032</t>
+          <t>Reduction of the nitrogen surpluses of the overall balance for Germany to 70 kilograms per hectare of utilised agricultural area on an annual average between 2028 and 2032</t>
         </is>
       </c>
       <c r="I4" s="4" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="H35" s="4" t="inlineStr">
         <is>
-          <t>Increase by 2.1% per year from 2008 to 2050</t>
+          <t>Increase by 2.1 % per year from 2008 to 2050</t>
         </is>
       </c>
       <c r="I35" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -845,7 +845,7 @@
       </c>
       <c r="J2" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K2" s="4" t="inlineStr">
@@ -928,12 +928,12 @@
       </c>
       <c r="AI2" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A</t>
         </is>
       </c>
       <c r="AJ2" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A</t>
         </is>
       </c>
       <c r="AK2" s="4" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K3" s="4" t="inlineStr">
@@ -1082,12 +1082,12 @@
       </c>
       <c r="AI3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A</t>
         </is>
       </c>
       <c r="AJ3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A</t>
         </is>
       </c>
       <c r="AK3" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -933,7 +933,7 @@
       </c>
       <c r="AJ2" s="4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK2" s="4" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="AJ3" s="4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK3" s="4" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="AH4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sp</t>
         </is>
       </c>
       <c r="AI4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ4" s="4" t="inlineStr">
@@ -12178,12 +12178,12 @@
       </c>
       <c r="AI72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A</t>
         </is>
       </c>
       <c r="AJ72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AK72" s="4" t="inlineStr">
@@ -12348,7 +12348,7 @@
       </c>
       <c r="AK73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sp</t>
         </is>
       </c>
       <c r="AL73" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -3140,27 +3140,27 @@
       </c>
       <c r="AD16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K</t>
         </is>
       </c>
       <c r="AE16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K</t>
         </is>
       </c>
       <c r="AF16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K</t>
         </is>
       </c>
       <c r="AG16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K</t>
         </is>
       </c>
       <c r="AH16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K</t>
         </is>
       </c>
       <c r="AI16" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -8,7 +8,11 @@
   </bookViews>
   <sheets>
     <sheet sheetId="1" r:id="rId1" name="Tab_5b_Wetter"/>
+    <sheet r:id="rId4" name="Tab_5b_Wetter1" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Tab_5b_Wetter">'Tab_5b_Wetter1'!$A$1:$AN$106</definedName>
+  </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
@@ -17649,4 +17653,9464 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AN106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>WNr</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>INr</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Spezifikation</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>AktuellGültig?</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>AufIndikatorseiteAnzeigen?</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>InGrafikAnzeigen?</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>ZielÜbersichtDe</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>ZielÜbersichtEn</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>Zieltyp</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>Zielrichtung</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>Zielwert</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>Zieljahr</t>
+        </is>
+      </c>
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>VorherigesZieljahr</t>
+        </is>
+      </c>
+      <c r="N1" s="0" t="inlineStr">
+        <is>
+          <t>Gültig bis</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
+          <t>Gültig seit</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
+          <t>LabelDe</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
+          <t>LabelEn</t>
+        </is>
+      </c>
+      <c r="R1" s="0" t="inlineStr">
+        <is>
+          <t>LabelAnzeigen?</t>
+        </is>
+      </c>
+      <c r="S1" s="0" t="inlineStr">
+        <is>
+          <t>LabelPositionX</t>
+        </is>
+      </c>
+      <c r="T1" s="0" t="inlineStr">
+        <is>
+          <t>LabelPositionY</t>
+        </is>
+      </c>
+      <c r="U1" s="0" t="inlineStr">
+        <is>
+          <t>AnzeigenAb</t>
+        </is>
+      </c>
+      <c r="V1" s="0" t="inlineStr">
+        <is>
+          <t>AnzeigenBis</t>
+        </is>
+      </c>
+      <c r="W1" s="0" t="inlineStr">
+        <is>
+          <t>AnmerkungDe</t>
+        </is>
+      </c>
+      <c r="X1" s="0" t="inlineStr">
+        <is>
+          <t>AnmerkungEn</t>
+        </is>
+      </c>
+      <c r="Y1" s="0" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="Z1" s="0" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="AA1" s="0" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="AB1" s="0" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="AC1" s="0" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="AD1" s="0" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="AE1" s="0" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="AF1" s="0" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="AG1" s="0" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="AH1" s="0" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="AI1" s="0" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="AJ1" s="0" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="AK1" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AL1" s="0" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="AM1" s="0" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="AN1" s="0" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>W_0101a_J</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>Anteil der Personen, die materiell depriviert sind, bis 2030 deutlich unter EU-27-Wert halten</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>Keep the proportion of persons who are materially deprived considerably below the EU-27-level by 2030</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="R2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" s="0" t="inlineStr">
+        <is>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren und die Berechnung der Wettersymbole nicht möglich (Zeitreihenbruch).</t>
+        </is>
+      </c>
+      <c r="X2" s="0" t="inlineStr">
+        <is>
+          <t>The "Life in Europe" survey (EU-SILC), which was previously conducted separately, was integrated into the microcensus as a sub-sample in 2020. Due to the change from a voluntary survey to a survey requiring information in part, combined with a new sample composition, it is not possible to compare the data of the survey year 2020 with previous years to evaluate the development of the indicators in these years (break in time series).</t>
+        </is>
+      </c>
+      <c r="AD2" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AE2" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF2" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AG2" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AH2" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AI2" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AJ2" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>W_0101b_J</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>Anteil der Personen, die erheblich materiell depriviert sind, bis 2030 deutlich unter EU-27-Wert halten</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>Keep the proportion of persons who are severely materially deprived considerably below the EU-27-level by 2030</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="R3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" s="0" t="inlineStr">
+        <is>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren und die Berechnung der Wettersymbole nicht möglich (Zeitreihenbruch).</t>
+        </is>
+      </c>
+      <c r="X3" s="0" t="inlineStr">
+        <is>
+          <t>The "Life in Europe" survey (EU-SILC), which was previously conducted separately, was integrated into the microcensus as a sub-sample in 2020. Due to the change from a voluntary survey to a survey requiring information in part, combined with a new sample composition, it is not possible to compare the data of the survey year 2020 with previous years to evaluate the development of the indicators in these years (break in time series).</t>
+        </is>
+      </c>
+      <c r="AD3" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AE3" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF3" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AG3" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AH3" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AI3" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AJ3" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>W_0201a_2030a</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>A_SERIES_5YAVERAGE</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>Verringerung der Stickstoffüberschüsse der Gesamtbilanz für Deutschland auf 70 Kilogramm je Hektar landwirtschaftlich genutzter Fläche im Jahresmittel 2028-2032</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>Reduction of the nitrogen surpluses of the overall balance for Germany to 70 kilograms per hectare of utilised agricultural area on an annual average between 2028 and 2032</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L4" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="0">
+        <v>30.8</v>
+      </c>
+      <c r="T4" s="0">
+        <v>80</v>
+      </c>
+      <c r="AA4" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AB4" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC4" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AD4" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE4" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF4" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG4" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH4" s="0" t="inlineStr">
+        <is>
+          <t>Sp</t>
+        </is>
+      </c>
+      <c r="AI4" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>W_0201b_2030</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>A_SERIES_DSTTS</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf &lt;b&gt;30 %&lt;/b&gt; bis 2030</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>Increase the proportion of organically farmed agricultural land to &lt;b&gt;30 %&lt;/b&gt; by 2030</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L5" s="0">
+        <v>2030</v>
+      </c>
+      <c r="O5" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="0">
+        <v>22.9</v>
+      </c>
+      <c r="T5" s="0">
+        <v>33</v>
+      </c>
+      <c r="W5" s="0" t="inlineStr">
+        <is>
+          <t>Der Zielwert des Indikators wurde im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (30 % bis 2030).</t>
+        </is>
+      </c>
+      <c r="X5" s="0" t="inlineStr">
+        <is>
+          <t>The target value of the indicator was adjusted to the agreements in the coalition agreement in the &lt;a href="https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1" &gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised target (30 % by 2030) has applied to the indicator.</t>
+        </is>
+      </c>
+      <c r="AD5" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE5" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF5" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG5" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH5" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI5" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ5" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>W_0201bx_2030</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>A_SERIES_DSTTS</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf &lt;b&gt;20 %&lt;/b&gt; bis 2030</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>Increase the proportion of organically farmed agricultural land to &lt;b&gt;20 %&lt;/b&gt; by 2030</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L6" s="0">
+        <v>2030</v>
+      </c>
+      <c r="N6" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="0" t="inlineStr">
+        <is>
+          <t>Das Zieljahr des Indikators wurde im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1"&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; festgelegt. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (20 % bis 2030). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
+        </is>
+      </c>
+      <c r="X6" s="0" t="inlineStr">
+        <is>
+          <t>The target year of the indicator was defined in accordance to the coalition agreement as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1588964/1b24acbed2b731744c2ffa4ca9f3a6fc/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt;. Since this resolution came into force, the revised target (20 % by 2030) had applied to the indicator. It was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
+        </is>
+      </c>
+      <c r="AD6" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE6" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF6" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG6" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH6" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI6" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ6" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>W_0202x_R</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Z02_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>Angemessene Steigerung des Anteils der ausgezahlten Mittel für die Anwendung von Leitlinien und Empfehlungen des VN-Welternährungsausschusses (CFS) an den Gesamtausgaben für Ernährungssicherung in % bis 2030</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>Funds disbursed for the application of the guidelines and recommendations of the UN Committee on World Food Security (CFS) to be increased appropriately as a percentage of total spending on food security by 2030</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R7" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>W_0301a_2030</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>Senkung auf 100 Todesfälle je 100 000 Einwohner (Frauen) bis 2030</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>To be reduced to 100 deaths per 100,000 inhabitants (women) by 2030</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L8" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" s="0">
+        <v>29.9</v>
+      </c>
+      <c r="T8" s="0">
+        <v>60</v>
+      </c>
+      <c r="AC8" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AD8" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE8" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF8" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG8" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH8" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI8" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>W_0301b_2030</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>Senkung auf 190 Todesfälle je 100 000 Einwohner (Männer) bis 2030</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>To be reduced to 190 deaths per 100,000 inhabitants (men) by 2030</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="L9" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" s="0">
+        <v>29.9</v>
+      </c>
+      <c r="T9" s="0">
+        <v>225</v>
+      </c>
+      <c r="AC9" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AD9" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE9" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF9" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG9" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH9" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI9" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>W_0301c_2030</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>Senkung auf 7 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>Reduction to 7 % by 2030</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L10" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" s="0">
+        <v>18.9</v>
+      </c>
+      <c r="T10" s="0">
+        <v>9</v>
+      </c>
+      <c r="AA10" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AC10" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AD10" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE10" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG10" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH10" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ10" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>W_0301d_2030</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib02_I02</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>Senkung auf 19 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>Reduction to 19 % by 2030</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L11" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" s="0">
+        <v>18.9</v>
+      </c>
+      <c r="T11" s="0">
+        <v>21</v>
+      </c>
+      <c r="AF11" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ11" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>W_0301e_R</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib03_I01</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg dauerhaft stoppen</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>Increase to be permanently halted</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="R12" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>W_0301f_R</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib04_I01</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg dauerhaft stoppen</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>Increase to be permanently halted</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="R13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AJ13" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>W_0302a_2030</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Z03_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>Reduktion der Emissionen des Jahres 2005 auf 55 % (ungewichtetes Mittel der fünf Schadstoffe) bis 2030</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>Reduction of emissions to 55 % of 2005 level (unweighted average of the five pollutants) by 2030</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L14" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14" s="0">
+        <v>60</v>
+      </c>
+      <c r="AC14" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AD14" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE14" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AF14" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG14" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH14" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI14" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>W_0302b_2030</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Z03_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>Erreichung des Feinstaub- WHO-Richtwerts von 20 Mikrogramm/Kubikmeter für PM10 im Jahresmittel möglichst flächendeckend bis 2030</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WHO particulate matter guideline value of 20 micrograms/cubic metre for PM10 to be adhered to as widely as possible by 2030</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15" s="0">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AD15" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE15" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF15" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG15" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH15" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI15" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>W_0303x_2030</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Z03_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>A_SERIES_PANDEMIC</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung der Ausgaben bis 2030</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>Expenditure to be increased by 2030</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K16" s="0" t="inlineStr">
+        <is>
+          <t>272,5</t>
+        </is>
+      </c>
+      <c r="L16" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16" s="0">
+        <v>350</v>
+      </c>
+      <c r="AD16" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE16" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AF16" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG16" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AH16" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AI16" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ16" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>W_0401a_2030</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Z04_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>Verringerung des Anteils auf &lt;b&gt;9,5 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>Reduce the proportion to &lt;b&gt;9.5 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>9,5</t>
+        </is>
+      </c>
+      <c r="L17" s="0">
+        <v>2030</v>
+      </c>
+      <c r="O17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T17" s="0">
+        <v>8</v>
+      </c>
+      <c r="W17" s="0" t="inlineStr">
+        <is>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt;Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (9,5 % bis 2030).</t>
+        </is>
+      </c>
+      <c r="X17" s="0" t="inlineStr">
+        <is>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (9.5 % by 2030) has applied to the indicator.</t>
+        </is>
+      </c>
+      <c r="AD17" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE17" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF17" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG17" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AH17" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AI17" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AJ17" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>W_0401ax_2020</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Z04_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>Verringerung des Anteils auf &lt;b&gt;10 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>Reduce the proportion to &lt;b&gt;10 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L18" s="0">
+        <v>2020</v>
+      </c>
+      <c r="N18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE18" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF18" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG18" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AH18" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AI18" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>W_0401b_2030</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Z04_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils auf &lt;b&gt;55 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>Increase the proportion to &lt;b&gt;55 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L19" s="0">
+        <v>2030</v>
+      </c>
+      <c r="O19" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19" s="0">
+        <v>60</v>
+      </c>
+      <c r="W19" s="0" t="inlineStr">
+        <is>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (55 % bis 2030).</t>
+        </is>
+      </c>
+      <c r="X19" s="0" t="inlineStr">
+        <is>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (55 % by 2030) has applied to the indicator.</t>
+        </is>
+      </c>
+      <c r="AD19" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE19" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF19" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG19" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH19" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI19" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ19" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>W_0401bx_2020</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Z04_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils auf &lt;b&gt;42 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>Increase the proportion to &lt;b&gt;24 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L20" s="0">
+        <v>2020</v>
+      </c>
+      <c r="N20" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE20" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF20" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG20" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH20" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI20" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>W_0402a_2030</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Z04_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf 35 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>Increase to 35 % by 2030</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L21" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T21" s="0">
+        <v>45</v>
+      </c>
+      <c r="AE21" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF21" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG21" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH21" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI21" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ21" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AK21" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>W_0402b_2020</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>Z04_B02_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf &lt;b&gt;60 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>Increase to &lt;b&gt;60 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K22" s="0" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L22" s="0">
+        <v>2020</v>
+      </c>
+      <c r="N22" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" s="0" t="inlineStr">
+        <is>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+        </is>
+      </c>
+      <c r="X22" s="0" t="inlineStr">
+        <is>
+          <t>Omission of 2020 target due to expiration of time.</t>
+        </is>
+      </c>
+      <c r="AE22" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF22" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG22" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH22" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI22" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>W_0402b_2030</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Z04_B02_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf &lt;b&gt;70 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>Increase to &lt;b&gt;70 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L23" s="0">
+        <v>2030</v>
+      </c>
+      <c r="M23" s="0">
+        <v>2020</v>
+      </c>
+      <c r="R23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T23" s="0">
+        <v>80</v>
+      </c>
+      <c r="AE23" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF23" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AG23" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH23" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI23" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ23" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AK23" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>W_0501a_2020</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>Verringerung des Abstandes auf 10 % bis 2020</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>Reduce the gap to 10 % by 2020</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K24" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L24" s="0">
+        <v>2020</v>
+      </c>
+      <c r="R24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" s="0">
+        <v>14</v>
+      </c>
+      <c r="T24" s="0">
+        <v>12</v>
+      </c>
+      <c r="W24" s="0" t="inlineStr">
+        <is>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+        </is>
+      </c>
+      <c r="X24" s="0" t="inlineStr">
+        <is>
+          <t>Omission of 2020 target due to expiration of time.</t>
+        </is>
+      </c>
+      <c r="AD24" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AE24" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF24" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG24" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH24" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI24" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>W_0501a_J</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>Beibehaltung des Abstandes von maximal 10 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>Maintaining the gap of a maximum of 10 % until 2030</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K25" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M25" s="0">
+        <v>2020</v>
+      </c>
+      <c r="R25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="U25" s="0">
+        <v>2020</v>
+      </c>
+      <c r="AD25" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AE25" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF25" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG25" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH25" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI25" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ25" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>W_0501b_2030a</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
+        </is>
+      </c>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>30 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J26" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K26" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L26" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T26" s="0">
+        <v>35</v>
+      </c>
+      <c r="AI26" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ26" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AK26" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>W_0501c_2025</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib02_I02</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
+        </is>
+      </c>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K27" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L27" s="0">
+        <v>2025</v>
+      </c>
+      <c r="P27" s="0" t="inlineStr">
+        <is>
+          <t>Ziel:_x000d_
+Gleichberechtigte _x000d_
+Teilhabe</t>
+        </is>
+      </c>
+      <c r="Q27" s="0" t="inlineStr">
+        <is>
+          <t>Target: _x000d_
+equal_x000d_
+participation</t>
+        </is>
+      </c>
+      <c r="R27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S27" s="0">
+        <v>23.8</v>
+      </c>
+      <c r="T27" s="0">
+        <v>56</v>
+      </c>
+      <c r="AA27" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AB27" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC27" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AD27" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF27" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH27" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AJ27" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>W_0501d_2030</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib03_I01</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>65 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>65 % by 2030</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K28" s="0" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="L28" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T28" s="0">
+        <v>60</v>
+      </c>
+      <c r="AB28" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AC28" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AD28" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE28" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF28" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG28" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH28" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>W_0501e_2030</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Z05_B01_P02_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
+        </is>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
+        </is>
+      </c>
+      <c r="I29" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J29" s="0" t="inlineStr">
+        <is>
+          <t>steigern</t>
+        </is>
+      </c>
+      <c r="K29" s="0" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="L29" s="0">
+        <v>2030</v>
+      </c>
+      <c r="P29" s="0" t="inlineStr">
+        <is>
+          <t>Ziel: 473</t>
+        </is>
+      </c>
+      <c r="Q29" s="0" t="inlineStr">
+        <is>
+          <t>Target: 473</t>
+        </is>
+      </c>
+      <c r="R29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T29" s="0">
+        <v>550</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>W_0601a_2030</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Z06_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
+        </is>
+      </c>
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
+        </is>
+      </c>
+      <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J30" s="0" t="inlineStr">
+        <is>
+          <t>steigern</t>
+        </is>
+      </c>
+      <c r="K30" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L30" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T30" s="0">
+        <v>93</v>
+      </c>
+      <c r="AC30" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AD30" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AE30" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AF30" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AG30" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH30" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI30" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>W_0601b_J</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>Z06_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
+        </is>
+      </c>
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
+        </is>
+      </c>
+      <c r="I31" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>steigern</t>
+        </is>
+      </c>
+      <c r="K31" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="R31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S31" s="0">
+        <v>6</v>
+      </c>
+      <c r="T31" s="0">
+        <v>93</v>
+      </c>
+      <c r="AC31" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AD31" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AE31" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AF31" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG31" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH31" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI31" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>W_06020_J</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Z06_B02_P01_Ib01_I03</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;10 Millionen&lt;/b&gt; Menschen pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="H32" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;10 million&lt;/b&gt; people per year by 2030</t>
+        </is>
+      </c>
+      <c r="I32" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J32" s="0" t="inlineStr">
+        <is>
+          <t>steigern</t>
+        </is>
+      </c>
+      <c r="K32" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N32" s="0">
+        <v>2019</v>
+      </c>
+      <c r="P32" s="0" t="inlineStr">
+        <is>
+          <t>Jährliches Ziel insgesamt: 10 Millionen</t>
+        </is>
+      </c>
+      <c r="Q32" s="0" t="inlineStr">
+        <is>
+          <t>Annual target total: 10 million</t>
+        </is>
+      </c>
+      <c r="R32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="S32" s="0">
+        <v>3.4</v>
+      </c>
+      <c r="T32" s="0">
+        <v>17</v>
+      </c>
+      <c r="V32" s="0">
+        <v>2018</v>
+      </c>
+      <c r="W32" s="0" t="inlineStr">
+        <is>
+          <t>Der Indikator und der Zielwert wurden im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst und differenziert nach 6.2.a Trinkwasserzugang und 6.2.b Anschluss an Abwasserentsorgung. Seit Inkrafttreten dieses Beschlusses gelten für die Indikatoren die geänderten Ziele (6.2.a: 6 Millionen Menschen pro Jahr bis 2030; 6.2.b: 4 Millionen Menschen pro Jahr bis 2030).</t>
+        </is>
+      </c>
+      <c r="X32" s="0" t="inlineStr">
+        <is>
+          <t>The indicator and the target value were adjusted and differentiated as 6.2.a – Access to drinking water and 6.2.b – Access to sanitation as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised targets (6.2.a: 6 million people per year by 2030; 6.2.b: 4 million people per year by 2030) have applied to the indicator.</t>
+        </is>
+      </c>
+      <c r="AF32" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG32" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH32" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AI32" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>W_0602a_J</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>Z06_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;6 Millionen&lt;/b&gt; Menschen pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="H33" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;6 million&lt;/b&gt; people per year by 2030</t>
+        </is>
+      </c>
+      <c r="I33" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J33" s="0" t="inlineStr">
+        <is>
+          <t>steigern</t>
+        </is>
+      </c>
+      <c r="K33" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="P33" s="0" t="inlineStr">
+        <is>
+          <t>Jährliches Ziel a) Trinkwasserversorgung: 6 Millionen</t>
+        </is>
+      </c>
+      <c r="Q33" s="0" t="inlineStr">
+        <is>
+          <t>Annual target a) Access to drinking water: 6 million</t>
+        </is>
+      </c>
+      <c r="R33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="S33" s="0">
+        <v>5</v>
+      </c>
+      <c r="T33" s="0">
+        <v>6</v>
+      </c>
+      <c r="U33" s="0">
+        <v>2018</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>W_0602b_J</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>Z06_B02_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;4 Millionen&lt;/b&gt; Menschen pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="H34" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;4 million&lt;/b&gt; people per year by 2030</t>
+        </is>
+      </c>
+      <c r="I34" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J34" s="0" t="inlineStr">
+        <is>
+          <t>steigern</t>
+        </is>
+      </c>
+      <c r="K34" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P34" s="0" t="inlineStr">
+        <is>
+          <t>Jährliches Ziel b) Sanitärversorgung: 4 Millionen</t>
+        </is>
+      </c>
+      <c r="Q34" s="0" t="inlineStr">
+        <is>
+          <t>Annual target b) Access to sanitation: 4 million</t>
+        </is>
+      </c>
+      <c r="R34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="S34" s="0">
+        <v>5</v>
+      </c>
+      <c r="T34" s="0">
+        <v>4</v>
+      </c>
+      <c r="U34" s="0">
+        <v>2018</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>W_0701a_2030</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
+        </is>
+      </c>
+      <c r="H35" s="0" t="inlineStr">
+        <is>
+          <t>Increase by 2.1 % per year from 2008 to 2050</t>
+        </is>
+      </c>
+      <c r="I35" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J35" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K35" s="0" t="inlineStr">
+        <is>
+          <t>239,4</t>
+        </is>
+      </c>
+      <c r="L35" s="0">
+        <v>2050</v>
+      </c>
+      <c r="P35" s="0" t="inlineStr">
+        <is>
+          <t>Ziel:_x000d_
+239</t>
+        </is>
+      </c>
+      <c r="Q35" s="0" t="inlineStr">
+        <is>
+          <t>Target:_x000d_
+239</t>
+        </is>
+      </c>
+      <c r="R35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T35" s="0">
+        <v>210</v>
+      </c>
+      <c r="AD35" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE35" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF35" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG35" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH35" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI35" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ35" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>W_0701b_2020</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
+        <is>
+          <t>Senkung um &lt;b&gt;20 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt; gegenüber 2008</t>
+        </is>
+      </c>
+      <c r="H36" s="0" t="inlineStr">
+        <is>
+          <t>Reduction by &lt;b&gt;20 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt; compared to 2008</t>
+        </is>
+      </c>
+      <c r="I36" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J36" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K36" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L36" s="0">
+        <v>2020</v>
+      </c>
+      <c r="R36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T36" s="0">
+        <v>65</v>
+      </c>
+      <c r="W36" s="0" t="inlineStr">
+        <is>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+        </is>
+      </c>
+      <c r="X36" s="0" t="inlineStr">
+        <is>
+          <t>Omission of 2020 target due to expiration of time.</t>
+        </is>
+      </c>
+      <c r="AD36" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE36" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF36" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AG36" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH36" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI36" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>W_0701b_2030</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="inlineStr">
+        <is>
+          <t>Senkung um &lt;b&gt;30 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt; gegenüber 2008</t>
+        </is>
+      </c>
+      <c r="H37" s="0" t="inlineStr">
+        <is>
+          <t>Reduction by &lt;b&gt;30 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt; compared to 2008</t>
+        </is>
+      </c>
+      <c r="I37" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J37" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K37" s="0" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L37" s="0">
+        <v>2030</v>
+      </c>
+      <c r="M37" s="0">
+        <v>2020</v>
+      </c>
+      <c r="R37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T37" s="0">
+        <v>55</v>
+      </c>
+      <c r="AD37" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AE37" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF37" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AG37" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH37" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI37" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ37" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>W_0701b_2050</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="0" t="inlineStr">
+        <is>
+          <t>Senkung um &lt;b&gt;50 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt; gegenüber 2008</t>
+        </is>
+      </c>
+      <c r="H38" s="0" t="inlineStr">
+        <is>
+          <t>Reduction by &lt;b&gt;50 %&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt; compared to 2008</t>
+        </is>
+      </c>
+      <c r="I38" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J38" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K38" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L38" s="0">
+        <v>2050</v>
+      </c>
+      <c r="M38" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T38" s="0">
+        <v>35</v>
+      </c>
+      <c r="AD38" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE38" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF38" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AG38" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH38" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI38" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ38" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>W_0702a_2020</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf &lt;b&gt;18 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H39" s="0" t="inlineStr">
+        <is>
+          <t>Increase to &lt;b&gt;18 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I39" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J39" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K39" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L39" s="0">
+        <v>2020</v>
+      </c>
+      <c r="R39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T39" s="0">
+        <v>25</v>
+      </c>
+      <c r="W39" s="0" t="inlineStr">
+        <is>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+        </is>
+      </c>
+      <c r="X39" s="0" t="inlineStr">
+        <is>
+          <t>Omission of 2020 target due to expiration of time.</t>
+        </is>
+      </c>
+      <c r="AD39" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE39" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF39" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG39" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH39" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI39" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>W_0702a_2030</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf &lt;b&gt;30 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H40" s="0" t="inlineStr">
+        <is>
+          <t>Increase to &lt;b&gt;30 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I40" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J40" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K40" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L40" s="0">
+        <v>2030</v>
+      </c>
+      <c r="M40" s="0">
+        <v>2020</v>
+      </c>
+      <c r="R40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T40" s="0">
+        <v>37</v>
+      </c>
+      <c r="AD40" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE40" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF40" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG40" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH40" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI40" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AJ40" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>W_0702a_2040</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf &lt;b&gt;45 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H41" s="0" t="inlineStr">
+        <is>
+          <t>Increase to &lt;b&gt;45 %&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I41" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J41" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K41" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L41" s="0">
+        <v>2040</v>
+      </c>
+      <c r="M41" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T41" s="0">
+        <v>52</v>
+      </c>
+      <c r="AD41" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE41" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF41" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG41" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH41" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI41" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ41" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>W_0702a_2050</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf &lt;b&gt;60 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H42" s="0" t="inlineStr">
+        <is>
+          <t>Increase to &lt;b&gt;60 %&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I42" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J42" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K42" s="0" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L42" s="0">
+        <v>2050</v>
+      </c>
+      <c r="M42" s="0">
+        <v>2040</v>
+      </c>
+      <c r="R42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T42" s="0">
+        <v>67</v>
+      </c>
+      <c r="AD42" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE42" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF42" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG42" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH42" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI42" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ42" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>W_0702b_2020</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens &lt;b&gt;35 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H43" s="0" t="inlineStr">
+        <is>
+          <t>Increase to at least &lt;b&gt;35 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I43" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J43" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K43" s="0" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L43" s="0">
+        <v>2020</v>
+      </c>
+      <c r="N43" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="T43" s="0">
+        <v>25</v>
+      </c>
+      <c r="W43" s="0" t="inlineStr">
+        <is>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+        </is>
+      </c>
+      <c r="X43" s="0" t="inlineStr">
+        <is>
+          <t>Omission of 2020 target due to expiration of time.</t>
+        </is>
+      </c>
+      <c r="AD43" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE43" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF43" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG43" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH43" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI43" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>W_0702b_2030</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H44" s="0" t="inlineStr">
+        <is>
+          <t>Increase to at least &lt;b&gt;80 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I44" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J44" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K44" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L44" s="0">
+        <v>2030</v>
+      </c>
+      <c r="M44" s="0">
+        <v>2020</v>
+      </c>
+      <c r="O44" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T44" s="0">
+        <v>70</v>
+      </c>
+      <c r="W44" s="0" t="inlineStr">
+        <is>
+          <t>Der Zielwert des Indikators wurde im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (80 % bis 2030).</t>
+        </is>
+      </c>
+      <c r="X44" s="0" t="inlineStr">
+        <is>
+          <t>The target value of the indicator was adjusted to the agreements in the coalition agreement in the &lt;a href="https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1"&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised target (80 % by 2030) has applied to the indicator.</t>
+        </is>
+      </c>
+      <c r="AD44" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AE44" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF44" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG44" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH44" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AI44" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ44" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>W_0702bx_2030b</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H45" s="0" t="inlineStr">
+        <is>
+          <t>Increase to at least &lt;b&gt;65%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I45" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J45" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K45" s="0" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="L45" s="0">
+        <v>2030</v>
+      </c>
+      <c r="N45" s="0">
+        <v>2022</v>
+      </c>
+      <c r="O45" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="W45" s="0" t="inlineStr">
+        <is>
+          <t>Der Zielwert des Indikators wurde im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (65 % bis 2030). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
+        </is>
+      </c>
+      <c r="X45" s="0" t="inlineStr">
+        <is>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (65 % by 2030) has applied to the indicator. It was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
+        </is>
+      </c>
+      <c r="AD45" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE45" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AF45" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG45" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH45" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI45" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ45" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>W_0702bx_2050b</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Treibhausgasneutralität&lt;/b&gt; des in Deutschland erzeugten und verbrauchten Stroms bis &lt;b&gt;2050&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H46" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; of electricity generated and consumed in Germany by &lt;b&gt;2050&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I46" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J46" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K46" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L46" s="0">
+        <v>2050</v>
+      </c>
+      <c r="N46" s="0">
+        <v>2022</v>
+      </c>
+      <c r="O46" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE46" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF46" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG46" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH46" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI46" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ46" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>W_0702by_2030a</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens &lt;b&gt;50 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H47" s="0" t="inlineStr">
+        <is>
+          <t>Increase to at least &lt;b&gt;50 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I47" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J47" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K47" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L47" s="0">
+        <v>2030</v>
+      </c>
+      <c r="M47" s="0">
+        <v>2020</v>
+      </c>
+      <c r="N47" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE47" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF47" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG47" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH47" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI47" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ47" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>W_0702by_2040</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H48" s="0" t="inlineStr">
+        <is>
+          <t>Increase to at least &lt;b&gt;65 %&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I48" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J48" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K48" s="0" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="L48" s="0">
+        <v>2040</v>
+      </c>
+      <c r="M48" s="0">
+        <v>2030</v>
+      </c>
+      <c r="N48" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE48" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF48" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG48" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH48" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI48" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ48" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>W_0702by_2050a</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H49" s="0" t="inlineStr">
+        <is>
+          <t>Increase to at least &lt;b&gt;80 %&lt;/b&gt; by 2050&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I49" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J49" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K49" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L49" s="0">
+        <v>2050</v>
+      </c>
+      <c r="M49" s="0">
+        <v>2040</v>
+      </c>
+      <c r="N49" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE49" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF49" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG49" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH49" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI49" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ49" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>W_0801x_2030</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>Z08_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>A_SERIES_MATINPTPROD</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="0" t="inlineStr">
+        <is>
+          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
+        </is>
+      </c>
+      <c r="H50" s="0" t="inlineStr">
+        <is>
+          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
+        </is>
+      </c>
+      <c r="I50" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J50" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K50" s="0" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="L50" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T50" s="0">
+        <v>180</v>
+      </c>
+      <c r="AA50" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AB50" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC50" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AD50" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE50" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF50" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG50" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>W_0802a_J</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>Z08_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" s="0" t="inlineStr">
+        <is>
+          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
+        </is>
+      </c>
+      <c r="H51" s="0" t="inlineStr">
+        <is>
+          <t>Annual government deficit less than 3 % of GDP, to be maintained until 2030</t>
+        </is>
+      </c>
+      <c r="I51" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J51" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K51" s="0" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="P51" s="0" t="inlineStr">
+        <is>
+          <t>Limit Finanzierungssaldo: -3,0 %</t>
+        </is>
+      </c>
+      <c r="Q51" s="0" t="inlineStr">
+        <is>
+          <t>Deficit limit: 3.0%</t>
+        </is>
+      </c>
+      <c r="R51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S51" s="0">
+        <v>10</v>
+      </c>
+      <c r="T51" s="0">
+        <v>-3.5</v>
+      </c>
+      <c r="AD51" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE51" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF51" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG51" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH51" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI51" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AJ51" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>W_0802b_J</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>Z08_B02_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" s="0" t="inlineStr">
+        <is>
+          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
+        </is>
+      </c>
+      <c r="H52" s="0" t="inlineStr">
+        <is>
+          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of GDP, to be maintained until 2030</t>
+        </is>
+      </c>
+      <c r="I52" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J52" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K52" s="0" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="P52" s="0" t="inlineStr">
+        <is>
+          <t>Limit struktureller Finanzierungssaldo: -0,5 %</t>
+        </is>
+      </c>
+      <c r="Q52" s="0" t="inlineStr">
+        <is>
+          <t>Structural deficit limit: -0.5%</t>
+        </is>
+      </c>
+      <c r="R52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S52" s="0">
+        <v>10</v>
+      </c>
+      <c r="T52" s="0">
+        <v>-1</v>
+      </c>
+      <c r="U52" s="0">
+        <v>2009</v>
+      </c>
+      <c r="AD52" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE52" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF52" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG52" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH52" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AI52" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AJ52" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>W_0802c_J</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>Z08_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" s="0" t="inlineStr">
+        <is>
+          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
+        </is>
+      </c>
+      <c r="H53" s="0" t="inlineStr">
+        <is>
+          <t>Ratio of government debt to GDP must not exceed  60 %, to be maintained until 2030</t>
+        </is>
+      </c>
+      <c r="I53" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J53" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K53" s="0" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="P53" s="0" t="inlineStr">
+        <is>
+          <t>Referenzwert: 60 %</t>
+        </is>
+      </c>
+      <c r="Q53" s="0" t="inlineStr">
+        <is>
+          <t>Benchmark value: 60%</t>
+        </is>
+      </c>
+      <c r="R53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S53" s="0">
+        <v>27</v>
+      </c>
+      <c r="T53" s="0">
+        <v>73</v>
+      </c>
+      <c r="U53" s="0">
+        <v>2012</v>
+      </c>
+      <c r="AD53" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE53" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF53" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG53" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH53" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI53" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ53" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>W_0803x_R</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>Z08_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" s="0" t="inlineStr">
+        <is>
+          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
+        </is>
+      </c>
+      <c r="H54" s="0" t="inlineStr">
+        <is>
+          <t>Appropriate development of the ratio, to be maintained until 2030</t>
+        </is>
+      </c>
+      <c r="I54" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J54" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R54" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AE54" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF54" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG54" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH54" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI54" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ54" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>W_0804x_R</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>Z08_B04_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" s="0" t="inlineStr">
+        <is>
+          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
+        </is>
+      </c>
+      <c r="H55" s="0" t="inlineStr">
+        <is>
+          <t>Steady and appropriate economic growth</t>
+        </is>
+      </c>
+      <c r="I55" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J55" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R55" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE55" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF55" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG55" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH55" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI55" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AJ55" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>W_0805a_2030</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>Z08_B05_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" s="0" t="inlineStr">
+        <is>
+          <t>Erhöhung auf 78 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H56" s="0" t="inlineStr">
+        <is>
+          <t>Increase to 78 % by 2030</t>
+        </is>
+      </c>
+      <c r="I56" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J56" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K56" s="0" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="L56" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T56" s="0">
+        <v>70</v>
+      </c>
+      <c r="AD56" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE56" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF56" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG56" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH56" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI56" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ56" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>W_0805b_2030</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>Z08_B05_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" s="0" t="inlineStr">
+        <is>
+          <t>Erhöhung auf 60 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H57" s="0" t="inlineStr">
+        <is>
+          <t>Increase to 60 % by 2030</t>
+        </is>
+      </c>
+      <c r="I57" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J57" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K57" s="0" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L57" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T57" s="0">
+        <v>50</v>
+      </c>
+      <c r="AD57" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE57" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF57" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG57" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH57" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI57" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ57" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>W_0806x_R</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>Z08_B06_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" s="0" t="inlineStr">
+        <is>
+          <t>Signifikante Steigerung bis 2030</t>
+        </is>
+      </c>
+      <c r="H58" s="0" t="inlineStr">
+        <is>
+          <t>Significantly increase by 2030</t>
+        </is>
+      </c>
+      <c r="I58" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J58" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R58" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AI58" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ58" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>W_0901a_J</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>Z09_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" s="0" t="inlineStr">
+        <is>
+          <t>Jährlich mindestens &lt;b&gt;3,5 %&lt;/b&gt; des BIP bis &lt;b&gt;2025&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H59" s="0" t="inlineStr">
+        <is>
+          <t>At least &lt;b&gt;3.5 %&lt;/b&gt; of GDP per year by &lt;b&gt;2025&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I59" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J59" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K59" s="0" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="L59" s="0">
+        <v>2025</v>
+      </c>
+      <c r="O59" s="0">
+        <v>2018</v>
+      </c>
+      <c r="P59" s="0" t="inlineStr">
+        <is>
+          <t>Ziel: Jährlich 3,5 % des BIP</t>
+        </is>
+      </c>
+      <c r="Q59" s="0" t="inlineStr">
+        <is>
+          <t>Target: 3.5% of GDP every year</t>
+        </is>
+      </c>
+      <c r="R59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S59" s="0">
+        <v>27.1</v>
+      </c>
+      <c r="T59" s="0">
+        <v>3.8</v>
+      </c>
+      <c r="U59" s="0">
+        <v>2015</v>
+      </c>
+      <c r="W59" s="0" t="inlineStr">
+        <is>
+          <t>Der Zielwert des Indikators wurden im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1"&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (3,5 % bis 2025).</t>
+        </is>
+      </c>
+      <c r="X59" s="0" t="inlineStr">
+        <is>
+          <t>The target value of the indicator was adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1588964/1b24acbed2b731744c2ffa4ca9f3a6fc/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt;. Since this resolution came into force, the revised target (3.5 % by 2025) has applied to the indicator.</t>
+        </is>
+      </c>
+      <c r="AC59" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AD59" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE59" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF59" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG59" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH59" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI59" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>W_0901ax_J</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>Z09_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" s="0" t="inlineStr">
+        <is>
+          <t>Jährlich mindestens &lt;b&gt;3 %&lt;/b&gt; des BIP bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H60" s="0" t="inlineStr">
+        <is>
+          <t>At least &lt;b&gt;3 %&lt;/b&gt; of GDP per year by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I60" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J60" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K60" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L60" s="0">
+        <v>2030</v>
+      </c>
+      <c r="N60" s="0">
+        <v>2018</v>
+      </c>
+      <c r="R60" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AD60" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE60" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF60" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG60" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH60" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI60" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>W_0901b_2025</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>Z09_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" s="0" t="inlineStr">
+        <is>
+          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
+        </is>
+      </c>
+      <c r="H61" s="0" t="inlineStr">
+        <is>
+          <t>Universal gigabit network Roll-out by 2025</t>
+        </is>
+      </c>
+      <c r="I61" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J61" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K61" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L61" s="0">
+        <v>2025</v>
+      </c>
+      <c r="R61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T61" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>W_1001x_2030a</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>Z10_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" s="0" t="inlineStr">
+        <is>
+          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
+        </is>
+      </c>
+      <c r="H62" s="0" t="inlineStr">
+        <is>
+          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
+        </is>
+      </c>
+      <c r="R62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE62" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AF62" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AG62" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AH62" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AI62" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AJ62" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>W_1001x_2030b</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>Z10_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" s="0" t="inlineStr">
+        <is>
+          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss</t>
+        </is>
+      </c>
+      <c r="H63" s="0" t="inlineStr">
+        <is>
+          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate</t>
+        </is>
+      </c>
+      <c r="I63" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J63" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AE63" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AF63" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AG63" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AH63" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI63" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ63" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>W_1001x_2030c</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>Z10_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>A_SERIES_DIFFERENCE</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" s="0" t="inlineStr">
+        <is>
+          <t>Angleichung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss an die Quote deutscher Schulabgänger bis 2030</t>
+        </is>
+      </c>
+      <c r="H64" s="0" t="inlineStr">
+        <is>
+          <t>Bring the proportion of foreign school leavers with a least a secondary general school certificate into line with that of German school leavers by 2030</t>
+        </is>
+      </c>
+      <c r="I64" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J64" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K64" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L64" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T64" s="0">
+        <v>2</v>
+      </c>
+      <c r="W64" s="0" t="inlineStr">
+        <is>
+          <t>Beide Ziele „Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss“ und „Angleichung des Anteils an die Quote deutscher Schulabgänger“ sollen parallel erfüllt werden, sodass für die Gesamtbewertung des Indikators die Einzelbewertungen zusammengeführt werden, indem jeweils das „schlechtere“ Wettersymbol übernommen wird.</t>
+        </is>
+      </c>
+      <c r="X64" s="0" t="inlineStr">
+        <is>
+          <t>The two targets of "increasing the proportion of foreign school leavers with at least a secondary school leaving certificate" and "aligning the proportion with the proportion of German school leavers" are to be met in parallel, so that for the overall evaluation of the indicator the individual evaluations are combined by adopting the "worse" weather symbol in each case.</t>
+        </is>
+      </c>
+      <c r="AD64" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE64" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AF64" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AG64" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AH64" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AI64" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AJ64" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>W_1002x_J</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>Z10_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" s="0" t="inlineStr">
+        <is>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-27-Wertes</t>
+        </is>
+      </c>
+      <c r="H65" s="0" t="inlineStr">
+        <is>
+          <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
+        </is>
+      </c>
+      <c r="I65" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J65" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K65" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="W65" s="0" t="inlineStr">
+        <is>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren und die Berechnung der Wettersymbole nicht möglich (Zeitreihenbruch).</t>
+        </is>
+      </c>
+      <c r="X65" s="0" t="inlineStr">
+        <is>
+          <t>The "Life in Europe" survey (EU-SILC), which was previously conducted separately, was integrated into the microcensus as a sub-sample in 2020. Due to the change from a voluntary survey to a survey requiring information in part, combined with a new sample composition, it is not possible to compare the data of the survey year 2020 with previous years to evaluate the development of the indicators in these years (break in time series).</t>
+        </is>
+      </c>
+      <c r="AD65" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AE65" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AF65" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AG65" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AH65" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>W_1101a_2030</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>A_SERIES_4YAVERAGE</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" s="0" t="inlineStr">
+        <is>
+          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
+        </is>
+      </c>
+      <c r="H66" s="0" t="inlineStr">
+        <is>
+          <t>Reduction to under 30 ha on average per day by 2030</t>
+        </is>
+      </c>
+      <c r="I66" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J66" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K66" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L66" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T66" s="0">
+        <v>40</v>
+      </c>
+      <c r="AC66" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AD66" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE66" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF66" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG66" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH66" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI66" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>W_1101b_R</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" s="0" t="inlineStr">
+        <is>
+          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
+        </is>
+      </c>
+      <c r="H67" s="0" t="inlineStr">
+        <is>
+          <t>Reduce the loss of per capita open space area</t>
+        </is>
+      </c>
+      <c r="I67" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J67" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AD67" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE67" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF67" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AG67" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AH67" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI67" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>W_1101c_R</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01_Ib03_I01</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" s="0" t="inlineStr">
+        <is>
+          <t>Keine Verringerung der Siedlungsdichte</t>
+        </is>
+      </c>
+      <c r="H68" s="0" t="inlineStr">
+        <is>
+          <t>No reduction in density of settlements</t>
+        </is>
+      </c>
+      <c r="I68" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J68" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R68" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AD68" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE68" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AF68" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AG68" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AH68" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AI68" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>W_1102a_2030</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>Z11_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" s="0" t="inlineStr">
+        <is>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H69" s="0" t="inlineStr">
+        <is>
+          <t>Reduction by 15–20 % by 2030</t>
+        </is>
+      </c>
+      <c r="I69" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J69" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K69" s="0" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L69" s="0">
+        <v>2030</v>
+      </c>
+      <c r="P69" s="0" t="inlineStr">
+        <is>
+          <t>Ziel: _x000d_
+85_x000d_
+bis_x000d_
+80</t>
+        </is>
+      </c>
+      <c r="Q69" s="0" t="inlineStr">
+        <is>
+          <t>Target:_x000d_
+between _x000d_
+80 _x000d_
+and _x000d_
+85</t>
+        </is>
+      </c>
+      <c r="R69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S69" s="0">
+        <v>15.8</v>
+      </c>
+      <c r="T69" s="0">
+        <v>95</v>
+      </c>
+      <c r="AC69" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AD69" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AE69" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AF69" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AG69" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AH69" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AI69" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>W_1102b_2030</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>Z11_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>A_SERIES_ENINPASSTRA</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" s="0" t="inlineStr">
+        <is>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H70" s="0" t="inlineStr">
+        <is>
+          <t>Reduction by 15–20 % by 2030</t>
+        </is>
+      </c>
+      <c r="I70" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J70" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K70" s="0" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L70" s="0">
+        <v>2030</v>
+      </c>
+      <c r="P70" s="0" t="inlineStr">
+        <is>
+          <t>Ziel: _x000d_
+85_x000d_
+bis_x000d_
+80</t>
+        </is>
+      </c>
+      <c r="Q70" s="0" t="inlineStr">
+        <is>
+          <t>Target:_x000d_
+between _x000d_
+80 _x000d_
+and _x000d_
+85</t>
+        </is>
+      </c>
+      <c r="R70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S70" s="0">
+        <v>15.8</v>
+      </c>
+      <c r="T70" s="0">
+        <v>95</v>
+      </c>
+      <c r="AC70" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AD70" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AE70" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AF70" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AG70" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AH70" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AI70" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>W_1102c_R</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>Z11_B02_P01_Ib03_I01</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" s="0" t="inlineStr">
+        <is>
+          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
+        </is>
+      </c>
+      <c r="H71" s="0" t="inlineStr">
+        <is>
+          <t>Reduction of average travel time by public transport</t>
+        </is>
+      </c>
+      <c r="I71" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J71" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="R71" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>W_1103x_2030</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>Z11_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" s="0" t="inlineStr">
+        <is>
+          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H72" s="0" t="inlineStr">
+        <is>
+          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
+        </is>
+      </c>
+      <c r="I72" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J72" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K72" s="0" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L72" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T72" s="0">
+        <v>15</v>
+      </c>
+      <c r="W72" s="0" t="inlineStr">
+        <is>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren und die Berechnung der Wettersymbole nicht möglich (Zeitreihenbruch).</t>
+        </is>
+      </c>
+      <c r="X72" s="0" t="inlineStr">
+        <is>
+          <t>The "Life in Europe" survey (EU-SILC), which was previously conducted separately, was integrated into the microcensus as a sub-sample in 2020. Due to the change from a voluntary survey to a survey requiring information in part, combined with a new sample composition, it is not possible to compare the data of the survey year 2020 with previous years to evaluate the development of the indicators in these years (break in time series).</t>
+        </is>
+      </c>
+      <c r="AD72" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AE72" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF72" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG72" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH72" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI72" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AJ72" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>W_1104x_2030</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>Z11_B04_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
+        </is>
+      </c>
+      <c r="H73" s="0" t="inlineStr">
+        <is>
+          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
+        </is>
+      </c>
+      <c r="I73" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J73" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K73" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L73" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T73" s="0">
+        <v>55</v>
+      </c>
+      <c r="AD73" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE73" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF73" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG73" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH73" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI73" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ73" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AK73" s="0" t="inlineStr">
+        <is>
+          <t>Sp</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>W_1201a_2030</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H74" s="0" t="inlineStr">
+        <is>
+          <t>Increase the market share to 34 % by 2030</t>
+        </is>
+      </c>
+      <c r="I74" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J74" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K74" s="0" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="L74" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T74" s="0">
+        <v>37</v>
+      </c>
+      <c r="AF74" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG74" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH74" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>W_1201ba_R</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" s="0" t="inlineStr">
+        <is>
+          <t>Kontinuierliche Reduzierung </t>
+        </is>
+      </c>
+      <c r="H75" s="0" t="inlineStr">
+        <is>
+          <t>Steady reduction</t>
+        </is>
+      </c>
+      <c r="I75" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J75" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="R75" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE75" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AF75" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG75" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>W_1201bb_R</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01_Ib02_I02</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" s="0" t="inlineStr">
+        <is>
+          <t>Kontinuierliche Reduzierung </t>
+        </is>
+      </c>
+      <c r="H76" s="0" t="inlineStr">
+        <is>
+          <t>Steady reduction</t>
+        </is>
+      </c>
+      <c r="I76" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J76" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="R76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AD76" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AE76" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AF76" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>W_1201bc_R</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01_Ib02_I03</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" s="0" t="inlineStr">
+        <is>
+          <t>Kontinuierliche Reduzierung </t>
+        </is>
+      </c>
+      <c r="H77" s="0" t="inlineStr">
+        <is>
+          <t>Steady reduction</t>
+        </is>
+      </c>
+      <c r="I77" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J77" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="R77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AD77" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AE77" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AF77" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>W_1202x_2030</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>Z12_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>A_SERIES_LOCATIONS</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78" s="0" t="inlineStr">
+        <is>
+          <t>5 000 Organisationsstandorte bis 2030</t>
+        </is>
+      </c>
+      <c r="H78" s="0" t="inlineStr">
+        <is>
+          <t>5,000 locations of organisations by 2030</t>
+        </is>
+      </c>
+      <c r="I78" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J78" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K78" s="0" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="L78" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T78" s="0">
+        <v>4500</v>
+      </c>
+      <c r="AD78" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE78" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF78" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG78" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH78" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI78" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ78" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>W_1203a_2020</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>Z12_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G79" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils auf 95 % bis 2020</t>
+        </is>
+      </c>
+      <c r="H79" s="0" t="inlineStr">
+        <is>
+          <t>Increase the proportion to 95 % by 2020</t>
+        </is>
+      </c>
+      <c r="I79" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J79" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K79" s="0" t="inlineStr">
+        <is>
+          <t>210,8</t>
+        </is>
+      </c>
+      <c r="L79" s="0">
+        <v>2020</v>
+      </c>
+      <c r="R79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T79" s="0">
+        <v>195</v>
+      </c>
+      <c r="AI79" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>W_1203b_R</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>Z12_B03_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" s="0" t="inlineStr">
+        <is>
+          <t>Signifikante Senkung</t>
+        </is>
+      </c>
+      <c r="H80" s="0" t="inlineStr">
+        <is>
+          <t>Significantly reduce</t>
+        </is>
+      </c>
+      <c r="I80" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J80" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="R80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI80" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>W_1301a_2020</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81" s="0" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens &lt;b&gt;40 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H81" s="0" t="inlineStr">
+        <is>
+          <t>Reduce by at least &lt;b&gt;40 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I81" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J81" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K81" s="0" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L81" s="0">
+        <v>2020</v>
+      </c>
+      <c r="N81" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R81" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="W81" s="0" t="inlineStr">
+        <is>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+        </is>
+      </c>
+      <c r="X81" s="0" t="inlineStr">
+        <is>
+          <t>Omission of 2020 target due to expiration of time.</t>
+        </is>
+      </c>
+      <c r="AD81" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE81" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF81" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG81" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH81" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI81" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>W_1301a_2030</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G82" s="0" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H82" s="0" t="inlineStr">
+        <is>
+          <t>Reduce by at least &lt;b&gt;65 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I82" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J82" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K82" s="0" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L82" s="0">
+        <v>2030</v>
+      </c>
+      <c r="M82" s="0">
+        <v>2020</v>
+      </c>
+      <c r="O82" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T82" s="0">
+        <v>41</v>
+      </c>
+      <c r="AD82" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE82" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF82" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG82" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH82" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI82" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ82" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>W_1301a_2040</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G83" s="0" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens &lt;b&gt;88 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H83" s="0" t="inlineStr">
+        <is>
+          <t>Reduce by at least &lt;b&gt;88 %&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I83" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J83" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K83" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L83" s="0">
+        <v>2040</v>
+      </c>
+      <c r="M83" s="0">
+        <v>2030</v>
+      </c>
+      <c r="O83" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T83" s="0">
+        <v>18</v>
+      </c>
+      <c r="AD83" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE83" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF83" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG83" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH83" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI83" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ83" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>W_1301a_2045</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" s="0" t="inlineStr">
+        <is>
+          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2045&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H84" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2045&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I84" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J84" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K84" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L84" s="0">
+        <v>2045</v>
+      </c>
+      <c r="M84" s="0">
+        <v>2040</v>
+      </c>
+      <c r="O84" s="0">
+        <v>2022</v>
+      </c>
+      <c r="P84" s="0" t="inlineStr">
+        <is>
+          <t>Netto-Treibhausgasneutralität</t>
+        </is>
+      </c>
+      <c r="Q84" s="0" t="inlineStr">
+        <is>
+          <t>Net greenhouse gas neutrality</t>
+        </is>
+      </c>
+      <c r="R84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S84" s="0">
+        <v>29.5</v>
+      </c>
+      <c r="T84" s="0">
+        <v>2</v>
+      </c>
+      <c r="W84" s="0" t="inlineStr">
+        <is>
+          <t>Die Zielwerte und -jahre des Indikators wurden im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gelten für den Indikator die geänderten Ziele (65 % bis 2030, 88 % bis 2040, Erreichung der Treibhausgasneutralität bis 2045).</t>
+        </is>
+      </c>
+      <c r="X84" s="0" t="inlineStr">
+        <is>
+          <t>The target values and years of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href="https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1"&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised targets (65 % by 2030, 88 % by 2040, Greenhouse-gas neutrality by 2045) have applied to the indicator.</t>
+        </is>
+      </c>
+      <c r="AD84" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE84" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF84" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG84" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH84" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI84" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ84" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>W_1301ax_2030</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" s="0" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens &lt;b&gt;55 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H85" s="0" t="inlineStr">
+        <is>
+          <t>Reduce by at least &lt;b&gt;55 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I85" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J85" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K85" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L85" s="0">
+        <v>2030</v>
+      </c>
+      <c r="N85" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE85" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF85" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG85" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH85" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AI85" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ85" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>W_1301ax_2050b</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" s="0" t="inlineStr">
+        <is>
+          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H86" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2050&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I86" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J86" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K86" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L86" s="0">
+        <v>2050</v>
+      </c>
+      <c r="M86" s="0">
+        <v>2040</v>
+      </c>
+      <c r="N86" s="0">
+        <v>2022</v>
+      </c>
+      <c r="O86" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="W86" s="0" t="inlineStr">
+        <is>
+          <t>Das Ziel des Indikators wurde im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (Erreichung von Treibhausgas-neutralität bis 2050). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
+        </is>
+      </c>
+      <c r="X86" s="0" t="inlineStr">
+        <is>
+          <t>The target of the indicator was adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (Greenhouse-gas neutrality) had applied to the indicator. It was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
+        </is>
+      </c>
+      <c r="AD86" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE86" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF86" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG86" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH86" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI86" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ86" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>W_1301ay_2040</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G87" s="0" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens &lt;b&gt;70 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H87" s="0" t="inlineStr">
+        <is>
+          <t>Reduce by at least &lt;b&gt;70 %&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I87" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J87" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K87" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L87" s="0">
+        <v>2040</v>
+      </c>
+      <c r="M87" s="0">
+        <v>2030</v>
+      </c>
+      <c r="N87" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE87" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF87" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG87" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH87" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AI87" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ87" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>W_1301ay_2050a</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G88" s="0" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;95 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H88" s="0" t="inlineStr">
+        <is>
+          <t>Reduce by at least &lt;b&gt;80 %&lt;/b&gt; to &lt;b&gt;95 %&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I88" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J88" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K88" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L88" s="0">
+        <v>2050</v>
+      </c>
+      <c r="N88" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE88" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF88" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG88" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AH88" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI88" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ88" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>W_1301b_2020</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>Z13_B01_P02_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Verdopplung&lt;/b&gt; der Finanzierung bis &lt;b&gt;2020&lt;/b&gt; gegenüber 2014</t>
+        </is>
+      </c>
+      <c r="H89" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Double&lt;/b&gt; finance by &lt;b&gt;2020&lt;/b&gt; compared to 2014</t>
+        </is>
+      </c>
+      <c r="I89" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J89" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K89" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L89" s="0">
+        <v>2020</v>
+      </c>
+      <c r="N89" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="W89" s="0" t="inlineStr">
+        <is>
+          <t>Eine Verdopplung der internationalen Klimafinanzierung von 2014 entsprach einer Erhöhung auf 4 Milliarden Euro.</t>
+        </is>
+      </c>
+      <c r="X89" s="0" t="inlineStr">
+        <is>
+          <t>A doubling of international climate finance from 2014 corresponds to an increase to 4 billion euro.</t>
+        </is>
+      </c>
+      <c r="AE89" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF89" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG89" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AH89" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI89" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>W_1301b_2025</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>Z13_B01_P02_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" s="0" t="inlineStr">
+        <is>
+          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens &lt;b&gt;6 Mrd.&lt;/b&gt; Euro bis spätestens &lt;b&gt;2025&lt;/b&gt;.</t>
+        </is>
+      </c>
+      <c r="H90" s="0" t="inlineStr">
+        <is>
+          <t>Increase international climate finance to at least &lt;b&gt;6 billion&lt;/b&gt; euros by &lt;b&gt;2025&lt;/b&gt; at the latest.</t>
+        </is>
+      </c>
+      <c r="I90" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J90" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K90" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L90" s="0">
+        <v>2025</v>
+      </c>
+      <c r="M90" s="0">
+        <v>2020</v>
+      </c>
+      <c r="O90" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T90" s="0">
+        <v>7</v>
+      </c>
+      <c r="W90" s="0" t="inlineStr">
+        <is>
+          <t>Zielwert und -jahr des Indikators wurden im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 Milliarden Euro bis spätestens 2025).</t>
+        </is>
+      </c>
+      <c r="X90" s="0" t="inlineStr">
+        <is>
+          <t>The target value and year of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href="https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1"&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised target (6 billion euros by 2025 at the latest) has applied to the indicator.</t>
+        </is>
+      </c>
+      <c r="AE90" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF90" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG90" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH90" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI90" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ90" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>W_1401aa_J</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>Z14_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91" s="0" t="inlineStr">
+        <is>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
+        </is>
+      </c>
+      <c r="H91" s="0" t="inlineStr">
+        <is>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
+        </is>
+      </c>
+      <c r="I91" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J91" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K91" s="0" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="P91" s="0" t="inlineStr">
+        <is>
+          <t>Jährliches Ziel Ostsee: 2,6</t>
+        </is>
+      </c>
+      <c r="Q91" s="0" t="inlineStr">
+        <is>
+          <t>Annual target Baltic Sea: 2,6</t>
+        </is>
+      </c>
+      <c r="R91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T91" s="0">
+        <v>2.67</v>
+      </c>
+      <c r="AC91" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AD91" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE91" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF91" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG91" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH91" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI91" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>W_1401ab_J</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>Z14_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" s="0" t="inlineStr">
+        <is>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
+        </is>
+      </c>
+      <c r="H92" s="0" t="inlineStr">
+        <is>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
+        </is>
+      </c>
+      <c r="I92" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J92" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K92" s="0" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="P92" s="0" t="inlineStr">
+        <is>
+          <t>Jährliches Ziel Nordsee: 2,8</t>
+        </is>
+      </c>
+      <c r="Q92" s="0" t="inlineStr">
+        <is>
+          <t>Annual target North Sea: 2,8</t>
+        </is>
+      </c>
+      <c r="R92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T92" s="0">
+        <v>2.87</v>
+      </c>
+      <c r="AC92" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AD92" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE92" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF92" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG92" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH92" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI92" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>W_1401b_2020</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>Z14_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>A_SERIES_COMMEXPL</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" s="0" t="inlineStr">
+        <is>
+          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
+        </is>
+      </c>
+      <c r="H93" s="0" t="inlineStr">
+        <is>
+          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
+        </is>
+      </c>
+      <c r="I93" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J93" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K93" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L93" s="0">
+        <v>2020</v>
+      </c>
+      <c r="R93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S93" s="0">
+        <v>16.9</v>
+      </c>
+      <c r="T93" s="0">
+        <v>90</v>
+      </c>
+      <c r="AC93" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AD93" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE93" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AF93" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AG93" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AH93" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AI93" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>W_1501x_2030</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>Z15_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" s="0" t="inlineStr">
+        <is>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
+        </is>
+      </c>
+      <c r="H94" s="0" t="inlineStr">
+        <is>
+          <t>Reach the index value of 100 by 2030</t>
+        </is>
+      </c>
+      <c r="I94" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J94" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K94" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L94" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S94" s="0">
+        <v>26.8</v>
+      </c>
+      <c r="T94" s="0">
+        <v>90</v>
+      </c>
+      <c r="Y94" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="Z94" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AA94" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AB94" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AC94" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AD94" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AE94" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>W_1502x_2030</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>Z15_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G95" s="0" t="inlineStr">
+        <is>
+          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
+        </is>
+      </c>
+      <c r="H95" s="0" t="inlineStr">
+        <is>
+          <t>Reduction by 35% by 2030 compared to 2005</t>
+        </is>
+      </c>
+      <c r="I95" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J95" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K95" s="0" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L95" s="0">
+        <v>2030</v>
+      </c>
+      <c r="P95" s="0" t="inlineStr">
+        <is>
+          <t>Ziel: _x000d_
+52</t>
+        </is>
+      </c>
+      <c r="Q95" s="0" t="inlineStr">
+        <is>
+          <t>Target:_x000d_
+52</t>
+        </is>
+      </c>
+      <c r="R95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T95" s="0">
+        <v>57</v>
+      </c>
+      <c r="AF95" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AG95" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AH95" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>W_1503a_R</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>Z15_B02_P02_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung der Zahlungen bis 2030</t>
+        </is>
+      </c>
+      <c r="H96" s="0" t="inlineStr">
+        <is>
+          <t>Increase payments by 2030</t>
+        </is>
+      </c>
+      <c r="I96" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J96" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AD96" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AE96" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF96" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG96" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AH96" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI96" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>W_1503b_R</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>Z15_B02_P02_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung der Zahlungen bis 2030</t>
+        </is>
+      </c>
+      <c r="H97" s="0" t="inlineStr">
+        <is>
+          <t>Increase payments by 2030</t>
+        </is>
+      </c>
+      <c r="I97" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J97" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R97" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AD97" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE97" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF97" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG97" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH97" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI97" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>W_1601_2030</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>Z16_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98" s="0" t="inlineStr">
+        <is>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter &lt;b&gt;6 500&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H98" s="0" t="inlineStr">
+        <is>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than &lt;b&gt;6,500 &lt;/b&gt;by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I98" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J98" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K98" s="0" t="inlineStr">
+        <is>
+          <t>6500</t>
+        </is>
+      </c>
+      <c r="L98" s="0">
+        <v>2030</v>
+      </c>
+      <c r="O98" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S98" s="0">
+        <v>28.8</v>
+      </c>
+      <c r="T98" s="0">
+        <v>7000</v>
+      </c>
+      <c r="W98" s="0" t="inlineStr">
+        <is>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 500 bis 2030).</t>
+        </is>
+      </c>
+      <c r="X98" s="0" t="inlineStr">
+        <is>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (6,500 by 2030) has applied to the indicator.</t>
+        </is>
+      </c>
+      <c r="AD98" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AE98" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AF98" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG98" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH98" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI98" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ98" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>W_1601x_2030</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>Z16_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" s="0" t="inlineStr">
+        <is>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter &lt;b&gt;7 000&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H99" s="0" t="inlineStr">
+        <is>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than &lt;b&gt;7,000&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I99" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J99" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K99" s="0" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="L99" s="0">
+        <v>2030</v>
+      </c>
+      <c r="N99" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AE99" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AF99" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG99" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH99" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI99" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ99" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>W_1602x_J</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>Z16_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G100" s="0" t="inlineStr">
+        <is>
+          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="H100" s="0" t="inlineStr">
+        <is>
+          <t>At least 15 projects per year by 2030</t>
+        </is>
+      </c>
+      <c r="I100" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J100" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K100" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="R100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T100" s="0">
+        <v>18</v>
+      </c>
+      <c r="AD100" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE100" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF100" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG100" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH100" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI100" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ100" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>W_1603a_R</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>Z16_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" s="0" t="inlineStr">
+        <is>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
+        </is>
+      </c>
+      <c r="H101" s="0" t="inlineStr">
+        <is>
+          <t>Improvement by 2030, compared to 2012</t>
+        </is>
+      </c>
+      <c r="I101" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J101" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AG101" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AH101" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AI101" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AJ101" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>W_1603b_R</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="inlineStr">
+        <is>
+          <t>Z16_B03_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" s="0" t="inlineStr">
+        <is>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
+        </is>
+      </c>
+      <c r="H102" s="0" t="inlineStr">
+        <is>
+          <t>Improvement by 2030, compared to 2012</t>
+        </is>
+      </c>
+      <c r="I102" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J102" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG102" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AH102" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI102" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ102" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>W_1701x_2030</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>Z17_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>A_CALCMETH_GRANTEQU</t>
+        </is>
+      </c>
+      <c r="D103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G103" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
+        </is>
+      </c>
+      <c r="H103" s="0" t="inlineStr">
+        <is>
+          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
+        </is>
+      </c>
+      <c r="I103" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J103" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K103" s="0" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="L103" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S103" s="0">
+        <v>26.8</v>
+      </c>
+      <c r="T103" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="AD103" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE103" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF103" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG103" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH103" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI103" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ103" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>W_1702x_2020</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
+        </is>
+      </c>
+      <c r="H104" s="0" t="inlineStr">
+        <is>
+          <t>Increase the number by 10 % from 2015 to 2020</t>
+        </is>
+      </c>
+      <c r="I104" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J104" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K104" s="0" t="inlineStr">
+        <is>
+          <t>237000</t>
+        </is>
+      </c>
+      <c r="L104" s="0">
+        <v>2020</v>
+      </c>
+      <c r="R104" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="W104" s="0" t="inlineStr">
+        <is>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+        </is>
+      </c>
+      <c r="X104" s="0" t="inlineStr">
+        <is>
+          <t>Omission of 2020 target due to expiration of time.</t>
+        </is>
+      </c>
+      <c r="AD104" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE104" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF104" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG104" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH104" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI104" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>W_1702x_J</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" s="0" t="inlineStr">
+        <is>
+          <t>Verstetigung des Zielwertes von 2020</t>
+        </is>
+      </c>
+      <c r="H105" s="0" t="inlineStr">
+        <is>
+          <t>Steadying the 2020 target value</t>
+        </is>
+      </c>
+      <c r="I105" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J105" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K105" s="0" t="inlineStr">
+        <is>
+          <t>237000</t>
+        </is>
+      </c>
+      <c r="P105" s="0" t="inlineStr">
+        <is>
+          <t>Ziel: 237 000</t>
+        </is>
+      </c>
+      <c r="Q105" s="0" t="inlineStr">
+        <is>
+          <t>Target: 237,000</t>
+        </is>
+      </c>
+      <c r="R105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S105" s="0">
+        <v>15.5</v>
+      </c>
+      <c r="T105" s="0">
+        <v>255000</v>
+      </c>
+      <c r="U105" s="0">
+        <v>2019</v>
+      </c>
+      <c r="AJ105" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>W_1703x_J</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>Z17_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G106" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
+        </is>
+      </c>
+      <c r="H106" s="0" t="inlineStr">
+        <is>
+          <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
+        </is>
+      </c>
+      <c r="I106" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J106" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K106" s="0" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="L106" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S106" s="0">
+        <v>19</v>
+      </c>
+      <c r="T106" s="0">
+        <v>1.45</v>
+      </c>
+      <c r="AD106" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE106" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF106" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG106" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH106" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI106" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ106" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -1471,12 +1471,12 @@
       </c>
       <c r="AS4" s="4" t="inlineStr">
         <is>
-          <t>Sp</t>
+          <t/>
         </is>
       </c>
       <c r="AT4" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AU4" s="4" t="inlineStr">
@@ -16374,7 +16374,7 @@
       </c>
       <c r="AV73" s="4" t="inlineStr">
         <is>
-          <t>Sp</t>
+          <t/>
         </is>
       </c>
       <c r="AW73" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="8">
-        <v>29.9</v>
+        <v>30.9</v>
       </c>
       <c r="T8" s="8">
         <v>60</v>
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="8">
-        <v>29.9</v>
+        <v>30.9</v>
       </c>
       <c r="T9" s="8">
         <v>225</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -581,7 +581,7 @@
     <col customWidth="true" min="20" max="20" width="18.30859375"/>
     <col customWidth="true" min="21" max="21" width="13.62109375"/>
     <col customWidth="true" min="22" max="22" width="8.203125"/>
-    <col customWidth="true" min="23" max="23" width="46.58203125"/>
+    <col customWidth="true" min="23" max="23" width="71.77734375"/>
     <col customWidth="true" min="24" max="24" width="76.171875"/>
     <col customWidth="true" min="25" max="25" width="13.8359375"/>
     <col customWidth="true" min="26" max="26" width="13.8359375"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="W2" s="6" t="inlineStr">
         <is>
-          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren und die Berechnung der Wettersymbole nicht möglich (Zeitreihenbruch).</t>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung sind ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren und die Berechnung der Wettersymbole nicht möglich (Zeitreihenbruch).</t>
         </is>
       </c>
       <c r="X2" s="6" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="AU2" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AV2" s="4" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="W3" s="6" t="inlineStr">
         <is>
-          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren und die Berechnung der Wettersymbole nicht möglich (Zeitreihenbruch).</t>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung sind ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren und die Berechnung der Wettersymbole nicht möglich (Zeitreihenbruch).</t>
         </is>
       </c>
       <c r="X3" s="6" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="AU3" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AV3" s="4" t="inlineStr">
@@ -14527,7 +14527,7 @@
       </c>
       <c r="W65" s="6" t="inlineStr">
         <is>
-          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren und die Berechnung der Wettersymbole nicht möglich (Zeitreihenbruch).</t>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung sind ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren und die Berechnung der Wettersymbole nicht möglich (Zeitreihenbruch).</t>
         </is>
       </c>
       <c r="X65" s="6" t="inlineStr">
@@ -16034,7 +16034,7 @@
       </c>
       <c r="W72" s="6" t="inlineStr">
         <is>
-          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren und die Berechnung der Wettersymbole nicht möglich (Zeitreihenbruch).</t>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung sind ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren und die Berechnung der Wettersymbole nicht möglich (Zeitreihenbruch).</t>
         </is>
       </c>
       <c r="X72" s="6" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -13245,7 +13245,7 @@
         <v>1</v>
       </c>
       <c r="S59" s="8">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="T59" s="8">
         <v>3.8</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -6965,6 +6965,9 @@
       <c r="R30" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="S30" s="8">
+        <v>31.8</v>
+      </c>
       <c r="T30" s="8">
         <v>93</v>
       </c>
@@ -8054,6 +8057,9 @@
       <c r="R35" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="S35" s="8">
+        <v>15.8</v>
+      </c>
       <c r="T35" s="8">
         <v>210</v>
       </c>
@@ -8705,6 +8711,9 @@
       <c r="R38" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="S38" s="8">
+        <v>15.8</v>
+      </c>
       <c r="T38" s="8">
         <v>35</v>
       </c>
@@ -10013,6 +10022,9 @@
       <c r="R44" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="S44" s="8">
+        <v>17.8</v>
+      </c>
       <c r="T44" s="8">
         <v>70</v>
       </c>
@@ -11318,6 +11330,9 @@
       <c r="R50" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="S50" s="8">
+        <v>18.8</v>
+      </c>
       <c r="T50" s="8">
         <v>180</v>
       </c>
@@ -12602,6 +12617,9 @@
       <c r="R56" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="S56" s="8">
+        <v>21.8</v>
+      </c>
       <c r="T56" s="8">
         <v>70</v>
       </c>
@@ -12817,6 +12835,9 @@
       <c r="R57" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="S57" s="8">
+        <v>21.8</v>
+      </c>
       <c r="T57" s="8">
         <v>50</v>
       </c>
@@ -13238,7 +13259,7 @@
       </c>
       <c r="Q59" s="4" t="inlineStr">
         <is>
-          <t>Target: 3.5% of GDP every year</t>
+          <t>Target: 3.5 % of GDP every year</t>
         </is>
       </c>
       <c r="R59" s="5" t="b">
@@ -15360,25 +15381,21 @@
       <c r="P69" s="4" t="inlineStr">
         <is>
           <t>Ziel: 
-85
-bis
-80</t>
+85 bis 80</t>
         </is>
       </c>
       <c r="Q69" s="4" t="inlineStr">
         <is>
           <t>Target:
 between 
-80 
-and 
-85</t>
+80 and 85</t>
         </is>
       </c>
       <c r="R69" s="5" t="b">
         <v>1</v>
       </c>
       <c r="S69" s="8">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="T69" s="8">
         <v>95</v>
@@ -15585,25 +15602,21 @@
       <c r="P70" s="4" t="inlineStr">
         <is>
           <t>Ziel: 
-85
-bis
-80</t>
+85 bis 80</t>
         </is>
       </c>
       <c r="Q70" s="4" t="inlineStr">
         <is>
           <t>Target:
 between 
-80 
-and 
-85</t>
+80 and 85</t>
         </is>
       </c>
       <c r="R70" s="5" t="b">
         <v>1</v>
       </c>
       <c r="S70" s="8">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="T70" s="8">
         <v>95</v>
@@ -17301,6 +17314,9 @@
       <c r="R78" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="S78" s="8">
+        <v>17.9</v>
+      </c>
       <c r="T78" s="8">
         <v>4500</v>
       </c>
@@ -17515,6 +17531,9 @@
       </c>
       <c r="R79" s="5" t="b">
         <v>1</v>
+      </c>
+      <c r="S79" s="8">
+        <v>4.95</v>
       </c>
       <c r="T79" s="8">
         <v>195</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -18623,7 +18623,7 @@
         <v>1</v>
       </c>
       <c r="S84" s="8">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="T84" s="8">
         <v>2</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -12618,7 +12618,7 @@
         <v>1</v>
       </c>
       <c r="S56" s="8">
-        <v>21.8</v>
+        <v>22.8</v>
       </c>
       <c r="T56" s="8">
         <v>70</v>
@@ -23355,7 +23355,7 @@
         <v>1</v>
       </c>
       <c r="S106" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T106" s="8">
         <v>1.45</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -12836,7 +12836,7 @@
         <v>1</v>
       </c>
       <c r="S57" s="8">
-        <v>21.8</v>
+        <v>22.8</v>
       </c>
       <c r="T57" s="8">
         <v>50</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -17280,7 +17280,7 @@
       </c>
       <c r="H78" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisations by 2030</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="I78" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -562,7 +562,7 @@
     <col customWidth="true" min="1" max="1" width="16.84375"/>
     <col customWidth="true" min="2" max="2" width="16.84375"/>
     <col customWidth="true" min="3" max="3" width="7.46875"/>
-    <col customWidth="true" min="4" max="4" width="15.8203125"/>
+    <col customWidth="true" min="4" max="4" width="16.84375"/>
     <col customWidth="true" min="5" max="5" width="32.078125"/>
     <col customWidth="true" min="6" max="6" width="10.10546875"/>
     <col customWidth="true" min="7" max="7" width="58.15234375"/>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="J29" s="4" t="inlineStr">
         <is>
-          <t>steigern</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K29" s="4" t="inlineStr">
@@ -6941,7 +6941,7 @@
       </c>
       <c r="J30" s="4" t="inlineStr">
         <is>
-          <t>steigern</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K30" s="4" t="inlineStr">
@@ -6954,7 +6954,7 @@
       </c>
       <c r="P30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ziel: 100</t>
         </is>
       </c>
       <c r="Q30" s="4" t="inlineStr">
@@ -6966,10 +6966,10 @@
         <v>1</v>
       </c>
       <c r="S30" s="8">
-        <v>31.8</v>
+        <v>31</v>
       </c>
       <c r="T30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="W30" s="6" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
-          <t>steigern</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K31" s="4" t="inlineStr">
@@ -7181,7 +7181,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T31" s="8">
         <v>93</v>
@@ -7374,7 +7374,7 @@
       </c>
       <c r="J32" s="4" t="inlineStr">
         <is>
-          <t>steigern</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K32" s="4" t="inlineStr">
@@ -7595,7 +7595,7 @@
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
-          <t>steigern</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K33" s="4" t="inlineStr">
@@ -7813,7 +7813,7 @@
       </c>
       <c r="J34" s="4" t="inlineStr">
         <is>
-          <t>steigern</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
@@ -8044,8 +8044,7 @@
       </c>
       <c r="P35" s="4" t="inlineStr">
         <is>
-          <t>Ziel:
-239</t>
+          <t>Ziel: 239</t>
         </is>
       </c>
       <c r="Q35" s="4" t="inlineStr">
@@ -8058,10 +8057,10 @@
         <v>1</v>
       </c>
       <c r="S35" s="8">
-        <v>15.8</v>
+        <v>15</v>
       </c>
       <c r="T35" s="8">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="W35" s="6" t="inlineStr">
         <is>
@@ -13266,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="S59" s="8">
-        <v>26.8</v>
+        <v>27.8</v>
       </c>
       <c r="T59" s="8">
         <v>3.8</v>
@@ -21644,7 +21643,7 @@
         <v>1</v>
       </c>
       <c r="S98" s="8">
-        <v>28.8</v>
+        <v>29.8</v>
       </c>
       <c r="T98" s="8">
         <v>7000</v>
@@ -22707,7 +22706,7 @@
         <v>1</v>
       </c>
       <c r="S103" s="8">
-        <v>26.8</v>
+        <v>27.8</v>
       </c>
       <c r="T103" s="8">
         <v>0.75</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="5" t="b">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="5" t="b">
         <v>0</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -21600,7 +21600,7 @@
       </c>
       <c r="G98" s="6" t="inlineStr">
         <is>
-          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter &lt;b&gt;6 500&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/-innen auf unter &lt;b&gt;6 500&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H98" s="4" t="inlineStr">
@@ -21646,7 +21646,7 @@
         <v>29.8</v>
       </c>
       <c r="T98" s="8">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="W98" s="6" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
       </c>
       <c r="G99" s="6" t="inlineStr">
         <is>
-          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter &lt;b&gt;7 000&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/-innen auf unter &lt;b&gt;7 000&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H99" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5" t="b">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5" t="b">
         <v>0</v>
@@ -22706,7 +22706,7 @@
         <v>1</v>
       </c>
       <c r="S103" s="8">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="T103" s="8">
         <v>0.75</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -1354,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="8">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="T4" s="8">
         <v>80</v>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="K16" s="4" t="inlineStr">
         <is>
-          <t>272,5</t>
+          <t>300,5</t>
         </is>
       </c>
       <c r="L16" s="7">
@@ -3937,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="T16" s="8">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="W16" s="6" t="inlineStr">
         <is>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="8">
-        <v>30.9</v>
+        <v>31.9</v>
       </c>
       <c r="T8" s="8">
         <v>60</v>
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="8">
-        <v>30.9</v>
+        <v>31.9</v>
       </c>
       <c r="T9" s="8">
         <v>225</v>
@@ -23133,7 +23133,7 @@
         <v>1</v>
       </c>
       <c r="S105" s="8">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="T105" s="8">
         <v>255000</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -1575,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="8">
-        <v>22.9</v>
+        <v>23.9</v>
       </c>
       <c r="T5" s="8">
         <v>33</v>
@@ -11330,7 +11330,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="8">
-        <v>18.8</v>
+        <v>21.8</v>
       </c>
       <c r="T50" s="8">
         <v>180</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -8711,7 +8711,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="8">
-        <v>15.8</v>
+        <v>16.8</v>
       </c>
       <c r="T38" s="8">
         <v>35</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -8057,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T35" s="8">
         <v>240</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -20787,10 +20787,10 @@
         <v>1</v>
       </c>
       <c r="S94" s="8">
-        <v>26.8</v>
+        <v>28.8</v>
       </c>
       <c r="T94" s="8">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="W94" s="6" t="inlineStr">
         <is>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -1797,12 +1797,12 @@
       </c>
       <c r="W6" s="6" t="inlineStr">
         <is>
-          <t>Das Zieljahr des Indikators wurde im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1"&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; festgelegt. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (20 % bis 2030). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
+          <t>Das Zieljahr des Indikators wurde im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/975274/1546450/c32ed8ebe3b82eb22e3daa78b01bcf31/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1"&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; festgelegt. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (20 % bis 2030). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
         </is>
       </c>
       <c r="X6" s="6" t="inlineStr">
         <is>
-          <t>The target year of the indicator was defined in accordance to the coalition agreement as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1588964/1b24acbed2b731744c2ffa4ca9f3a6fc/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt;. Since this resolution came into force, the revised target (20 % by 2030) had applied to the indicator. It was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
+          <t>The target year of the indicator was defined in accordance to the coalition agreement as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/975274/1588964/465a4d7e35b3a14fe5e1df444de53185/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt;. Since this resolution came into force, the revised target (20 % by 2030) had applied to the indicator. It was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
         </is>
       </c>
       <c r="Y6" s="4" t="inlineStr">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="W17" s="6" t="inlineStr">
         <is>
-          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt;Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (9,5 % bis 2030).</t>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https://www.https://www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt;Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (9,5 % bis 2030).</t>
         </is>
       </c>
       <c r="X17" s="6" t="inlineStr">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="W19" s="6" t="inlineStr">
         <is>
-          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (55 % bis 2030).</t>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https://www.https://www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (55 % bis 2030).</t>
         </is>
       </c>
       <c r="X19" s="6" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="W32" s="6" t="inlineStr">
         <is>
-          <t>Der Indikator und der Zielwert wurden im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst und differenziert nach 6.2.a Trinkwasserzugang und 6.2.b Anschluss an Abwasserentsorgung. Seit Inkrafttreten dieses Beschlusses gelten für die Indikatoren die geänderten Ziele (6.2.a: 6 Millionen Menschen pro Jahr bis 2030; 6.2.b: 4 Millionen Menschen pro Jahr bis 2030).</t>
+          <t>Der Indikator und der Zielwert wurden im Rahmen der &lt;a href="https://www.https://www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst und differenziert nach 6.2.a Trinkwasserzugang und 6.2.b Anschluss an Abwasserentsorgung. Seit Inkrafttreten dieses Beschlusses gelten für die Indikatoren die geänderten Ziele (6.2.a: 6 Millionen Menschen pro Jahr bis 2030; 6.2.b: 4 Millionen Menschen pro Jahr bis 2030).</t>
         </is>
       </c>
       <c r="X32" s="6" t="inlineStr">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="W45" s="6" t="inlineStr">
         <is>
-          <t>Der Zielwert des Indikators wurde im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (65 % bis 2030). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
+          <t>Der Zielwert des Indikators wurde im Rahmen der &lt;a href="https://www.https://www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (65 % bis 2030). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
         </is>
       </c>
       <c r="X45" s="6" t="inlineStr">
@@ -13275,12 +13275,12 @@
       </c>
       <c r="W59" s="6" t="inlineStr">
         <is>
-          <t>Der Zielwert des Indikators wurden im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1546450/65089964ed4a2ab07ca8a4919e09e0af/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1"&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (3,5 % bis 2025).</t>
+          <t>Der Zielwert des Indikators wurden im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/975274/1546450/c32ed8ebe3b82eb22e3daa78b01bcf31/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1"&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (3,5 % bis 2025).</t>
         </is>
       </c>
       <c r="X59" s="6" t="inlineStr">
         <is>
-          <t>The target value of the indicator was adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1588964/1b24acbed2b731744c2ffa4ca9f3a6fc/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt;. Since this resolution came into force, the revised target (3.5 % by 2025) has applied to the indicator.</t>
+          <t>The target value of the indicator was adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/975274/1588964/465a4d7e35b3a14fe5e1df444de53185/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt;. Since this resolution came into force, the revised target (3.5 % by 2025) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y59" s="4" t="inlineStr">
@@ -19065,7 +19065,7 @@
       </c>
       <c r="W86" s="6" t="inlineStr">
         <is>
-          <t>Das Ziel des Indikators wurde im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (Erreichung von Treibhausgas-neutralität bis 2050). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
+          <t>Das Ziel des Indikators wurde im Rahmen der &lt;a href="https://www.https://www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (Erreichung von Treibhausgas-neutralität bis 2050). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
         </is>
       </c>
       <c r="X86" s="6" t="inlineStr">
@@ -21650,7 +21650,7 @@
       </c>
       <c r="W98" s="6" t="inlineStr">
         <is>
-          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/998006/1873516/7c0614aff0f2c847f51c4d8e9646e610/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 500 bis 2030).</t>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https://www.https://www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 500 bis 2030).</t>
         </is>
       </c>
       <c r="X98" s="6" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -4159,7 +4159,7 @@
       </c>
       <c r="W17" s="6" t="inlineStr">
         <is>
-          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https://www.https://www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt;Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (9,5 % bis 2030).</t>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https:///www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt;Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (9,5 % bis 2030).</t>
         </is>
       </c>
       <c r="X17" s="6" t="inlineStr">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="W19" s="6" t="inlineStr">
         <is>
-          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https://www.https://www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (55 % bis 2030).</t>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https:///www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (55 % bis 2030).</t>
         </is>
       </c>
       <c r="X19" s="6" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="W32" s="6" t="inlineStr">
         <is>
-          <t>Der Indikator und der Zielwert wurden im Rahmen der &lt;a href="https://www.https://www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst und differenziert nach 6.2.a Trinkwasserzugang und 6.2.b Anschluss an Abwasserentsorgung. Seit Inkrafttreten dieses Beschlusses gelten für die Indikatoren die geänderten Ziele (6.2.a: 6 Millionen Menschen pro Jahr bis 2030; 6.2.b: 4 Millionen Menschen pro Jahr bis 2030).</t>
+          <t>Der Indikator und der Zielwert wurden im Rahmen der &lt;a href="https:///www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst und differenziert nach 6.2.a Trinkwasserzugang und 6.2.b Anschluss an Abwasserentsorgung. Seit Inkrafttreten dieses Beschlusses gelten für die Indikatoren die geänderten Ziele (6.2.a: 6 Millionen Menschen pro Jahr bis 2030; 6.2.b: 4 Millionen Menschen pro Jahr bis 2030).</t>
         </is>
       </c>
       <c r="X32" s="6" t="inlineStr">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="W45" s="6" t="inlineStr">
         <is>
-          <t>Der Zielwert des Indikators wurde im Rahmen der &lt;a href="https://www.https://www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (65 % bis 2030). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
+          <t>Der Zielwert des Indikators wurde im Rahmen der &lt;a href="https:///www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (65 % bis 2030). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
         </is>
       </c>
       <c r="X45" s="6" t="inlineStr">
@@ -19065,7 +19065,7 @@
       </c>
       <c r="W86" s="6" t="inlineStr">
         <is>
-          <t>Das Ziel des Indikators wurde im Rahmen der &lt;a href="https://www.https://www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (Erreichung von Treibhausgas-neutralität bis 2050). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
+          <t>Das Ziel des Indikators wurde im Rahmen der &lt;a href="https:///www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (Erreichung von Treibhausgas-neutralität bis 2050). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
         </is>
       </c>
       <c r="X86" s="6" t="inlineStr">
@@ -21650,7 +21650,7 @@
       </c>
       <c r="W98" s="6" t="inlineStr">
         <is>
-          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https://www.https://www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 500 bis 2030).</t>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https:///www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 500 bis 2030).</t>
         </is>
       </c>
       <c r="X98" s="6" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -1575,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="8">
-        <v>23.9</v>
+        <v>22.9</v>
       </c>
       <c r="T5" s="8">
         <v>33</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -1575,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="8">
-        <v>22.9</v>
+        <v>24.9</v>
       </c>
       <c r="T5" s="8">
         <v>33</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -10022,7 +10022,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="8">
-        <v>17.8</v>
+        <v>18.8</v>
       </c>
       <c r="T44" s="8">
         <v>70</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -22706,7 +22706,7 @@
         <v>1</v>
       </c>
       <c r="S103" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T103" s="8">
         <v>0.75</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -12617,7 +12617,7 @@
         <v>1</v>
       </c>
       <c r="S56" s="8">
-        <v>22.8</v>
+        <v>23.8</v>
       </c>
       <c r="T56" s="8">
         <v>70</v>
@@ -12835,7 +12835,7 @@
         <v>1</v>
       </c>
       <c r="S57" s="8">
-        <v>22.8</v>
+        <v>23.8</v>
       </c>
       <c r="T57" s="8">
         <v>50</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -6966,7 +6966,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T30" s="8">
         <v>95</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -17532,7 +17532,7 @@
         <v>1</v>
       </c>
       <c r="S79" s="8">
-        <v>4.95</v>
+        <v>6.95</v>
       </c>
       <c r="T79" s="8">
         <v>195</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -17532,7 +17532,7 @@
         <v>1</v>
       </c>
       <c r="S79" s="8">
-        <v>6.95</v>
+        <v>4.95</v>
       </c>
       <c r="T79" s="8">
         <v>195</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -17314,7 +17314,7 @@
         <v>1</v>
       </c>
       <c r="S78" s="8">
-        <v>17.9</v>
+        <v>18.9</v>
       </c>
       <c r="T78" s="8">
         <v>4500</v>
@@ -21643,7 +21643,7 @@
         <v>1</v>
       </c>
       <c r="S98" s="8">
-        <v>29.8</v>
+        <v>30.8</v>
       </c>
       <c r="T98" s="8">
         <v>7200</v>
@@ -22706,7 +22706,7 @@
         <v>1</v>
       </c>
       <c r="S103" s="8">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T103" s="8">
         <v>0.75</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -21646,7 +21646,7 @@
         <v>30.8</v>
       </c>
       <c r="T98" s="8">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="W98" s="6" t="inlineStr">
         <is>
@@ -22706,10 +22706,10 @@
         <v>1</v>
       </c>
       <c r="S103" s="8">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T103" s="8">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="W103" s="6" t="inlineStr">
         <is>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -8,7 +8,11 @@
   </bookViews>
   <sheets>
     <sheet sheetId="1" r:id="rId1" name="Tab_5b_Wetter"/>
+    <sheet r:id="rId4" name="Tab_5b_Wetter1" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Tab_5b_Wetter">'Tab_5b_Wetter1'!$A$1:$AY$108</definedName>
+  </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
@@ -1081,4 +1085,9889 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AY108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>WNr</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>INr</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Spezifikation</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>AktuellGültig?</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>AufIndikatorseiteAnzeigen?</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>InGrafikAnzeigen?</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>ZielÜbersichtDe</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>ZielÜbersichtEn</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>Zieltyp</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>Zielrichtung</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>Zielwert</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>Zieljahr</t>
+        </is>
+      </c>
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>VorherigesZieljahr</t>
+        </is>
+      </c>
+      <c r="N1" s="0" t="inlineStr">
+        <is>
+          <t>Gültig bis</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
+          <t>Gültig seit</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
+          <t>LabelDe</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
+          <t>LabelEn</t>
+        </is>
+      </c>
+      <c r="R1" s="0" t="inlineStr">
+        <is>
+          <t>LabelAnzeigen?</t>
+        </is>
+      </c>
+      <c r="S1" s="0" t="inlineStr">
+        <is>
+          <t>LabelPositionX</t>
+        </is>
+      </c>
+      <c r="T1" s="0" t="inlineStr">
+        <is>
+          <t>LabelPositionY</t>
+        </is>
+      </c>
+      <c r="U1" s="0" t="inlineStr">
+        <is>
+          <t>AnzeigenAb</t>
+        </is>
+      </c>
+      <c r="V1" s="0" t="inlineStr">
+        <is>
+          <t>AnzeigenBis</t>
+        </is>
+      </c>
+      <c r="W1" s="0" t="inlineStr">
+        <is>
+          <t>AnmerkungDe</t>
+        </is>
+      </c>
+      <c r="X1" s="0" t="inlineStr">
+        <is>
+          <t>AnmerkungEn</t>
+        </is>
+      </c>
+      <c r="Y1" s="0" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="Z1" s="0" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="AA1" s="0" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="AB1" s="0" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="AC1" s="0" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="AD1" s="0" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="AE1" s="0" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="AF1" s="0" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AG1" s="0" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="AH1" s="0" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="AI1" s="0" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="AJ1" s="0" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="AK1" s="0" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="AL1" s="0" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="AM1" s="0" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="AN1" s="0" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="AO1" s="0" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="AP1" s="0" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="AQ1" s="0" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="AR1" s="0" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="AS1" s="0" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="AT1" s="0" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="AU1" s="0" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="AV1" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AW1" s="0" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="AX1" s="0" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="AY1" s="0" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>W_0101a_J</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>Anteil der Personen, die materiell und sozial depriviert sind, bis 2030 unter EU-Durchschnitt halten</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>Keep the proportion of persons who are materially deprived considerably below the EU-27-level by 2030</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="R2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" s="0" t="inlineStr">
+        <is>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung sind ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren und die Berechnung der Wettersymbole nicht möglich (Zeitreihenbruch).</t>
+        </is>
+      </c>
+      <c r="X2" s="0" t="inlineStr">
+        <is>
+          <t>The "Life in Europe" survey (EU-SILC), which was previously conducted separately, was integrated into the microcensus as a sub-sample in 2020. Due to the change from a voluntary survey to a survey requiring information in part, combined with a new sample composition, it is not possible to compare the data of the survey year 2020 with previous years to evaluate the development of the indicators in these years (break in time series).</t>
+        </is>
+      </c>
+      <c r="AO2" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AP2" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ2" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AR2" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AS2" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AT2" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>W_0101b_J</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>Anteil der Personen, die erheblich materiell und sozial depriviert sind, bis 2030 unter EU-Durchschnitt halten</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>Keep the proportion of persons who are severely materially deprived considerably below the EU-27-level by 2030</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="R3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" s="0" t="inlineStr">
+        <is>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung sind ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren und die Berechnung der Wettersymbole nicht möglich (Zeitreihenbruch).</t>
+        </is>
+      </c>
+      <c r="X3" s="0" t="inlineStr">
+        <is>
+          <t>The "Life in Europe" survey (EU-SILC), which was previously conducted separately, was integrated into the microcensus as a sub-sample in 2020. Due to the change from a voluntary survey to a survey requiring information in part, combined with a new sample composition, it is not possible to compare the data of the survey year 2020 with previous years to evaluate the development of the indicators in these years (break in time series).</t>
+        </is>
+      </c>
+      <c r="AO3" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AP3" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ3" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AR3" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AS3" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AT3" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>W_0201a_2030a</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>A_SERIES_5YAVERAGE</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>Verringerung der Stickstoffüberschüsse der Gesamtbilanz für Deutschland auf 70 Kilogramm je Hektar landwirtschaftlich genutzter Fläche im Jahresmittel 2026-2030</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>Reduction of the nitrogen surpluses of the overall balance for Germany to 70 kilograms per hectare of utilised agricultural area on an annual average between 2028 and 2032</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L4" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="0">
+        <v>32.8</v>
+      </c>
+      <c r="T4" s="0">
+        <v>80</v>
+      </c>
+      <c r="AL4" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AM4" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AN4" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AO4" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP4" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ4" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR4" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>W_0201b_2030</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>A_SERIES_DSTTS</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf &lt;b&gt;30 %&lt;/b&gt; bis 2030</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>Increase the proportion of organically farmed agricultural land to &lt;b&gt;30 %&lt;/b&gt; by 2030</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L5" s="0">
+        <v>2030</v>
+      </c>
+      <c r="O5" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="0">
+        <v>24.9</v>
+      </c>
+      <c r="T5" s="0">
+        <v>33</v>
+      </c>
+      <c r="W5" s="0" t="inlineStr">
+        <is>
+          <t>Der Zielwert des Indikators wurde im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (30 % bis 2030).</t>
+        </is>
+      </c>
+      <c r="X5" s="0" t="inlineStr">
+        <is>
+          <t>The target value of the indicator was adjusted to the agreements in the coalition agreement in the &lt;a href="https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1" &gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised target (30 % by 2030) has applied to the indicator.</t>
+        </is>
+      </c>
+      <c r="AO5" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP5" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ5" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR5" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS5" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT5" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AU5" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>W_0201bx_2030</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>A_SERIES_DSTTS</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf &lt;b&gt;20 %&lt;/b&gt; bis 2030</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>Increase the proportion of organically farmed agricultural land to &lt;b&gt;20 %&lt;/b&gt; by 2030</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L6" s="0">
+        <v>2030</v>
+      </c>
+      <c r="N6" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="0" t="inlineStr">
+        <is>
+          <t>Das Zieljahr des Indikators wurde im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/975274/1546450/c32ed8ebe3b82eb22e3daa78b01bcf31/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1"&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; festgelegt. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (20 % bis 2030). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
+        </is>
+      </c>
+      <c r="X6" s="0" t="inlineStr">
+        <is>
+          <t>The target year of the indicator was defined in accordance to the coalition agreement as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/975274/1588964/465a4d7e35b3a14fe5e1df444de53185/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt;. Since this resolution came into force, the revised target (20 % by 2030) had applied to the indicator. It was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
+        </is>
+      </c>
+      <c r="AO6" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP6" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ6" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR6" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS6" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT6" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AU6" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>W_0202x_R</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Z02_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>Angemessene Steigerung des Anteils der ausgezahlten Mittel für die Anwendung von Leitlinien und Empfehlungen des VN-Welternährungsausschusses (CFS) an den Gesamtausgaben für Ernährungssicherung in % bis 2030</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>Funds disbursed for the application of the guidelines and recommendations of the UN Committee on World Food Security (CFS) to be increased appropriately as a percentage of total spending on food security by 2030</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R7" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>W_0301a_2030</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>Senkung auf 200 Todesfälle je 100 000 Einwohnerinnen und Einwohner bis 2030</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>To be reduced to 100 deaths per 100,000 inhabitants (women) by 2030</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="L8" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AO8" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP8" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ8" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR8" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS8" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT8" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>W_0301b_K</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>Z03_B03_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>30 Prozent der Länder haben im Jahr 2030 eine Verbesserung des Global Health Security Index (GSHI) um mindestens den Wert 3 gegenüber 2019 erzielt</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L9" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R9" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>W_0301c_2030</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>Senkung auf 7 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>Reduction to 7 % by 2030</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L10" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" s="0">
+        <v>20.9</v>
+      </c>
+      <c r="T10" s="0">
+        <v>9</v>
+      </c>
+      <c r="AL10" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AN10" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AO10" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP10" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR10" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS10" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU10" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>W_0301d_2030</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib02_I02</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>Senkung auf 19 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>Reduction to 19 % by 2030</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L11" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" s="0">
+        <v>20.9</v>
+      </c>
+      <c r="T11" s="0">
+        <v>21</v>
+      </c>
+      <c r="Y11" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC11" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE11" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI11" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AM11" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AQ11" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU11" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>W_0301e_R</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib03_I01</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg dauerhaft stoppen</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>Increase to be permanently halted</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="R12" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>W_0301f_R</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib04_I01</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg dauerhaft stoppen</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>Increase to be permanently halted</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="R13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE13" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI13" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AM13" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AQ13" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AU13" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>W_0302a_2030</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Z03_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>Reduktion der Emissionen des Jahres 2005 auf 55 % (ungewichtetes Mittel der fünf Schadstoffe) bis 2030</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>Reduction of emissions to 55 % of 2005 level (unweighted average of the five pollutants) by 2030</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L14" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14" s="0">
+        <v>60</v>
+      </c>
+      <c r="AN14" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AO14" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP14" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AQ14" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR14" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS14" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT14" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>W_0302b_2030</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Z03_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>Rückgang des Anteils der Bevölkerung mit einer PM2,5-Feinstaubexposition von mehr als 10 Mikrogramm pro Kubikmeter im Jahresmittel (entspricht der Höhe des neuen ab 2030 einzuhaltenden EU-Grenzwertes für PM2,5) bis 2030 auf dann 0 Prozent</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WHO particulate matter guideline value of 20 micrograms/cubic metre for PM10 to be adhered to as widely as possible by 2030</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15" s="0">
+        <v>3</v>
+      </c>
+      <c r="AN15" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AO15" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP15" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ15" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR15" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS15" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT15" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>W_0303x_2030</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Z03_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>A_SERIES_PANDEMIC</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung der Ausgaben bis 2030</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>Expenditure to be increased by 2030</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K16" s="0" t="inlineStr">
+        <is>
+          <t>300,5</t>
+        </is>
+      </c>
+      <c r="L16" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16" s="0">
+        <v>400</v>
+      </c>
+      <c r="AO16" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AP16" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ16" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AR16" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS16" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AT16" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU16" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>W_0304a_R</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Z03_B04_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>Rückgang des Unterschieds in der mittleren Lebenserwartung von Frauen zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="R17" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>W_0304b_R</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Z03_B04_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>Rückgang des Unterschieds in der mittleren Lebenserwartung von Männern zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="R18" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>W_0401a_2030</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Z04_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>Verringerung des Anteils auf &lt;b&gt;9,5 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>Reduce the proportion to &lt;b&gt;9.5 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>9,5</t>
+        </is>
+      </c>
+      <c r="L19" s="0">
+        <v>2030</v>
+      </c>
+      <c r="O19" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19" s="0">
+        <v>8</v>
+      </c>
+      <c r="W19" s="0" t="inlineStr">
+        <is>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https:///www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt;Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (9,5 % bis 2030).</t>
+        </is>
+      </c>
+      <c r="X19" s="0" t="inlineStr">
+        <is>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (9.5 % by 2030) has applied to the indicator.</t>
+        </is>
+      </c>
+      <c r="AO19" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP19" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ19" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR19" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AS19" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AT19" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AU19" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>W_0401ax_2020</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Z04_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>Verringerung des Anteils auf &lt;b&gt;10 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>Reduce the proportion to &lt;b&gt;10 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L20" s="0">
+        <v>2020</v>
+      </c>
+      <c r="N20" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP20" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ20" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR20" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AS20" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AT20" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AU20" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>W_0401b_2030</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Z04_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils auf &lt;b&gt;55 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>Increase the proportion to &lt;b&gt;55 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L21" s="0">
+        <v>2030</v>
+      </c>
+      <c r="O21" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T21" s="0">
+        <v>60</v>
+      </c>
+      <c r="W21" s="0" t="inlineStr">
+        <is>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https:///www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (55 % bis 2030).</t>
+        </is>
+      </c>
+      <c r="X21" s="0" t="inlineStr">
+        <is>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (55 % by 2030) has applied to the indicator.</t>
+        </is>
+      </c>
+      <c r="AO21" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP21" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ21" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR21" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS21" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT21" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU21" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>W_0401bx_2020</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>Z04_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils auf &lt;b&gt;42 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>Increase the proportion to &lt;b&gt;24 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K22" s="0" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L22" s="0">
+        <v>2020</v>
+      </c>
+      <c r="N22" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP22" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ22" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR22" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS22" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT22" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU22" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>W_0402a_2030</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Z04_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf 35 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>Increase to 35 % by 2030</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L23" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T23" s="0">
+        <v>45</v>
+      </c>
+      <c r="AP23" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ23" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR23" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS23" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT23" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AU23" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AV23" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>W_0402b_2020</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Z04_B02_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf &lt;b&gt;60 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>Increase to &lt;b&gt;60 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K24" s="0" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L24" s="0">
+        <v>2020</v>
+      </c>
+      <c r="N24" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="W24" s="0" t="inlineStr">
+        <is>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+        </is>
+      </c>
+      <c r="X24" s="0" t="inlineStr">
+        <is>
+          <t>Omission of 2020 target due to expiration of time.</t>
+        </is>
+      </c>
+      <c r="AP24" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ24" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR24" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS24" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT24" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AU24" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>W_0402b_2030</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Z04_B02_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf &lt;b&gt;70 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>Increase to &lt;b&gt;70 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K25" s="0" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L25" s="0">
+        <v>2030</v>
+      </c>
+      <c r="M25" s="0">
+        <v>2020</v>
+      </c>
+      <c r="R25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" s="0">
+        <v>80</v>
+      </c>
+      <c r="AP25" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ25" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AR25" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS25" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT25" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AU25" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AV25" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>W_0501a_2020</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>Verringerung des Abstandes auf 10 % bis 2020</t>
+        </is>
+      </c>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>Reduce the gap to 10 % by 2020</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J26" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K26" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L26" s="0">
+        <v>2020</v>
+      </c>
+      <c r="R26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" s="0">
+        <v>14</v>
+      </c>
+      <c r="T26" s="0">
+        <v>12</v>
+      </c>
+      <c r="W26" s="0" t="inlineStr">
+        <is>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+        </is>
+      </c>
+      <c r="X26" s="0" t="inlineStr">
+        <is>
+          <t>Omission of 2020 target due to expiration of time.</t>
+        </is>
+      </c>
+      <c r="AO26" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AP26" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ26" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR26" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS26" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT26" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AU26" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>W_0501a_J</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>Beibehaltung des Abstandes von maximal 10 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>Maintaining the gap of a maximum of 10 % until 2030</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K27" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M27" s="0">
+        <v>2020</v>
+      </c>
+      <c r="R27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="U27" s="0">
+        <v>2020</v>
+      </c>
+      <c r="AO27" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AP27" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ27" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR27" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS27" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT27" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AU27" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>W_0501b_2030a</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
+        </is>
+      </c>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>30 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K28" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L28" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T28" s="0">
+        <v>35</v>
+      </c>
+      <c r="AO28" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AP28" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ28" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AR28" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS28" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AT28" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU28" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AV28" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>W_0501c_2025</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib02_I02</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
+        </is>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
+        </is>
+      </c>
+      <c r="I29" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J29" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K29" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L29" s="0">
+        <v>2025</v>
+      </c>
+      <c r="P29" s="0" t="inlineStr">
+        <is>
+          <t>Ziel:_x000d_
+Gleichberechtigte _x000d_
+Teilhabe</t>
+        </is>
+      </c>
+      <c r="Q29" s="0" t="inlineStr">
+        <is>
+          <t>Target: _x000d_
+equal_x000d_
+participation</t>
+        </is>
+      </c>
+      <c r="R29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29" s="0">
+        <v>24.8</v>
+      </c>
+      <c r="T29" s="0">
+        <v>56</v>
+      </c>
+      <c r="AL29" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AM29" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AN29" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AO29" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ29" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS29" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AU29" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>W_0501d_2030</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib03_I01</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>65 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>65 % by 2030</t>
+        </is>
+      </c>
+      <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J30" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K30" s="0" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="L30" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T30" s="0">
+        <v>60</v>
+      </c>
+      <c r="AM30" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AN30" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AO30" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP30" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ30" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR30" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS30" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>W_0501e_2030</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>Z05_B01_P02_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
+        </is>
+      </c>
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
+        </is>
+      </c>
+      <c r="I31" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K31" s="0" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="L31" s="0">
+        <v>2030</v>
+      </c>
+      <c r="P31" s="0" t="inlineStr">
+        <is>
+          <t>Ziel: 473</t>
+        </is>
+      </c>
+      <c r="Q31" s="0" t="inlineStr">
+        <is>
+          <t>Target: 473</t>
+        </is>
+      </c>
+      <c r="R31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T31" s="0">
+        <v>550</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>W_0601a_2030</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Z06_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
+        </is>
+      </c>
+      <c r="H32" s="0" t="inlineStr">
+        <is>
+          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
+        </is>
+      </c>
+      <c r="I32" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J32" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K32" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L32" s="0">
+        <v>2030</v>
+      </c>
+      <c r="P32" s="0" t="inlineStr">
+        <is>
+          <t>Ziel: 100</t>
+        </is>
+      </c>
+      <c r="R32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S32" s="0">
+        <v>32</v>
+      </c>
+      <c r="T32" s="0">
+        <v>95</v>
+      </c>
+      <c r="AN32" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AO32" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AP32" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AQ32" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AR32" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS32" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT32" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>W_0601b_J</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>Z06_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
+        </is>
+      </c>
+      <c r="H33" s="0" t="inlineStr">
+        <is>
+          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
+        </is>
+      </c>
+      <c r="I33" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J33" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K33" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="R33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" s="0">
+        <v>7</v>
+      </c>
+      <c r="T33" s="0">
+        <v>93</v>
+      </c>
+      <c r="AN33" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AO33" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AP33" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AQ33" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR33" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS33" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT33" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>W_06020_J</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>Z06_B02_P01_Ib01_I03</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;10 Millionen&lt;/b&gt; Menschen pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="H34" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;10 million&lt;/b&gt; people per year by 2030</t>
+        </is>
+      </c>
+      <c r="I34" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J34" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K34" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N34" s="0">
+        <v>2019</v>
+      </c>
+      <c r="P34" s="0" t="inlineStr">
+        <is>
+          <t>Jährliches Ziel insgesamt: 10 Millionen</t>
+        </is>
+      </c>
+      <c r="Q34" s="0" t="inlineStr">
+        <is>
+          <t>Annual target total: 10 million</t>
+        </is>
+      </c>
+      <c r="R34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="S34" s="0">
+        <v>3.4</v>
+      </c>
+      <c r="T34" s="0">
+        <v>17</v>
+      </c>
+      <c r="V34" s="0">
+        <v>2018</v>
+      </c>
+      <c r="W34" s="0" t="inlineStr">
+        <is>
+          <t>Der Indikator und der Zielwert wurden im Rahmen der &lt;a href="https:///www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst und differenziert nach 6.2.a Trinkwasserzugang und 6.2.b Anschluss an Abwasserentsorgung. Seit Inkrafttreten dieses Beschlusses gelten für die Indikatoren die geänderten Ziele (6.2.a: 6 Millionen Menschen pro Jahr bis 2030; 6.2.b: 4 Millionen Menschen pro Jahr bis 2030).</t>
+        </is>
+      </c>
+      <c r="X34" s="0" t="inlineStr">
+        <is>
+          <t>The indicator and the target value were adjusted and differentiated as 6.2.a – Access to drinking water and 6.2.b – Access to sanitation as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised targets (6.2.a: 6 million people per year by 2030; 6.2.b: 4 million people per year by 2030) have applied to the indicator.</t>
+        </is>
+      </c>
+      <c r="AN34" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AO34" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AP34" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AQ34" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR34" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS34" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AT34" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>W_0602a_J</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>Z06_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;6 Millionen&lt;/b&gt; Menschen pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="H35" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;6 million&lt;/b&gt; people per year by 2030</t>
+        </is>
+      </c>
+      <c r="I35" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J35" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K35" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="P35" s="0" t="inlineStr">
+        <is>
+          <t>Jährliches Ziel a) Trinkwasserversorgung: 6 Millionen</t>
+        </is>
+      </c>
+      <c r="Q35" s="0" t="inlineStr">
+        <is>
+          <t>Annual target a) Access to drinking water: 6 million</t>
+        </is>
+      </c>
+      <c r="R35" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="S35" s="0">
+        <v>5</v>
+      </c>
+      <c r="T35" s="0">
+        <v>6</v>
+      </c>
+      <c r="U35" s="0">
+        <v>2018</v>
+      </c>
+      <c r="V35" s="0">
+        <v>2023</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>W_0602b_J</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>Z06_B02_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;4 Millionen&lt;/b&gt; Menschen pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="H36" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;4 million&lt;/b&gt; people per year by 2030</t>
+        </is>
+      </c>
+      <c r="I36" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J36" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K36" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P36" s="0" t="inlineStr">
+        <is>
+          <t>Jährliches Ziel b) Sanitärversorgung: 4 Millionen</t>
+        </is>
+      </c>
+      <c r="Q36" s="0" t="inlineStr">
+        <is>
+          <t>Annual target b) Access to sanitation: 4 million</t>
+        </is>
+      </c>
+      <c r="R36" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="S36" s="0">
+        <v>5</v>
+      </c>
+      <c r="T36" s="0">
+        <v>4</v>
+      </c>
+      <c r="U36" s="0">
+        <v>2018</v>
+      </c>
+      <c r="V36" s="0">
+        <v>2023</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>W_0701a_2030</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
+        </is>
+      </c>
+      <c r="H37" s="0" t="inlineStr">
+        <is>
+          <t>Increase by 2.1 % per year from 2008 to 2050</t>
+        </is>
+      </c>
+      <c r="I37" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J37" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K37" s="0" t="inlineStr">
+        <is>
+          <t>239,4</t>
+        </is>
+      </c>
+      <c r="L37" s="0">
+        <v>2050</v>
+      </c>
+      <c r="P37" s="0" t="inlineStr">
+        <is>
+          <t>Ziel: 239</t>
+        </is>
+      </c>
+      <c r="Q37" s="0" t="inlineStr">
+        <is>
+          <t>Target:_x000d_
+239</t>
+        </is>
+      </c>
+      <c r="R37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S37" s="0">
+        <v>16</v>
+      </c>
+      <c r="T37" s="0">
+        <v>240</v>
+      </c>
+      <c r="AO37" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP37" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ37" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR37" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS37" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT37" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AU37" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>W_0701b_2020</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="0" t="inlineStr">
+        <is>
+          <t>Senkung um &lt;b&gt;20 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt; gegenüber 2008</t>
+        </is>
+      </c>
+      <c r="H38" s="0" t="inlineStr">
+        <is>
+          <t>Reduction by &lt;b&gt;20 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt; compared to 2008</t>
+        </is>
+      </c>
+      <c r="I38" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J38" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K38" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L38" s="0">
+        <v>2020</v>
+      </c>
+      <c r="R38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T38" s="0">
+        <v>65</v>
+      </c>
+      <c r="W38" s="0" t="inlineStr">
+        <is>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+        </is>
+      </c>
+      <c r="X38" s="0" t="inlineStr">
+        <is>
+          <t>Omission of 2020 target due to expiration of time.</t>
+        </is>
+      </c>
+      <c r="AO38" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP38" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ38" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AR38" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS38" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT38" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AU38" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>W_0701b_2030</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="inlineStr">
+        <is>
+          <t>Senkung um &lt;b&gt;30 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt; gegenüber 2008</t>
+        </is>
+      </c>
+      <c r="H39" s="0" t="inlineStr">
+        <is>
+          <t>Reduction by &lt;b&gt;30 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt; compared to 2008</t>
+        </is>
+      </c>
+      <c r="I39" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J39" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K39" s="0" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L39" s="0">
+        <v>2030</v>
+      </c>
+      <c r="M39" s="0">
+        <v>2020</v>
+      </c>
+      <c r="R39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T39" s="0">
+        <v>55</v>
+      </c>
+      <c r="AO39" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AP39" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ39" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AR39" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS39" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT39" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU39" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>W_0701b_2050</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="inlineStr">
+        <is>
+          <t>Senkung um &lt;b&gt;50 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt; gegenüber 2008</t>
+        </is>
+      </c>
+      <c r="H40" s="0" t="inlineStr">
+        <is>
+          <t>Reduction by &lt;b&gt;50 %&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt; compared to 2008</t>
+        </is>
+      </c>
+      <c r="I40" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J40" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K40" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L40" s="0">
+        <v>2050</v>
+      </c>
+      <c r="M40" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S40" s="0">
+        <v>16.8</v>
+      </c>
+      <c r="T40" s="0">
+        <v>35</v>
+      </c>
+      <c r="AO40" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP40" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ40" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AR40" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS40" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT40" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU40" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>W_0702a_2020</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf &lt;b&gt;18 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H41" s="0" t="inlineStr">
+        <is>
+          <t>Increase to &lt;b&gt;18 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I41" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J41" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K41" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L41" s="0">
+        <v>2020</v>
+      </c>
+      <c r="R41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T41" s="0">
+        <v>25</v>
+      </c>
+      <c r="W41" s="0" t="inlineStr">
+        <is>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+        </is>
+      </c>
+      <c r="X41" s="0" t="inlineStr">
+        <is>
+          <t>Omission of 2020 target due to expiration of time.</t>
+        </is>
+      </c>
+      <c r="AO41" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP41" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ41" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR41" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS41" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT41" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU41" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>W_0702a_2030</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf &lt;b&gt;30 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H42" s="0" t="inlineStr">
+        <is>
+          <t>Increase to &lt;b&gt;30 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I42" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J42" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K42" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L42" s="0">
+        <v>2030</v>
+      </c>
+      <c r="M42" s="0">
+        <v>2020</v>
+      </c>
+      <c r="R42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T42" s="0">
+        <v>37</v>
+      </c>
+      <c r="AO42" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP42" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ42" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR42" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS42" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT42" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AU42" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>W_0702a_2040</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf &lt;b&gt;45 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H43" s="0" t="inlineStr">
+        <is>
+          <t>Increase to &lt;b&gt;45 %&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I43" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J43" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K43" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L43" s="0">
+        <v>2040</v>
+      </c>
+      <c r="M43" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T43" s="0">
+        <v>52</v>
+      </c>
+      <c r="AO43" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP43" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ43" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR43" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS43" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT43" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AU43" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>W_0702a_2050</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf &lt;b&gt;60 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H44" s="0" t="inlineStr">
+        <is>
+          <t>Increase to &lt;b&gt;60 %&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I44" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J44" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K44" s="0" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L44" s="0">
+        <v>2050</v>
+      </c>
+      <c r="M44" s="0">
+        <v>2040</v>
+      </c>
+      <c r="R44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T44" s="0">
+        <v>67</v>
+      </c>
+      <c r="AO44" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP44" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ44" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR44" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS44" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT44" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AU44" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>W_0702b_2020</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens &lt;b&gt;35 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H45" s="0" t="inlineStr">
+        <is>
+          <t>Increase to at least &lt;b&gt;35 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I45" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J45" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K45" s="0" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L45" s="0">
+        <v>2020</v>
+      </c>
+      <c r="N45" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="T45" s="0">
+        <v>20</v>
+      </c>
+      <c r="W45" s="0" t="inlineStr">
+        <is>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+        </is>
+      </c>
+      <c r="X45" s="0" t="inlineStr">
+        <is>
+          <t>Omission of 2020 target due to expiration of time.</t>
+        </is>
+      </c>
+      <c r="AO45" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP45" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ45" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR45" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS45" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT45" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU45" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>W_0702b_2030</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H46" s="0" t="inlineStr">
+        <is>
+          <t>Increase to at least &lt;b&gt;80 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I46" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J46" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K46" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L46" s="0">
+        <v>2030</v>
+      </c>
+      <c r="M46" s="0">
+        <v>2020</v>
+      </c>
+      <c r="O46" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S46" s="0">
+        <v>18.8</v>
+      </c>
+      <c r="T46" s="0">
+        <v>65</v>
+      </c>
+      <c r="W46" s="0" t="inlineStr">
+        <is>
+          <t>Der Zielwert des Indikators wurde im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (80 % bis 2030).</t>
+        </is>
+      </c>
+      <c r="X46" s="0" t="inlineStr">
+        <is>
+          <t>The target value of the indicator was adjusted to the agreements in the coalition agreement in the &lt;a href="https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1"&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised target (80 % by 2030) has applied to the indicator.</t>
+        </is>
+      </c>
+      <c r="AO46" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AP46" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ46" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR46" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS46" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AT46" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AU46" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>W_0702bx_2030b</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H47" s="0" t="inlineStr">
+        <is>
+          <t>Increase to at least &lt;b&gt;65%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I47" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J47" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K47" s="0" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="L47" s="0">
+        <v>2030</v>
+      </c>
+      <c r="N47" s="0">
+        <v>2022</v>
+      </c>
+      <c r="O47" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="W47" s="0" t="inlineStr">
+        <is>
+          <t>Der Zielwert des Indikators wurde im Rahmen der &lt;a href="https:///www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (65 % bis 2030). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
+        </is>
+      </c>
+      <c r="X47" s="0" t="inlineStr">
+        <is>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (65 % by 2030) has applied to the indicator. It was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
+        </is>
+      </c>
+      <c r="AO47" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP47" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AQ47" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR47" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS47" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT47" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU47" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>W_0702bx_2050b</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Treibhausgasneutralität&lt;/b&gt; des in Deutschland erzeugten und verbrauchten Stroms bis &lt;b&gt;2050&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H48" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; of electricity generated and consumed in Germany by &lt;b&gt;2050&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I48" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J48" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K48" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L48" s="0">
+        <v>2050</v>
+      </c>
+      <c r="N48" s="0">
+        <v>2022</v>
+      </c>
+      <c r="O48" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO48" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP48" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ48" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR48" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS48" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT48" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU48" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>W_0702by_2030a</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens &lt;b&gt;50 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H49" s="0" t="inlineStr">
+        <is>
+          <t>Increase to at least &lt;b&gt;50 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I49" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J49" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K49" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L49" s="0">
+        <v>2030</v>
+      </c>
+      <c r="M49" s="0">
+        <v>2020</v>
+      </c>
+      <c r="N49" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO49" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP49" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ49" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR49" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS49" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT49" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU49" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>W_0702by_2040</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H50" s="0" t="inlineStr">
+        <is>
+          <t>Increase to at least &lt;b&gt;65 %&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I50" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J50" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K50" s="0" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="L50" s="0">
+        <v>2040</v>
+      </c>
+      <c r="M50" s="0">
+        <v>2030</v>
+      </c>
+      <c r="N50" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO50" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP50" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ50" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR50" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS50" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT50" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU50" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>W_0702by_2050a</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" s="0" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H51" s="0" t="inlineStr">
+        <is>
+          <t>Increase to at least &lt;b&gt;80 %&lt;/b&gt; by 2050&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I51" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J51" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K51" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L51" s="0">
+        <v>2050</v>
+      </c>
+      <c r="M51" s="0">
+        <v>2040</v>
+      </c>
+      <c r="N51" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R51" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO51" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP51" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ51" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR51" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS51" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT51" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU51" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>W_0801x_2030</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>Z08_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>A_SERIES_MATINPTPROD</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" s="0" t="inlineStr">
+        <is>
+          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
+        </is>
+      </c>
+      <c r="H52" s="0" t="inlineStr">
+        <is>
+          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
+        </is>
+      </c>
+      <c r="I52" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J52" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K52" s="0" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="L52" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S52" s="0">
+        <v>21.8</v>
+      </c>
+      <c r="T52" s="0">
+        <v>180</v>
+      </c>
+      <c r="AL52" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AM52" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AN52" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AO52" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP52" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ52" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR52" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>W_0802a_J</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>Z08_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" s="0" t="inlineStr">
+        <is>
+          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
+        </is>
+      </c>
+      <c r="H53" s="0" t="inlineStr">
+        <is>
+          <t>Annual government deficit less than 3 % of GDP, to be maintained until 2030</t>
+        </is>
+      </c>
+      <c r="I53" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J53" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K53" s="0" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="P53" s="0" t="inlineStr">
+        <is>
+          <t>Limit Finanzierungssaldo: -3,0 %</t>
+        </is>
+      </c>
+      <c r="Q53" s="0" t="inlineStr">
+        <is>
+          <t>Deficit limit: 3.0%</t>
+        </is>
+      </c>
+      <c r="R53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S53" s="0">
+        <v>10</v>
+      </c>
+      <c r="T53" s="0">
+        <v>-3.5</v>
+      </c>
+      <c r="AO53" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP53" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ53" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR53" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS53" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT53" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AU53" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>W_0802b_J</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>Z08_B02_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" s="0" t="inlineStr">
+        <is>
+          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
+        </is>
+      </c>
+      <c r="H54" s="0" t="inlineStr">
+        <is>
+          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of GDP, to be maintained until 2030</t>
+        </is>
+      </c>
+      <c r="I54" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J54" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K54" s="0" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="P54" s="0" t="inlineStr">
+        <is>
+          <t>Limit struktureller Finanzierungssaldo: -0,5 %</t>
+        </is>
+      </c>
+      <c r="Q54" s="0" t="inlineStr">
+        <is>
+          <t>Structural deficit limit: -0.5%</t>
+        </is>
+      </c>
+      <c r="R54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S54" s="0">
+        <v>10</v>
+      </c>
+      <c r="T54" s="0">
+        <v>-1</v>
+      </c>
+      <c r="U54" s="0">
+        <v>2009</v>
+      </c>
+      <c r="AO54" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP54" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ54" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR54" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS54" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AT54" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AU54" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>W_0802c_J</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>Z08_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" s="0" t="inlineStr">
+        <is>
+          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
+        </is>
+      </c>
+      <c r="H55" s="0" t="inlineStr">
+        <is>
+          <t>Ratio of government debt to GDP must not exceed  60 %, to be maintained until 2030</t>
+        </is>
+      </c>
+      <c r="I55" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J55" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K55" s="0" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="P55" s="0" t="inlineStr">
+        <is>
+          <t>Referenzwert: 60 %</t>
+        </is>
+      </c>
+      <c r="Q55" s="0" t="inlineStr">
+        <is>
+          <t>Benchmark value: 60%</t>
+        </is>
+      </c>
+      <c r="R55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S55" s="0">
+        <v>27</v>
+      </c>
+      <c r="T55" s="0">
+        <v>73</v>
+      </c>
+      <c r="U55" s="0">
+        <v>2012</v>
+      </c>
+      <c r="AO55" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP55" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ55" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR55" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS55" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT55" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AU55" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>W_0803x_R</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>Z08_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" s="0" t="inlineStr">
+        <is>
+          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
+        </is>
+      </c>
+      <c r="H56" s="0" t="inlineStr">
+        <is>
+          <t>Appropriate development of the ratio, to be maintained until 2030</t>
+        </is>
+      </c>
+      <c r="I56" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J56" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R56" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO56" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AP56" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ56" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR56" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS56" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT56" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU56" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>W_0804x_R</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>Z08_B04_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="0" t="inlineStr">
+        <is>
+          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
+        </is>
+      </c>
+      <c r="H57" s="0" t="inlineStr">
+        <is>
+          <t>Steady and appropriate economic growth</t>
+        </is>
+      </c>
+      <c r="I57" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J57" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO57" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP57" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ57" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR57" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS57" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT57" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AU57" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>W_0805a_2030</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>Z08_B05_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" s="0" t="inlineStr">
+        <is>
+          <t>Erhöhung auf 78 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H58" s="0" t="inlineStr">
+        <is>
+          <t>Increase to 78 % by 2030</t>
+        </is>
+      </c>
+      <c r="I58" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J58" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K58" s="0" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="L58" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S58" s="0">
+        <v>23.8</v>
+      </c>
+      <c r="T58" s="0">
+        <v>70</v>
+      </c>
+      <c r="AO58" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP58" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ58" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR58" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS58" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT58" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU58" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>W_0805b_2030</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>Z08_B05_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" s="0" t="inlineStr">
+        <is>
+          <t>Erhöhung auf 60 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H59" s="0" t="inlineStr">
+        <is>
+          <t>Increase to 60 % by 2030</t>
+        </is>
+      </c>
+      <c r="I59" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J59" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K59" s="0" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L59" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S59" s="0">
+        <v>23.8</v>
+      </c>
+      <c r="T59" s="0">
+        <v>50</v>
+      </c>
+      <c r="AO59" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP59" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ59" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR59" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS59" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT59" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU59" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>W_0806x_R</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>Z08_B06_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" s="0" t="inlineStr">
+        <is>
+          <t>Signifikante Steigerung bis 2030</t>
+        </is>
+      </c>
+      <c r="H60" s="0" t="inlineStr">
+        <is>
+          <t>Significantly increase by 2030</t>
+        </is>
+      </c>
+      <c r="I60" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J60" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R60" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO60" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AP60" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ60" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AR60" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AS60" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AT60" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AU60" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>W_0901a_J</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>Z09_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" s="0" t="inlineStr">
+        <is>
+          <t>Jährlich mindestens &lt;b&gt;3,5 %&lt;/b&gt; des BIP bis &lt;b&gt;2025&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H61" s="0" t="inlineStr">
+        <is>
+          <t>At least &lt;b&gt;3.5 %&lt;/b&gt; of GDP per year by &lt;b&gt;2025&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I61" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J61" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K61" s="0" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="L61" s="0">
+        <v>2025</v>
+      </c>
+      <c r="O61" s="0">
+        <v>2018</v>
+      </c>
+      <c r="P61" s="0" t="inlineStr">
+        <is>
+          <t>Ziel: Jährlich 3,5 % des BIP</t>
+        </is>
+      </c>
+      <c r="Q61" s="0" t="inlineStr">
+        <is>
+          <t>Target: 3.5 % of GDP every year</t>
+        </is>
+      </c>
+      <c r="R61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S61" s="0">
+        <v>28.8</v>
+      </c>
+      <c r="T61" s="0">
+        <v>3.8</v>
+      </c>
+      <c r="U61" s="0">
+        <v>2015</v>
+      </c>
+      <c r="W61" s="0" t="inlineStr">
+        <is>
+          <t>Der Zielwert des Indikators wurden im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/975274/1546450/c32ed8ebe3b82eb22e3daa78b01bcf31/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1"&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (3,5 % bis 2025).</t>
+        </is>
+      </c>
+      <c r="X61" s="0" t="inlineStr">
+        <is>
+          <t>The target value of the indicator was adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/975274/1588964/465a4d7e35b3a14fe5e1df444de53185/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt;. Since this resolution came into force, the revised target (3.5 % by 2025) has applied to the indicator.</t>
+        </is>
+      </c>
+      <c r="AN61" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AO61" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP61" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ61" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR61" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS61" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT61" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>W_0901ax_J</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>Z09_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" s="0" t="inlineStr">
+        <is>
+          <t>Jährlich mindestens &lt;b&gt;3 %&lt;/b&gt; des BIP bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H62" s="0" t="inlineStr">
+        <is>
+          <t>At least &lt;b&gt;3 %&lt;/b&gt; of GDP per year by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I62" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J62" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K62" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L62" s="0">
+        <v>2030</v>
+      </c>
+      <c r="N62" s="0">
+        <v>2018</v>
+      </c>
+      <c r="R62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN62" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AO62" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP62" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ62" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR62" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS62" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT62" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>W_0901b_2025</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>Z09_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" s="0" t="inlineStr">
+        <is>
+          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
+        </is>
+      </c>
+      <c r="H63" s="0" t="inlineStr">
+        <is>
+          <t>Universal gigabit network Roll-out by 2025</t>
+        </is>
+      </c>
+      <c r="I63" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J63" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K63" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L63" s="0">
+        <v>2025</v>
+      </c>
+      <c r="R63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T63" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>W_1001x_2030a</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>Z10_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" s="0" t="inlineStr">
+        <is>
+          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
+        </is>
+      </c>
+      <c r="H64" s="0" t="inlineStr">
+        <is>
+          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
+        </is>
+      </c>
+      <c r="R64" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO64" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP64" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AQ64" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AR64" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AS64" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AT64" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AU64" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>W_1001x_2030b</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>Z10_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" s="0" t="inlineStr">
+        <is>
+          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss</t>
+        </is>
+      </c>
+      <c r="H65" s="0" t="inlineStr">
+        <is>
+          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate</t>
+        </is>
+      </c>
+      <c r="I65" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J65" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO65" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AP65" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AQ65" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AR65" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AS65" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT65" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AU65" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>W_1001x_2030c</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>Z10_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>A_SERIES_DIFFERENCE</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" s="0" t="inlineStr">
+        <is>
+          <t>Angleichung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss an die Quote deutscher Schulabgänger bis 2030</t>
+        </is>
+      </c>
+      <c r="H66" s="0" t="inlineStr">
+        <is>
+          <t>Bring the proportion of foreign school leavers with a least a secondary general school certificate into line with that of German school leavers by 2030</t>
+        </is>
+      </c>
+      <c r="I66" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J66" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K66" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L66" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T66" s="0">
+        <v>4</v>
+      </c>
+      <c r="W66" s="0" t="inlineStr">
+        <is>
+          <t>Beide Ziele „Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss“ und „Angleichung des Anteils an die Quote deutscher Schulabgänger“ sollen parallel erfüllt werden, sodass für die Gesamtbewertung des Indikators die Einzelbewertungen zusammengeführt werden, indem jeweils das „schlechtere“ Wettersymbol übernommen wird.</t>
+        </is>
+      </c>
+      <c r="X66" s="0" t="inlineStr">
+        <is>
+          <t>The two targets of "increasing the proportion of foreign school leavers with at least a secondary school leaving certificate" and "aligning the proportion with the proportion of German school leavers" are to be met in parallel, so that for the overall evaluation of the indicator the individual evaluations are combined by adopting the "worse" weather symbol in each case.</t>
+        </is>
+      </c>
+      <c r="AO66" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP66" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AQ66" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AR66" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AS66" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AT66" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AU66" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>W_1002x_J</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>Z10_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" s="0" t="inlineStr">
+        <is>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-27-Wertes</t>
+        </is>
+      </c>
+      <c r="H67" s="0" t="inlineStr">
+        <is>
+          <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
+        </is>
+      </c>
+      <c r="I67" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J67" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K67" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="W67" s="0" t="inlineStr">
+        <is>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung sind ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren und die Berechnung der Wettersymbole nicht möglich (Zeitreihenbruch).</t>
+        </is>
+      </c>
+      <c r="X67" s="0" t="inlineStr">
+        <is>
+          <t>The "Life in Europe" survey (EU-SILC), which was previously conducted separately, was integrated into the microcensus as a sub-sample in 2020. Due to the change from a voluntary survey to a survey requiring information in part, combined with a new sample composition, it is not possible to compare the data of the survey year 2020 with previous years to evaluate the development of the indicators in these years (break in time series).</t>
+        </is>
+      </c>
+      <c r="AO67" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AP67" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AQ67" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AR67" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AS67" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT67" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AU67" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>W_1101a_2030</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>A_SERIES_4YAVERAGE</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" s="0" t="inlineStr">
+        <is>
+          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
+        </is>
+      </c>
+      <c r="H68" s="0" t="inlineStr">
+        <is>
+          <t>Reduction to under 30 ha on average per day by 2030</t>
+        </is>
+      </c>
+      <c r="I68" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J68" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K68" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L68" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T68" s="0">
+        <v>40</v>
+      </c>
+      <c r="AN68" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AO68" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP68" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ68" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR68" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS68" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT68" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>W_1101b_R</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" s="0" t="inlineStr">
+        <is>
+          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
+        </is>
+      </c>
+      <c r="H69" s="0" t="inlineStr">
+        <is>
+          <t>Reduce the loss of per capita open space area</t>
+        </is>
+      </c>
+      <c r="I69" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J69" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R69" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN69" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AO69" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP69" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ69" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AR69" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AS69" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT69" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>W_1101c_R</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01_Ib03_I01</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" s="0" t="inlineStr">
+        <is>
+          <t>Keine Verringerung der Siedlungsdichte</t>
+        </is>
+      </c>
+      <c r="H70" s="0" t="inlineStr">
+        <is>
+          <t>No reduction in density of settlements</t>
+        </is>
+      </c>
+      <c r="I70" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J70" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R70" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN70" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AO70" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP70" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AQ70" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AR70" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AS70" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AT70" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>W_1102a_2030</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>Z11_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" s="0" t="inlineStr">
+        <is>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H71" s="0" t="inlineStr">
+        <is>
+          <t>Reduction by 15–20 % by 2030</t>
+        </is>
+      </c>
+      <c r="I71" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J71" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K71" s="0" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L71" s="0">
+        <v>2030</v>
+      </c>
+      <c r="P71" s="0" t="inlineStr">
+        <is>
+          <t>Ziel: _x000d_
+85 bis 80</t>
+        </is>
+      </c>
+      <c r="Q71" s="0" t="inlineStr">
+        <is>
+          <t>Target:_x000d_
+between _x000d_
+80 and 85</t>
+        </is>
+      </c>
+      <c r="R71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S71" s="0">
+        <v>17.5</v>
+      </c>
+      <c r="T71" s="0">
+        <v>95</v>
+      </c>
+      <c r="AN71" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AO71" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AP71" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AQ71" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AR71" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AS71" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AT71" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>W_1102b_2030</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>Z11_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>A_SERIES_ENINPASSTRA</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" s="0" t="inlineStr">
+        <is>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H72" s="0" t="inlineStr">
+        <is>
+          <t>Reduction by 15–20 % by 2030</t>
+        </is>
+      </c>
+      <c r="I72" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J72" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K72" s="0" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L72" s="0">
+        <v>2030</v>
+      </c>
+      <c r="P72" s="0" t="inlineStr">
+        <is>
+          <t>Ziel: _x000d_
+85 bis 80</t>
+        </is>
+      </c>
+      <c r="Q72" s="0" t="inlineStr">
+        <is>
+          <t>Target:_x000d_
+between _x000d_
+80 and 85</t>
+        </is>
+      </c>
+      <c r="R72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S72" s="0">
+        <v>17.5</v>
+      </c>
+      <c r="T72" s="0">
+        <v>95</v>
+      </c>
+      <c r="AN72" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AO72" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AP72" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AQ72" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AR72" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AS72" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AT72" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>W_1102c_R</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>Z11_B02_P01_Ib03_I01</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" s="0" t="inlineStr">
+        <is>
+          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
+        </is>
+      </c>
+      <c r="H73" s="0" t="inlineStr">
+        <is>
+          <t>Reduction of average travel time by public transport</t>
+        </is>
+      </c>
+      <c r="I73" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J73" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="R73" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>W_1103x_2030</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>Z11_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74" s="0" t="inlineStr">
+        <is>
+          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H74" s="0" t="inlineStr">
+        <is>
+          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
+        </is>
+      </c>
+      <c r="I74" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J74" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K74" s="0" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L74" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T74" s="0">
+        <v>15</v>
+      </c>
+      <c r="W74" s="0" t="inlineStr">
+        <is>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung sind ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren und die Berechnung der Wettersymbole nicht möglich (Zeitreihenbruch).</t>
+        </is>
+      </c>
+      <c r="X74" s="0" t="inlineStr">
+        <is>
+          <t>The "Life in Europe" survey (EU-SILC), which was previously conducted separately, was integrated into the microcensus as a sub-sample in 2020. Due to the change from a voluntary survey to a survey requiring information in part, combined with a new sample composition, it is not possible to compare the data of the survey year 2020 with previous years to evaluate the development of the indicators in these years (break in time series).</t>
+        </is>
+      </c>
+      <c r="AO74" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AP74" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ74" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR74" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS74" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT74" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AU74" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>W_1104x_2030</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>Z11_B04_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
+        </is>
+      </c>
+      <c r="H75" s="0" t="inlineStr">
+        <is>
+          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
+        </is>
+      </c>
+      <c r="I75" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J75" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K75" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L75" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T75" s="0">
+        <v>55</v>
+      </c>
+      <c r="AO75" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP75" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ75" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR75" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS75" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT75" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU75" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>W_1201a_2030</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+        </is>
+      </c>
+      <c r="H76" s="0" t="inlineStr">
+        <is>
+          <t>Increase the market share to 34 % by 2030</t>
+        </is>
+      </c>
+      <c r="I76" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J76" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K76" s="0" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="L76" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T76" s="0">
+        <v>37</v>
+      </c>
+      <c r="AM76" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AN76" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AO76" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AP76" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AQ76" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR76" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS76" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>W_1201ba_R</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" s="0" t="inlineStr">
+        <is>
+          <t>Kontinuierliche Reduzierung </t>
+        </is>
+      </c>
+      <c r="H77" s="0" t="inlineStr">
+        <is>
+          <t>Steady reduction</t>
+        </is>
+      </c>
+      <c r="I77" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J77" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="R77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL77" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AM77" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AN77" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AO77" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP77" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AQ77" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR77" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>W_1201bb_R</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01_Ib02_I02</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" s="0" t="inlineStr">
+        <is>
+          <t>Kontinuierliche Reduzierung </t>
+        </is>
+      </c>
+      <c r="H78" s="0" t="inlineStr">
+        <is>
+          <t>Steady reduction</t>
+        </is>
+      </c>
+      <c r="I78" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J78" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="R78" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL78" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AM78" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AN78" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AO78" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AP78" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AQ78" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR78" s="0" t="inlineStr">
+        <is>
+          <t>Sp</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>W_1201bc_R</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01_Ib02_I03</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" s="0" t="inlineStr">
+        <is>
+          <t>Kontinuierliche Reduzierung </t>
+        </is>
+      </c>
+      <c r="H79" s="0" t="inlineStr">
+        <is>
+          <t>Steady reduction</t>
+        </is>
+      </c>
+      <c r="I79" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J79" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="R79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL79" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AM79" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AN79" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AO79" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AP79" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AQ79" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR79" s="0" t="inlineStr">
+        <is>
+          <t>Sp</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>W_1202x_2030</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>Z12_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>A_SERIES_LOCATIONS</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" s="0" t="inlineStr">
+        <is>
+          <t>5 000 Organisationsstandorte bis 2030</t>
+        </is>
+      </c>
+      <c r="H80" s="0" t="inlineStr">
+        <is>
+          <t>5,000 locations of organisation by 2030</t>
+        </is>
+      </c>
+      <c r="I80" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J80" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K80" s="0" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="L80" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S80" s="0">
+        <v>18.9</v>
+      </c>
+      <c r="T80" s="0">
+        <v>4500</v>
+      </c>
+      <c r="AO80" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP80" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ80" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR80" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS80" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT80" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AU80" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>W_1203a_2020</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>Z12_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils auf 95 % bis 2020</t>
+        </is>
+      </c>
+      <c r="H81" s="0" t="inlineStr">
+        <is>
+          <t>Increase the proportion to 95 % by 2020</t>
+        </is>
+      </c>
+      <c r="I81" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J81" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K81" s="0" t="inlineStr">
+        <is>
+          <t>210,8</t>
+        </is>
+      </c>
+      <c r="L81" s="0">
+        <v>2020</v>
+      </c>
+      <c r="R81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S81" s="0">
+        <v>4.95</v>
+      </c>
+      <c r="T81" s="0">
+        <v>195</v>
+      </c>
+      <c r="AO81" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AP81" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ81" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AR81" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS81" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AT81" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>W_1203b_R</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>Z12_B03_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" s="0" t="inlineStr">
+        <is>
+          <t>Signifikante Senkung</t>
+        </is>
+      </c>
+      <c r="H82" s="0" t="inlineStr">
+        <is>
+          <t>Significantly reduce</t>
+        </is>
+      </c>
+      <c r="I82" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J82" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="R82" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO82" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AP82" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ82" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AR82" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS82" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AT82" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>W_1301a_2020</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G83" s="0" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens &lt;b&gt;40 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H83" s="0" t="inlineStr">
+        <is>
+          <t>Reduce by at least &lt;b&gt;40 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I83" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J83" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K83" s="0" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L83" s="0">
+        <v>2020</v>
+      </c>
+      <c r="N83" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R83" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="W83" s="0" t="inlineStr">
+        <is>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+        </is>
+      </c>
+      <c r="X83" s="0" t="inlineStr">
+        <is>
+          <t>Omission of 2020 target due to expiration of time.</t>
+        </is>
+      </c>
+      <c r="AO83" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP83" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ83" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR83" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS83" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT83" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU83" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>W_1301a_2030</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" s="0" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H84" s="0" t="inlineStr">
+        <is>
+          <t>Reduce by at least &lt;b&gt;65 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I84" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J84" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K84" s="0" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L84" s="0">
+        <v>2030</v>
+      </c>
+      <c r="M84" s="0">
+        <v>2020</v>
+      </c>
+      <c r="O84" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T84" s="0">
+        <v>41</v>
+      </c>
+      <c r="AO84" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP84" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ84" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR84" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS84" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT84" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU84" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>W_1301a_2040</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" s="0" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens &lt;b&gt;88 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H85" s="0" t="inlineStr">
+        <is>
+          <t>Reduce by at least &lt;b&gt;88 %&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I85" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J85" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K85" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L85" s="0">
+        <v>2040</v>
+      </c>
+      <c r="M85" s="0">
+        <v>2030</v>
+      </c>
+      <c r="O85" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T85" s="0">
+        <v>18</v>
+      </c>
+      <c r="AO85" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP85" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ85" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR85" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS85" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT85" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU85" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>W_1301a_2045</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" s="0" t="inlineStr">
+        <is>
+          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2045&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H86" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2045&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I86" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J86" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K86" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L86" s="0">
+        <v>2045</v>
+      </c>
+      <c r="M86" s="0">
+        <v>2040</v>
+      </c>
+      <c r="O86" s="0">
+        <v>2022</v>
+      </c>
+      <c r="P86" s="0" t="inlineStr">
+        <is>
+          <t>Netto-Treibhausgasneutralität</t>
+        </is>
+      </c>
+      <c r="Q86" s="0" t="inlineStr">
+        <is>
+          <t>Net greenhouse gas neutrality</t>
+        </is>
+      </c>
+      <c r="R86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S86" s="0">
+        <v>30</v>
+      </c>
+      <c r="T86" s="0">
+        <v>2</v>
+      </c>
+      <c r="W86" s="0" t="inlineStr">
+        <is>
+          <t>Die Zielwerte und -jahre des Indikators wurden im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gelten für den Indikator die geänderten Ziele (65 % bis 2030, 88 % bis 2040, Erreichung der Treibhausgasneutralität bis 2045).</t>
+        </is>
+      </c>
+      <c r="X86" s="0" t="inlineStr">
+        <is>
+          <t>The target values and years of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href="https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1"&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised targets (65 % by 2030, 88 % by 2040, Greenhouse-gas neutrality by 2045) have applied to the indicator.</t>
+        </is>
+      </c>
+      <c r="AO86" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP86" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ86" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR86" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS86" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT86" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU86" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>W_1301ax_2030</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G87" s="0" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens &lt;b&gt;55 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H87" s="0" t="inlineStr">
+        <is>
+          <t>Reduce by at least &lt;b&gt;55 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I87" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J87" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K87" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L87" s="0">
+        <v>2030</v>
+      </c>
+      <c r="N87" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO87" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP87" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ87" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR87" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS87" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AT87" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU87" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>W_1301ax_2050b</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G88" s="0" t="inlineStr">
+        <is>
+          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H88" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2050&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I88" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J88" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K88" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L88" s="0">
+        <v>2050</v>
+      </c>
+      <c r="M88" s="0">
+        <v>2040</v>
+      </c>
+      <c r="N88" s="0">
+        <v>2022</v>
+      </c>
+      <c r="O88" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="W88" s="0" t="inlineStr">
+        <is>
+          <t>Das Ziel des Indikators wurde im Rahmen der &lt;a href="https:///www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (Erreichung von Treibhausgas-neutralität bis 2050). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
+        </is>
+      </c>
+      <c r="X88" s="0" t="inlineStr">
+        <is>
+          <t>The target of the indicator was adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (Greenhouse-gas neutrality) had applied to the indicator. It was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
+        </is>
+      </c>
+      <c r="AO88" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP88" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ88" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR88" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS88" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT88" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU88" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>W_1301ay_2040</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" s="0" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens &lt;b&gt;70 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H89" s="0" t="inlineStr">
+        <is>
+          <t>Reduce by at least &lt;b&gt;70 %&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I89" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J89" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K89" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L89" s="0">
+        <v>2040</v>
+      </c>
+      <c r="M89" s="0">
+        <v>2030</v>
+      </c>
+      <c r="N89" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO89" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP89" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ89" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR89" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS89" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AT89" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU89" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>W_1301ay_2050a</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" s="0" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;95 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H90" s="0" t="inlineStr">
+        <is>
+          <t>Reduce by at least &lt;b&gt;80 %&lt;/b&gt; to &lt;b&gt;95 %&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I90" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J90" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K90" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L90" s="0">
+        <v>2050</v>
+      </c>
+      <c r="N90" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R90" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO90" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP90" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ90" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR90" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AS90" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT90" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU90" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>W_1301b_2020</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>Z13_B01_P02_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Verdopplung&lt;/b&gt; der Finanzierung bis &lt;b&gt;2020&lt;/b&gt; gegenüber 2014</t>
+        </is>
+      </c>
+      <c r="H91" s="0" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Double&lt;/b&gt; finance by &lt;b&gt;2020&lt;/b&gt; compared to 2014</t>
+        </is>
+      </c>
+      <c r="I91" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J91" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K91" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L91" s="0">
+        <v>2020</v>
+      </c>
+      <c r="N91" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R91" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="W91" s="0" t="inlineStr">
+        <is>
+          <t>Eine Verdopplung der internationalen Klimafinanzierung von 2014 entsprach einer Erhöhung auf 4 Milliarden Euro.</t>
+        </is>
+      </c>
+      <c r="X91" s="0" t="inlineStr">
+        <is>
+          <t>A doubling of international climate finance from 2014 corresponds to an increase to 4 billion euro.</t>
+        </is>
+      </c>
+      <c r="AP91" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ91" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR91" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AS91" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT91" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU91" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>W_1301b_2025</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>Z13_B01_P02_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" s="0" t="inlineStr">
+        <is>
+          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens &lt;b&gt;6 Mrd.&lt;/b&gt; Euro bis spätestens &lt;b&gt;2025&lt;/b&gt;.</t>
+        </is>
+      </c>
+      <c r="H92" s="0" t="inlineStr">
+        <is>
+          <t>Increase international climate finance to at least &lt;b&gt;6 billion&lt;/b&gt; euros by &lt;b&gt;2025&lt;/b&gt; at the latest.</t>
+        </is>
+      </c>
+      <c r="I92" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J92" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K92" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L92" s="0">
+        <v>2025</v>
+      </c>
+      <c r="M92" s="0">
+        <v>2020</v>
+      </c>
+      <c r="O92" s="0">
+        <v>2022</v>
+      </c>
+      <c r="R92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T92" s="0">
+        <v>7</v>
+      </c>
+      <c r="W92" s="0" t="inlineStr">
+        <is>
+          <t>Zielwert und -jahr des Indikators wurden im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 Milliarden Euro bis spätestens 2025).</t>
+        </is>
+      </c>
+      <c r="X92" s="0" t="inlineStr">
+        <is>
+          <t>The target value and year of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href="https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1"&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised target (6 billion euros by 2025 at the latest) has applied to the indicator.</t>
+        </is>
+      </c>
+      <c r="AP92" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ92" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR92" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS92" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT92" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU92" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>W_1401aa_J</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>Z14_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" s="0" t="inlineStr">
+        <is>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
+        </is>
+      </c>
+      <c r="H93" s="0" t="inlineStr">
+        <is>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
+        </is>
+      </c>
+      <c r="I93" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J93" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K93" s="0" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="P93" s="0" t="inlineStr">
+        <is>
+          <t>Jährliches Ziel Ostsee: 2,6</t>
+        </is>
+      </c>
+      <c r="Q93" s="0" t="inlineStr">
+        <is>
+          <t>Annual target Baltic Sea: 2,6</t>
+        </is>
+      </c>
+      <c r="R93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T93" s="0">
+        <v>2.67</v>
+      </c>
+      <c r="AN93" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AO93" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP93" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ93" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR93" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS93" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT93" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>W_1401ab_J</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>Z14_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" s="0" t="inlineStr">
+        <is>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
+        </is>
+      </c>
+      <c r="H94" s="0" t="inlineStr">
+        <is>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
+        </is>
+      </c>
+      <c r="I94" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J94" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K94" s="0" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="P94" s="0" t="inlineStr">
+        <is>
+          <t>Jährliches Ziel Nordsee: 2,8</t>
+        </is>
+      </c>
+      <c r="Q94" s="0" t="inlineStr">
+        <is>
+          <t>Annual target North Sea: 2,8</t>
+        </is>
+      </c>
+      <c r="R94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T94" s="0">
+        <v>2.87</v>
+      </c>
+      <c r="AN94" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AO94" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP94" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ94" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR94" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS94" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT94" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>W_1401b_2020</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>Z14_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>A_SERIES_COMMEXPL</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G95" s="0" t="inlineStr">
+        <is>
+          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
+        </is>
+      </c>
+      <c r="H95" s="0" t="inlineStr">
+        <is>
+          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
+        </is>
+      </c>
+      <c r="I95" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J95" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K95" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L95" s="0">
+        <v>2020</v>
+      </c>
+      <c r="R95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S95" s="0">
+        <v>16.9</v>
+      </c>
+      <c r="T95" s="0">
+        <v>90</v>
+      </c>
+      <c r="AN95" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AO95" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP95" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ95" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AR95" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AS95" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT95" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>W_1501x_2030</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>Z15_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" s="0" t="inlineStr">
+        <is>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
+        </is>
+      </c>
+      <c r="H96" s="0" t="inlineStr">
+        <is>
+          <t>Reach the index value of 100 by 2030</t>
+        </is>
+      </c>
+      <c r="I96" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J96" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K96" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L96" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S96" s="0">
+        <v>28.8</v>
+      </c>
+      <c r="T96" s="0">
+        <v>100</v>
+      </c>
+      <c r="AJ96" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AK96" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AL96" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AM96" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AN96" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AO96" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP96" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>W_1502x_2030</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>Z15_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" s="0" t="inlineStr">
+        <is>
+          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
+        </is>
+      </c>
+      <c r="H97" s="0" t="inlineStr">
+        <is>
+          <t>Reduction by 35% by 2030 compared to 2005</t>
+        </is>
+      </c>
+      <c r="I97" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J97" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K97" s="0" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L97" s="0">
+        <v>2030</v>
+      </c>
+      <c r="P97" s="0" t="inlineStr">
+        <is>
+          <t>Ziel: _x000d_
+52</t>
+        </is>
+      </c>
+      <c r="Q97" s="0" t="inlineStr">
+        <is>
+          <t>Target:_x000d_
+52</t>
+        </is>
+      </c>
+      <c r="R97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T97" s="0">
+        <v>57</v>
+      </c>
+      <c r="AE97" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ97" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AO97" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AP97" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AQ97" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR97" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS97" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>W_1503a_R</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>Z15_B02_P02_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung der Zahlungen bis 2030</t>
+        </is>
+      </c>
+      <c r="H98" s="0" t="inlineStr">
+        <is>
+          <t>Increase payments by 2030</t>
+        </is>
+      </c>
+      <c r="I98" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J98" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R98" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN98" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AO98" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AP98" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ98" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR98" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AS98" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT98" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>W_1503b_R</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>Z15_B02_P02_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung der Zahlungen bis 2030</t>
+        </is>
+      </c>
+      <c r="H99" s="0" t="inlineStr">
+        <is>
+          <t>Increase payments by 2030</t>
+        </is>
+      </c>
+      <c r="I99" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J99" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN99" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AO99" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP99" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ99" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR99" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS99" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT99" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>W_1601_2030</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>Z16_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G100" s="0" t="inlineStr">
+        <is>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/-innen auf unter &lt;b&gt;6 500&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H100" s="0" t="inlineStr">
+        <is>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than &lt;b&gt;6,500 &lt;/b&gt;by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I100" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J100" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K100" s="0" t="inlineStr">
+        <is>
+          <t>6500</t>
+        </is>
+      </c>
+      <c r="L100" s="0">
+        <v>2030</v>
+      </c>
+      <c r="O100" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S100" s="0">
+        <v>30.8</v>
+      </c>
+      <c r="T100" s="0">
+        <v>7400</v>
+      </c>
+      <c r="W100" s="0" t="inlineStr">
+        <is>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https:///www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 500 bis 2030).</t>
+        </is>
+      </c>
+      <c r="X100" s="0" t="inlineStr">
+        <is>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (6,500 by 2030) has applied to the indicator.</t>
+        </is>
+      </c>
+      <c r="AO100" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AP100" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AQ100" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR100" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS100" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT100" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU100" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>W_1601x_2030</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>Z16_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" s="0" t="inlineStr">
+        <is>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/-innen auf unter &lt;b&gt;7 000&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="H101" s="0" t="inlineStr">
+        <is>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than &lt;b&gt;7,000&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="I101" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J101" s="0" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K101" s="0" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="L101" s="0">
+        <v>2030</v>
+      </c>
+      <c r="N101" s="0">
+        <v>2021</v>
+      </c>
+      <c r="R101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO101" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AP101" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AQ101" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR101" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS101" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT101" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU101" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>W_1602x_J</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="inlineStr">
+        <is>
+          <t>Z16_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G102" s="0" t="inlineStr">
+        <is>
+          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="H102" s="0" t="inlineStr">
+        <is>
+          <t>At least 15 projects per year by 2030</t>
+        </is>
+      </c>
+      <c r="I102" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J102" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K102" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="R102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T102" s="0">
+        <v>18</v>
+      </c>
+      <c r="AO102" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP102" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ102" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR102" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS102" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT102" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU102" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>W_1603a_R</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>Z16_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" s="0" t="inlineStr">
+        <is>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
+        </is>
+      </c>
+      <c r="H103" s="0" t="inlineStr">
+        <is>
+          <t>Improvement by 2030, compared to 2012</t>
+        </is>
+      </c>
+      <c r="I103" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J103" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO103" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AP103" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AQ103" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AR103" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AS103" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AT103" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AU103" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>W_1603b_R</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>Z16_B03_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="D104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" s="0" t="inlineStr">
+        <is>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
+        </is>
+      </c>
+      <c r="H104" s="0" t="inlineStr">
+        <is>
+          <t>Improvement by 2030, compared to 2012</t>
+        </is>
+      </c>
+      <c r="I104" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J104" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="R104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO104" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AP104" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ104" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AR104" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AS104" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT104" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU104" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>W_1701x_2030</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="inlineStr">
+        <is>
+          <t>Z17_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>A_CALCMETH_GRANTEQU</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
+        </is>
+      </c>
+      <c r="H105" s="0" t="inlineStr">
+        <is>
+          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
+        </is>
+      </c>
+      <c r="I105" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J105" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K105" s="0" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="L105" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S105" s="0">
+        <v>28.8</v>
+      </c>
+      <c r="T105" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="AO105" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP105" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ105" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR105" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS105" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT105" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU105" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>W_1702x_2020</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
+        </is>
+      </c>
+      <c r="H106" s="0" t="inlineStr">
+        <is>
+          <t>Increase the number by 10 % from 2015 to 2020</t>
+        </is>
+      </c>
+      <c r="I106" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J106" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K106" s="0" t="inlineStr">
+        <is>
+          <t>237000</t>
+        </is>
+      </c>
+      <c r="L106" s="0">
+        <v>2020</v>
+      </c>
+      <c r="R106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="W106" s="0" t="inlineStr">
+        <is>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+        </is>
+      </c>
+      <c r="X106" s="0" t="inlineStr">
+        <is>
+          <t>Omission of 2020 target due to expiration of time.</t>
+        </is>
+      </c>
+      <c r="AO106" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP106" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ106" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR106" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS106" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT106" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU106" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>W_1702x_J</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107" s="0" t="inlineStr">
+        <is>
+          <t>Verstetigung des Zielwertes von 2020</t>
+        </is>
+      </c>
+      <c r="H107" s="0" t="inlineStr">
+        <is>
+          <t>Steadying the 2020 target value</t>
+        </is>
+      </c>
+      <c r="I107" s="0" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J107" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K107" s="0" t="inlineStr">
+        <is>
+          <t>237000</t>
+        </is>
+      </c>
+      <c r="P107" s="0" t="inlineStr">
+        <is>
+          <t>Ziel: 237 000</t>
+        </is>
+      </c>
+      <c r="Q107" s="0" t="inlineStr">
+        <is>
+          <t>Target: 237,000</t>
+        </is>
+      </c>
+      <c r="R107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S107" s="0">
+        <v>16</v>
+      </c>
+      <c r="T107" s="0">
+        <v>255000</v>
+      </c>
+      <c r="U107" s="0">
+        <v>2019</v>
+      </c>
+      <c r="AU107" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>W_1703x_J</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="inlineStr">
+        <is>
+          <t>Z17_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="D108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108" s="0" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
+        </is>
+      </c>
+      <c r="H108" s="0" t="inlineStr">
+        <is>
+          <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
+        </is>
+      </c>
+      <c r="I108" s="0" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J108" s="0" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K108" s="0" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="L108" s="0">
+        <v>2030</v>
+      </c>
+      <c r="R108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S108" s="0">
+        <v>21</v>
+      </c>
+      <c r="T108" s="0">
+        <v>1.45</v>
+      </c>
+      <c r="AO108" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP108" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ108" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR108" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS108" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT108" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AU108" s="0" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -3713,6 +3713,9 @@
         <v>1</v>
       </c>
       <c r="S15" s="8">
+        <v>12</v>
+      </c>
+      <c r="T15" s="8">
         <v>5</v>
       </c>
       <c r="W15" s="6" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -4140,7 +4140,7 @@
         </is>
       </c>
       <c r="R17" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="6" t="inlineStr">
         <is>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -3877,7 +3877,7 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PANDEMIC</t>
+          <t/>
         </is>
       </c>
       <c r="D16" s="5" t="b">
@@ -3887,16 +3887,16 @@
         <v>1</v>
       </c>
       <c r="F16" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="6" t="inlineStr">
         <is>
-          <t>Steigerung der Ausgaben bis 2030</t>
+          <t>30 Prozent der Länder haben im Jahr 2030 eine Verbesserung des Global Health Security Index (GHSI) um mindestens den Wert 3 gegenüber 2019 erzielt</t>
         </is>
       </c>
       <c r="H16" s="4" t="inlineStr">
         <is>
-          <t>Expenditure to be increased by 2030</t>
+          <t>XXX30 Prozent der Länder haben im Jahr 2030 eine Verbesserung des Global Health Security Index (GHSI) um mindestens den Wert 3 gegenüber 2019 erzielt</t>
         </is>
       </c>
       <c r="I16" s="4" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="K16" s="4" t="inlineStr">
         <is>
-          <t>300,5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L16" s="7">
@@ -3930,9 +3930,6 @@
       <c r="R16" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="T16" s="8">
-        <v>400</v>
-      </c>
       <c r="W16" s="6" t="inlineStr">
         <is>
           <t/>
@@ -4025,37 +4022,37 @@
       </c>
       <c r="AO16" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AP16" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AQ16" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AR16" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AS16" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t/>
         </is>
       </c>
       <c r="AT16" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AU16" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AV16" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -562,9 +562,9 @@
     <col customWidth="true" min="1" max="1" width="16.84375"/>
     <col customWidth="true" min="2" max="2" width="16.84375"/>
     <col customWidth="true" min="3" max="3" width="7.46875"/>
-    <col customWidth="true" min="4" max="4" width="16.84375"/>
-    <col customWidth="true" min="5" max="5" width="32.078125"/>
-    <col customWidth="true" min="6" max="6" width="10.10546875"/>
+    <col customWidth="true" min="4" max="4" width="6.6796875"/>
+    <col customWidth="true" min="5" max="5" width="7.5"/>
+    <col customWidth="true" min="6" max="6" width="8.0859375"/>
     <col customWidth="true" min="7" max="7" width="58.15234375"/>
     <col customWidth="true" min="8" max="8" width="62.83984375"/>
     <col customWidth="true" min="9" max="9" width="8.7890625"/>
@@ -3716,7 +3716,7 @@
         <v>12</v>
       </c>
       <c r="T15" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W15" s="6" t="inlineStr">
         <is>
@@ -6272,16 +6272,22 @@
       </c>
       <c r="P27" s="4" t="inlineStr">
         <is>
-          <t>Ziel: 65</t>
+          <t/>
         </is>
       </c>
       <c r="Q27" s="4" t="inlineStr">
         <is>
-          <t>Target: 65</t>
+          <t/>
         </is>
       </c>
       <c r="R27" s="5" t="b">
         <v>1</v>
+      </c>
+      <c r="S27" s="8">
+        <v>15.7</v>
+      </c>
+      <c r="T27" s="8">
+        <v>60</v>
       </c>
       <c r="W27" s="6" t="inlineStr">
         <is>
@@ -6869,7 +6875,7 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_CALCMETH_UNBEREIN</t>
         </is>
       </c>
       <c r="D30" s="5" t="b">
@@ -11494,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="T51" s="8">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="W51" s="6" t="inlineStr">
         <is>
@@ -12369,7 +12375,7 @@
         <v>1</v>
       </c>
       <c r="S55" s="8">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="T55" s="8">
         <v>65</v>
@@ -16877,7 +16883,7 @@
       </c>
       <c r="G76" s="6" t="inlineStr">
         <is>
-          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
+          <t>Erhöhung des Anteils der ausländischen Schulabsolvierenden und Angleichung an die Quote deutscher Schulabsolvierender bis 2030</t>
         </is>
       </c>
       <c r="H76" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -551,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY120"/>
+  <dimension ref="A1:AY125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -13663,7 +13663,7 @@
       </c>
       <c r="K61" s="4" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>136,8</t>
         </is>
       </c>
       <c r="L61" s="7">
@@ -13683,10 +13683,10 @@
         <v>1</v>
       </c>
       <c r="S61" s="8">
-        <v>21.8</v>
+        <v>11.8</v>
       </c>
       <c r="T61" s="8">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="W61" s="6" t="inlineStr">
         <is>
@@ -17916,52 +17916,55 @@
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>W_1101b_R</t>
+          <t>W_1101a_2050</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02_I01</t>
+          <t>Z11_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_4YAVERAGE</t>
         </is>
       </c>
       <c r="D81" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E81" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" s="5" t="b">
         <v>0</v>
       </c>
       <c r="G81" s="6" t="inlineStr">
         <is>
-          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
+          <t>"Netto-Null" bis 2030</t>
         </is>
       </c>
       <c r="H81" s="4" t="inlineStr">
         <is>
-          <t>Reduce the loss of per capita open space area</t>
+          <t>XXX"Netto-Null" bis 2030</t>
         </is>
       </c>
       <c r="I81" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J81" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K81" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L81" s="7">
+        <v>2050</v>
       </c>
       <c r="P81" s="4" t="inlineStr">
         <is>
@@ -17976,6 +17979,9 @@
       <c r="R81" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="T81" s="8">
+        <v>40</v>
+      </c>
       <c r="W81" s="6" t="inlineStr">
         <is>
           <t/>
@@ -18063,37 +18069,37 @@
       </c>
       <c r="AN81" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t/>
         </is>
       </c>
       <c r="AO81" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AP81" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AQ81" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t/>
         </is>
       </c>
       <c r="AR81" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t/>
         </is>
       </c>
       <c r="AS81" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AT81" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t/>
         </is>
       </c>
       <c r="AU81" s="4" t="inlineStr">
@@ -18125,12 +18131,12 @@
     <row outlineLevel="0" r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>W_1101c_R</t>
+          <t>W_1101b_R</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03_I01</t>
+          <t>Z11_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="C82" s="4" t="inlineStr">
@@ -18149,12 +18155,12 @@
       </c>
       <c r="G82" s="6" t="inlineStr">
         <is>
-          <t>Keine Verringerung der Siedlungsdichte</t>
+          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
         </is>
       </c>
       <c r="H82" s="4" t="inlineStr">
         <is>
-          <t>No reduction in density of settlements</t>
+          <t>Reduce the loss of per capita open space area</t>
         </is>
       </c>
       <c r="I82" s="4" t="inlineStr">
@@ -18272,37 +18278,37 @@
       </c>
       <c r="AN82" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AO82" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AP82" s="4" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ82" s="4" t="inlineStr">
+        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AQ82" s="4" t="inlineStr">
+      <c r="AR82" s="4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AR82" s="4" t="inlineStr">
+      <c r="AS82" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT82" s="4" t="inlineStr">
         <is>
           <t>L</t>
-        </is>
-      </c>
-      <c r="AS82" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AT82" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
         </is>
       </c>
       <c r="AU82" s="4" t="inlineStr">
@@ -18334,626 +18340,626 @@
     <row outlineLevel="0" r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
+          <t>W_1101c_R</t>
+        </is>
+      </c>
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01_Ib03_I01</t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D83" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" s="6" t="inlineStr">
+        <is>
+          <t>Keine Verringerung der Siedlungsdichte</t>
+        </is>
+      </c>
+      <c r="H83" s="4" t="inlineStr">
+        <is>
+          <t>No reduction in density of settlements</t>
+        </is>
+      </c>
+      <c r="I83" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J83" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R83" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W83" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X83" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN83" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AO83" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP83" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AQ83" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AR83" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AS83" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AT83" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AU83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="4" t="inlineStr">
+        <is>
           <t>W_1102a_2030</t>
         </is>
       </c>
-      <c r="B83" s="4" t="inlineStr">
+      <c r="B84" s="4" t="inlineStr">
         <is>
           <t>Z11_B02_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="C83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D83" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E83" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F83" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G83" s="6" t="inlineStr">
+      <c r="C84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D84" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" s="6" t="inlineStr">
         <is>
           <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
-      <c r="H83" s="4" t="inlineStr">
+      <c r="H84" s="4" t="inlineStr">
         <is>
           <t>Reduction by 15–20 % by 2030</t>
         </is>
       </c>
-      <c r="I83" s="4" t="inlineStr">
+      <c r="I84" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="J83" s="4" t="inlineStr">
+      <c r="J84" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="K83" s="4" t="inlineStr">
+      <c r="K84" s="4" t="inlineStr">
         <is>
           <t>85</t>
         </is>
       </c>
-      <c r="L83" s="7">
+      <c r="L84" s="7">
         <v>2030</v>
       </c>
-      <c r="P83" s="4" t="inlineStr">
+      <c r="P84" s="4" t="inlineStr">
         <is>
           <t>Ziel: 
 85 bis 80</t>
         </is>
       </c>
-      <c r="Q83" s="4" t="inlineStr">
+      <c r="Q84" s="4" t="inlineStr">
         <is>
           <t>Target:
 between 
 80 and 85</t>
         </is>
       </c>
-      <c r="R83" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S83" s="8">
+      <c r="R84" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S84" s="8">
         <v>17.5</v>
       </c>
-      <c r="T83" s="8">
+      <c r="T84" s="8">
         <v>95</v>
       </c>
-      <c r="W83" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X83" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN83" s="4" t="inlineStr">
+      <c r="W84" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X84" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN84" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AO83" s="4" t="inlineStr">
+      <c r="AO84" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AP83" s="4" t="inlineStr">
+      <c r="AP84" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AQ83" s="4" t="inlineStr">
+      <c r="AQ84" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AR83" s="4" t="inlineStr">
+      <c r="AR84" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AS83" s="4" t="inlineStr">
+      <c r="AS84" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AT83" s="4" t="inlineStr">
+      <c r="AT84" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AU83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AV83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AW83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AX83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AY83" s="4" t="inlineStr">
+      <c r="AU84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY84" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row outlineLevel="0" r="84">
-      <c r="A84" s="4" t="inlineStr">
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="4" t="inlineStr">
         <is>
           <t>W_1102b_2030</t>
         </is>
       </c>
-      <c r="B84" s="4" t="inlineStr">
+      <c r="B85" s="4" t="inlineStr">
         <is>
           <t>Z11_B02_P01_Ib02_I01</t>
         </is>
       </c>
-      <c r="C84" s="4" t="inlineStr">
+      <c r="C85" s="4" t="inlineStr">
         <is>
           <t>A_SERIES_ENINPASSTRA</t>
         </is>
       </c>
-      <c r="D84" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E84" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F84" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G84" s="6" t="inlineStr">
+      <c r="D85" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" s="6" t="inlineStr">
         <is>
           <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
-      <c r="H84" s="4" t="inlineStr">
+      <c r="H85" s="4" t="inlineStr">
         <is>
           <t>Reduction by 15–20 % by 2030</t>
         </is>
       </c>
-      <c r="I84" s="4" t="inlineStr">
+      <c r="I85" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="J84" s="4" t="inlineStr">
+      <c r="J85" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="K84" s="4" t="inlineStr">
+      <c r="K85" s="4" t="inlineStr">
         <is>
           <t>85</t>
         </is>
       </c>
-      <c r="L84" s="7">
+      <c r="L85" s="7">
         <v>2030</v>
       </c>
-      <c r="P84" s="4" t="inlineStr">
+      <c r="P85" s="4" t="inlineStr">
         <is>
           <t>Ziel: 
 85 bis 80</t>
         </is>
       </c>
-      <c r="Q84" s="4" t="inlineStr">
+      <c r="Q85" s="4" t="inlineStr">
         <is>
           <t>Target:
 between 
 80 and 85</t>
         </is>
       </c>
-      <c r="R84" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S84" s="8">
+      <c r="R85" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S85" s="8">
         <v>17.5</v>
       </c>
-      <c r="T84" s="8">
+      <c r="T85" s="8">
         <v>95</v>
       </c>
-      <c r="W84" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X84" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN84" s="4" t="inlineStr">
+      <c r="W85" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X85" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN85" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AO84" s="4" t="inlineStr">
+      <c r="AO85" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AP84" s="4" t="inlineStr">
+      <c r="AP85" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AQ84" s="4" t="inlineStr">
+      <c r="AQ85" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AR84" s="4" t="inlineStr">
+      <c r="AR85" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AS84" s="4" t="inlineStr">
+      <c r="AS85" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AT84" s="4" t="inlineStr">
+      <c r="AT85" s="4" t="inlineStr">
         <is>
           <t>S</t>
-        </is>
-      </c>
-      <c r="AU84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AV84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AW84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AX84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AY84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="85">
-      <c r="A85" s="4" t="inlineStr">
-        <is>
-          <t>W_1102c_R</t>
-        </is>
-      </c>
-      <c r="B85" s="4" t="inlineStr">
-        <is>
-          <t>Z11_B02_P01_Ib03_I01</t>
-        </is>
-      </c>
-      <c r="C85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D85" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E85" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F85" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G85" s="6" t="inlineStr">
-        <is>
-          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
-        </is>
-      </c>
-      <c r="H85" s="4" t="inlineStr">
-        <is>
-          <t>Reduction of average travel time by public transport</t>
-        </is>
-      </c>
-      <c r="I85" s="4" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J85" s="4" t="inlineStr">
-        <is>
-          <t>sinken</t>
-        </is>
-      </c>
-      <c r="K85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R85" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="W85" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X85" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AS85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AT85" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="AU85" s="4" t="inlineStr">
@@ -18985,12 +18991,12 @@
     <row outlineLevel="0" r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>W_1103x_2030</t>
+          <t>W_1102c_R</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01_I01</t>
+          <t>Z11_B02_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="C86" s="4" t="inlineStr">
@@ -19002,24 +19008,24 @@
         <v>1</v>
       </c>
       <c r="E86" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F86" s="5" t="b">
-        <v>1</v>
-      </c>
       <c r="G86" s="6" t="inlineStr">
         <is>
-          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
+          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="H86" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
+          <t>Reduction of average travel time by public transport</t>
         </is>
       </c>
       <c r="I86" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>R</t>
         </is>
       </c>
       <c r="J86" s="4" t="inlineStr">
@@ -19029,11 +19035,8 @@
       </c>
       <c r="K86" s="4" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="L86" s="7">
-        <v>2030</v>
+          <t/>
+        </is>
       </c>
       <c r="P86" s="4" t="inlineStr">
         <is>
@@ -19046,19 +19049,16 @@
         </is>
       </c>
       <c r="R86" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="T86" s="8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W86" s="6" t="inlineStr">
         <is>
-          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung sind ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren und die Berechnung der Wettersymbole nicht möglich (Zeitreihenbruch).</t>
+          <t/>
         </is>
       </c>
       <c r="X86" s="6" t="inlineStr">
         <is>
-          <t>The "Life in Europe" survey (EU-SILC), which was previously conducted separately, was integrated into the microcensus as a sub-sample in 2020. Due to the change from a voluntary survey to a survey requiring information in part, combined with a new sample composition, it is not possible to compare the data of the survey year 2020 with previous years to evaluate the development of the indicators in these years (break in time series).</t>
+          <t/>
         </is>
       </c>
       <c r="Y86" s="4" t="inlineStr">
@@ -19143,37 +19143,37 @@
       </c>
       <c r="AO86" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AP86" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AQ86" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AR86" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AS86" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AT86" s="4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t/>
         </is>
       </c>
       <c r="AU86" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AV86" s="4" t="inlineStr">
@@ -19200,12 +19200,12 @@
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>W_1104x_2030</t>
+          <t>W_1103a_2030</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01_I01</t>
+          <t>Z11_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
@@ -19217,19 +19217,19 @@
         <v>1</v>
       </c>
       <c r="E87" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G87" s="6" t="inlineStr">
         <is>
-          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
+          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
         </is>
       </c>
       <c r="H87" s="4" t="inlineStr">
         <is>
-          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
+          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
         </is>
       </c>
       <c r="I87" s="4" t="inlineStr">
@@ -19239,12 +19239,12 @@
       </c>
       <c r="J87" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K87" s="4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L87" s="7">
@@ -19264,16 +19264,16 @@
         <v>1</v>
       </c>
       <c r="T87" s="8">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="W87" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung sind ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren und die Berechnung der Wettersymbole nicht möglich (Zeitreihenbruch).</t>
         </is>
       </c>
       <c r="X87" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>The "Life in Europe" survey (EU-SILC), which was previously conducted separately, was integrated into the microcensus as a sub-sample in 2020. Due to the change from a voluntary survey to a survey requiring information in part, combined with a new sample composition, it is not possible to compare the data of the survey year 2020 with previous years to evaluate the development of the indicators in these years (break in time series).</t>
         </is>
       </c>
       <c r="Y87" s="4" t="inlineStr">
@@ -19358,14 +19358,14 @@
       </c>
       <c r="AO87" s="4" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AP87" s="4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AP87" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="AQ87" s="4" t="inlineStr">
         <is>
           <t>S</t>
@@ -19383,12 +19383,12 @@
       </c>
       <c r="AT87" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AU87" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AV87" s="4" t="inlineStr">
@@ -19415,12 +19415,12 @@
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>W_1201a_2030</t>
+          <t>W_1103b_R</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01_I01</t>
+          <t>Z11_B03_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
@@ -19439,17 +19439,17 @@
       </c>
       <c r="G88" s="6" t="inlineStr">
         <is>
-          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+          <t>Die fußläufige Erreichbarkeit von Stadtgrün, Parks etc. in Städten soll perspektivisch für alle Bewohnerinnen und Bewohnerer möglicht werden</t>
         </is>
       </c>
       <c r="H88" s="4" t="inlineStr">
         <is>
-          <t>Increase the market share to 34 % by 2030</t>
+          <t>XXXDie fußläufige Erreichbarkeit von Stadtgrün, Parks etc. in Städten soll perspektivisch für alle Bewohnerinnen und Bewohner ermöglicht werden</t>
         </is>
       </c>
       <c r="I88" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>R</t>
         </is>
       </c>
       <c r="J88" s="4" t="inlineStr">
@@ -19459,11 +19459,8 @@
       </c>
       <c r="K88" s="4" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="L88" s="7">
-        <v>2030</v>
+          <t/>
+        </is>
       </c>
       <c r="P88" s="4" t="inlineStr">
         <is>
@@ -19476,10 +19473,7 @@
         </is>
       </c>
       <c r="R88" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="T88" s="8">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="W88" s="6" t="inlineStr">
         <is>
@@ -19563,37 +19557,37 @@
       </c>
       <c r="AM88" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AN88" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AO88" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AP88" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t/>
         </is>
       </c>
       <c r="AQ88" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AR88" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AS88" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AT88" s="4" t="inlineStr">
@@ -19630,12 +19624,12 @@
     <row outlineLevel="0" r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>W_1201ba_R</t>
+          <t>W_1104x_2030</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I01</t>
+          <t>Z11_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
@@ -19650,32 +19644,35 @@
         <v>1</v>
       </c>
       <c r="F89" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="6" t="inlineStr">
         <is>
-          <t>Kontinuierliche Reduzierung </t>
+          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
         </is>
       </c>
       <c r="H89" s="4" t="inlineStr">
         <is>
-          <t>Steady reduction</t>
+          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
         </is>
       </c>
       <c r="I89" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J89" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K89" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L89" s="7">
+        <v>2030</v>
       </c>
       <c r="P89" s="4" t="inlineStr">
         <is>
@@ -19688,7 +19685,10 @@
         </is>
       </c>
       <c r="R89" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T89" s="8">
+        <v>55</v>
       </c>
       <c r="W89" s="6" t="inlineStr">
         <is>
@@ -19767,52 +19767,52 @@
       </c>
       <c r="AL89" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AM89" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AN89" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t/>
         </is>
       </c>
       <c r="AO89" s="4" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP89" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ89" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AP89" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AQ89" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="AR89" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AS89" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AT89" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AU89" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AV89" s="4" t="inlineStr">
@@ -19839,12 +19839,12 @@
     <row outlineLevel="0" r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>W_1201bb_R</t>
+          <t>W_1201a_2030</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I02</t>
+          <t>Z12_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C90" s="4" t="inlineStr">
@@ -19859,32 +19859,35 @@
         <v>1</v>
       </c>
       <c r="F90" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="6" t="inlineStr">
         <is>
-          <t>Kontinuierliche Reduzierung </t>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="H90" s="4" t="inlineStr">
         <is>
-          <t>Steady reduction</t>
+          <t>Increase the market share to 34 % by 2030</t>
         </is>
       </c>
       <c r="I90" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J90" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K90" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="L90" s="7">
+        <v>2030</v>
       </c>
       <c r="P90" s="4" t="inlineStr">
         <is>
@@ -19897,7 +19900,10 @@
         </is>
       </c>
       <c r="R90" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T90" s="8">
+        <v>37</v>
       </c>
       <c r="W90" s="6" t="inlineStr">
         <is>
@@ -19976,42 +19982,42 @@
       </c>
       <c r="AL90" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM90" s="4" t="inlineStr">
+        <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AM90" s="4" t="inlineStr">
+      <c r="AN90" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AO90" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AP90" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AN90" s="4" t="inlineStr">
+      <c r="AQ90" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AO90" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AP90" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AQ90" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
       <c r="AR90" s="4" t="inlineStr">
         <is>
-          <t>Sp</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AS90" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AT90" s="4" t="inlineStr">
@@ -20048,12 +20054,12 @@
     <row outlineLevel="0" r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>W_1201bc_R</t>
+          <t>W_1201ba_R</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I03</t>
+          <t>Z12_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
@@ -20190,32 +20196,32 @@
       </c>
       <c r="AM91" s="4" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AN91" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AN91" s="4" t="inlineStr">
+      <c r="AO91" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP91" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AQ91" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AO91" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AP91" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AQ91" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
       <c r="AR91" s="4" t="inlineStr">
         <is>
-          <t>Sp</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AS91" s="4" t="inlineStr">
@@ -20257,17 +20263,17 @@
     <row outlineLevel="0" r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>W_1202x_2030</t>
+          <t>W_1201bb_R</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01_I01</t>
+          <t>Z12_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_LOCATIONS</t>
+          <t/>
         </is>
       </c>
       <c r="D92" s="5" t="b">
@@ -20277,178 +20283,169 @@
         <v>1</v>
       </c>
       <c r="F92" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" s="6" t="inlineStr">
         <is>
-          <t>5 000 Organisationsstandorte bis 2030</t>
+          <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
       <c r="H92" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisation by 2030</t>
+          <t>Steady reduction</t>
         </is>
       </c>
       <c r="I92" s="4" t="inlineStr">
         <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J92" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R92" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W92" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X92" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL92" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AM92" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="J92" s="4" t="inlineStr">
-        <is>
-          <t>steigen</t>
-        </is>
-      </c>
-      <c r="K92" s="4" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="L92" s="7">
-        <v>2030</v>
-      </c>
-      <c r="P92" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q92" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R92" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S92" s="8">
-        <v>18.9</v>
-      </c>
-      <c r="T92" s="8">
-        <v>4500</v>
-      </c>
-      <c r="W92" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X92" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y92" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z92" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA92" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB92" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC92" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD92" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE92" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF92" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG92" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH92" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI92" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ92" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK92" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL92" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM92" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AN92" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AO92" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AP92" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AQ92" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AR92" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Sp</t>
         </is>
       </c>
       <c r="AS92" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AT92" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AU92" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AV92" s="4" t="inlineStr">
@@ -20475,12 +20472,12 @@
     <row outlineLevel="0" r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>W_1203a_2020</t>
+          <t>W_1201bc_R</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I01</t>
+          <t>Z12_B01_P01_Ib02_I03</t>
         </is>
       </c>
       <c r="C93" s="4" t="inlineStr">
@@ -20495,173 +20492,164 @@
         <v>1</v>
       </c>
       <c r="F93" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" s="6" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 95 % bis 2020</t>
+          <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
       <c r="H93" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 95 % by 2020</t>
+          <t>Steady reduction</t>
         </is>
       </c>
       <c r="I93" s="4" t="inlineStr">
         <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J93" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R93" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W93" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X93" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL93" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AM93" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="J93" s="4" t="inlineStr">
-        <is>
-          <t>steigen</t>
-        </is>
-      </c>
-      <c r="K93" s="4" t="inlineStr">
-        <is>
-          <t>210,8</t>
-        </is>
-      </c>
-      <c r="L93" s="7">
-        <v>2020</v>
-      </c>
-      <c r="P93" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q93" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R93" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S93" s="8">
-        <v>4.95</v>
-      </c>
-      <c r="T93" s="8">
-        <v>195</v>
-      </c>
-      <c r="W93" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X93" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y93" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z93" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA93" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB93" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC93" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD93" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE93" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF93" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG93" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH93" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI93" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ93" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK93" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL93" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM93" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AN93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AO93" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AP93" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AQ93" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AR93" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Sp</t>
         </is>
       </c>
       <c r="AS93" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t/>
         </is>
       </c>
       <c r="AT93" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AU93" s="4" t="inlineStr">
@@ -20693,12 +20681,12 @@
     <row outlineLevel="0" r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>W_1203b_R</t>
+          <t>W_1202b_R</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I02</t>
+          <t>Z12_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="C94" s="4" t="inlineStr">
@@ -20717,12 +20705,12 @@
       </c>
       <c r="G94" s="6" t="inlineStr">
         <is>
-          <t>Signifikante Senkung</t>
+          <t>Erhöhung der Anzahl der Kultureinrichtungen mit entsprechenden Zertifikaten bis 2030</t>
         </is>
       </c>
       <c r="H94" s="4" t="inlineStr">
         <is>
-          <t>Significantly reduce</t>
+          <t>XXXErhöhung der Anzahl der Kultureinrichtungen mit entsprechenden Zertifikaten bis 2030</t>
         </is>
       </c>
       <c r="I94" s="4" t="inlineStr">
@@ -20732,7 +20720,7 @@
       </c>
       <c r="J94" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K94" s="4" t="inlineStr">
@@ -20845,32 +20833,32 @@
       </c>
       <c r="AO94" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AP94" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AQ94" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AR94" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AS94" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t/>
         </is>
       </c>
       <c r="AT94" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AU94" s="4" t="inlineStr">
@@ -20902,36 +20890,36 @@
     <row outlineLevel="0" r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2020</t>
+          <t>W_1202x_2030</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01_I01</t>
+          <t>Z12_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_LOCATIONS</t>
         </is>
       </c>
       <c r="D95" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E95" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G95" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;40 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="H95" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;40 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="I95" s="4" t="inlineStr">
@@ -20941,19 +20929,16 @@
       </c>
       <c r="J95" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K95" s="4" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="L95" s="7">
-        <v>2020</v>
-      </c>
-      <c r="N95" s="7">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="P95" s="4" t="inlineStr">
         <is>
@@ -20966,16 +20951,22 @@
         </is>
       </c>
       <c r="R95" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S95" s="8">
+        <v>18.9</v>
+      </c>
+      <c r="T95" s="8">
+        <v>4500</v>
       </c>
       <c r="W95" s="6" t="inlineStr">
         <is>
-          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+          <t/>
         </is>
       </c>
       <c r="X95" s="6" t="inlineStr">
         <is>
-          <t>Omission of 2020 target due to expiration of time.</t>
+          <t/>
         </is>
       </c>
       <c r="Y95" s="4" t="inlineStr">
@@ -21085,12 +21076,12 @@
       </c>
       <c r="AT95" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AU95" s="4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AV95" s="4" t="inlineStr">
@@ -21117,12 +21108,12 @@
     <row outlineLevel="0" r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2030</t>
+          <t>W_1203a_R</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C96" s="4" t="inlineStr">
@@ -21141,37 +21132,28 @@
       </c>
       <c r="G96" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Deutliche Steigerung des Anteils der Vergaben in der öffentlichen Beschaffung, bei denen Nachhaltigkeitskriterien berücksichtigt werden, so dass dies bis 2030 im Regelfall erfolgt</t>
         </is>
       </c>
       <c r="H96" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;65 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Deutliche Steigerung des Anteils der Vergaben in der öffentlichen Beschaffung, bei denen Nachhaltigkeitskriterien berücksichtigt werden, so dass dies bis 2030 im Regelfall erfolgt</t>
         </is>
       </c>
       <c r="I96" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>R</t>
         </is>
       </c>
       <c r="J96" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K96" s="4" t="inlineStr">
         <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="L96" s="7">
-        <v>2030</v>
-      </c>
-      <c r="M96" s="7">
-        <v>2020</v>
-      </c>
-      <c r="O96" s="7">
-        <v>2022</v>
+          <t/>
+        </is>
       </c>
       <c r="P96" s="4" t="inlineStr">
         <is>
@@ -21184,10 +21166,7 @@
         </is>
       </c>
       <c r="R96" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="T96" s="8">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="W96" s="6" t="inlineStr">
         <is>
@@ -21281,37 +21260,37 @@
       </c>
       <c r="AO96" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AP96" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AQ96" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AR96" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AS96" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AT96" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AU96" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AV96" s="4" t="inlineStr">
@@ -21338,12 +21317,12 @@
     <row outlineLevel="0" r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2040</t>
+          <t>W_1203b_R</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C97" s="4" t="inlineStr">
@@ -21355,184 +21334,172 @@
         <v>1</v>
       </c>
       <c r="E97" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F97" s="5" t="b">
-        <v>1</v>
-      </c>
       <c r="G97" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;88 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Signifikante Senkung</t>
         </is>
       </c>
       <c r="H97" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;88 %&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Significantly reduce</t>
         </is>
       </c>
       <c r="I97" s="4" t="inlineStr">
         <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J97" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R97" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W97" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X97" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO97" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AP97" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ97" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AR97" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS97" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="J97" s="4" t="inlineStr">
-        <is>
-          <t>sinken</t>
-        </is>
-      </c>
-      <c r="K97" s="4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="L97" s="7">
-        <v>2040</v>
-      </c>
-      <c r="M97" s="7">
-        <v>2030</v>
-      </c>
-      <c r="O97" s="7">
-        <v>2022</v>
-      </c>
-      <c r="P97" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q97" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R97" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="T97" s="8">
-        <v>18</v>
-      </c>
-      <c r="W97" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X97" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y97" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z97" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA97" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB97" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC97" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD97" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE97" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF97" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG97" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH97" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI97" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ97" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK97" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL97" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM97" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN97" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO97" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AP97" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AQ97" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AR97" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AS97" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="AT97" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AU97" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t/>
         </is>
       </c>
       <c r="AV97" s="4" t="inlineStr">
@@ -21559,12 +21526,12 @@
     <row outlineLevel="0" r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2045</t>
+          <t>W_1203c_2026</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I03</t>
         </is>
       </c>
       <c r="C98" s="4" t="inlineStr">
@@ -21576,19 +21543,19 @@
         <v>1</v>
       </c>
       <c r="E98" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G98" s="6" t="inlineStr">
         <is>
-          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2045&lt;/b&gt;</t>
+          <t>Steigerung auf 50 Prozent bis 2026</t>
         </is>
       </c>
       <c r="H98" s="4" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2045&lt;/b&gt;</t>
+          <t>XXXSteigerung auf 50 Prozent bis 2026</t>
         </is>
       </c>
       <c r="I98" s="4" t="inlineStr">
@@ -21598,50 +21565,38 @@
       </c>
       <c r="J98" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K98" s="4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L98" s="7">
-        <v>2045</v>
-      </c>
-      <c r="M98" s="7">
-        <v>2040</v>
-      </c>
-      <c r="O98" s="7">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="P98" s="4" t="inlineStr">
         <is>
-          <t>Netto-Treibhausgasneutralität</t>
+          <t/>
         </is>
       </c>
       <c r="Q98" s="4" t="inlineStr">
         <is>
-          <t>Net greenhouse gas neutrality</t>
+          <t/>
         </is>
       </c>
       <c r="R98" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="S98" s="8">
-        <v>30</v>
-      </c>
-      <c r="T98" s="8">
-        <v>2</v>
-      </c>
       <c r="W98" s="6" t="inlineStr">
         <is>
-          <t>Die Zielwerte und -jahre des Indikators wurden im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gelten für den Indikator die geänderten Ziele (65 % bis 2030, 88 % bis 2040, Erreichung der Treibhausgasneutralität bis 2045).</t>
+          <t/>
         </is>
       </c>
       <c r="X98" s="6" t="inlineStr">
         <is>
-          <t>The target values and years of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href="https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1"&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised targets (65 % by 2030, 88 % by 2040, Greenhouse-gas neutrality by 2045) have applied to the indicator.</t>
+          <t/>
         </is>
       </c>
       <c r="Y98" s="4" t="inlineStr">
@@ -21726,37 +21681,37 @@
       </c>
       <c r="AO98" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AP98" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AQ98" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AR98" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AS98" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AT98" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AU98" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t/>
         </is>
       </c>
       <c r="AV98" s="4" t="inlineStr">
@@ -21783,12 +21738,12 @@
     <row outlineLevel="0" r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>W_1301ax_2030</t>
+          <t>W_1204x_2030</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01_I01</t>
+          <t>Z12_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C99" s="4" t="inlineStr">
@@ -21797,22 +21752,22 @@
         </is>
       </c>
       <c r="D99" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;55 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Senkung auf unter 10 Prozent bis 2030</t>
         </is>
       </c>
       <c r="H99" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;55 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>XXXSenkung auf unter 10 Prozent bis 2030</t>
         </is>
       </c>
       <c r="I99" s="4" t="inlineStr">
@@ -21827,15 +21782,12 @@
       </c>
       <c r="K99" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L99" s="7">
         <v>2030</v>
       </c>
-      <c r="N99" s="7">
-        <v>2022</v>
-      </c>
       <c r="P99" s="4" t="inlineStr">
         <is>
           <t/>
@@ -21847,7 +21799,7 @@
         </is>
       </c>
       <c r="R99" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W99" s="6" t="inlineStr">
         <is>
@@ -21941,37 +21893,37 @@
       </c>
       <c r="AO99" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AP99" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AQ99" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AR99" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AS99" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t/>
         </is>
       </c>
       <c r="AT99" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AU99" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AV99" s="4" t="inlineStr">
@@ -21998,7 +21950,7 @@
     <row outlineLevel="0" r="100">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>W_1301ax_2050b</t>
+          <t>W_1301a_2020</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
@@ -22012,22 +21964,22 @@
         </is>
       </c>
       <c r="D100" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F100" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" s="6" t="inlineStr">
         <is>
-          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;40 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H100" s="4" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;40 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I100" s="4" t="inlineStr">
@@ -22042,21 +21994,15 @@
       </c>
       <c r="K100" s="4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L100" s="7">
-        <v>2050</v>
-      </c>
-      <c r="M100" s="7">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="N100" s="7">
         <v>2022</v>
       </c>
-      <c r="O100" s="7">
-        <v>2021</v>
-      </c>
       <c r="P100" s="4" t="inlineStr">
         <is>
           <t/>
@@ -22072,12 +22018,12 @@
       </c>
       <c r="W100" s="6" t="inlineStr">
         <is>
-          <t>Das Ziel des Indikators wurde im Rahmen der &lt;a href="https:///www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (Erreichung von Treibhausgas-neutralität bis 2050). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
         </is>
       </c>
       <c r="X100" s="6" t="inlineStr">
         <is>
-          <t>The target of the indicator was adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (Greenhouse-gas neutrality) had applied to the indicator. It was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
+          <t>Omission of 2020 target due to expiration of time.</t>
         </is>
       </c>
       <c r="Y100" s="4" t="inlineStr">
@@ -22192,7 +22138,7 @@
       </c>
       <c r="AU100" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AV100" s="4" t="inlineStr">
@@ -22219,7 +22165,7 @@
     <row outlineLevel="0" r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>W_1301ay_2040</t>
+          <t>W_1301a_2030</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
@@ -22233,22 +22179,22 @@
         </is>
       </c>
       <c r="D101" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;70 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H101" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;70 %&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;65 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I101" s="4" t="inlineStr">
@@ -22263,17 +22209,17 @@
       </c>
       <c r="K101" s="4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="L101" s="7">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="M101" s="7">
-        <v>2030</v>
-      </c>
-      <c r="N101" s="7">
-        <v>2021</v>
+        <v>2020</v>
+      </c>
+      <c r="O101" s="7">
+        <v>2022</v>
       </c>
       <c r="P101" s="4" t="inlineStr">
         <is>
@@ -22286,7 +22232,10 @@
         </is>
       </c>
       <c r="R101" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T101" s="8">
+        <v>41</v>
       </c>
       <c r="W101" s="6" t="inlineStr">
         <is>
@@ -22400,7 +22349,7 @@
       </c>
       <c r="AS101" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AT101" s="4" t="inlineStr">
@@ -22410,7 +22359,7 @@
       </c>
       <c r="AU101" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AV101" s="4" t="inlineStr">
@@ -22437,7 +22386,7 @@
     <row outlineLevel="0" r="102">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>W_1301ay_2050a</t>
+          <t>W_1301a_2040</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
@@ -22451,22 +22400,22 @@
         </is>
       </c>
       <c r="D102" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F102" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;95 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;88 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H102" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;80 %&lt;/b&gt; to &lt;b&gt;95 %&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;88 %&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I102" s="4" t="inlineStr">
@@ -22481,14 +22430,17 @@
       </c>
       <c r="K102" s="4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L102" s="7">
-        <v>2050</v>
-      </c>
-      <c r="N102" s="7">
-        <v>2021</v>
+        <v>2040</v>
+      </c>
+      <c r="M102" s="7">
+        <v>2030</v>
+      </c>
+      <c r="O102" s="7">
+        <v>2022</v>
       </c>
       <c r="P102" s="4" t="inlineStr">
         <is>
@@ -22501,7 +22453,10 @@
         </is>
       </c>
       <c r="R102" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T102" s="8">
+        <v>18</v>
       </c>
       <c r="W102" s="6" t="inlineStr">
         <is>
@@ -22610,22 +22565,22 @@
       </c>
       <c r="AR102" s="4" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS102" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT102" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU102" s="4" t="inlineStr">
+        <is>
           <t>L</t>
-        </is>
-      </c>
-      <c r="AS102" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AT102" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AU102" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
         </is>
       </c>
       <c r="AV102" s="4" t="inlineStr">
@@ -22652,12 +22607,12 @@
     <row outlineLevel="0" r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>W_1301b_2020</t>
+          <t>W_1301a_2045</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01_I01</t>
+          <t>Z13_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C103" s="4" t="inlineStr">
@@ -22672,16 +22627,16 @@
         <v>0</v>
       </c>
       <c r="F103" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Verdopplung&lt;/b&gt; der Finanzierung bis &lt;b&gt;2020&lt;/b&gt; gegenüber 2014</t>
+          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2045&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H103" s="4" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Double&lt;/b&gt; finance by &lt;b&gt;2020&lt;/b&gt; compared to 2014</t>
+          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2045&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I103" s="4" t="inlineStr">
@@ -22691,41 +22646,50 @@
       </c>
       <c r="J103" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K103" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L103" s="7">
-        <v>2020</v>
-      </c>
-      <c r="N103" s="7">
+        <v>2045</v>
+      </c>
+      <c r="M103" s="7">
+        <v>2040</v>
+      </c>
+      <c r="O103" s="7">
         <v>2022</v>
       </c>
       <c r="P103" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Netto-Treibhausgasneutralität</t>
         </is>
       </c>
       <c r="Q103" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Net greenhouse gas neutrality</t>
         </is>
       </c>
       <c r="R103" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S103" s="8">
+        <v>30</v>
+      </c>
+      <c r="T103" s="8">
+        <v>2</v>
       </c>
       <c r="W103" s="6" t="inlineStr">
         <is>
-          <t>Eine Verdopplung der internationalen Klimafinanzierung von 2014 entsprach einer Erhöhung auf 4 Milliarden Euro.</t>
+          <t>Die Zielwerte und -jahre des Indikators wurden im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gelten für den Indikator die geänderten Ziele (65 % bis 2030, 88 % bis 2040, Erreichung der Treibhausgasneutralität bis 2045).</t>
         </is>
       </c>
       <c r="X103" s="6" t="inlineStr">
         <is>
-          <t>A doubling of international climate finance from 2014 corresponds to an increase to 4 billion euro.</t>
+          <t>The target values and years of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href="https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1"&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised targets (65 % by 2030, 88 % by 2040, Greenhouse-gas neutrality by 2045) have applied to the indicator.</t>
         </is>
       </c>
       <c r="Y103" s="4" t="inlineStr">
@@ -22810,37 +22774,37 @@
       </c>
       <c r="AO103" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AP103" s="4" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ103" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR103" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS103" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT103" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AQ103" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AR103" s="4" t="inlineStr">
+      <c r="AU103" s="4" t="inlineStr">
         <is>
           <t>L</t>
-        </is>
-      </c>
-      <c r="AS103" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AT103" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AU103" s="4" t="inlineStr">
-        <is>
-          <t>E</t>
         </is>
       </c>
       <c r="AV103" s="4" t="inlineStr">
@@ -22867,12 +22831,12 @@
     <row outlineLevel="0" r="104">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>W_1301b_2025</t>
+          <t>W_1301ax_2030</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01_I01</t>
+          <t>Z13_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C104" s="4" t="inlineStr">
@@ -22881,22 +22845,22 @@
         </is>
       </c>
       <c r="D104" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" s="6" t="inlineStr">
         <is>
-          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens &lt;b&gt;6 Mrd.&lt;/b&gt; Euro bis spätestens &lt;b&gt;2025&lt;/b&gt;.</t>
+          <t>Minderung um mindestens &lt;b&gt;55 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H104" s="4" t="inlineStr">
         <is>
-          <t>Increase international climate finance to at least &lt;b&gt;6 billion&lt;/b&gt; euros by &lt;b&gt;2025&lt;/b&gt; at the latest.</t>
+          <t>Reduce by at least &lt;b&gt;55 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I104" s="4" t="inlineStr">
@@ -22906,21 +22870,18 @@
       </c>
       <c r="J104" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K104" s="4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>45</t>
         </is>
       </c>
       <c r="L104" s="7">
-        <v>2025</v>
-      </c>
-      <c r="M104" s="7">
-        <v>2020</v>
-      </c>
-      <c r="O104" s="7">
+        <v>2030</v>
+      </c>
+      <c r="N104" s="7">
         <v>2022</v>
       </c>
       <c r="P104" s="4" t="inlineStr">
@@ -22934,19 +22895,16 @@
         </is>
       </c>
       <c r="R104" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="T104" s="8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W104" s="6" t="inlineStr">
         <is>
-          <t>Zielwert und -jahr des Indikators wurden im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 Milliarden Euro bis spätestens 2025).</t>
+          <t/>
         </is>
       </c>
       <c r="X104" s="6" t="inlineStr">
         <is>
-          <t>The target value and year of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href="https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1"&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised target (6 billion euros by 2025 at the latest) has applied to the indicator.</t>
+          <t/>
         </is>
       </c>
       <c r="Y104" s="4" t="inlineStr">
@@ -23031,17 +22989,17 @@
       </c>
       <c r="AO104" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AP104" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AQ104" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AR104" s="4" t="inlineStr">
@@ -23051,7 +23009,7 @@
       </c>
       <c r="AS104" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AT104" s="4" t="inlineStr">
@@ -23088,12 +23046,12 @@
     <row outlineLevel="0" r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>W_1401aa_J</t>
+          <t>W_1301ax_2050b</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I01</t>
+          <t>Z13_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C105" s="4" t="inlineStr">
@@ -23102,27 +23060,27 @@
         </is>
       </c>
       <c r="D105" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" s="6" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H105" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
+          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I105" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J105" s="4" t="inlineStr">
@@ -23132,33 +23090,42 @@
       </c>
       <c r="K105" s="4" t="inlineStr">
         <is>
-          <t>2,6</t>
-        </is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L105" s="7">
+        <v>2050</v>
+      </c>
+      <c r="M105" s="7">
+        <v>2040</v>
+      </c>
+      <c r="N105" s="7">
+        <v>2022</v>
+      </c>
+      <c r="O105" s="7">
+        <v>2021</v>
       </c>
       <c r="P105" s="4" t="inlineStr">
         <is>
-          <t>Jährliches Ziel Ostsee: 2,6</t>
+          <t/>
         </is>
       </c>
       <c r="Q105" s="4" t="inlineStr">
         <is>
-          <t>Annual target Baltic Sea: 2,6</t>
+          <t/>
         </is>
       </c>
       <c r="R105" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="T105" s="8">
-        <v>2.67</v>
+        <v>0</v>
       </c>
       <c r="W105" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Das Ziel des Indikators wurde im Rahmen der &lt;a href="https:///www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (Erreichung von Treibhausgas-neutralität bis 2050). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
         </is>
       </c>
       <c r="X105" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>The target of the indicator was adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (Greenhouse-gas neutrality) had applied to the indicator. It was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
         </is>
       </c>
       <c r="Y105" s="4" t="inlineStr">
@@ -23238,42 +23205,42 @@
       </c>
       <c r="AN105" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO105" s="4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AO105" s="4" t="inlineStr">
+      <c r="AP105" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AP105" s="4" t="inlineStr">
+      <c r="AQ105" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AQ105" s="4" t="inlineStr">
+      <c r="AR105" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AR105" s="4" t="inlineStr">
+      <c r="AS105" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AS105" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="AT105" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AU105" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AV105" s="4" t="inlineStr">
@@ -23300,12 +23267,12 @@
     <row outlineLevel="0" r="106">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>W_1401ab_J</t>
+          <t>W_1301ay_2040</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I02</t>
+          <t>Z13_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C106" s="4" t="inlineStr">
@@ -23314,27 +23281,27 @@
         </is>
       </c>
       <c r="D106" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" s="6" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Minderung um mindestens &lt;b&gt;70 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H106" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
+          <t>Reduce by at least &lt;b&gt;70 %&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I106" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J106" s="4" t="inlineStr">
@@ -23344,24 +23311,30 @@
       </c>
       <c r="K106" s="4" t="inlineStr">
         <is>
-          <t>2,8</t>
-        </is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L106" s="7">
+        <v>2040</v>
+      </c>
+      <c r="M106" s="7">
+        <v>2030</v>
+      </c>
+      <c r="N106" s="7">
+        <v>2021</v>
       </c>
       <c r="P106" s="4" t="inlineStr">
         <is>
-          <t>Jährliches Ziel Nordsee: 2,8</t>
+          <t/>
         </is>
       </c>
       <c r="Q106" s="4" t="inlineStr">
         <is>
-          <t>Annual target North Sea: 2,8</t>
+          <t/>
         </is>
       </c>
       <c r="R106" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="T106" s="8">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="W106" s="6" t="inlineStr">
         <is>
@@ -23450,32 +23423,32 @@
       </c>
       <c r="AN106" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO106" s="4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AO106" s="4" t="inlineStr">
+      <c r="AP106" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AP106" s="4" t="inlineStr">
+      <c r="AQ106" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AQ106" s="4" t="inlineStr">
+      <c r="AR106" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AR106" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="AS106" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AT106" s="4" t="inlineStr">
@@ -23485,7 +23458,7 @@
       </c>
       <c r="AU106" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AV106" s="4" t="inlineStr">
@@ -23512,36 +23485,36 @@
     <row outlineLevel="0" r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>W_1401b_2020</t>
+          <t>W_1301ay_2050a</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01</t>
+          <t>Z13_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C107" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_COMMEXPL</t>
+          <t/>
         </is>
       </c>
       <c r="D107" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" s="6" t="inlineStr">
         <is>
-          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
+          <t>Minderung um mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;95 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H107" s="4" t="inlineStr">
         <is>
-          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
+          <t>Reduce by at least &lt;b&gt;80 %&lt;/b&gt; to &lt;b&gt;95 %&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I107" s="4" t="inlineStr">
@@ -23551,16 +23524,19 @@
       </c>
       <c r="J107" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K107" s="4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>80</t>
         </is>
       </c>
       <c r="L107" s="7">
-        <v>2020</v>
+        <v>2050</v>
+      </c>
+      <c r="N107" s="7">
+        <v>2021</v>
       </c>
       <c r="P107" s="4" t="inlineStr">
         <is>
@@ -23573,13 +23549,7 @@
         </is>
       </c>
       <c r="R107" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S107" s="8">
-        <v>16.9</v>
-      </c>
-      <c r="T107" s="8">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="W107" s="6" t="inlineStr">
         <is>
@@ -23668,42 +23638,42 @@
       </c>
       <c r="AN107" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO107" s="4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AO107" s="4" t="inlineStr">
+      <c r="AP107" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AP107" s="4" t="inlineStr">
+      <c r="AQ107" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AQ107" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="AR107" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AS107" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AT107" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AU107" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AV107" s="4" t="inlineStr">
@@ -23730,12 +23700,12 @@
     <row outlineLevel="0" r="108">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>W_1501x_2030</t>
+          <t>W_1301b_2020</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01</t>
+          <t>Z13_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="C108" s="4" t="inlineStr">
@@ -23747,19 +23717,19 @@
         <v>1</v>
       </c>
       <c r="E108" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" s="6" t="inlineStr">
         <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
+          <t>&lt;b&gt;Verdopplung&lt;/b&gt; der Finanzierung bis &lt;b&gt;2020&lt;/b&gt; gegenüber 2014</t>
         </is>
       </c>
       <c r="H108" s="4" t="inlineStr">
         <is>
-          <t>Reach the index value of 100 by 2030</t>
+          <t>&lt;b&gt;Double&lt;/b&gt; finance by &lt;b&gt;2020&lt;/b&gt; compared to 2014</t>
         </is>
       </c>
       <c r="I108" s="4" t="inlineStr">
@@ -23774,11 +23744,14 @@
       </c>
       <c r="K108" s="4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L108" s="7">
-        <v>2030</v>
+        <v>2020</v>
+      </c>
+      <c r="N108" s="7">
+        <v>2022</v>
       </c>
       <c r="P108" s="4" t="inlineStr">
         <is>
@@ -23791,22 +23764,16 @@
         </is>
       </c>
       <c r="R108" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S108" s="8">
-        <v>28.8</v>
-      </c>
-      <c r="T108" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W108" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Eine Verdopplung der internationalen Klimafinanzierung von 2014 entsprach einer Erhöhung auf 4 Milliarden Euro.</t>
         </is>
       </c>
       <c r="X108" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>A doubling of international climate finance from 2014 corresponds to an increase to 4 billion euro.</t>
         </is>
       </c>
       <c r="Y108" s="4" t="inlineStr">
@@ -23866,62 +23833,62 @@
       </c>
       <c r="AJ108" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AK108" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AL108" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AM108" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AN108" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AO108" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AP108" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AQ108" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AR108" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AS108" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AT108" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AU108" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>E</t>
         </is>
       </c>
       <c r="AV108" s="4" t="inlineStr">
@@ -23948,12 +23915,12 @@
     <row outlineLevel="0" r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>W_1502x_2030</t>
+          <t>W_1301b_2025</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01_I01</t>
+          <t>Z13_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="C109" s="4" t="inlineStr">
@@ -23972,12 +23939,12 @@
       </c>
       <c r="G109" s="6" t="inlineStr">
         <is>
-          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
+          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens &lt;b&gt;6 Mrd.&lt;/b&gt; Euro bis spätestens &lt;b&gt;2025&lt;/b&gt;.</t>
         </is>
       </c>
       <c r="H109" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 35% by 2030 compared to 2005</t>
+          <t>Increase international climate finance to at least &lt;b&gt;6 billion&lt;/b&gt; euros by &lt;b&gt;2025&lt;/b&gt; at the latest.</t>
         </is>
       </c>
       <c r="I109" s="4" t="inlineStr">
@@ -23987,43 +23954,47 @@
       </c>
       <c r="J109" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K109" s="4" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L109" s="7">
-        <v>2030</v>
+        <v>2025</v>
+      </c>
+      <c r="M109" s="7">
+        <v>2020</v>
+      </c>
+      <c r="O109" s="7">
+        <v>2022</v>
       </c>
       <c r="P109" s="4" t="inlineStr">
         <is>
-          <t>Ziel: 
-52</t>
+          <t/>
         </is>
       </c>
       <c r="Q109" s="4" t="inlineStr">
         <is>
-          <t>Target:
-52</t>
+          <t/>
         </is>
       </c>
       <c r="R109" s="5" t="b">
         <v>1</v>
       </c>
       <c r="T109" s="8">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="W109" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Zielwert und -jahr des Indikators wurden im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 Milliarden Euro bis spätestens 2025).</t>
         </is>
       </c>
       <c r="X109" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>The target value and year of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href="https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1"&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised target (6 billion euros by 2025 at the latest) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y109" s="4" t="inlineStr">
@@ -24058,7 +24029,7 @@
       </c>
       <c r="AE109" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AF109" s="4" t="inlineStr">
@@ -24083,7 +24054,7 @@
       </c>
       <c r="AJ109" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AK109" s="4" t="inlineStr">
@@ -24108,37 +24079,37 @@
       </c>
       <c r="AO109" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AP109" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AQ109" s="4" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR109" s="4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AR109" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="AS109" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AT109" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AU109" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AV109" s="4" t="inlineStr">
@@ -24165,12 +24136,12 @@
     <row outlineLevel="0" r="110">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>W_1503a_R</t>
+          <t>W_1401aa_J</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C110" s="4" t="inlineStr">
@@ -24185,45 +24156,48 @@
         <v>1</v>
       </c>
       <c r="F110" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" s="6" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="H110" s="4" t="inlineStr">
         <is>
-          <t>Increase payments by 2030</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
         </is>
       </c>
       <c r="I110" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>J</t>
         </is>
       </c>
       <c r="J110" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K110" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>2,6</t>
         </is>
       </c>
       <c r="P110" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Jährliches Ziel Ostsee: 2,6</t>
         </is>
       </c>
       <c r="Q110" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Annual target Baltic Sea: 2,6</t>
         </is>
       </c>
       <c r="R110" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T110" s="8">
+        <v>2.67</v>
       </c>
       <c r="W110" s="6" t="inlineStr">
         <is>
@@ -24312,37 +24286,37 @@
       </c>
       <c r="AN110" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AO110" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AP110" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AQ110" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AR110" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AS110" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AT110" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AU110" s="4" t="inlineStr">
@@ -24374,12 +24348,12 @@
     <row outlineLevel="0" r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>W_1503b_R</t>
+          <t>W_1401ab_J</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I02</t>
+          <t>Z14_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C111" s="4" t="inlineStr">
@@ -24394,45 +24368,48 @@
         <v>1</v>
       </c>
       <c r="F111" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" s="6" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="H111" s="4" t="inlineStr">
         <is>
-          <t>Increase payments by 2030</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
         </is>
       </c>
       <c r="I111" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>J</t>
         </is>
       </c>
       <c r="J111" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K111" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>2,8</t>
         </is>
       </c>
       <c r="P111" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Jährliches Ziel Nordsee: 2,8</t>
         </is>
       </c>
       <c r="Q111" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Annual target North Sea: 2,8</t>
         </is>
       </c>
       <c r="R111" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T111" s="8">
+        <v>2.87</v>
       </c>
       <c r="W111" s="6" t="inlineStr">
         <is>
@@ -24521,37 +24498,37 @@
       </c>
       <c r="AN111" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AO111" s="4" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP111" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ111" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AR111" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AS111" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT111" s="4" t="inlineStr">
+        <is>
           <t>S</t>
-        </is>
-      </c>
-      <c r="AP111" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AQ111" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AR111" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AS111" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AT111" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
         </is>
       </c>
       <c r="AU111" s="4" t="inlineStr">
@@ -24583,17 +24560,17 @@
     <row outlineLevel="0" r="112">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>W_1601_2030</t>
+          <t>W_1401b_2020</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="C112" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_COMMEXPL</t>
         </is>
       </c>
       <c r="D112" s="5" t="b">
@@ -24607,12 +24584,12 @@
       </c>
       <c r="G112" s="6" t="inlineStr">
         <is>
-          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/-innen auf unter &lt;b&gt;6 500&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
         </is>
       </c>
       <c r="H112" s="4" t="inlineStr">
         <is>
-          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than &lt;b&gt;6,500 &lt;/b&gt;by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
         </is>
       </c>
       <c r="I112" s="4" t="inlineStr">
@@ -24622,19 +24599,16 @@
       </c>
       <c r="J112" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K112" s="4" t="inlineStr">
         <is>
-          <t>6500</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L112" s="7">
-        <v>2030</v>
-      </c>
-      <c r="O112" s="7">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P112" s="4" t="inlineStr">
         <is>
@@ -24650,19 +24624,19 @@
         <v>1</v>
       </c>
       <c r="S112" s="8">
-        <v>30.8</v>
+        <v>16.9</v>
       </c>
       <c r="T112" s="8">
-        <v>7400</v>
+        <v>90</v>
       </c>
       <c r="W112" s="6" t="inlineStr">
         <is>
-          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https:///www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 500 bis 2030).</t>
+          <t/>
         </is>
       </c>
       <c r="X112" s="6" t="inlineStr">
         <is>
-          <t>The target value and year of the indicator were adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (6,500 by 2030) has applied to the indicator.</t>
+          <t/>
         </is>
       </c>
       <c r="Y112" s="4" t="inlineStr">
@@ -24742,42 +24716,42 @@
       </c>
       <c r="AN112" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AO112" s="4" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP112" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ112" s="4" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AP112" s="4" t="inlineStr">
+      <c r="AR112" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AQ112" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AR112" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
       <c r="AS112" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AT112" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AU112" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AV112" s="4" t="inlineStr">
@@ -24804,12 +24778,12 @@
     <row outlineLevel="0" r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>W_1601x_2030</t>
+          <t>W_1501x_2030</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z15_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
@@ -24818,22 +24792,22 @@
         </is>
       </c>
       <c r="D113" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" s="6" t="inlineStr">
         <is>
-          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/-innen auf unter &lt;b&gt;7 000&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="H113" s="4" t="inlineStr">
         <is>
-          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than &lt;b&gt;7,000&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Reach the index value of 100 by 2030</t>
         </is>
       </c>
       <c r="I113" s="4" t="inlineStr">
@@ -24843,20 +24817,17 @@
       </c>
       <c r="J113" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K113" s="4" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L113" s="7">
         <v>2030</v>
       </c>
-      <c r="N113" s="7">
-        <v>2021</v>
-      </c>
       <c r="P113" s="4" t="inlineStr">
         <is>
           <t/>
@@ -24868,7 +24839,13 @@
         </is>
       </c>
       <c r="R113" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S113" s="8">
+        <v>28.8</v>
+      </c>
+      <c r="T113" s="8">
+        <v>100</v>
       </c>
       <c r="W113" s="6" t="inlineStr">
         <is>
@@ -24937,62 +24914,62 @@
       </c>
       <c r="AJ113" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AK113" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AL113" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AM113" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AN113" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AO113" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AP113" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AQ113" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AR113" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AS113" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AT113" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AU113" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AV113" s="4" t="inlineStr">
@@ -25019,12 +24996,12 @@
     <row outlineLevel="0" r="114">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>W_1602x_J</t>
+          <t>W_1502x_2030</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01</t>
+          <t>Z15_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C114" s="4" t="inlineStr">
@@ -25043,44 +25020,49 @@
       </c>
       <c r="G114" s="6" t="inlineStr">
         <is>
-          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
+          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
         </is>
       </c>
       <c r="H114" s="4" t="inlineStr">
         <is>
-          <t>At least 15 projects per year by 2030</t>
+          <t>Reduction by 35% by 2030 compared to 2005</t>
         </is>
       </c>
       <c r="I114" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J114" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K114" s="4" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L114" s="7">
+        <v>2030</v>
       </c>
       <c r="P114" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ziel: 
+52</t>
         </is>
       </c>
       <c r="Q114" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Target:
+52</t>
         </is>
       </c>
       <c r="R114" s="5" t="b">
         <v>1</v>
       </c>
       <c r="T114" s="8">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="W114" s="6" t="inlineStr">
         <is>
@@ -25124,7 +25106,7 @@
       </c>
       <c r="AE114" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AF114" s="4" t="inlineStr">
@@ -25149,7 +25131,7 @@
       </c>
       <c r="AJ114" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AK114" s="4" t="inlineStr">
@@ -25174,37 +25156,37 @@
       </c>
       <c r="AO114" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AP114" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AQ114" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AR114" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AS114" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AT114" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AU114" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AV114" s="4" t="inlineStr">
@@ -25231,12 +25213,12 @@
     <row outlineLevel="0" r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>W_1603a_R</t>
+          <t>W_1503a_R</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01</t>
+          <t>Z15_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="C115" s="4" t="inlineStr">
@@ -25255,12 +25237,12 @@
       </c>
       <c r="G115" s="6" t="inlineStr">
         <is>
-          <t>Verbesserung gegenüber 2012 bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="H115" s="4" t="inlineStr">
         <is>
-          <t>Improvement by 2030, compared to 2012</t>
+          <t>Increase payments by 2030</t>
         </is>
       </c>
       <c r="I115" s="4" t="inlineStr">
@@ -25378,42 +25360,42 @@
       </c>
       <c r="AN115" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AO115" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AP115" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AQ115" s="4" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR115" s="4" t="inlineStr">
+        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AR115" s="4" t="inlineStr">
+      <c r="AS115" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT115" s="4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AS115" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AT115" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="AU115" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AV115" s="4" t="inlineStr">
@@ -25440,12 +25422,12 @@
     <row outlineLevel="0" r="116">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>W_1603b_R</t>
+          <t>W_1503b_R</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02</t>
+          <t>Z15_B02_P02_Ib01_I02</t>
         </is>
       </c>
       <c r="C116" s="4" t="inlineStr">
@@ -25464,12 +25446,12 @@
       </c>
       <c r="G116" s="6" t="inlineStr">
         <is>
-          <t>Verbesserung gegenüber 2012 bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="H116" s="4" t="inlineStr">
         <is>
-          <t>Improvement by 2030, compared to 2012</t>
+          <t>Increase payments by 2030</t>
         </is>
       </c>
       <c r="I116" s="4" t="inlineStr">
@@ -25498,7 +25480,7 @@
         </is>
       </c>
       <c r="R116" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W116" s="6" t="inlineStr">
         <is>
@@ -25587,42 +25569,42 @@
       </c>
       <c r="AN116" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AO116" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AP116" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AQ116" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AR116" s="4" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS116" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT116" s="4" t="inlineStr">
+        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AS116" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AT116" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
       <c r="AU116" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AV116" s="4" t="inlineStr">
@@ -25649,17 +25631,17 @@
     <row outlineLevel="0" r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>W_1701x_2030</t>
+          <t>W_1601_2030</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z16_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C117" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_GRANTEQU</t>
+          <t/>
         </is>
       </c>
       <c r="D117" s="5" t="b">
@@ -25673,12 +25655,12 @@
       </c>
       <c r="G117" s="6" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/-innen auf unter &lt;b&gt;6 500&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H117" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than &lt;b&gt;6,500 &lt;/b&gt;by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I117" s="4" t="inlineStr">
@@ -25688,17 +25670,20 @@
       </c>
       <c r="J117" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K117" s="4" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>6500</t>
         </is>
       </c>
       <c r="L117" s="7">
         <v>2030</v>
       </c>
+      <c r="O117" s="7">
+        <v>2021</v>
+      </c>
       <c r="P117" s="4" t="inlineStr">
         <is>
           <t/>
@@ -25713,19 +25698,19 @@
         <v>1</v>
       </c>
       <c r="S117" s="8">
-        <v>28.8</v>
+        <v>30.8</v>
       </c>
       <c r="T117" s="8">
-        <v>0.8</v>
+        <v>7400</v>
       </c>
       <c r="W117" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https:///www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 500 bis 2030).</t>
         </is>
       </c>
       <c r="X117" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (6,500 by 2030) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y117" s="4" t="inlineStr">
@@ -25810,12 +25795,12 @@
       </c>
       <c r="AO117" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AP117" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AQ117" s="4" t="inlineStr">
@@ -25867,12 +25852,12 @@
     <row outlineLevel="0" r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>W_1702x_2020</t>
+          <t>W_1601x_2030</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z16_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C118" s="4" t="inlineStr">
@@ -25881,7 +25866,7 @@
         </is>
       </c>
       <c r="D118" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" s="5" t="b">
         <v>0</v>
@@ -25891,12 +25876,12 @@
       </c>
       <c r="G118" s="6" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/-innen auf unter &lt;b&gt;7 000&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H118" s="4" t="inlineStr">
         <is>
-          <t>Increase the number by 10 % from 2015 to 2020</t>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than &lt;b&gt;7,000&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I118" s="4" t="inlineStr">
@@ -25906,16 +25891,19 @@
       </c>
       <c r="J118" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K118" s="4" t="inlineStr">
         <is>
-          <t>237000</t>
+          <t>7000</t>
         </is>
       </c>
       <c r="L118" s="7">
-        <v>2020</v>
+        <v>2030</v>
+      </c>
+      <c r="N118" s="7">
+        <v>2021</v>
       </c>
       <c r="P118" s="4" t="inlineStr">
         <is>
@@ -25932,12 +25920,12 @@
       </c>
       <c r="W118" s="6" t="inlineStr">
         <is>
-          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+          <t/>
         </is>
       </c>
       <c r="X118" s="6" t="inlineStr">
         <is>
-          <t>Omission of 2020 target due to expiration of time.</t>
+          <t/>
         </is>
       </c>
       <c r="Y118" s="4" t="inlineStr">
@@ -26022,37 +26010,37 @@
       </c>
       <c r="AO118" s="4" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AP118" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AQ118" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AP118" s="4" t="inlineStr">
+      <c r="AR118" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AQ118" s="4" t="inlineStr">
+      <c r="AS118" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AR118" s="4" t="inlineStr">
+      <c r="AT118" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AS118" s="4" t="inlineStr">
+      <c r="AU118" s="4" t="inlineStr">
         <is>
           <t>S</t>
-        </is>
-      </c>
-      <c r="AT118" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AU118" s="4" t="inlineStr">
-        <is>
-          <t>E</t>
         </is>
       </c>
       <c r="AV118" s="4" t="inlineStr">
@@ -26079,12 +26067,12 @@
     <row outlineLevel="0" r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>W_1702x_J</t>
+          <t>W_1602x_J</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C119" s="4" t="inlineStr">
@@ -26103,12 +26091,12 @@
       </c>
       <c r="G119" s="6" t="inlineStr">
         <is>
-          <t>Verstetigung des Zielwertes von 2020</t>
+          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="H119" s="4" t="inlineStr">
         <is>
-          <t>Steadying the 2020 target value</t>
+          <t>At least 15 projects per year by 2030</t>
         </is>
       </c>
       <c r="I119" s="4" t="inlineStr">
@@ -26123,30 +26111,24 @@
       </c>
       <c r="K119" s="4" t="inlineStr">
         <is>
-          <t>237000</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P119" s="4" t="inlineStr">
         <is>
-          <t>Ziel: 237 000</t>
+          <t/>
         </is>
       </c>
       <c r="Q119" s="4" t="inlineStr">
         <is>
-          <t>Target: 237,000</t>
+          <t/>
         </is>
       </c>
       <c r="R119" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="S119" s="8">
-        <v>16</v>
-      </c>
       <c r="T119" s="8">
-        <v>255000</v>
-      </c>
-      <c r="U119" s="7">
-        <v>2019</v>
+        <v>18</v>
       </c>
       <c r="W119" s="6" t="inlineStr">
         <is>
@@ -26240,32 +26222,32 @@
       </c>
       <c r="AO119" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AP119" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AQ119" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AR119" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AS119" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AT119" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AU119" s="4" t="inlineStr">
@@ -26297,216 +26279,1282 @@
     <row outlineLevel="0" r="120">
       <c r="A120" s="4" t="inlineStr">
         <is>
+          <t>W_1603a_R</t>
+        </is>
+      </c>
+      <c r="B120" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D120" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" s="6" t="inlineStr">
+        <is>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
+        </is>
+      </c>
+      <c r="H120" s="4" t="inlineStr">
+        <is>
+          <t>Improvement by 2030, compared to 2012</t>
+        </is>
+      </c>
+      <c r="I120" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J120" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R120" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W120" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X120" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO120" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AP120" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AQ120" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AR120" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AS120" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AT120" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AU120" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AV120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY120" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="121">
+      <c r="A121" s="4" t="inlineStr">
+        <is>
+          <t>W_1603b_R</t>
+        </is>
+      </c>
+      <c r="B121" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B03_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="C121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D121" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F121" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G121" s="6" t="inlineStr">
+        <is>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
+        </is>
+      </c>
+      <c r="H121" s="4" t="inlineStr">
+        <is>
+          <t>Improvement by 2030, compared to 2012</t>
+        </is>
+      </c>
+      <c r="I121" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J121" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R121" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W121" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X121" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO121" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AP121" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ121" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AR121" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AS121" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT121" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU121" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AV121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY121" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="122">
+      <c r="A122" s="4" t="inlineStr">
+        <is>
+          <t>W_1701x_2030</t>
+        </is>
+      </c>
+      <c r="B122" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C122" s="4" t="inlineStr">
+        <is>
+          <t>A_CALCMETH_GRANTEQU</t>
+        </is>
+      </c>
+      <c r="D122" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" s="6" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
+        </is>
+      </c>
+      <c r="H122" s="4" t="inlineStr">
+        <is>
+          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
+        </is>
+      </c>
+      <c r="I122" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J122" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K122" s="4" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="L122" s="7">
+        <v>2030</v>
+      </c>
+      <c r="P122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R122" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S122" s="8">
+        <v>28.8</v>
+      </c>
+      <c r="T122" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="W122" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X122" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO122" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP122" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ122" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR122" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS122" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT122" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU122" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AV122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY122" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="123">
+      <c r="A123" s="4" t="inlineStr">
+        <is>
+          <t>W_1702x_2020</t>
+        </is>
+      </c>
+      <c r="B123" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D123" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E123" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G123" s="6" t="inlineStr">
+        <is>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
+        </is>
+      </c>
+      <c r="H123" s="4" t="inlineStr">
+        <is>
+          <t>Increase the number by 10 % from 2015 to 2020</t>
+        </is>
+      </c>
+      <c r="I123" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J123" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K123" s="4" t="inlineStr">
+        <is>
+          <t>237000</t>
+        </is>
+      </c>
+      <c r="L123" s="7">
+        <v>2020</v>
+      </c>
+      <c r="P123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R123" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W123" s="6" t="inlineStr">
+        <is>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+        </is>
+      </c>
+      <c r="X123" s="6" t="inlineStr">
+        <is>
+          <t>Omission of 2020 target due to expiration of time.</t>
+        </is>
+      </c>
+      <c r="Y123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO123" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP123" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ123" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR123" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS123" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT123" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU123" s="4" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="AV123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY123" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="124">
+      <c r="A124" s="4" t="inlineStr">
+        <is>
+          <t>W_1702x_J</t>
+        </is>
+      </c>
+      <c r="B124" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D124" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E124" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F124" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G124" s="6" t="inlineStr">
+        <is>
+          <t>Verstetigung des Zielwertes von 2020</t>
+        </is>
+      </c>
+      <c r="H124" s="4" t="inlineStr">
+        <is>
+          <t>Steadying the 2020 target value</t>
+        </is>
+      </c>
+      <c r="I124" s="4" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J124" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K124" s="4" t="inlineStr">
+        <is>
+          <t>237000</t>
+        </is>
+      </c>
+      <c r="P124" s="4" t="inlineStr">
+        <is>
+          <t>Ziel: 237 000</t>
+        </is>
+      </c>
+      <c r="Q124" s="4" t="inlineStr">
+        <is>
+          <t>Target: 237,000</t>
+        </is>
+      </c>
+      <c r="R124" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S124" s="8">
+        <v>16</v>
+      </c>
+      <c r="T124" s="8">
+        <v>255000</v>
+      </c>
+      <c r="U124" s="7">
+        <v>2019</v>
+      </c>
+      <c r="W124" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X124" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU124" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AV124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY124" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="125">
+      <c r="A125" s="4" t="inlineStr">
+        <is>
           <t>W_1703x_J</t>
         </is>
       </c>
-      <c r="B120" s="4" t="inlineStr">
+      <c r="B125" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="C120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D120" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E120" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F120" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G120" s="6" t="inlineStr">
+      <c r="C125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D125" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F125" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G125" s="6" t="inlineStr">
         <is>
           <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
-      <c r="H120" s="4" t="inlineStr">
+      <c r="H125" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
         </is>
       </c>
-      <c r="I120" s="4" t="inlineStr">
+      <c r="I125" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="J120" s="4" t="inlineStr">
+      <c r="J125" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="K120" s="4" t="inlineStr">
+      <c r="K125" s="4" t="inlineStr">
         <is>
           <t>1,43</t>
         </is>
       </c>
-      <c r="L120" s="7">
+      <c r="L125" s="7">
         <v>2030</v>
       </c>
-      <c r="P120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R120" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S120" s="8">
+      <c r="P125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R125" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S125" s="8">
         <v>21</v>
       </c>
-      <c r="T120" s="8">
+      <c r="T125" s="8">
         <v>1.45</v>
       </c>
-      <c r="W120" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X120" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO120" s="4" t="inlineStr">
+      <c r="W125" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X125" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO125" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AP120" s="4" t="inlineStr">
+      <c r="AP125" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AQ120" s="4" t="inlineStr">
+      <c r="AQ125" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AR120" s="4" t="inlineStr">
+      <c r="AR125" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AS120" s="4" t="inlineStr">
+      <c r="AS125" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AT120" s="4" t="inlineStr">
+      <c r="AT125" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AU120" s="4" t="inlineStr">
+      <c r="AU125" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AV120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AW120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AX120" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AY120" s="4" t="inlineStr">
+      <c r="AV125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY125" s="4" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -21128,7 +21128,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" s="6" t="inlineStr">
         <is>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -19435,7 +19435,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" s="6" t="inlineStr">
         <is>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -551,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY125"/>
+  <dimension ref="A1:AY128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -13683,10 +13683,10 @@
         <v>1</v>
       </c>
       <c r="S61" s="8">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="T61" s="8">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="W61" s="6" t="inlineStr">
         <is>
@@ -17940,12 +17940,12 @@
       </c>
       <c r="G81" s="6" t="inlineStr">
         <is>
-          <t>"Netto-Null" bis 2030</t>
+          <t>Netto-Null bis 2030</t>
         </is>
       </c>
       <c r="H81" s="4" t="inlineStr">
         <is>
-          <t>XXX"Netto-Null" bis 2030</t>
+          <t>XXXNetto-Null bis 2030</t>
         </is>
       </c>
       <c r="I81" s="4" t="inlineStr">
@@ -18616,10 +18616,10 @@
         <v>1</v>
       </c>
       <c r="S84" s="8">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="T84" s="8">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="W84" s="6" t="inlineStr">
         <is>
@@ -18837,10 +18837,10 @@
         <v>1</v>
       </c>
       <c r="S85" s="8">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="T85" s="8">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="W85" s="6" t="inlineStr">
         <is>
@@ -23939,12 +23939,12 @@
       </c>
       <c r="G109" s="6" t="inlineStr">
         <is>
-          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens &lt;b&gt;6 Mrd.&lt;/b&gt; Euro bis spätestens &lt;b&gt;2025&lt;/b&gt;.</t>
+          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens &lt;b&gt;6 Mrd.&lt;/b&gt; Euro bis spätestens &lt;b&gt;2025&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H109" s="4" t="inlineStr">
         <is>
-          <t>Increase international climate finance to at least &lt;b&gt;6 billion&lt;/b&gt; euros by &lt;b&gt;2025&lt;/b&gt; at the latest.</t>
+          <t>Increase international climate finance to at least &lt;b&gt;6 billion&lt;/b&gt; euros by &lt;b&gt;2025&lt;/b&gt; at the latest</t>
         </is>
       </c>
       <c r="I109" s="4" t="inlineStr">
@@ -24574,13 +24574,13 @@
         </is>
       </c>
       <c r="D112" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" s="6" t="inlineStr">
         <is>
@@ -24609,6 +24609,9 @@
       </c>
       <c r="L112" s="7">
         <v>2020</v>
+      </c>
+      <c r="N112" s="7">
+        <v>2025</v>
       </c>
       <c r="P112" s="4" t="inlineStr">
         <is>
@@ -24778,17 +24781,17 @@
     <row outlineLevel="0" r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>W_1501x_2030</t>
+          <t>W_1401b_2030</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_COMMEXPL</t>
         </is>
       </c>
       <c r="D113" s="5" t="b">
@@ -24802,12 +24805,12 @@
       </c>
       <c r="G113" s="6" t="inlineStr">
         <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
+          <t>Anteil nachhaltig bewirtschafteter Fischbestände in Nord- und Ostsee an allen MSY-untersuchten Beständen soll bis 2030 100 % betragen</t>
         </is>
       </c>
       <c r="H113" s="4" t="inlineStr">
         <is>
-          <t>Reach the index value of 100 by 2030</t>
+          <t>XXXAnteil nachhaltig bewirtschafteter Fischbestände in Nord- und Ostsee an allen MSY-untersuchten Beständen soll bis 2030 100 Prozent betragen</t>
         </is>
       </c>
       <c r="I113" s="4" t="inlineStr">
@@ -24828,6 +24831,9 @@
       <c r="L113" s="7">
         <v>2030</v>
       </c>
+      <c r="O113" s="7">
+        <v>2025</v>
+      </c>
       <c r="P113" s="4" t="inlineStr">
         <is>
           <t/>
@@ -24842,10 +24848,10 @@
         <v>1</v>
       </c>
       <c r="S113" s="8">
-        <v>28.8</v>
+        <v>18.9</v>
       </c>
       <c r="T113" s="8">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="W113" s="6" t="inlineStr">
         <is>
@@ -24914,37 +24920,37 @@
       </c>
       <c r="AJ113" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AK113" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AL113" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AM113" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AN113" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AO113" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AP113" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AQ113" s="4" t="inlineStr">
@@ -24996,12 +25002,12 @@
     <row outlineLevel="0" r="114">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>W_1502x_2030</t>
+          <t>W_1501x_2030</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01_I01</t>
+          <t>Z15_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C114" s="4" t="inlineStr">
@@ -25020,12 +25026,12 @@
       </c>
       <c r="G114" s="6" t="inlineStr">
         <is>
-          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="H114" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 35% by 2030 compared to 2005</t>
+          <t>Reach the index value of 100 by 2030</t>
         </is>
       </c>
       <c r="I114" s="4" t="inlineStr">
@@ -25035,12 +25041,12 @@
       </c>
       <c r="J114" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K114" s="4" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L114" s="7">
@@ -25048,21 +25054,22 @@
       </c>
       <c r="P114" s="4" t="inlineStr">
         <is>
-          <t>Ziel: 
-52</t>
+          <t/>
         </is>
       </c>
       <c r="Q114" s="4" t="inlineStr">
         <is>
-          <t>Target:
-52</t>
+          <t/>
         </is>
       </c>
       <c r="R114" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="S114" s="8">
+        <v>28.8</v>
+      </c>
       <c r="T114" s="8">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="W114" s="6" t="inlineStr">
         <is>
@@ -25106,7 +25113,7 @@
       </c>
       <c r="AE114" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AF114" s="4" t="inlineStr">
@@ -25131,52 +25138,52 @@
       </c>
       <c r="AJ114" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AK114" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AL114" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AM114" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AN114" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AO114" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AP114" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AQ114" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AR114" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AS114" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AT114" s="4" t="inlineStr">
@@ -25213,12 +25220,12 @@
     <row outlineLevel="0" r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>W_1503a_R</t>
+          <t>W_1502x_2030</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I01</t>
+          <t>Z15_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C115" s="4" t="inlineStr">
@@ -25233,45 +25240,53 @@
         <v>1</v>
       </c>
       <c r="F115" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" s="6" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
         </is>
       </c>
       <c r="H115" s="4" t="inlineStr">
         <is>
-          <t>Increase payments by 2030</t>
+          <t>Reduction by 35% by 2030 compared to 2005</t>
         </is>
       </c>
       <c r="I115" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J115" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K115" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L115" s="7">
+        <v>2030</v>
       </c>
       <c r="P115" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ziel: 
+52</t>
         </is>
       </c>
       <c r="Q115" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Target:
+52</t>
         </is>
       </c>
       <c r="R115" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T115" s="8">
+        <v>57</v>
       </c>
       <c r="W115" s="6" t="inlineStr">
         <is>
@@ -25315,7 +25330,7 @@
       </c>
       <c r="AE115" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AF115" s="4" t="inlineStr">
@@ -25340,7 +25355,7 @@
       </c>
       <c r="AJ115" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AK115" s="4" t="inlineStr">
@@ -25360,37 +25375,37 @@
       </c>
       <c r="AN115" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t/>
         </is>
       </c>
       <c r="AO115" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AP115" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AQ115" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AR115" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AS115" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AT115" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t/>
         </is>
       </c>
       <c r="AU115" s="4" t="inlineStr">
@@ -25422,12 +25437,12 @@
     <row outlineLevel="0" r="116">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>W_1503b_R</t>
+          <t>W_1503a_R</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I02</t>
+          <t>Z15_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="C116" s="4" t="inlineStr">
@@ -25574,22 +25589,22 @@
       </c>
       <c r="AO116" s="4" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AP116" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AP116" s="4" t="inlineStr">
+      <c r="AQ116" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AQ116" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
       <c r="AR116" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AS116" s="4" t="inlineStr">
@@ -25631,12 +25646,12 @@
     <row outlineLevel="0" r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>W_1601_2030</t>
+          <t>W_1503b_R</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z15_B02_P02_Ib01_I02</t>
         </is>
       </c>
       <c r="C117" s="4" t="inlineStr">
@@ -25651,38 +25666,32 @@
         <v>1</v>
       </c>
       <c r="F117" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" s="6" t="inlineStr">
         <is>
-          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/-innen auf unter &lt;b&gt;6 500&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="H117" s="4" t="inlineStr">
         <is>
-          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than &lt;b&gt;6,500 &lt;/b&gt;by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Increase payments by 2030</t>
         </is>
       </c>
       <c r="I117" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>R</t>
         </is>
       </c>
       <c r="J117" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K117" s="4" t="inlineStr">
         <is>
-          <t>6500</t>
-        </is>
-      </c>
-      <c r="L117" s="7">
-        <v>2030</v>
-      </c>
-      <c r="O117" s="7">
-        <v>2021</v>
+          <t/>
+        </is>
       </c>
       <c r="P117" s="4" t="inlineStr">
         <is>
@@ -25695,22 +25704,16 @@
         </is>
       </c>
       <c r="R117" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S117" s="8">
-        <v>30.8</v>
-      </c>
-      <c r="T117" s="8">
-        <v>7400</v>
+        <v>0</v>
       </c>
       <c r="W117" s="6" t="inlineStr">
         <is>
-          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https:///www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 500 bis 2030).</t>
+          <t/>
         </is>
       </c>
       <c r="X117" s="6" t="inlineStr">
         <is>
-          <t>The target value and year of the indicator were adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (6,500 by 2030) has applied to the indicator.</t>
+          <t/>
         </is>
       </c>
       <c r="Y117" s="4" t="inlineStr">
@@ -25790,17 +25793,17 @@
       </c>
       <c r="AN117" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AO117" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AP117" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AQ117" s="4" t="inlineStr">
@@ -25820,12 +25823,12 @@
       </c>
       <c r="AT117" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AU117" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AV117" s="4" t="inlineStr">
@@ -25852,12 +25855,12 @@
     <row outlineLevel="0" r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>W_1601x_2030</t>
+          <t>W_1503x_R</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z15_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C118" s="4" t="inlineStr">
@@ -25866,27 +25869,27 @@
         </is>
       </c>
       <c r="D118" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" s="5" t="b">
         <v>0</v>
       </c>
       <c r="G118" s="6" t="inlineStr">
         <is>
-          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/-innen auf unter &lt;b&gt;7 000&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Sinkende Zunahme der Bodenversiegelung</t>
         </is>
       </c>
       <c r="H118" s="4" t="inlineStr">
         <is>
-          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than &lt;b&gt;7,000&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>XXXSinkende Zunahme der Bodenversiegelung</t>
         </is>
       </c>
       <c r="I118" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>R</t>
         </is>
       </c>
       <c r="J118" s="4" t="inlineStr">
@@ -25896,14 +25899,8 @@
       </c>
       <c r="K118" s="4" t="inlineStr">
         <is>
-          <t>7000</t>
-        </is>
-      </c>
-      <c r="L118" s="7">
-        <v>2030</v>
-      </c>
-      <c r="N118" s="7">
-        <v>2021</v>
+          <t/>
+        </is>
       </c>
       <c r="P118" s="4" t="inlineStr">
         <is>
@@ -25916,7 +25913,7 @@
         </is>
       </c>
       <c r="R118" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W118" s="6" t="inlineStr">
         <is>
@@ -26010,37 +26007,37 @@
       </c>
       <c r="AO118" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AP118" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AQ118" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AR118" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AS118" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AT118" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AU118" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AV118" s="4" t="inlineStr">
@@ -26067,12 +26064,12 @@
     <row outlineLevel="0" r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>W_1602x_J</t>
+          <t>W_1504x_R</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01</t>
+          <t>Z15_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C119" s="4" t="inlineStr">
@@ -26087,21 +26084,21 @@
         <v>1</v>
       </c>
       <c r="F119" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" s="6" t="inlineStr">
         <is>
-          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
+          <t>Steigerung der nachhaltigen Landnutzung (durch Schutz, nachhaltige Bewirtschaftung, Wiederherstellung) bis 2030</t>
         </is>
       </c>
       <c r="H119" s="4" t="inlineStr">
         <is>
-          <t>At least 15 projects per year by 2030</t>
+          <t>XXXSteigerung der nachhaltigen Landnutzung (durch Schutz, nachhaltige Bewirtschaftung, Wiederherstellung) bis 2030</t>
         </is>
       </c>
       <c r="I119" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>R</t>
         </is>
       </c>
       <c r="J119" s="4" t="inlineStr">
@@ -26111,7 +26108,7 @@
       </c>
       <c r="K119" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t/>
         </is>
       </c>
       <c r="P119" s="4" t="inlineStr">
@@ -26127,9 +26124,6 @@
       <c r="R119" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="T119" s="8">
-        <v>18</v>
-      </c>
       <c r="W119" s="6" t="inlineStr">
         <is>
           <t/>
@@ -26222,37 +26216,37 @@
       </c>
       <c r="AO119" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AP119" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AQ119" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AR119" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AS119" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AT119" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AU119" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AV119" s="4" t="inlineStr">
@@ -26279,12 +26273,12 @@
     <row outlineLevel="0" r="120">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>W_1603a_R</t>
+          <t>W_1601_2030</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01</t>
+          <t>Z16_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C120" s="4" t="inlineStr">
@@ -26299,32 +26293,38 @@
         <v>1</v>
       </c>
       <c r="F120" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" s="6" t="inlineStr">
         <is>
-          <t>Verbesserung gegenüber 2012 bis 2030</t>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/-innen auf unter &lt;b&gt;6 500&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H120" s="4" t="inlineStr">
         <is>
-          <t>Improvement by 2030, compared to 2012</t>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than &lt;b&gt;6,500 &lt;/b&gt;by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I120" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J120" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K120" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>6500</t>
+        </is>
+      </c>
+      <c r="L120" s="7">
+        <v>2030</v>
+      </c>
+      <c r="O120" s="7">
+        <v>2021</v>
       </c>
       <c r="P120" s="4" t="inlineStr">
         <is>
@@ -26337,16 +26337,22 @@
         </is>
       </c>
       <c r="R120" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S120" s="8">
+        <v>30.8</v>
+      </c>
+      <c r="T120" s="8">
+        <v>7400</v>
       </c>
       <c r="W120" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Zielwert und -jahr des Indikators wurden im Rahmen der &lt;a href="https:///www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 500 bis 2030).</t>
         </is>
       </c>
       <c r="X120" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>The target value and year of the indicator were adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (6,500 by 2030) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y120" s="4" t="inlineStr">
@@ -26431,37 +26437,37 @@
       </c>
       <c r="AO120" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AP120" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AQ120" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AR120" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AS120" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AT120" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AU120" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AV120" s="4" t="inlineStr">
@@ -26488,12 +26494,12 @@
     <row outlineLevel="0" r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>W_1603b_R</t>
+          <t>W_1601x_2030</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02</t>
+          <t>Z16_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C121" s="4" t="inlineStr">
@@ -26502,38 +26508,44 @@
         </is>
       </c>
       <c r="D121" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" s="5" t="b">
         <v>0</v>
       </c>
       <c r="G121" s="6" t="inlineStr">
         <is>
-          <t>Verbesserung gegenüber 2012 bis 2030</t>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/-innen auf unter &lt;b&gt;7 000&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H121" s="4" t="inlineStr">
         <is>
-          <t>Improvement by 2030, compared to 2012</t>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than &lt;b&gt;7,000&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I121" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J121" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K121" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="L121" s="7">
+        <v>2030</v>
+      </c>
+      <c r="N121" s="7">
+        <v>2021</v>
       </c>
       <c r="P121" s="4" t="inlineStr">
         <is>
@@ -26546,7 +26558,7 @@
         </is>
       </c>
       <c r="R121" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W121" s="6" t="inlineStr">
         <is>
@@ -26640,22 +26652,22 @@
       </c>
       <c r="AO121" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AP121" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AQ121" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AR121" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AS121" s="4" t="inlineStr">
@@ -26697,17 +26709,17 @@
     <row outlineLevel="0" r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>W_1701x_2030</t>
+          <t>W_1602x_J</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C122" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_GRANTEQU</t>
+          <t/>
         </is>
       </c>
       <c r="D122" s="5" t="b">
@@ -26721,17 +26733,17 @@
       </c>
       <c r="G122" s="6" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
+          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="H122" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
+          <t>At least 15 projects per year by 2030</t>
         </is>
       </c>
       <c r="I122" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="J122" s="4" t="inlineStr">
@@ -26741,11 +26753,8 @@
       </c>
       <c r="K122" s="4" t="inlineStr">
         <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="L122" s="7">
-        <v>2030</v>
+          <t>15</t>
+        </is>
       </c>
       <c r="P122" s="4" t="inlineStr">
         <is>
@@ -26760,11 +26769,8 @@
       <c r="R122" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="S122" s="8">
-        <v>28.8</v>
-      </c>
       <c r="T122" s="8">
-        <v>0.8</v>
+        <v>18</v>
       </c>
       <c r="W122" s="6" t="inlineStr">
         <is>
@@ -26915,12 +26921,12 @@
     <row outlineLevel="0" r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>W_1702x_2020</t>
+          <t>W_1603a_R</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C123" s="4" t="inlineStr">
@@ -26932,24 +26938,24 @@
         <v>1</v>
       </c>
       <c r="E123" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" s="5" t="b">
         <v>0</v>
       </c>
       <c r="G123" s="6" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
         </is>
       </c>
       <c r="H123" s="4" t="inlineStr">
         <is>
-          <t>Increase the number by 10 % from 2015 to 2020</t>
+          <t>Improvement by 2030, compared to 2012</t>
         </is>
       </c>
       <c r="I123" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>R</t>
         </is>
       </c>
       <c r="J123" s="4" t="inlineStr">
@@ -26959,11 +26965,8 @@
       </c>
       <c r="K123" s="4" t="inlineStr">
         <is>
-          <t>237000</t>
-        </is>
-      </c>
-      <c r="L123" s="7">
-        <v>2020</v>
+          <t/>
+        </is>
       </c>
       <c r="P123" s="4" t="inlineStr">
         <is>
@@ -26980,12 +26983,12 @@
       </c>
       <c r="W123" s="6" t="inlineStr">
         <is>
-          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+          <t/>
         </is>
       </c>
       <c r="X123" s="6" t="inlineStr">
         <is>
-          <t>Omission of 2020 target due to expiration of time.</t>
+          <t/>
         </is>
       </c>
       <c r="Y123" s="4" t="inlineStr">
@@ -27070,37 +27073,37 @@
       </c>
       <c r="AO123" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AP123" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AQ123" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AR123" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AS123" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AT123" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AU123" s="4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AV123" s="4" t="inlineStr">
@@ -27127,12 +27130,12 @@
     <row outlineLevel="0" r="124">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>W_1702x_J</t>
+          <t>W_1603b_R</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C124" s="4" t="inlineStr">
@@ -27147,21 +27150,21 @@
         <v>1</v>
       </c>
       <c r="F124" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" s="6" t="inlineStr">
         <is>
-          <t>Verstetigung des Zielwertes von 2020</t>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
         </is>
       </c>
       <c r="H124" s="4" t="inlineStr">
         <is>
-          <t>Steadying the 2020 target value</t>
+          <t>Improvement by 2030, compared to 2012</t>
         </is>
       </c>
       <c r="I124" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>R</t>
         </is>
       </c>
       <c r="J124" s="4" t="inlineStr">
@@ -27171,31 +27174,22 @@
       </c>
       <c r="K124" s="4" t="inlineStr">
         <is>
-          <t>237000</t>
+          <t/>
         </is>
       </c>
       <c r="P124" s="4" t="inlineStr">
         <is>
-          <t>Ziel: 237 000</t>
+          <t/>
         </is>
       </c>
       <c r="Q124" s="4" t="inlineStr">
         <is>
-          <t>Target: 237,000</t>
+          <t/>
         </is>
       </c>
       <c r="R124" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="S124" s="8">
-        <v>16</v>
-      </c>
-      <c r="T124" s="8">
-        <v>255000</v>
-      </c>
-      <c r="U124" s="7">
-        <v>2019</v>
-      </c>
       <c r="W124" s="6" t="inlineStr">
         <is>
           <t/>
@@ -27288,32 +27282,32 @@
       </c>
       <c r="AO124" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AP124" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AQ124" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K</t>
         </is>
       </c>
       <c r="AR124" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AS124" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AT124" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AU124" s="4" t="inlineStr">
@@ -27345,17 +27339,17 @@
     <row outlineLevel="0" r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>W_1703x_J</t>
+          <t>W_1701x_2030</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>Z17_B03_P01_Ib01_I01</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C125" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_CALCMETH_GRANTEQU</t>
         </is>
       </c>
       <c r="D125" s="5" t="b">
@@ -27369,12 +27363,12 @@
       </c>
       <c r="G125" s="6" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
+          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
         </is>
       </c>
       <c r="H125" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
+          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
         </is>
       </c>
       <c r="I125" s="4" t="inlineStr">
@@ -27389,7 +27383,7 @@
       </c>
       <c r="K125" s="4" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="L125" s="7">
@@ -27409,152 +27403,800 @@
         <v>1</v>
       </c>
       <c r="S125" s="8">
+        <v>28.8</v>
+      </c>
+      <c r="T125" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="W125" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X125" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO125" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP125" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ125" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR125" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS125" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT125" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU125" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AV125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY125" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="126">
+      <c r="A126" s="4" t="inlineStr">
+        <is>
+          <t>W_1702x_2020</t>
+        </is>
+      </c>
+      <c r="B126" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D126" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F126" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G126" s="6" t="inlineStr">
+        <is>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
+        </is>
+      </c>
+      <c r="H126" s="4" t="inlineStr">
+        <is>
+          <t>Increase the number by 10 % from 2015 to 2020</t>
+        </is>
+      </c>
+      <c r="I126" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J126" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K126" s="4" t="inlineStr">
+        <is>
+          <t>237000</t>
+        </is>
+      </c>
+      <c r="L126" s="7">
+        <v>2020</v>
+      </c>
+      <c r="P126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R126" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W126" s="6" t="inlineStr">
+        <is>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+        </is>
+      </c>
+      <c r="X126" s="6" t="inlineStr">
+        <is>
+          <t>Omission of 2020 target due to expiration of time.</t>
+        </is>
+      </c>
+      <c r="Y126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO126" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP126" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ126" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR126" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS126" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT126" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU126" s="4" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="AV126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="127">
+      <c r="A127" s="4" t="inlineStr">
+        <is>
+          <t>W_1702x_J</t>
+        </is>
+      </c>
+      <c r="B127" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D127" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E127" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F127" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G127" s="6" t="inlineStr">
+        <is>
+          <t>Verstetigung des Zielwertes von 2020</t>
+        </is>
+      </c>
+      <c r="H127" s="4" t="inlineStr">
+        <is>
+          <t>Steadying the 2020 target value</t>
+        </is>
+      </c>
+      <c r="I127" s="4" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J127" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K127" s="4" t="inlineStr">
+        <is>
+          <t>237000</t>
+        </is>
+      </c>
+      <c r="P127" s="4" t="inlineStr">
+        <is>
+          <t>Ziel: 237 000</t>
+        </is>
+      </c>
+      <c r="Q127" s="4" t="inlineStr">
+        <is>
+          <t>Target: 237,000</t>
+        </is>
+      </c>
+      <c r="R127" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S127" s="8">
+        <v>16</v>
+      </c>
+      <c r="T127" s="8">
+        <v>255000</v>
+      </c>
+      <c r="U127" s="7">
+        <v>2019</v>
+      </c>
+      <c r="W127" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X127" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU127" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AV127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="128">
+      <c r="A128" s="4" t="inlineStr">
+        <is>
+          <t>W_1703x_J</t>
+        </is>
+      </c>
+      <c r="B128" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D128" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E128" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F128" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" s="6" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
+        </is>
+      </c>
+      <c r="H128" s="4" t="inlineStr">
+        <is>
+          <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
+        </is>
+      </c>
+      <c r="I128" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J128" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K128" s="4" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="L128" s="7">
+        <v>2030</v>
+      </c>
+      <c r="P128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R128" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S128" s="8">
         <v>21</v>
       </c>
-      <c r="T125" s="8">
+      <c r="T128" s="8">
         <v>1.45</v>
       </c>
-      <c r="W125" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X125" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y125" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z125" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA125" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB125" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC125" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD125" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE125" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF125" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG125" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH125" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI125" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ125" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK125" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL125" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM125" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN125" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO125" s="4" t="inlineStr">
+      <c r="W128" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X128" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO128" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AP125" s="4" t="inlineStr">
+      <c r="AP128" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AQ125" s="4" t="inlineStr">
+      <c r="AQ128" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AR125" s="4" t="inlineStr">
+      <c r="AR128" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AS125" s="4" t="inlineStr">
+      <c r="AS128" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AT125" s="4" t="inlineStr">
+      <c r="AT128" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AU125" s="4" t="inlineStr">
+      <c r="AU128" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AV125" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AW125" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AX125" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AY125" s="4" t="inlineStr">
+      <c r="AV128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY128" s="4" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -551,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY128"/>
+  <dimension ref="A1:AY129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -26709,7 +26709,7 @@
     <row outlineLevel="0" r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>W_1602x_J</t>
+          <t>W_1602x_2030</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
@@ -26733,17 +26733,17 @@
       </c>
       <c r="G122" s="6" t="inlineStr">
         <is>
-          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
+          <t>Von 2025 bis 2030 Ausbildung von mindestens 1.000 Personen durch Expertinnen und Experten der Bundeswehr</t>
         </is>
       </c>
       <c r="H122" s="4" t="inlineStr">
         <is>
-          <t>At least 15 projects per year by 2030</t>
+          <t>XXXVon 2025 bis 2030 Ausbildung von mindestens 1.000 Personen durch Expertinnen und Experten der Bundeswehr</t>
         </is>
       </c>
       <c r="I122" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J122" s="4" t="inlineStr">
@@ -26753,8 +26753,11 @@
       </c>
       <c r="K122" s="4" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L122" s="7">
+        <v>2030</v>
       </c>
       <c r="P122" s="4" t="inlineStr">
         <is>
@@ -26769,9 +26772,6 @@
       <c r="R122" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="T122" s="8">
-        <v>18</v>
-      </c>
       <c r="W122" s="6" t="inlineStr">
         <is>
           <t/>
@@ -26864,37 +26864,37 @@
       </c>
       <c r="AO122" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AP122" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AQ122" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AR122" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AS122" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AT122" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AU122" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AV122" s="4" t="inlineStr">
@@ -27339,17 +27339,17 @@
     <row outlineLevel="0" r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>W_1701x_2030</t>
+          <t>W_1604x_2029</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z16_B04_P01_IB01_I01</t>
         </is>
       </c>
       <c r="C125" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_GRANTEQU</t>
+          <t>A_BEWERTUNG_PRO</t>
         </is>
       </c>
       <c r="D125" s="5" t="b">
@@ -27363,12 +27363,12 @@
       </c>
       <c r="G125" s="6" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
+          <t>Verbesserung auf mindestens 8 von 11 möglichen Punkten bis 2029</t>
         </is>
       </c>
       <c r="H125" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
+          <t>XXXVerbesserung auf mindestens 8 von 11 möglichen Punkten bis 2029</t>
         </is>
       </c>
       <c r="I125" s="4" t="inlineStr">
@@ -27383,11 +27383,11 @@
       </c>
       <c r="K125" s="4" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L125" s="7">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="P125" s="4" t="inlineStr">
         <is>
@@ -27402,12 +27402,6 @@
       <c r="R125" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="S125" s="8">
-        <v>28.8</v>
-      </c>
-      <c r="T125" s="8">
-        <v>0.8</v>
-      </c>
       <c r="W125" s="6" t="inlineStr">
         <is>
           <t/>
@@ -27500,37 +27494,37 @@
       </c>
       <c r="AO125" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AP125" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AQ125" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AR125" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AS125" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AT125" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AU125" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AV125" s="4" t="inlineStr">
@@ -27557,36 +27551,36 @@
     <row outlineLevel="0" r="126">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>W_1702x_2020</t>
+          <t>W_1701x_2030</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C126" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_CALCMETH_GRANTEQU</t>
         </is>
       </c>
       <c r="D126" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E126" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" s="6" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
+          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
         </is>
       </c>
       <c r="H126" s="4" t="inlineStr">
         <is>
-          <t>Increase the number by 10 % from 2015 to 2020</t>
+          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
         </is>
       </c>
       <c r="I126" s="4" t="inlineStr">
@@ -27601,11 +27595,11 @@
       </c>
       <c r="K126" s="4" t="inlineStr">
         <is>
-          <t>237000</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="L126" s="7">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="P126" s="4" t="inlineStr">
         <is>
@@ -27618,16 +27612,22 @@
         </is>
       </c>
       <c r="R126" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S126" s="8">
+        <v>28.8</v>
+      </c>
+      <c r="T126" s="8">
+        <v>0.8</v>
       </c>
       <c r="W126" s="6" t="inlineStr">
         <is>
-          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+          <t/>
         </is>
       </c>
       <c r="X126" s="6" t="inlineStr">
         <is>
-          <t>Omission of 2020 target due to expiration of time.</t>
+          <t/>
         </is>
       </c>
       <c r="Y126" s="4" t="inlineStr">
@@ -27742,7 +27742,7 @@
       </c>
       <c r="AU126" s="4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AV126" s="4" t="inlineStr">
@@ -27769,7 +27769,7 @@
     <row outlineLevel="0" r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>W_1702x_J</t>
+          <t>W_1702x_2020</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
@@ -27786,24 +27786,24 @@
         <v>1</v>
       </c>
       <c r="E127" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" s="6" t="inlineStr">
         <is>
-          <t>Verstetigung des Zielwertes von 2020</t>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
         </is>
       </c>
       <c r="H127" s="4" t="inlineStr">
         <is>
-          <t>Steadying the 2020 target value</t>
+          <t>Increase the number by 10 % from 2015 to 2020</t>
         </is>
       </c>
       <c r="I127" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J127" s="4" t="inlineStr">
@@ -27816,36 +27816,30 @@
           <t>237000</t>
         </is>
       </c>
+      <c r="L127" s="7">
+        <v>2020</v>
+      </c>
       <c r="P127" s="4" t="inlineStr">
         <is>
-          <t>Ziel: 237 000</t>
+          <t/>
         </is>
       </c>
       <c r="Q127" s="4" t="inlineStr">
         <is>
-          <t>Target: 237,000</t>
+          <t/>
         </is>
       </c>
       <c r="R127" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S127" s="8">
-        <v>16</v>
-      </c>
-      <c r="T127" s="8">
-        <v>255000</v>
-      </c>
-      <c r="U127" s="7">
-        <v>2019</v>
+        <v>0</v>
       </c>
       <c r="W127" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
         </is>
       </c>
       <c r="X127" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Omission of 2020 target due to expiration of time.</t>
         </is>
       </c>
       <c r="Y127" s="4" t="inlineStr">
@@ -27930,37 +27924,37 @@
       </c>
       <c r="AO127" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AP127" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AQ127" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AR127" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AS127" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AT127" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AU127" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AV127" s="4" t="inlineStr">
@@ -27987,216 +27981,434 @@
     <row outlineLevel="0" r="128">
       <c r="A128" s="4" t="inlineStr">
         <is>
+          <t>W_1702x_J</t>
+        </is>
+      </c>
+      <c r="B128" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D128" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E128" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F128" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" s="6" t="inlineStr">
+        <is>
+          <t>Verstetigung des Zielwertes von 2020</t>
+        </is>
+      </c>
+      <c r="H128" s="4" t="inlineStr">
+        <is>
+          <t>Steadying the 2020 target value</t>
+        </is>
+      </c>
+      <c r="I128" s="4" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J128" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K128" s="4" t="inlineStr">
+        <is>
+          <t>237000</t>
+        </is>
+      </c>
+      <c r="P128" s="4" t="inlineStr">
+        <is>
+          <t>Ziel: 237 000</t>
+        </is>
+      </c>
+      <c r="Q128" s="4" t="inlineStr">
+        <is>
+          <t>Target: 237,000</t>
+        </is>
+      </c>
+      <c r="R128" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S128" s="8">
+        <v>16</v>
+      </c>
+      <c r="T128" s="8">
+        <v>255000</v>
+      </c>
+      <c r="U128" s="7">
+        <v>2019</v>
+      </c>
+      <c r="W128" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X128" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU128" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AV128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
           <t>W_1703x_J</t>
         </is>
       </c>
-      <c r="B128" s="4" t="inlineStr">
+      <c r="B129" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="C128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D128" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E128" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F128" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G128" s="6" t="inlineStr">
+      <c r="C129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D129" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E129" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F129" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" s="6" t="inlineStr">
         <is>
           <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
-      <c r="H128" s="4" t="inlineStr">
+      <c r="H129" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
         </is>
       </c>
-      <c r="I128" s="4" t="inlineStr">
+      <c r="I129" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="J128" s="4" t="inlineStr">
+      <c r="J129" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="K128" s="4" t="inlineStr">
+      <c r="K129" s="4" t="inlineStr">
         <is>
           <t>1,43</t>
         </is>
       </c>
-      <c r="L128" s="7">
+      <c r="L129" s="7">
         <v>2030</v>
       </c>
-      <c r="P128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R128" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S128" s="8">
+      <c r="P129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R129" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S129" s="8">
         <v>21</v>
       </c>
-      <c r="T128" s="8">
+      <c r="T129" s="8">
         <v>1.45</v>
       </c>
-      <c r="W128" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X128" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO128" s="4" t="inlineStr">
+      <c r="W129" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X129" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO129" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AP128" s="4" t="inlineStr">
+      <c r="AP129" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AQ128" s="4" t="inlineStr">
+      <c r="AQ129" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AR128" s="4" t="inlineStr">
+      <c r="AR129" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AS128" s="4" t="inlineStr">
+      <c r="AS129" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AT128" s="4" t="inlineStr">
+      <c r="AT129" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AU128" s="4" t="inlineStr">
+      <c r="AU129" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AV128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AW128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AX128" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AY128" s="4" t="inlineStr">
+      <c r="AV129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX129" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY129" s="4" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -563,7 +563,7 @@
     <col customWidth="true" min="2" max="2" width="16.84375"/>
     <col customWidth="true" min="3" max="3" width="11.42578125"/>
     <col customWidth="true" min="4" max="4" width="6.6796875"/>
-    <col customWidth="true" min="5" max="5" width="7.5"/>
+    <col customWidth="true" min="5" max="5" width="7.03125"/>
     <col customWidth="true" min="6" max="6" width="8.0859375"/>
     <col customWidth="true" min="7" max="7" width="58.15234375"/>
     <col customWidth="true" min="8" max="8" width="62.83984375"/>
@@ -21118,7 +21118,7 @@
       </c>
       <c r="C96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z12_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="D96" s="5" t="b">
@@ -21327,7 +21327,7 @@
       </c>
       <c r="C97" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="D97" s="5" t="b">
@@ -21536,7 +21536,7 @@
       </c>
       <c r="C98" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z12_B03_P01_Ib01_I03</t>
         </is>
       </c>
       <c r="D98" s="5" t="b">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -21118,7 +21118,7 @@
       </c>
       <c r="C96" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I01</t>
+          <t>A_SERIES_123a</t>
         </is>
       </c>
       <c r="D96" s="5" t="b">
@@ -21327,7 +21327,7 @@
       </c>
       <c r="C97" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I02</t>
+          <t>A_SERIES_123b</t>
         </is>
       </c>
       <c r="D97" s="5" t="b">
@@ -21536,7 +21536,7 @@
       </c>
       <c r="C98" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I03</t>
+          <t>A_SERIES_123c</t>
         </is>
       </c>
       <c r="D98" s="5" t="b">
@@ -27407,6 +27407,9 @@
       </c>
       <c r="R125" s="5" t="b">
         <v>1</v>
+      </c>
+      <c r="T125" s="8">
+        <v>9</v>
       </c>
       <c r="W125" s="6" t="inlineStr">
         <is>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -21118,7 +21118,7 @@
       </c>
       <c r="C96" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_123a</t>
+          <t/>
         </is>
       </c>
       <c r="D96" s="5" t="b">
@@ -21327,7 +21327,7 @@
       </c>
       <c r="C97" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_123b</t>
+          <t/>
         </is>
       </c>
       <c r="D97" s="5" t="b">
@@ -21536,7 +21536,7 @@
       </c>
       <c r="C98" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_123c</t>
+          <t/>
         </is>
       </c>
       <c r="D98" s="5" t="b">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -561,7 +561,7 @@
   <cols>
     <col customWidth="true" min="1" max="1" width="16.84375"/>
     <col customWidth="true" min="2" max="2" width="16.84375"/>
-    <col customWidth="true" min="3" max="3" width="11.42578125"/>
+    <col customWidth="true" min="3" max="3" width="22.265625"/>
     <col customWidth="true" min="4" max="4" width="6.6796875"/>
     <col customWidth="true" min="5" max="5" width="7.03125"/>
     <col customWidth="true" min="6" max="6" width="8.0859375"/>
@@ -6667,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="6" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
       </c>
       <c r="C125" s="4" t="inlineStr">
         <is>
-          <t>A_BEWERTUNG_PRO</t>
+          <t>A_SERIES_EFF</t>
         </is>
       </c>
       <c r="D125" s="5" t="b">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -27570,7 +27570,7 @@
       </c>
       <c r="C126" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_GRANTEQU</t>
+          <t/>
         </is>
       </c>
       <c r="D126" s="5" t="b">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -7748,7 +7748,7 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_VAETERGELD</t>
         </is>
       </c>
       <c r="D34" s="5" t="b">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -2217,6 +2217,9 @@
         <v>1</v>
       </c>
       <c r="S8" s="8">
+        <v>10.9</v>
+      </c>
+      <c r="T8" s="8">
         <v>220</v>
       </c>
       <c r="W8" s="6" t="inlineStr">
@@ -10602,7 +10605,7 @@
       </c>
       <c r="K47" s="4" t="inlineStr">
         <is>
-          <t>60,6</t>
+          <t>60,7</t>
         </is>
       </c>
       <c r="L47" s="7">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -2220,7 +2220,7 @@
         <v>10.9</v>
       </c>
       <c r="T8" s="8">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="W8" s="6" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>1</v>
       </c>
       <c r="S103" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T103" s="8">
         <v>2</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -18316,12 +18316,12 @@
       </c>
       <c r="AU82" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AV82" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AW82" s="4" t="inlineStr">
@@ -18924,24 +18924,24 @@
       </c>
       <c r="AP85" s="4" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ85" s="4" t="inlineStr">
+        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AQ85" s="4" t="inlineStr">
+      <c r="AR85" s="4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AR85" s="4" t="inlineStr">
+      <c r="AS85" s="4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AS85" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
       <c r="AT85" s="4" t="inlineStr">
         <is>
           <t>B</t>
@@ -18949,12 +18949,12 @@
       </c>
       <c r="AU85" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AV85" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AW85" s="4" t="inlineStr">
@@ -19165,17 +19165,17 @@
       </c>
       <c r="AT86" s="4" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AU86" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AV86" s="4" t="inlineStr">
+        <is>
           <t>W</t>
-        </is>
-      </c>
-      <c r="AU86" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AV86" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="AW86" s="4" t="inlineStr">
@@ -19391,12 +19391,12 @@
       </c>
       <c r="AU87" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AV87" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AW87" s="4" t="inlineStr">
@@ -20414,22 +20414,22 @@
       </c>
       <c r="AM92" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AN92" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AO92" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AP92" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t/>
         </is>
       </c>
       <c r="AQ92" s="4" t="inlineStr">
@@ -20449,17 +20449,17 @@
       </c>
       <c r="AT92" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AU92" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AV92" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AW92" s="4" t="inlineStr">
@@ -20648,22 +20648,22 @@
       </c>
       <c r="AR93" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AS93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AT93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AU93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AV93" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -21108,17 +21108,17 @@
     <row outlineLevel="0" r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>W_1202b_R</t>
+          <t>W_1202a_2030</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P02_Ib01_I01</t>
+          <t>Z12_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_LOCATIONS</t>
         </is>
       </c>
       <c r="D96" s="5" t="b">
@@ -21128,21 +21128,21 @@
         <v>1</v>
       </c>
       <c r="F96" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" s="6" t="inlineStr">
         <is>
-          <t>Erhöhung der Anzahl der Kultureinrichtungen mit entsprechenden Zertifikaten bis 2030</t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="H96" s="4" t="inlineStr">
         <is>
-          <t>XXXErhöhung der Anzahl der Kultureinrichtungen mit entsprechenden Zertifikaten bis 2030</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="I96" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J96" s="4" t="inlineStr">
@@ -21152,8 +21152,11 @@
       </c>
       <c r="K96" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="L96" s="7">
+        <v>2030</v>
       </c>
       <c r="P96" s="4" t="inlineStr">
         <is>
@@ -21166,7 +21169,13 @@
         </is>
       </c>
       <c r="R96" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S96" s="8">
+        <v>19.9</v>
+      </c>
+      <c r="T96" s="8">
+        <v>4500</v>
       </c>
       <c r="W96" s="6" t="inlineStr">
         <is>
@@ -21260,52 +21269,52 @@
       </c>
       <c r="AO96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AP96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AQ96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AR96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AS96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AT96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AU96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AV96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AW96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AX96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AY96" s="4" t="inlineStr">
@@ -21317,17 +21326,17 @@
     <row outlineLevel="0" r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>W_1202x_2030</t>
+          <t>W_1202b_R</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01_I01</t>
+          <t>Z12_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="C97" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_LOCATIONS</t>
+          <t/>
         </is>
       </c>
       <c r="D97" s="5" t="b">
@@ -21337,21 +21346,21 @@
         <v>1</v>
       </c>
       <c r="F97" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" s="6" t="inlineStr">
         <is>
-          <t>5 000 Organisationsstandorte bis 2030</t>
+          <t>Erhöhung der Anzahl der Kultureinrichtungen mit entsprechenden Zertifikaten bis 2030</t>
         </is>
       </c>
       <c r="H97" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisation by 2030</t>
+          <t>XXXErhöhung der Anzahl der Kultureinrichtungen mit entsprechenden Zertifikaten bis 2030</t>
         </is>
       </c>
       <c r="I97" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>R</t>
         </is>
       </c>
       <c r="J97" s="4" t="inlineStr">
@@ -21361,11 +21370,8 @@
       </c>
       <c r="K97" s="4" t="inlineStr">
         <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="L97" s="7">
-        <v>2030</v>
+          <t/>
+        </is>
       </c>
       <c r="P97" s="4" t="inlineStr">
         <is>
@@ -21378,13 +21384,7 @@
         </is>
       </c>
       <c r="R97" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S97" s="8">
-        <v>19.9</v>
-      </c>
-      <c r="T97" s="8">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="W97" s="6" t="inlineStr">
         <is>
@@ -21478,37 +21478,37 @@
       </c>
       <c r="AO97" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AP97" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AQ97" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AR97" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AS97" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AT97" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AU97" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AV97" s="4" t="inlineStr">
@@ -21926,12 +21926,12 @@
       </c>
       <c r="AU99" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AV99" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AW99" s="4" t="inlineStr">
@@ -22346,27 +22346,27 @@
       </c>
       <c r="AS101" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AT101" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AU101" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AV101" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AW101" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AX101" s="4" t="inlineStr">
@@ -22797,12 +22797,12 @@
       </c>
       <c r="AV103" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AW103" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AX103" s="4" t="inlineStr">
@@ -24547,12 +24547,12 @@
       </c>
       <c r="AV111" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AW111" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AX111" s="4" t="inlineStr">
@@ -24754,7 +24754,7 @@
       </c>
       <c r="AU112" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AV112" s="4" t="inlineStr">
@@ -24966,7 +24966,7 @@
       </c>
       <c r="AU113" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AV113" s="4" t="inlineStr">
@@ -25383,37 +25383,37 @@
       </c>
       <c r="AP115" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AQ115" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AR115" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AS115" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AT115" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AU115" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AV115" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AW115" s="4" t="inlineStr">
@@ -25606,17 +25606,17 @@
       </c>
       <c r="AQ116" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AR116" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AS116" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AT116" s="4" t="inlineStr">
@@ -25884,10 +25884,10 @@
         </is>
       </c>
       <c r="D118" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" s="5" t="b">
         <v>0</v>
@@ -26093,10 +26093,10 @@
         </is>
       </c>
       <c r="D119" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" s="5" t="b">
         <v>0</v>
@@ -27509,29 +27509,29 @@
       </c>
       <c r="AO125" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AP125" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t/>
         </is>
       </c>
       <c r="AQ125" s="4" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AR125" s="4" t="inlineStr">
+        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AR125" s="4" t="inlineStr">
+      <c r="AS125" s="4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AS125" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
       <c r="AT125" s="4" t="inlineStr">
         <is>
           <t>B</t>
@@ -27544,12 +27544,12 @@
       </c>
       <c r="AV125" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AW125" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AX125" s="4" t="inlineStr">
@@ -27718,12 +27718,12 @@
       </c>
       <c r="AO126" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AP126" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AQ126" s="4" t="inlineStr">
@@ -27748,17 +27748,17 @@
       </c>
       <c r="AU126" s="4" t="inlineStr">
         <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AV126" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AW126" s="4" t="inlineStr">
+        <is>
           <t>S</t>
-        </is>
-      </c>
-      <c r="AV126" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AW126" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="AX126" s="4" t="inlineStr">
@@ -28186,12 +28186,12 @@
       </c>
       <c r="AV128" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AW128" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AX128" s="4" t="inlineStr">
@@ -28616,12 +28616,12 @@
       </c>
       <c r="AV130" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AW130" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AX130" s="4" t="inlineStr">
@@ -28834,12 +28834,12 @@
       </c>
       <c r="AV131" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AW131" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AX131" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -11910,6 +11910,9 @@
       <c r="L53" s="7">
         <v>2030</v>
       </c>
+      <c r="M53" s="7">
+        <v>2020</v>
+      </c>
       <c r="O53" s="7">
         <v>2025</v>
       </c>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -563,7 +563,7 @@
     <col customWidth="true" min="2" max="2" width="16.84375"/>
     <col customWidth="true" min="3" max="3" width="22.265625"/>
     <col customWidth="true" min="4" max="4" width="6.6796875"/>
-    <col customWidth="true" min="5" max="5" width="7.03125"/>
+    <col customWidth="true" min="5" max="5" width="26.8046875"/>
     <col customWidth="true" min="6" max="6" width="8.0859375"/>
     <col customWidth="true" min="7" max="7" width="58.15234375"/>
     <col customWidth="true" min="8" max="8" width="62.83984375"/>
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="5" t="b">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="5" t="b">
         <v>0</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -563,7 +563,7 @@
     <col customWidth="true" min="2" max="2" width="16.84375"/>
     <col customWidth="true" min="3" max="3" width="22.265625"/>
     <col customWidth="true" min="4" max="4" width="6.6796875"/>
-    <col customWidth="true" min="5" max="5" width="26.8046875"/>
+    <col customWidth="true" min="5" max="5" width="9.140625"/>
     <col customWidth="true" min="6" max="6" width="8.0859375"/>
     <col customWidth="true" min="7" max="7" width="58.15234375"/>
     <col customWidth="true" min="8" max="8" width="62.83984375"/>
@@ -21562,12 +21562,12 @@
       </c>
       <c r="G98" s="6" t="inlineStr">
         <is>
-          <t>Deutliche Steigerung des Anteils der Vergaben in der öffentlichen Beschaffung, bei denen Nachhaltigkeitskriterien berücksichtigt werden, so dass dies bis 2030 im Regelfall erfolgt</t>
+          <t>Deutliche Steigerung des Anteils der Vergaben in der öffentlichen Beschaffung, bei denen Nachhaltigkeitskriterien berücksichtigt werden, so dass dies bis 2030 im Regelfall erfolgt. Dabei ist zu berücksichtigen, dass die Beschaffungen zur Deckung der Bedarfe der Bundeswehr, der Bundespolizei sowie des Zivil- und Katastrophenschutzes nicht zu einer Steigerung beitragen.</t>
         </is>
       </c>
       <c r="H98" s="4" t="inlineStr">
         <is>
-          <t>Deutliche Steigerung des Anteils der Vergaben in der öffentlichen Beschaffung, bei denen Nachhaltigkeitskriterien berücksichtigt werden, so dass dies bis 2030 im Regelfall erfolgt</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="I98" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -4086,7 +4086,7 @@
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_33</t>
         </is>
       </c>
       <c r="D17" s="5" t="b">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -17097,7 +17097,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="5" t="b">
         <v>0</v>
@@ -18808,7 +18808,7 @@
         <v>1</v>
       </c>
       <c r="E85" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="5" t="b">
         <v>1</v>
@@ -23321,7 +23321,7 @@
       </c>
       <c r="G106" s="6" t="inlineStr">
         <is>
-          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens &lt;b&gt;6 Mrd.&lt;/b&gt; Euro bis spätestens &lt;b&gt;2025&lt;/b&gt;</t>
+          <t>Erhöhung auf jährlich &lt;b&gt;6 Mrd.&lt;/b&gt; Euro bis spätestens &lt;b&gt;2025&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H106" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -6666,7 +6666,7 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_UNBEREIN</t>
+          <t>A_SERIES_UNBEREIN</t>
         </is>
       </c>
       <c r="D29" s="5" t="b">
@@ -21105,7 +21105,7 @@
       </c>
       <c r="AX95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K</t>
         </is>
       </c>
       <c r="AY95" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -896,7 +896,7 @@
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
-          <t>Anteil der Personen, die materiell und sozial depriviert sind, bis 2030 unter EU-Durchschnitt halten</t>
+          <t>Anteil der Personen, die materiell und &lt;b&gt;sozial&lt;/b&gt; depriviert sind, bis 2030 unter EU-Durchschnitt halten</t>
         </is>
       </c>
       <c r="H2" s="4" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="W2" s="6" t="inlineStr">
         <is>
-          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren  nicht möglich (Zeitreihenbruch). Die Bewertung des Indiaktors kann daher nur für das Berichtsjahr 2023 durchgeführt werden und auch diese ist unsicher, da nur vier statt wie sonst üblich sechs Datenpunkte für die Bewertung zur Verfügung standen.</t>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nicht möglich (Zeitreihenbruch). Die Bewertung des Indiaktors kann daher nur für das Berichtsjahr 2023 durchgeführt werden und auch diese ist unsicher, da nur vier statt wie sonst üblich sechs Datenpunkte für die Bewertung zur Verfügung standen.</t>
         </is>
       </c>
       <c r="X2" s="6" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
-          <t>Anteil der Personen, die materiell depriviert sind, bis 2030 unter EU-Durchschnitt halten</t>
+          <t>Anteil der Personen, die materiell depriviert sind, bis 2030 unter EU-27-Wert halten</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
-          <t>Anteil der Personen, die erheblich materiell und sozial depriviert sind, bis 2030 unter EU-Durchschnitt halten</t>
+          <t>Anteil der Personen, die erheblich materiell und &lt;b&gt;sozial&lt;/b&gt; depriviert sind, bis 2030 unter EU-Durchschnitt halten</t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="W4" s="6" t="inlineStr">
         <is>
-          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren  nicht möglich (Zeitreihenbruch). Die Bewertung des Indiaktors kann daher nur für das Berichtsjahr 2023 durchgeführt werden und auch diese ist unsicher, da nur vier statt wie sonst üblich sechs Datenpunkte für die Bewertung zur Verfügung standen.</t>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nicht möglich (Zeitreihenbruch). Die Bewertung des Indiaktors kann daher nur für das Berichtsjahr 2023 durchgeführt werden und auch diese ist unsicher, da nur vier statt wie sonst üblich sechs Datenpunkte für die Bewertung zur Verfügung standen.</t>
         </is>
       </c>
       <c r="X4" s="6" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="AU4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AV4" s="4" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="G5" s="6" t="inlineStr">
         <is>
-          <t>Anteil der Personen, die erheblich materiell depriviert sind, bis 2030 unter EU-Durchschnitt halten</t>
+          <t>Anteil der Personen, die erheblich materiell depriviert sind, bis 2030 unter EU-27-Wert halten</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
@@ -1732,12 +1732,12 @@
       </c>
       <c r="G6" s="6" t="inlineStr">
         <is>
-          <t>Verringerung der Stickstoffüberschüsse der Gesamtbilanz für Deutschland auf &lt;b&gt;70 Kilogramm je Hektar&lt;/b&gt; landwirtschaftlich genutzter Fläche im Jahresmittel 2026-2030</t>
+          <t>Verringerung der Stickstoffüberschüsse der Gesamtbilanz für Deutschland auf 70 Kilogramm je Hektar landwirtschaftlich genutzter Fläche im Jahresmittel &lt;b&gt;2026-2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
-          <t>Reduction of the nitrogen surpluses of the overall balance for Germany to &lt;b&gt;70 kilograms per hectare&lt;/b&gt; of utilised agricultural area on an annual average between 2028 and 2032</t>
+          <t>Reduction of the nitrogen surpluses of the overall balance for Germany to &lt;b&gt;70 kilograms per hectare&lt;/b&gt; of utilised agricultural area on an annual average between 2026 and 2030</t>
         </is>
       </c>
       <c r="I6" s="4" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
-          <t>Angemessene &lt;b&gt;Steigerung&lt;/b&gt; des Anteils der ausgezahlten Mittel für die Anwendung von Leitlinien und Empfehlungen des VN-Welternährungsausschusses (CFS) an den Gesamtausgaben für Ernährungssicherung in % bis 2030</t>
+          <t>Angemessene Steigerung des Anteils der ausgezahlten Mittel für die Anwendung von Leitlinien und Empfehlungen des VN-Welternährungsausschusses (CFS) an den Gesamtausgaben für Ernährungssicherung in % bis 2030</t>
         </is>
       </c>
       <c r="H9" s="4" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
-          <t>Senkung auf &lt;b&gt;200&lt;/b&gt; Todesfälle je 100 000 Einwohnerinnen und Einwohner bis 2030</t>
+          <t>Senkung auf 200 Todesfälle je 100 000 Einwohnerinnen und Einwohner bis 2030</t>
         </is>
       </c>
       <c r="H10" s="4" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
-          <t>Senkung auf &lt;b&gt;7 %&lt;/b&gt; bis 2030</t>
+          <t>Senkung auf 7 % bis 2030</t>
         </is>
       </c>
       <c r="H11" s="4" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="G12" s="6" t="inlineStr">
         <is>
-          <t>Senkung auf &lt;b&gt;19 %&lt;/b&gt; bis 2030</t>
+          <t>Senkung auf 19 % bis 2030</t>
         </is>
       </c>
       <c r="H12" s="4" t="inlineStr">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="G15" s="6" t="inlineStr">
         <is>
-          <t>Reduktion der Emissionen des Jahres 2005 auf &lt;b&gt;55 %&lt;/b&gt; (ungewichtetes Mittel der fünf Schadstoffe) bis 2030</t>
+          <t>Reduktion der Emissionen des Jahres 2005 auf 55 % (ungewichtetes Mittel der fünf Schadstoffe) bis 2030</t>
         </is>
       </c>
       <c r="H15" s="4" t="inlineStr">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="G16" s="6" t="inlineStr">
         <is>
-          <t>Rückgang des Anteils der Bevölkerung mit einer PM2,5-Feinstaubexposition von mehr als 10 Mikrogramm pro Kubikmeter im Jahresmittel (entspricht der Höhe des neuen ab 2030 einzuhaltenden EU-Grenzwertes für PM2,5) bis 2030 auf dann &lt;b&gt;0 %&lt;/b&gt;</t>
+          <t>Rückgang des Anteils der Bevölkerung mit einer &lt;b&gt;PM2,5-Feinstaubexposition&lt;/b&gt; von mehr als 10 Mikrogramm pro Kubikmeter im Jahresmittel (entspricht der Höhe des neuen ab 2030 einzuhaltenden EU-Grenzwertes für PM2,5) bis 2030 auf dann &lt;b&gt;0 %&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H16" s="4" t="inlineStr">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="G17" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;30 %&lt;/b&gt; der Länder haben im Jahr 2030 eine Verbesserung des Global Health Security Index (GSHI) um mindestens den Wert 3 gegenüber 2019 erziel</t>
+          <t>&lt;b&gt;30 %&lt;/b&gt; der Länder haben im Jahr 2030 eine Verbesserung des Global Health Security Index (GHSI) um mindestens den Wert 3 gegenüber 2019 erzielt</t>
         </is>
       </c>
       <c r="H17" s="4" t="inlineStr">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="G22" s="6" t="inlineStr">
         <is>
-          <t>Kontinuierlicher &lt;b&gt;Anstieg&lt;/b&gt;</t>
+          <t>Kontinuierlicher Anstieg</t>
         </is>
       </c>
       <c r="H22" s="4" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="G23" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf &lt;b&gt;35 %&lt;/b&gt; bis 2030</t>
+          <t>Anstieg auf 35 % bis 2030</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr">
@@ -5526,12 +5526,12 @@
       </c>
       <c r="AP23" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AQ23" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AR23" s="4" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="AX23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AY23" s="4" t="inlineStr">
@@ -5741,12 +5741,12 @@
       </c>
       <c r="AP24" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AQ24" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AR24" s="4" t="inlineStr">
@@ -5959,12 +5959,12 @@
       </c>
       <c r="AP25" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AQ25" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t/>
         </is>
       </c>
       <c r="AR25" s="4" t="inlineStr">
@@ -5994,12 +5994,12 @@
       </c>
       <c r="AW25" s="4" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AX25" s="4" t="inlineStr">
+        <is>
           <t>B</t>
-        </is>
-      </c>
-      <c r="AX25" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="AY25" s="4" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="G26" s="6" t="inlineStr">
         <is>
-          <t>Steigerung auf 65 Prozent bis 2030</t>
+          <t>Steigerung auf 65 % bis 2030</t>
         </is>
       </c>
       <c r="H26" s="4" t="inlineStr">
@@ -6147,12 +6147,12 @@
       </c>
       <c r="AJ26" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK26" s="4" t="inlineStr">
+        <is>
           <t>X</t>
-        </is>
-      </c>
-      <c r="AK26" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="AL26" s="4" t="inlineStr">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="AR27" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AS27" s="4" t="inlineStr">
@@ -6416,12 +6416,12 @@
       </c>
       <c r="AV27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K</t>
         </is>
       </c>
       <c r="AW27" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AX27" s="4" t="inlineStr">
@@ -6891,22 +6891,22 @@
         </is>
       </c>
       <c r="D30" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;30 %&lt;/b&gt; Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
+          <t>&lt;b&gt;40 %&lt;/b&gt; Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
         </is>
       </c>
       <c r="H30" s="4" t="inlineStr">
         <is>
-          <t>30 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
+          <t>40 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
         </is>
       </c>
       <c r="I30" s="4" t="inlineStr">
@@ -6921,13 +6921,13 @@
       </c>
       <c r="K30" s="4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L30" s="7">
         <v>2030</v>
       </c>
-      <c r="N30" s="7">
+      <c r="O30" s="7">
         <v>2025</v>
       </c>
       <c r="P30" s="4" t="inlineStr">
@@ -6941,14 +6941,14 @@
         </is>
       </c>
       <c r="R30" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="8">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="W30" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Der Zielwert des Indikators wurde 2025 angepasst.</t>
         </is>
       </c>
       <c r="X30" s="6" t="inlineStr">
@@ -7038,22 +7038,22 @@
       </c>
       <c r="AO30" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AP30" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AQ30" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AR30" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AS30" s="4" t="inlineStr">
@@ -7078,12 +7078,12 @@
       </c>
       <c r="AW30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AX30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AY30" s="4" t="inlineStr">
@@ -7109,22 +7109,22 @@
         </is>
       </c>
       <c r="D31" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;40 %&lt;/b&gt; Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
+          <t>&lt;b&gt;30 %&lt;/b&gt; Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr">
         <is>
-          <t>40 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
+          <t>30 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
         </is>
       </c>
       <c r="I31" s="4" t="inlineStr">
@@ -7139,13 +7139,13 @@
       </c>
       <c r="K31" s="4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L31" s="7">
         <v>2030</v>
       </c>
-      <c r="O31" s="7">
+      <c r="N31" s="7">
         <v>2025</v>
       </c>
       <c r="P31" s="4" t="inlineStr">
@@ -7159,14 +7159,14 @@
         </is>
       </c>
       <c r="R31" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="8">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="W31" s="6" t="inlineStr">
         <is>
-          <t>Der Zielwert des Indikators wurde 2025 angepasst.</t>
+          <t/>
         </is>
       </c>
       <c r="X31" s="6" t="inlineStr">
@@ -7256,22 +7256,22 @@
       </c>
       <c r="AO31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AP31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AQ31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AR31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AS31" s="4" t="inlineStr">
@@ -7296,12 +7296,12 @@
       </c>
       <c r="AW31" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AX31" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AY31" s="4" t="inlineStr">
@@ -7337,12 +7337,12 @@
       </c>
       <c r="G32" s="6" t="inlineStr">
         <is>
-          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
+          <t>Gleichberechtigte Teilhabe von Frauen in Führungspositionen im öffentlichen Dienst des Bundes bis Ende 2025</t>
         </is>
       </c>
       <c r="H32" s="4" t="inlineStr">
         <is>
-          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
+          <t>XXXEqual-opportunity participation of women and men in civil service management positions by 2025</t>
         </is>
       </c>
       <c r="I32" s="4" t="inlineStr">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="G33" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf &lt;b&gt;65 %&lt;/b&gt; bis 2030</t>
+          <t>Anstieg auf 65 % bis 2030</t>
         </is>
       </c>
       <c r="H33" s="4" t="inlineStr">
@@ -7774,7 +7774,7 @@
       </c>
       <c r="G34" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Annäherung&lt;/b&gt; der durchschnittlichen wöchentlichen Erwerbsarbeitszeit bezogen auf alle Mütter und Väter</t>
+          <t>Annäherung der durchschnittlichen wöchentlichen Erwerbsarbeitszeit bezogen auf alle Mütter und Väter</t>
         </is>
       </c>
       <c r="H34" s="4" t="inlineStr">
@@ -8117,7 +8117,7 @@
       </c>
       <c r="AO35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AP35" s="4" t="inlineStr">
@@ -8132,7 +8132,7 @@
       </c>
       <c r="AR35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AS35" s="4" t="inlineStr">
@@ -8147,7 +8147,7 @@
       </c>
       <c r="AU35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K</t>
         </is>
       </c>
       <c r="AV35" s="4" t="inlineStr">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="AW35" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t/>
         </is>
       </c>
       <c r="AX35" s="4" t="inlineStr">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="G36" s="6" t="inlineStr">
         <is>
-          <t>Anstieg des Anteils der Geschlechtergleichstellung berücksichtigenden Projektmittel in der deutschen Entwicklungszusammenarbeit bis 2030 auf ab dann mindestens 85 Prozent</t>
+          <t>Anstieg des Anteils der Geschlechtergleichstellung berücksichtigenden Projektmittel in der deutschen Entwicklungszusammenarbeit bis 2030 auf ab dann mindestens 85 %</t>
         </is>
       </c>
       <c r="H36" s="4" t="inlineStr">
@@ -8362,17 +8362,17 @@
       </c>
       <c r="AU36" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV36" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AW36" s="4" t="inlineStr">
+        <is>
           <t>K</t>
-        </is>
-      </c>
-      <c r="AV36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AW36" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="AX36" s="4" t="inlineStr">
@@ -8560,7 +8560,7 @@
       </c>
       <c r="AQ37" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AR37" s="4" t="inlineStr">
@@ -8775,7 +8775,7 @@
       </c>
       <c r="AQ38" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AR38" s="4" t="inlineStr">
@@ -9264,7 +9264,7 @@
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>W_0701a_2030</t>
+          <t>W_0701a_R</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
@@ -9278,27 +9278,27 @@
         </is>
       </c>
       <c r="D41" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="5" t="b">
         <v>0</v>
       </c>
       <c r="G41" s="6" t="inlineStr">
         <is>
-          <t>Steigerung um &lt;b&gt;2,1 %&lt;/b&gt; pro Jahr im Zeitraum von 2008 – 2050</t>
+          <t>Deutliche &lt;b&gt;Steigerung&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H41" s="4" t="inlineStr">
         <is>
-          <t>Increase by 2.1 % per year from 2008 to 2050</t>
+          <t>XXXDeutliche Steigerung</t>
         </is>
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>R</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
@@ -9308,38 +9308,28 @@
       </c>
       <c r="K41" s="4" t="inlineStr">
         <is>
-          <t>239,4</t>
-        </is>
-      </c>
-      <c r="L41" s="7">
-        <v>2050</v>
-      </c>
-      <c r="N41" s="7">
+          <t/>
+        </is>
+      </c>
+      <c r="O41" s="7">
         <v>2025</v>
       </c>
       <c r="P41" s="4" t="inlineStr">
         <is>
-          <t>Ziel: 239</t>
+          <t/>
         </is>
       </c>
       <c r="Q41" s="4" t="inlineStr">
         <is>
-          <t>Target:
-239</t>
+          <t/>
         </is>
       </c>
       <c r="R41" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S41" s="8">
-        <v>16</v>
-      </c>
-      <c r="T41" s="8">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="W41" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Der Zielwert des Indikators wurde 2025 angepasst.</t>
         </is>
       </c>
       <c r="X41" s="6" t="inlineStr">
@@ -9429,47 +9419,47 @@
       </c>
       <c r="AO41" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AP41" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AQ41" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AR41" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AS41" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AT41" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AU41" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AV41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AW41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AX41" s="4" t="inlineStr">
@@ -9486,7 +9476,7 @@
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>W_0701a_R</t>
+          <t>W_0701ax_2030</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
@@ -9500,27 +9490,27 @@
         </is>
       </c>
       <c r="D42" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="5" t="b">
         <v>0</v>
       </c>
       <c r="G42" s="6" t="inlineStr">
         <is>
-          <t>Deutliche &lt;b&gt;Steigerung&lt;/b&gt;</t>
+          <t>Steigerung um &lt;b&gt;2,1 %&lt;/b&gt; pro Jahr im Zeitraum von 2008 – 2050</t>
         </is>
       </c>
       <c r="H42" s="4" t="inlineStr">
         <is>
-          <t>XXXDeutliche Steigerung</t>
+          <t>Increase by 2.1 % per year from 2008 to 2050</t>
         </is>
       </c>
       <c r="I42" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
@@ -9530,28 +9520,38 @@
       </c>
       <c r="K42" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O42" s="7">
+          <t>239,4</t>
+        </is>
+      </c>
+      <c r="L42" s="7">
+        <v>2050</v>
+      </c>
+      <c r="N42" s="7">
         <v>2025</v>
       </c>
       <c r="P42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ziel: 239</t>
         </is>
       </c>
       <c r="Q42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Target:
+239</t>
         </is>
       </c>
       <c r="R42" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S42" s="8">
+        <v>16</v>
+      </c>
+      <c r="T42" s="8">
+        <v>240</v>
       </c>
       <c r="W42" s="6" t="inlineStr">
         <is>
-          <t>Das Ziel des Indikators wurde 2025 angepasst.</t>
+          <t/>
         </is>
       </c>
       <c r="X42" s="6" t="inlineStr">
@@ -9641,47 +9641,47 @@
       </c>
       <c r="AO42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AP42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AQ42" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AR42" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AS42" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AT42" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AU42" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AV42" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AW42" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AX42" s="4" t="inlineStr">
@@ -10158,12 +10158,12 @@
       </c>
       <c r="G45" s="6" t="inlineStr">
         <is>
-          <t>Senkung um mindestens &lt;b&gt;39,4 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt; gegenüber 2008</t>
+          <t>Senkung um mindestens &lt;b&gt;39,3 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt; gegenüber 2008</t>
         </is>
       </c>
       <c r="H45" s="4" t="inlineStr">
         <is>
-          <t>Reduction by at least &lt;b&gt;39,4 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt; compared to 2008</t>
+          <t>Reduction by at least &lt;b&gt;39,3 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt; compared to 2008</t>
         </is>
       </c>
       <c r="I45" s="4" t="inlineStr">
@@ -11250,7 +11250,7 @@
         </is>
       </c>
       <c r="D50" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="5" t="b">
         <v>0</v>
@@ -13446,7 +13446,7 @@
       </c>
       <c r="G60" s="6" t="inlineStr">
         <is>
-          <t>Jährliches Staatsdefizit kleiner als &lt;b&gt;3 %&lt;/b&gt; des Bruttoinlandsprodukts (BIP), Beibehaltung bis 2030</t>
+          <t>Jährliches Staatsdefizit kleiner als 3 % des Bruttoinlandsprodukts (BIP); Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="H60" s="4" t="inlineStr">
@@ -13661,7 +13661,7 @@
       </c>
       <c r="G61" s="6" t="inlineStr">
         <is>
-          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. &lt;b&gt;0,5 %&lt;/b&gt; des Bruttoinlandsprodukts (BIP), Beibehaltung bis 2030</t>
+          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des Bruttoinlandsprodukts (BIP); Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="H61" s="4" t="inlineStr">
@@ -13879,7 +13879,7 @@
       </c>
       <c r="G62" s="6" t="inlineStr">
         <is>
-          <t>Schuldenstandsquote max. &lt;b&gt;60 %&lt;/b&gt; des Bruttoinlandsprodukts (BIP), Beibehaltung bis 2030</t>
+          <t>Schuldenstandsquote max. 60 % des Bruttoinlandsprodukts (BIP); Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="H62" s="4" t="inlineStr">
@@ -14097,7 +14097,7 @@
       </c>
       <c r="G63" s="6" t="inlineStr">
         <is>
-          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
+          <t>Angemessene Entwicklung des Anteils; Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="H63" s="4" t="inlineStr">
@@ -14306,12 +14306,12 @@
       </c>
       <c r="G64" s="6" t="inlineStr">
         <is>
-          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
+          <t>Stetiges und angemessenes Wirtschaftswachstum bis 2030</t>
         </is>
       </c>
       <c r="H64" s="4" t="inlineStr">
         <is>
-          <t>Steady and appropriate economic growth</t>
+          <t>Steady and appropriate economic growth XXXbis 2030</t>
         </is>
       </c>
       <c r="I64" s="4" t="inlineStr">
@@ -14505,22 +14505,22 @@
         </is>
       </c>
       <c r="D65" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="6" t="inlineStr">
         <is>
-          <t>Erhöhung auf &lt;b&gt;78 %&lt;/b&gt; bis 2030</t>
+          <t>Erhöhung auf&lt;b&gt; 83 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H65" s="4" t="inlineStr">
         <is>
-          <t>Increase to 78 % by 2030</t>
+          <t>Increase to 83 % by 2030</t>
         </is>
       </c>
       <c r="I65" s="4" t="inlineStr">
@@ -14535,13 +14535,13 @@
       </c>
       <c r="K65" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>83</t>
         </is>
       </c>
       <c r="L65" s="7">
         <v>2030</v>
       </c>
-      <c r="N65" s="7">
+      <c r="O65" s="7">
         <v>2025</v>
       </c>
       <c r="P65" s="4" t="inlineStr">
@@ -14561,16 +14561,16 @@
         <v>23.8</v>
       </c>
       <c r="T65" s="8">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="W65" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Der Zielwert des Indikators wurde 2025 angepasst.</t>
         </is>
       </c>
       <c r="X65" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>XXX</t>
         </is>
       </c>
       <c r="Y65" s="4" t="inlineStr">
@@ -14655,12 +14655,12 @@
       </c>
       <c r="AO65" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AP65" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AQ65" s="4" t="inlineStr">
@@ -14680,22 +14680,22 @@
       </c>
       <c r="AT65" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AU65" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AV65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AW65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AX65" s="4" t="inlineStr">
@@ -14712,7 +14712,7 @@
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>W_0805a_2030X</t>
+          <t>W_0805ax_2030</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
@@ -14726,22 +14726,22 @@
         </is>
       </c>
       <c r="D66" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="6" t="inlineStr">
         <is>
-          <t>Erhöhung auf&lt;b&gt; 83 %&lt;/b&gt; bis 2030</t>
+          <t>Erhöhung auf &lt;b&gt;78 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H66" s="4" t="inlineStr">
         <is>
-          <t>Increase to 83 % by 2030</t>
+          <t>Increase to 78 % by 2030</t>
         </is>
       </c>
       <c r="I66" s="4" t="inlineStr">
@@ -14756,13 +14756,13 @@
       </c>
       <c r="K66" s="4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>78</t>
         </is>
       </c>
       <c r="L66" s="7">
         <v>2030</v>
       </c>
-      <c r="O66" s="7">
+      <c r="N66" s="7">
         <v>2025</v>
       </c>
       <c r="P66" s="4" t="inlineStr">
@@ -14782,16 +14782,16 @@
         <v>23.8</v>
       </c>
       <c r="T66" s="8">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="W66" s="6" t="inlineStr">
         <is>
-          <t>Der Zielwert des Indikators wurde 2025 angepasst.</t>
+          <t/>
         </is>
       </c>
       <c r="X66" s="6" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t/>
         </is>
       </c>
       <c r="Y66" s="4" t="inlineStr">
@@ -14876,12 +14876,12 @@
       </c>
       <c r="AO66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AP66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AQ66" s="4" t="inlineStr">
@@ -14901,22 +14901,22 @@
       </c>
       <c r="AT66" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AU66" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AV66" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t/>
         </is>
       </c>
       <c r="AW66" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t/>
         </is>
       </c>
       <c r="AX66" s="4" t="inlineStr">
@@ -14947,22 +14947,22 @@
         </is>
       </c>
       <c r="D67" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="6" t="inlineStr">
         <is>
-          <t>Erhöhung auf &lt;b&gt;60 %&lt;/b&gt; bis 2030</t>
+          <t>Erhöhung auf &lt;b&gt;77 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H67" s="4" t="inlineStr">
         <is>
-          <t>Increase to 60 % by 2030</t>
+          <t>Increase to 77 % by 2030</t>
         </is>
       </c>
       <c r="I67" s="4" t="inlineStr">
@@ -14977,13 +14977,13 @@
       </c>
       <c r="K67" s="4" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>77</t>
         </is>
       </c>
       <c r="L67" s="7">
         <v>2030</v>
       </c>
-      <c r="N67" s="7">
+      <c r="O67" s="7">
         <v>2025</v>
       </c>
       <c r="P67" s="4" t="inlineStr">
@@ -15003,16 +15003,16 @@
         <v>23.8</v>
       </c>
       <c r="T67" s="8">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="W67" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Der Zielwert des Indikators wurde 2025 angepasst.</t>
         </is>
       </c>
       <c r="X67" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>XXX</t>
         </is>
       </c>
       <c r="Y67" s="4" t="inlineStr">
@@ -15097,12 +15097,12 @@
       </c>
       <c r="AO67" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AP67" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AQ67" s="4" t="inlineStr">
@@ -15132,12 +15132,12 @@
       </c>
       <c r="AV67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AW67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AX67" s="4" t="inlineStr">
@@ -15154,7 +15154,7 @@
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>W_0805b_2030X</t>
+          <t>W_0805bx_2030</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
@@ -15168,22 +15168,22 @@
         </is>
       </c>
       <c r="D68" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="6" t="inlineStr">
         <is>
-          <t>Erhöhung auf &lt;b&gt;77 %&lt;/b&gt; bis 2030</t>
+          <t>Erhöhung auf &lt;b&gt;60 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H68" s="4" t="inlineStr">
         <is>
-          <t>Increase to 77 % by 2030</t>
+          <t>Increase to 60 % by 2030</t>
         </is>
       </c>
       <c r="I68" s="4" t="inlineStr">
@@ -15198,13 +15198,13 @@
       </c>
       <c r="K68" s="4" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L68" s="7">
         <v>2030</v>
       </c>
-      <c r="O68" s="7">
+      <c r="N68" s="7">
         <v>2025</v>
       </c>
       <c r="P68" s="4" t="inlineStr">
@@ -15224,16 +15224,16 @@
         <v>23.8</v>
       </c>
       <c r="T68" s="8">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="W68" s="6" t="inlineStr">
         <is>
-          <t>Der Zielwert des Indikators wurde 2025 angepasst.</t>
+          <t/>
         </is>
       </c>
       <c r="X68" s="6" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t/>
         </is>
       </c>
       <c r="Y68" s="4" t="inlineStr">
@@ -15318,12 +15318,12 @@
       </c>
       <c r="AO68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AP68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AQ68" s="4" t="inlineStr">
@@ -15353,12 +15353,12 @@
       </c>
       <c r="AV68" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AW68" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AX68" s="4" t="inlineStr">
@@ -15399,7 +15399,7 @@
       </c>
       <c r="G69" s="6" t="inlineStr">
         <is>
-          <t>Anteil der tarifgebundenen Beschäftigungsverhältnisse bis 2030 &lt;b&gt;erhöhen&lt;/b&gt;</t>
+          <t>Anteil der tarifgebundenen Beschäftigungsverhältnisse bis 2030 erhöhen</t>
         </is>
       </c>
       <c r="H69" s="4" t="inlineStr">
@@ -15608,7 +15608,7 @@
       </c>
       <c r="G70" s="6" t="inlineStr">
         <is>
-          <t>Bis zum Jahr 2030 wird die Anzahl der freiwilligen Nachhaltigkeitsberichte gemäß Deutschem Nachhaltigkeitskodex (DNK) deutlich &lt;b&gt;steigen&lt;/b&gt;</t>
+          <t>Bis zum Jahr 2030 wird die Anzahl der freiwilligen Nachhaltigkeitsberichte gemäß Deutschem Nachhaltigkeitskodex (DNK) deutlich steigen</t>
         </is>
       </c>
       <c r="H70" s="4" t="inlineStr">
@@ -15817,12 +15817,12 @@
       </c>
       <c r="G71" s="6" t="inlineStr">
         <is>
-          <t>Jährlich mindestens &lt;b&gt;3,5 %&lt;/b&gt; des BIP bis &lt;b&gt;2025&lt;/b&gt;</t>
+          <t>Jährlich mindestens &lt;b&gt;3,5 %&lt;/b&gt; des Bruttoinlandsprodukts (BIP) bis &lt;b&gt;2025&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H71" s="4" t="inlineStr">
         <is>
-          <t>At least &lt;b&gt;3.5 %&lt;/b&gt; of GDP per year by &lt;b&gt;2025&lt;/b&gt;</t>
+          <t>At least &lt;b&gt;3.5 %&lt;/b&gt; of Gross domestic product (GDP) per year by &lt;b&gt;2025&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I71" s="4" t="inlineStr">
@@ -16041,12 +16041,12 @@
       </c>
       <c r="G72" s="6" t="inlineStr">
         <is>
-          <t>Jährlich mindestens &lt;b&gt;3 %&lt;/b&gt; des BIP bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Jährlich mindestens &lt;b&gt;3 %&lt;/b&gt; des Bruttoinlandsprodukts (BIP) bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H72" s="4" t="inlineStr">
         <is>
-          <t>At least &lt;b&gt;3 %&lt;/b&gt; of GDP per year by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>At least &lt;b&gt;3 %&lt;/b&gt; of Gross domestic product (GDP) per year by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I72" s="4" t="inlineStr">
@@ -16256,12 +16256,12 @@
       </c>
       <c r="G73" s="6" t="inlineStr">
         <is>
-          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
+          <t>Flächendeckende Gigabit-Breitbandversorgung bis 2025</t>
         </is>
       </c>
       <c r="H73" s="4" t="inlineStr">
         <is>
-          <t>Universal gigabit network Roll-out by 2025</t>
+          <t>XXXFlächendeckende Gigabit-Breitbandversorgung bis 2025</t>
         </is>
       </c>
       <c r="I73" s="4" t="inlineStr">
@@ -16471,7 +16471,7 @@
       </c>
       <c r="G74" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Erhöhung&lt;/b&gt; des Anteils der ausländischen Schulabsolvierenden und &lt;b&gt;Angleichung&lt;/b&gt; an die Quote deutscher Schulabsolvierender bis 2030</t>
+          <t>Erhöhung des Anteils der ausländischen Schulabsolvierenden und Angleichung an die Quote deutscher Schulabsolvierender bis 2030</t>
         </is>
       </c>
       <c r="H74" s="4" t="inlineStr">
@@ -16680,7 +16680,7 @@
       </c>
       <c r="G75" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Erhöhung&lt;/b&gt; des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss</t>
+          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss</t>
         </is>
       </c>
       <c r="H75" s="4" t="inlineStr">
@@ -16889,7 +16889,7 @@
       </c>
       <c r="G76" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Angleichung&lt;/b&gt; des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss an die Quote deutscher Schulabgänger bis 2030</t>
+          <t>Angleichung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss an die Quote deutscher Schulabgänger bis 2030</t>
         </is>
       </c>
       <c r="H76" s="4" t="inlineStr">
@@ -17142,12 +17142,12 @@
       </c>
       <c r="W77" s="6" t="inlineStr">
         <is>
-          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung sind ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren und die Berechnung der Wettersymbole nicht möglich (Zeitreihenbruch).</t>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nicht möglich (Zeitreihenbruch). Die Bewertung des Indiaktors kann daher aktuell nur für das Berichtsjahr 2023 durchgeführt werden und auch diese ist unsicher, da nur vier statt wie sonst üblich sechs Datenpunkte für die Bewertung zur Verfügung standen.</t>
         </is>
       </c>
       <c r="X77" s="6" t="inlineStr">
         <is>
-          <t>The "Life in Europe" survey (EU-SILC), which was previously conducted separately, was integrated into the microcensus as a sub-sample in 2020. Due to the change from a voluntary survey to a survey requiring information in part, combined with a new sample composition, it is not possible to compare the data of the survey year 2020 with previous years to evaluate the development of the indicators in these years (break in time series).</t>
+          <t>XXXThe "Life in Europe" survey (EU-SILC), which was previously conducted separately, was integrated into the microcensus as a sub-sample in 2020. Due to the change from a voluntary survey to a survey requiring information in part, combined with a new sample composition, it is not possible to compare the data of the survey year 2020 with previous years to evaluate the development of the indicators in these years (break in time series).</t>
         </is>
       </c>
       <c r="Y77" s="4" t="inlineStr">
@@ -17257,17 +17257,17 @@
       </c>
       <c r="AT77" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AU77" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AV77" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AW77" s="4" t="inlineStr">
@@ -17313,7 +17313,7 @@
       </c>
       <c r="G78" s="6" t="inlineStr">
         <is>
-          <t>Senkung auf durchschnittlich unter &lt;b&gt;30 ha pro Tag&lt;/b&gt; bis 2030</t>
+          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
       <c r="H78" s="4" t="inlineStr">
@@ -17528,12 +17528,12 @@
       </c>
       <c r="G79" s="6" t="inlineStr">
         <is>
-          <t>Netto-Null bis 2050</t>
+          <t>Flächenverbrauch "Netto-Null" bis 2050</t>
         </is>
       </c>
       <c r="H79" s="4" t="inlineStr">
         <is>
-          <t>XXXNetto-Null bis 2050</t>
+          <t>XXXFlächenverbrauch Netto-Null bis 2050</t>
         </is>
       </c>
       <c r="I79" s="4" t="inlineStr">
@@ -17746,7 +17746,7 @@
       </c>
       <c r="G80" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Verringerung&lt;/b&gt; des einwohnerbezogenen Freiflächenverlustes</t>
+          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
         </is>
       </c>
       <c r="H80" s="4" t="inlineStr">
@@ -17955,7 +17955,7 @@
       </c>
       <c r="G81" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Keine Verringerung&lt;/b&gt; der Siedlungsdichte</t>
+          <t>Keine Verringerung der Siedlungsdichte</t>
         </is>
       </c>
       <c r="H81" s="4" t="inlineStr">
@@ -18164,7 +18164,7 @@
       </c>
       <c r="G82" s="6" t="inlineStr">
         <is>
-          <t>Senkung um &lt;b&gt;15&lt;/b&gt; bis 20 % bis 2030</t>
+          <t>Senkung um 15 bis 20 % bis 2030 gegenüber 2015</t>
         </is>
       </c>
       <c r="H82" s="4" t="inlineStr">
@@ -18385,7 +18385,7 @@
       </c>
       <c r="G83" s="6" t="inlineStr">
         <is>
-          <t>Senkung um &lt;b&gt;15&lt;/b&gt; bis 20 % bis 2030</t>
+          <t>Senkung um 15 bis 20 % bis 2030 gegenüber 2015</t>
         </is>
       </c>
       <c r="H83" s="4" t="inlineStr">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="G84" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Verringerung &lt;/b&gt;der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
+          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="H84" s="4" t="inlineStr">
@@ -18815,7 +18815,7 @@
       </c>
       <c r="G85" s="6" t="inlineStr">
         <is>
-          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf &lt;b&gt;13 %&lt;/b&gt; bis 2030</t>
+          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
         </is>
       </c>
       <c r="H85" s="4" t="inlineStr">
@@ -19239,7 +19239,7 @@
       </c>
       <c r="G87" s="6" t="inlineStr">
         <is>
-          <t>Steigerung des Marktanteils auf &lt;b&gt;34 %&lt;/b&gt; bis 2030</t>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="H87" s="4" t="inlineStr">
@@ -19454,7 +19454,7 @@
       </c>
       <c r="G88" s="6" t="inlineStr">
         <is>
-          <t>Kontinuierliche &lt;b&gt;Reduzierung &lt;/b&gt;</t>
+          <t>Kontinuierliche Reduzierung</t>
         </is>
       </c>
       <c r="H88" s="4" t="inlineStr">
@@ -19663,7 +19663,7 @@
       </c>
       <c r="G89" s="6" t="inlineStr">
         <is>
-          <t>Kontinuierliche &lt;b&gt;Reduzierung &lt;/b&gt;</t>
+          <t>Kontinuierliche Reduzierung</t>
         </is>
       </c>
       <c r="H89" s="4" t="inlineStr">
@@ -19806,7 +19806,7 @@
       </c>
       <c r="AR89" s="4" t="inlineStr">
         <is>
-          <t>Sp</t>
+          <t/>
         </is>
       </c>
       <c r="AS89" s="4" t="inlineStr">
@@ -19872,7 +19872,7 @@
       </c>
       <c r="G90" s="6" t="inlineStr">
         <is>
-          <t>Kontinuierliche &lt;b&gt;Reduzierung &lt;/b&gt;</t>
+          <t>Kontinuierliche Reduzierung</t>
         </is>
       </c>
       <c r="H90" s="4" t="inlineStr">
@@ -20015,7 +20015,7 @@
       </c>
       <c r="AR90" s="4" t="inlineStr">
         <is>
-          <t>Sp</t>
+          <t/>
         </is>
       </c>
       <c r="AS90" s="4" t="inlineStr">
@@ -20081,7 +20081,7 @@
       </c>
       <c r="G91" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;5 000 &lt;/b&gt;Organisationsstandorte bis 2030</t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="H91" s="4" t="inlineStr">
@@ -20299,12 +20299,12 @@
       </c>
       <c r="G92" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Erhöhung&lt;/b&gt; der Anzahl der Kultureinrichtungen mit entsprechenden Zertifikaten bis 2030</t>
+          <t>Erhöhung der Anzahl von Kultureinrichtungen mit entsprechenden Zertifikaten bis 2030</t>
         </is>
       </c>
       <c r="H92" s="4" t="inlineStr">
         <is>
-          <t>XXXErhöhung der Anzahl der Kultureinrichtungen mit entsprechenden Zertifikaten bis 2030</t>
+          <t>XXXErhöhung der Anzahl von Kultureinrichtungen mit entsprechenden Zertifikaten bis 2030</t>
         </is>
       </c>
       <c r="I92" s="4" t="inlineStr">
@@ -20508,7 +20508,7 @@
       </c>
       <c r="G93" s="6" t="inlineStr">
         <is>
-          <t>Deutliche &lt;b&gt;Steigerung&lt;/b&gt; des Anteils der Vergaben in der öffentlichen Beschaffung, bei denen Nachhaltigkeitskriterien berücksichtigt werden, so dass dies bis 2030 im Regelfall erfolgt. Dabei ist zu berücksichtigen, dass die Beschaffungen zur Deckung der Bedarfe der Bundeswehr, der Bundespolizei sowie des Zivil- und Katastrophenschutzes nicht zu einer Steigerung beitragen.</t>
+          <t>Deutliche Steigerung des Anteils der Vergaben in der öffentlichen Beschaffung, bei denen Nachhaltigkeitskriterien berücksichtigt werden, so dass dies bis 2030 im Regelfall erfolgt. Dabei ist zu berücksichtigen, dass die Beschaffungen zur Deckung der Bedarfe der Bundeswehr, der Bundespolizei sowie des Zivil- und Katastrophenschutzes nicht zu einer Steigerung beitragen.</t>
         </is>
       </c>
       <c r="H93" s="4" t="inlineStr">
@@ -20666,12 +20666,12 @@
       </c>
       <c r="AU93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AV93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K</t>
         </is>
       </c>
       <c r="AW93" s="4" t="inlineStr">
@@ -20681,7 +20681,7 @@
       </c>
       <c r="AX93" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t/>
         </is>
       </c>
       <c r="AY93" s="4" t="inlineStr">
@@ -20717,7 +20717,7 @@
       </c>
       <c r="G94" s="6" t="inlineStr">
         <is>
-          <t>Signifikante &lt;b&gt;Senkung&lt;/b&gt;</t>
+          <t>Signifikante Senkung</t>
         </is>
       </c>
       <c r="H94" s="4" t="inlineStr">
@@ -20926,7 +20926,7 @@
       </c>
       <c r="G95" s="6" t="inlineStr">
         <is>
-          <t>Steigerung auf &lt;b&gt;50 %&lt;/b&gt; bis 2026</t>
+          <t>Steigerung auf 50 % bis 2026</t>
         </is>
       </c>
       <c r="H95" s="4" t="inlineStr">
@@ -21141,7 +21141,7 @@
       </c>
       <c r="G96" s="6" t="inlineStr">
         <is>
-          <t>Senkung auf unter &lt;b&gt;10 %&lt;/b&gt; bis 2030</t>
+          <t>Senkung auf unter 10 % bis 2030</t>
         </is>
       </c>
       <c r="H96" s="4" t="inlineStr">
@@ -21356,7 +21356,7 @@
       </c>
       <c r="G97" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;40 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;40 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt; gegenüber 1990</t>
         </is>
       </c>
       <c r="H97" s="4" t="inlineStr">
@@ -21571,7 +21571,7 @@
       </c>
       <c r="G98" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt; gegenüber 1990</t>
         </is>
       </c>
       <c r="H98" s="4" t="inlineStr">
@@ -21792,7 +21792,7 @@
       </c>
       <c r="G99" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;88 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;88 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt; gegenüber 1990</t>
         </is>
       </c>
       <c r="H99" s="4" t="inlineStr">
@@ -22237,7 +22237,7 @@
       </c>
       <c r="G101" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;55 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;55 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt; gegenüber 1990</t>
         </is>
       </c>
       <c r="H101" s="4" t="inlineStr">
@@ -22673,7 +22673,7 @@
       </c>
       <c r="G103" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;70 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;70 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt; gegenüber 1990</t>
         </is>
       </c>
       <c r="H103" s="4" t="inlineStr">
@@ -22891,7 +22891,7 @@
       </c>
       <c r="G104" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;95 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;95 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt; gegenüber 1990</t>
         </is>
       </c>
       <c r="H104" s="4" t="inlineStr">
@@ -23542,7 +23542,7 @@
       </c>
       <c r="G107" s="6" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee einmündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="H107" s="4" t="inlineStr">
@@ -23754,7 +23754,7 @@
       </c>
       <c r="G108" s="6" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee einmündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="H108" s="4" t="inlineStr">
@@ -24013,7 +24013,7 @@
       </c>
       <c r="W109" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
         </is>
       </c>
       <c r="X109" s="6" t="inlineStr">
@@ -24133,7 +24133,7 @@
       </c>
       <c r="AU109" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>E</t>
         </is>
       </c>
       <c r="AV109" s="4" t="inlineStr">
@@ -24408,7 +24408,7 @@
       </c>
       <c r="G111" s="6" t="inlineStr">
         <is>
-          <t>Erreichen des Indexwertes &lt;b&gt;100&lt;/b&gt; bis 2030</t>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="H111" s="4" t="inlineStr">
@@ -24626,7 +24626,7 @@
       </c>
       <c r="G112" s="6" t="inlineStr">
         <is>
-          <t>Verringerung um &lt;b&gt;35 %&lt;/b&gt; bis 2030 gegenüber 2005</t>
+          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
         </is>
       </c>
       <c r="H112" s="4" t="inlineStr">
@@ -24843,7 +24843,7 @@
       </c>
       <c r="G113" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Steigerung&lt;/b&gt; der Zahlungen bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="H113" s="4" t="inlineStr">
@@ -25052,7 +25052,7 @@
       </c>
       <c r="G114" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Steigerung&lt;/b&gt; der Zahlungen bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="H114" s="4" t="inlineStr">
@@ -25261,7 +25261,7 @@
       </c>
       <c r="G115" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Sinkende&lt;/b&gt; Zunahme der Bodenversiegelung</t>
+          <t>Sinkende Zunahme der Bodenversiegelung</t>
         </is>
       </c>
       <c r="H115" s="4" t="inlineStr">
@@ -25470,7 +25470,7 @@
       </c>
       <c r="G116" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Steigerung&lt;/b&gt; der nachhaltigen Landnutzung (durch Schutz, nachhaltige Bewirtschaftung, Wiederherstellung) bis 2030</t>
+          <t>Steigerung der nachhaltigen Landnutzung (durch Schutz, nachhaltige Bewirtschaftung, Wiederherstellung) bis 2030</t>
         </is>
       </c>
       <c r="H116" s="4" t="inlineStr">
@@ -25679,7 +25679,7 @@
       </c>
       <c r="G117" s="6" t="inlineStr">
         <is>
-          <t>Von 2025 bis 2030 Ausbildung von mindestens &lt;b&gt;1.000&lt;/b&gt; Personen durch Expertinnen und Experten der Bundeswehr</t>
+          <t>Von 2025 bis 2030 Ausbildung von mindestens 1.000 Personen durch Expertinnen und Experten der Bundeswehr</t>
         </is>
       </c>
       <c r="H117" s="4" t="inlineStr">
@@ -26312,7 +26312,7 @@
       </c>
       <c r="G120" s="6" t="inlineStr">
         <is>
-          <t>Verbesserung auf mindestens &lt;b&gt;8&lt;/b&gt; von 11 möglichen Punkten bis 2029</t>
+          <t>Verbesserung auf mindestens 8 von 11 möglichen Punkten bis 2029</t>
         </is>
       </c>
       <c r="H120" s="4" t="inlineStr">
@@ -26527,7 +26527,7 @@
       </c>
       <c r="G121" s="6" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf &lt;b&gt;0,7 %&lt;/b&gt; des  Bruttonationaleinkommens bis 2030</t>
+          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
         </is>
       </c>
       <c r="H121" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -6820,32 +6820,32 @@
       </c>
       <c r="AO29" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AP29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AQ29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AU29" s="4" t="inlineStr">
@@ -17257,7 +17257,7 @@
       </c>
       <c r="AT77" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AU77" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -6246,7 +6246,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="5" t="b">
         <v>0</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -17142,7 +17142,7 @@
       </c>
       <c r="W77" s="6" t="inlineStr">
         <is>
-          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nicht möglich (Zeitreihenbruch). Die Bewertung des Indiaktors kann daher aktuell nur für das Berichtsjahr 2023 durchgeführt werden und auch diese ist unsicher, da nur vier statt wie sonst üblich sechs Datenpunkte für die Bewertung zur Verfügung standen.</t>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nicht möglich (Zeitreihenbruch). Die Bewertung des Indiaktors kann daher ab 2020 nur für das Berichtsjahr 2023 durchgeführt werden und auch diese ist unsicher, da nur vier statt wie sonst üblich sechs Datenpunkte für die Bewertung zur Verfügung standen.</t>
         </is>
       </c>
       <c r="X77" s="6" t="inlineStr">
@@ -18859,7 +18859,7 @@
       </c>
       <c r="W85" s="6" t="inlineStr">
         <is>
-          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren  nicht möglich (Zeitreihenbruch). Die Bewertung des Indiaktors kann daher nur für das Berichtsjahr 2023 durchgeführt werden und auch diese ist unsicher, da nur vier statt wie sonst üblich sechs Datenpunkte für die Bewertung zur Verfügung standen.</t>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren  nicht möglich (Zeitreihenbruch). Die Bewertung des Indiaktors kann daher ab 2020 nur für das Berichtsjahr 2023 durchgeführt werden und auch diese ist unsicher, da nur vier statt wie sonst üblich sechs Datenpunkte für die Bewertung zur Verfügung standen.</t>
         </is>
       </c>
       <c r="X85" s="6" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -7337,7 +7337,7 @@
       </c>
       <c r="G32" s="6" t="inlineStr">
         <is>
-          <t>Gleichberechtigte Teilhabe von Frauen in Führungspositionen im öffentlichen Dienst des Bundes bis Ende 2025</t>
+          <t>Gleichberechtigte Teilhabe von Frauen an Führungspositionen im öffentlichen Dienst des Bundes bis Ende 2025</t>
         </is>
       </c>
       <c r="H32" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -19781,47 +19781,47 @@
       </c>
       <c r="AM89" s="4" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AN89" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AN89" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="AO89" s="4" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP89" s="4" t="inlineStr">
+        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AP89" s="4" t="inlineStr">
+      <c r="AQ89" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR89" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS89" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AT89" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU89" s="4" t="inlineStr">
         <is>
           <t>L</t>
-        </is>
-      </c>
-      <c r="AQ89" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AR89" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AS89" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AT89" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AU89" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="AV89" s="4" t="inlineStr">
@@ -19990,47 +19990,47 @@
       </c>
       <c r="AM90" s="4" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AN90" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AN90" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="AO90" s="4" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP90" s="4" t="inlineStr">
+        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AP90" s="4" t="inlineStr">
+      <c r="AQ90" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR90" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS90" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT90" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU90" s="4" t="inlineStr">
         <is>
           <t>L</t>
-        </is>
-      </c>
-      <c r="AQ90" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AR90" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AS90" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AT90" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AU90" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="AV90" s="4" t="inlineStr">
@@ -26567,7 +26567,7 @@
         <v>1</v>
       </c>
       <c r="S121" s="8">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T121" s="8">
         <v>0.8</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -9006,27 +9006,27 @@
       </c>
       <c r="AS39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AT39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AU39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AV39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AW39" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AX39" s="4" t="inlineStr">
@@ -9227,27 +9227,27 @@
       </c>
       <c r="AS40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AT40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AU40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AV40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AW40" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AX40" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -8896,7 +8896,7 @@
       </c>
       <c r="W39" s="6" t="inlineStr">
         <is>
-          <t>Durch die methodische Änderung in 2019 ist ein Vergleich der Daten der Erhebungsjahre ab 2019 mit den Vorjahren nicht möglich (Zeitreihenbruch). Die Bewertung des Indiaktors kann daher nur für das Berichtsjahr 2023 durchgeführt werden und auch diese ist unsicher, da nur fünf statt wie sonst üblich sechs Datenpunkte für die Bewertung zur Verfügung standen.</t>
+          <t>Durch die methodische Änderung in 2019 ist ein Vergleich der Daten der Erhebungsjahre ab 2019 mit den Vorjahren nicht möglich (Zeitreihenbruch). Die Bewertung des Indiaktors kann daher für das Berichtsjahr 2023 nicht durchgeführt werden, da zu wenig Datenpunkte für die Bewertung zur Verfügung standen.</t>
         </is>
       </c>
       <c r="X39" s="6" t="inlineStr">
@@ -9117,7 +9117,7 @@
       </c>
       <c r="W40" s="6" t="inlineStr">
         <is>
-          <t>Durch die methodische Änderung in 2019 ist ein Vergleich der Daten der Erhebungsjahre ab 2019 mit den Vorjahren nicht möglich (Zeitreihenbruch). Die Bewertung des Indiaktors kann daher nur für das Berichtsjahr 2023 durchgeführt werden und auch diese ist unsicher, da nur fünf statt wie sonst üblich sechs Datenpunkte für die Bewertung zur Verfügung standen.</t>
+          <t>Durch die methodische Änderung in 2019 ist ein Vergleich der Daten der Erhebungsjahre ab 2019 mit den Vorjahren nicht möglich (Zeitreihenbruch). Die Bewertung des Indiaktors kann daher für das Berichtsjahr 2023 nicht durchgeführt werden, da zu wenig Datenpunkte für die Bewertung zur Verfügung standen.</t>
         </is>
       </c>
       <c r="X40" s="6" t="inlineStr">
@@ -23496,12 +23496,12 @@
       </c>
       <c r="AV106" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AW106" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AX106" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -2519,7 +2519,7 @@
       </c>
       <c r="AP9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AQ9" s="4" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="AR9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AS9" s="4" t="inlineStr">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="AT9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AU9" s="4" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="AV9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K</t>
         </is>
       </c>
       <c r="AW9" s="4" t="inlineStr">
@@ -3317,22 +3317,22 @@
       </c>
       <c r="AC13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AD13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AE13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AF13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AG13" s="4" t="inlineStr">
@@ -3372,22 +3372,22 @@
       </c>
       <c r="AN13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AO13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AP13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AQ13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K</t>
         </is>
       </c>
       <c r="AR13" s="4" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="AU17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K</t>
         </is>
       </c>
       <c r="AV17" s="4" t="inlineStr">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="AW17" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t/>
         </is>
       </c>
       <c r="AX17" s="4" t="inlineStr">
@@ -5346,12 +5346,12 @@
       </c>
       <c r="AW22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K</t>
         </is>
       </c>
       <c r="AX22" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t/>
         </is>
       </c>
       <c r="AY22" s="4" t="inlineStr">
@@ -6396,22 +6396,22 @@
       </c>
       <c r="AR27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AS27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AT27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AU27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AV27" s="4" t="inlineStr">
@@ -6865,7 +6865,7 @@
       </c>
       <c r="AX29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AY29" s="4" t="inlineStr">
@@ -7942,7 +7942,7 @@
       </c>
       <c r="AW34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AX34" s="4" t="inlineStr">
@@ -16405,17 +16405,17 @@
       </c>
       <c r="AR73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AS73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AT73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AU73" s="4" t="inlineStr">
@@ -16425,7 +16425,7 @@
       </c>
       <c r="AV73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K</t>
         </is>
       </c>
       <c r="AW73" s="4" t="inlineStr">
@@ -21105,7 +21105,7 @@
       </c>
       <c r="AX95" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t/>
         </is>
       </c>
       <c r="AY95" s="4" t="inlineStr">
@@ -25679,7 +25679,7 @@
       </c>
       <c r="G117" s="6" t="inlineStr">
         <is>
-          <t>Von 2025 bis 2030 Ausbildung von mindestens 1.000 Personen durch Expertinnen und Experten der Bundeswehr</t>
+          <t>Von 2025 bis 2030 Ausbildung von mindestens 1000 Personen durch Expertinnen und Experten der Bundeswehr</t>
         </is>
       </c>
       <c r="H117" s="4" t="inlineStr">
@@ -26067,7 +26067,7 @@
       </c>
       <c r="AX118" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AY118" s="4" t="inlineStr">
@@ -26276,7 +26276,7 @@
       </c>
       <c r="AX119" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AY119" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -551,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY124"/>
+  <dimension ref="A1:AY123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -13843,7 +13843,7 @@
       </c>
       <c r="AX61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AY61" s="4" t="inlineStr">
@@ -15154,12 +15154,12 @@
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>W_0805bx_2030</t>
+          <t>W_0805c_R</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01_I02</t>
+          <t>Z08_B05_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
@@ -15168,27 +15168,27 @@
         </is>
       </c>
       <c r="D68" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="5" t="b">
         <v>0</v>
       </c>
       <c r="G68" s="6" t="inlineStr">
         <is>
-          <t>Erhöhung auf &lt;b&gt;60 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Anteil der tarifgebundenen Beschäftigungsverhältnisse bis 2030 erhöhen</t>
         </is>
       </c>
       <c r="H68" s="4" t="inlineStr">
         <is>
-          <t>Increase to 60 % by 2030</t>
+          <t>XXXAnteil der tarifgebundenen Beschäftigungsverhältnisse bis 2030 erhöhen</t>
         </is>
       </c>
       <c r="I68" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>R</t>
         </is>
       </c>
       <c r="J68" s="4" t="inlineStr">
@@ -15198,14 +15198,8 @@
       </c>
       <c r="K68" s="4" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="L68" s="7">
-        <v>2030</v>
-      </c>
-      <c r="N68" s="7">
-        <v>2025</v>
+          <t/>
+        </is>
       </c>
       <c r="P68" s="4" t="inlineStr">
         <is>
@@ -15220,12 +15214,6 @@
       <c r="R68" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="S68" s="8">
-        <v>23.8</v>
-      </c>
-      <c r="T68" s="8">
-        <v>50</v>
-      </c>
       <c r="W68" s="6" t="inlineStr">
         <is>
           <t/>
@@ -15318,47 +15306,47 @@
       </c>
       <c r="AO68" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AP68" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AQ68" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AR68" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AS68" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AT68" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AU68" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AV68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AW68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AX68" s="4" t="inlineStr">
@@ -15375,12 +15363,12 @@
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>W_0805c_R</t>
+          <t>W_0806x_R</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P02_Ib01_I01</t>
+          <t>Z08_B06_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
@@ -15399,12 +15387,12 @@
       </c>
       <c r="G69" s="6" t="inlineStr">
         <is>
-          <t>Anteil der tarifgebundenen Beschäftigungsverhältnisse bis 2030 erhöhen</t>
+          <t>Bis zum Jahr 2030 wird die Anzahl der freiwilligen Nachhaltigkeitsberichte gemäß Deutschem Nachhaltigkeitskodex (DNK) deutlich steigen</t>
         </is>
       </c>
       <c r="H69" s="4" t="inlineStr">
         <is>
-          <t>XXXAnteil der tarifgebundenen Beschäftigungsverhältnisse bis 2030 erhöhen</t>
+          <t>XXXBis zum Jahr 2030 wird die Anzahl der freiwilligen Nachhaltigkeitsberichte gemäß Deutschem Nachhaltigkeitskodex (DNK) deutlich steigen</t>
         </is>
       </c>
       <c r="I69" s="4" t="inlineStr">
@@ -15433,7 +15421,7 @@
         </is>
       </c>
       <c r="R69" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W69" s="6" t="inlineStr">
         <is>
@@ -15537,37 +15525,37 @@
       </c>
       <c r="AQ69" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AR69" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AS69" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AT69" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AU69" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AV69" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AW69" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AX69" s="4" t="inlineStr">
@@ -15584,12 +15572,12 @@
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>W_0806x_R</t>
+          <t>W_0901a_J</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01_I01</t>
+          <t>Z09_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
@@ -15604,21 +15592,21 @@
         <v>1</v>
       </c>
       <c r="F70" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="6" t="inlineStr">
         <is>
-          <t>Bis zum Jahr 2030 wird die Anzahl der freiwilligen Nachhaltigkeitsberichte gemäß Deutschem Nachhaltigkeitskodex (DNK) deutlich steigen</t>
+          <t>Jährlich mindestens &lt;b&gt;3,5 %&lt;/b&gt; des Bruttoinlandsprodukts (BIP) bis &lt;b&gt;2025&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H70" s="4" t="inlineStr">
         <is>
-          <t>XXXBis zum Jahr 2030 wird die Anzahl der freiwilligen Nachhaltigkeitsberichte gemäß Deutschem Nachhaltigkeitskodex (DNK) deutlich steigen</t>
+          <t>At least &lt;b&gt;3.5 %&lt;/b&gt; of Gross domestic product (GDP) per year by &lt;b&gt;2025&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I70" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>J</t>
         </is>
       </c>
       <c r="J70" s="4" t="inlineStr">
@@ -15628,30 +15616,45 @@
       </c>
       <c r="K70" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="L70" s="7">
+        <v>2025</v>
+      </c>
+      <c r="O70" s="7">
+        <v>2018</v>
       </c>
       <c r="P70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ziel: Jährlich 3,5 % des BIP</t>
         </is>
       </c>
       <c r="Q70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Target: 3.5 % of GDP every year</t>
         </is>
       </c>
       <c r="R70" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S70" s="8">
+        <v>28.8</v>
+      </c>
+      <c r="T70" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="U70" s="7">
+        <v>2015</v>
       </c>
       <c r="W70" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Der Zielwert des Indikators wurden im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/975274/1546450/c32ed8ebe3b82eb22e3daa78b01bcf31/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1"&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (3,5 % bis 2025).</t>
         </is>
       </c>
       <c r="X70" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>The target value of the indicator was adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/975274/1588964/465a4d7e35b3a14fe5e1df444de53185/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt;. Since this resolution came into force, the revised target (3.5 % by 2025) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y70" s="4" t="inlineStr">
@@ -15731,52 +15734,52 @@
       </c>
       <c r="AN70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AO70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AP70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AQ70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AR70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AS70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AT70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AU70" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AV70" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AW70" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t/>
         </is>
       </c>
       <c r="AX70" s="4" t="inlineStr">
@@ -15793,7 +15796,7 @@
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>W_0901a_J</t>
+          <t>W_0901ax_J</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
@@ -15807,22 +15810,22 @@
         </is>
       </c>
       <c r="D71" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="6" t="inlineStr">
         <is>
-          <t>Jährlich mindestens &lt;b&gt;3,5 %&lt;/b&gt; des Bruttoinlandsprodukts (BIP) bis &lt;b&gt;2025&lt;/b&gt;</t>
+          <t>Jährlich mindestens &lt;b&gt;3 %&lt;/b&gt; des Bruttoinlandsprodukts (BIP) bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H71" s="4" t="inlineStr">
         <is>
-          <t>At least &lt;b&gt;3.5 %&lt;/b&gt; of Gross domestic product (GDP) per year by &lt;b&gt;2025&lt;/b&gt;</t>
+          <t>At least &lt;b&gt;3 %&lt;/b&gt; of Gross domestic product (GDP) per year by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I71" s="4" t="inlineStr">
@@ -15837,45 +15840,36 @@
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L71" s="7">
-        <v>2025</v>
-      </c>
-      <c r="O71" s="7">
+        <v>2030</v>
+      </c>
+      <c r="N71" s="7">
         <v>2018</v>
       </c>
       <c r="P71" s="4" t="inlineStr">
         <is>
-          <t>Ziel: Jährlich 3,5 % des BIP</t>
+          <t/>
         </is>
       </c>
       <c r="Q71" s="4" t="inlineStr">
         <is>
-          <t>Target: 3.5 % of GDP every year</t>
+          <t/>
         </is>
       </c>
       <c r="R71" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S71" s="8">
-        <v>28.8</v>
-      </c>
-      <c r="T71" s="8">
-        <v>3.8</v>
-      </c>
-      <c r="U71" s="7">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="W71" s="6" t="inlineStr">
         <is>
-          <t>Der Zielwert des Indikators wurden im Rahmen der &lt;a href="https://www.bundesregierung.de/resource/blob/975274/1546450/c32ed8ebe3b82eb22e3daa78b01bcf31/2018-11-07-aktualisierung-dns-2018-data.pdf?download=1"&gt;Aktualisierung der Deutschen Nachhaltigkeitsstrategie 2018&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (3,5 % bis 2025).</t>
+          <t/>
         </is>
       </c>
       <c r="X71" s="6" t="inlineStr">
         <is>
-          <t>The target value of the indicator was adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/975274/1588964/465a4d7e35b3a14fe5e1df444de53185/2019-03-13-dns-aktualisierung-2018-englisch-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2018&lt;/a&gt;. Since this resolution came into force, the revised target (3.5 % by 2025) has applied to the indicator.</t>
+          <t/>
         </is>
       </c>
       <c r="Y71" s="4" t="inlineStr">
@@ -15975,27 +15969,27 @@
       </c>
       <c r="AR71" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AS71" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AT71" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AU71" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AV71" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AW71" s="4" t="inlineStr">
@@ -16017,12 +16011,12 @@
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>W_0901ax_J</t>
+          <t>W_0901b_2025</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib01_I01</t>
+          <t>Z09_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
@@ -16031,27 +16025,27 @@
         </is>
       </c>
       <c r="D72" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="6" t="inlineStr">
         <is>
-          <t>Jährlich mindestens &lt;b&gt;3 %&lt;/b&gt; des Bruttoinlandsprodukts (BIP) bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Flächendeckende Gigabit-Breitbandversorgung bis 2025</t>
         </is>
       </c>
       <c r="H72" s="4" t="inlineStr">
         <is>
-          <t>At least &lt;b&gt;3 %&lt;/b&gt; of Gross domestic product (GDP) per year by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>XXXFlächendeckende Gigabit-Breitbandversorgung bis 2025</t>
         </is>
       </c>
       <c r="I72" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J72" s="4" t="inlineStr">
@@ -16061,14 +16055,11 @@
       </c>
       <c r="K72" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L72" s="7">
-        <v>2030</v>
-      </c>
-      <c r="N72" s="7">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="P72" s="4" t="inlineStr">
         <is>
@@ -16081,7 +16072,10 @@
         </is>
       </c>
       <c r="R72" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T72" s="8">
+        <v>90</v>
       </c>
       <c r="W72" s="6" t="inlineStr">
         <is>
@@ -16170,52 +16164,52 @@
       </c>
       <c r="AN72" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AO72" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AP72" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AQ72" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AR72" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS72" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT72" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AU72" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AV72" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AW72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AX72" s="4" t="inlineStr">
@@ -16232,12 +16226,12 @@
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>W_0901b_2025</t>
+          <t>W_1001x_2030a</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib02_I01</t>
+          <t>Z10_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
@@ -16252,35 +16246,32 @@
         <v>1</v>
       </c>
       <c r="F73" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" s="6" t="inlineStr">
         <is>
-          <t>Flächendeckende Gigabit-Breitbandversorgung bis 2025</t>
+          <t>Erhöhung des Anteils der ausländischen Schulabsolvierenden und Angleichung an die Quote deutscher Schulabsolvierender bis 2030</t>
         </is>
       </c>
       <c r="H73" s="4" t="inlineStr">
         <is>
-          <t>XXXFlächendeckende Gigabit-Breitbandversorgung bis 2025</t>
+          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
         </is>
       </c>
       <c r="I73" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t/>
         </is>
       </c>
       <c r="J73" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t/>
         </is>
       </c>
       <c r="K73" s="4" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L73" s="7">
-        <v>2025</v>
+          <t/>
+        </is>
       </c>
       <c r="P73" s="4" t="inlineStr">
         <is>
@@ -16293,10 +16284,7 @@
         </is>
       </c>
       <c r="R73" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="T73" s="8">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="W73" s="6" t="inlineStr">
         <is>
@@ -16390,42 +16378,42 @@
       </c>
       <c r="AO73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AP73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AQ73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AR73" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AS73" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AT73" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AU73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AV73" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AW73" s="4" t="inlineStr">
@@ -16447,7 +16435,7 @@
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>W_1001x_2030a</t>
+          <t>W_1001x_2030b</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
@@ -16461,32 +16449,32 @@
         </is>
       </c>
       <c r="D74" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="5" t="b">
         <v>0</v>
       </c>
       <c r="G74" s="6" t="inlineStr">
         <is>
-          <t>Erhöhung des Anteils der ausländischen Schulabsolvierenden und Angleichung an die Quote deutscher Schulabsolvierender bis 2030</t>
+          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss</t>
         </is>
       </c>
       <c r="H74" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
+          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate</t>
         </is>
       </c>
       <c r="I74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>R</t>
         </is>
       </c>
       <c r="J74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K74" s="4" t="inlineStr">
@@ -16599,7 +16587,7 @@
       </c>
       <c r="AO74" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AP74" s="4" t="inlineStr">
@@ -16619,27 +16607,27 @@
       </c>
       <c r="AS74" s="4" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AT74" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AU74" s="4" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AT74" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AU74" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="AV74" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AW74" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AX74" s="4" t="inlineStr">
@@ -16656,7 +16644,7 @@
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>W_1001x_2030b</t>
+          <t>W_1001x_2030c</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
@@ -16666,7 +16654,7 @@
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_DIFFERENCE</t>
         </is>
       </c>
       <c r="D75" s="5" t="b">
@@ -16676,32 +16664,35 @@
         <v>0</v>
       </c>
       <c r="F75" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="6" t="inlineStr">
         <is>
-          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss</t>
+          <t>Angleichung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss an die Quote deutscher Schulabgänger bis 2030</t>
         </is>
       </c>
       <c r="H75" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate</t>
+          <t>Bring the proportion of foreign school leavers with a least a secondary general school certificate into line with that of German school leavers by 2030</t>
         </is>
       </c>
       <c r="I75" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J75" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K75" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L75" s="7">
+        <v>2030</v>
       </c>
       <c r="P75" s="4" t="inlineStr">
         <is>
@@ -16714,16 +16705,19 @@
         </is>
       </c>
       <c r="R75" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T75" s="8">
+        <v>4</v>
       </c>
       <c r="W75" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Beide Ziele „Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss“ und „Angleichung des Anteils an die Quote deutscher Schulabgänger“ sollen parallel erfüllt werden, sodass für die Gesamtbewertung des Indikators die Einzelbewertungen zusammengeführt werden, indem jeweils das „schlechtere“ Wettersymbol übernommen wird.</t>
         </is>
       </c>
       <c r="X75" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>The two targets of "increasing the proportion of foreign school leavers with at least a secondary school leaving certificate" and "aligning the proportion with the proportion of German school leavers" are to be met in parallel, so that for the overall evaluation of the indicator the individual evaluations are combined by adopting the "worse" weather symbol in each case.</t>
         </is>
       </c>
       <c r="Y75" s="4" t="inlineStr">
@@ -16808,7 +16802,7 @@
       </c>
       <c r="AO75" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AP75" s="4" t="inlineStr">
@@ -16828,12 +16822,12 @@
       </c>
       <c r="AS75" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AT75" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AU75" s="4" t="inlineStr">
@@ -16843,12 +16837,12 @@
       </c>
       <c r="AV75" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AW75" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AX75" s="4" t="inlineStr">
@@ -16865,205 +16859,199 @@
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>W_1001x_2030c</t>
+          <t>W_1002x_J</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01_P01_Ib01_I01</t>
+          <t>Z10_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DIFFERENCE</t>
+          <t/>
         </is>
       </c>
       <c r="D76" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E76" s="5" t="b">
+      <c r="G76" s="6" t="inlineStr">
+        <is>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-Wertes</t>
+        </is>
+      </c>
+      <c r="H76" s="4" t="inlineStr">
+        <is>
+          <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
+        </is>
+      </c>
+      <c r="I76" s="4" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J76" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K76" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R76" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F76" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G76" s="6" t="inlineStr">
-        <is>
-          <t>Angleichung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss an die Quote deutscher Schulabgänger bis 2030</t>
-        </is>
-      </c>
-      <c r="H76" s="4" t="inlineStr">
-        <is>
-          <t>Bring the proportion of foreign school leavers with a least a secondary general school certificate into line with that of German school leavers by 2030</t>
-        </is>
-      </c>
-      <c r="I76" s="4" t="inlineStr">
+      <c r="W76" s="6" t="inlineStr">
+        <is>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nicht möglich (Zeitreihenbruch). Die Bewertung des Indiaktors kann daher ab 2020 nur für das Berichtsjahr 2023 durchgeführt werden und auch diese ist unsicher, da nur vier statt wie sonst üblich sechs Datenpunkte für die Bewertung zur Verfügung standen.</t>
+        </is>
+      </c>
+      <c r="X76" s="6" t="inlineStr">
+        <is>
+          <t>XXXThe "Life in Europe" survey (EU-SILC), which was previously conducted separately, was integrated into the microcensus as a sub-sample in 2020. Due to the change from a voluntary survey to a survey requiring information in part, combined with a new sample composition, it is not possible to compare the data of the survey year 2020 with previous years to evaluate the development of the indicators in these years (break in time series).</t>
+        </is>
+      </c>
+      <c r="Y76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO76" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AP76" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AQ76" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AR76" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AS76" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT76" s="4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AU76" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AV76" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="J76" s="4" t="inlineStr">
-        <is>
-          <t>sinken</t>
-        </is>
-      </c>
-      <c r="K76" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L76" s="7">
-        <v>2030</v>
-      </c>
-      <c r="P76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R76" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="T76" s="8">
-        <v>4</v>
-      </c>
-      <c r="W76" s="6" t="inlineStr">
-        <is>
-          <t>Beide Ziele „Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss“ und „Angleichung des Anteils an die Quote deutscher Schulabgänger“ sollen parallel erfüllt werden, sodass für die Gesamtbewertung des Indikators die Einzelbewertungen zusammengeführt werden, indem jeweils das „schlechtere“ Wettersymbol übernommen wird.</t>
-        </is>
-      </c>
-      <c r="X76" s="6" t="inlineStr">
-        <is>
-          <t>The two targets of "increasing the proportion of foreign school leavers with at least a secondary school leaving certificate" and "aligning the proportion with the proportion of German school leavers" are to be met in parallel, so that for the overall evaluation of the indicator the individual evaluations are combined by adopting the "worse" weather symbol in each case.</t>
-        </is>
-      </c>
-      <c r="Y76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO76" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AP76" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AQ76" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AR76" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AS76" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AT76" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AU76" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AV76" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="AW76" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AX76" s="4" t="inlineStr">
@@ -17080,17 +17068,17 @@
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>W_1002x_J</t>
+          <t>W_1101a_2030</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02_P01_Ib01_I01</t>
+          <t>Z11_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_4YAVERAGE</t>
         </is>
       </c>
       <c r="D77" s="5" t="b">
@@ -17100,21 +17088,21 @@
         <v>1</v>
       </c>
       <c r="F77" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="6" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-Wertes</t>
+          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
       <c r="H77" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
+          <t>Reduction to under 30 ha on average per day by 2030</t>
         </is>
       </c>
       <c r="I77" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J77" s="4" t="inlineStr">
@@ -17124,8 +17112,11 @@
       </c>
       <c r="K77" s="4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L77" s="7">
+        <v>2030</v>
       </c>
       <c r="P77" s="4" t="inlineStr">
         <is>
@@ -17138,16 +17129,19 @@
         </is>
       </c>
       <c r="R77" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T77" s="8">
+        <v>40</v>
       </c>
       <c r="W77" s="6" t="inlineStr">
         <is>
-          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nicht möglich (Zeitreihenbruch). Die Bewertung des Indiaktors kann daher ab 2020 nur für das Berichtsjahr 2023 durchgeführt werden und auch diese ist unsicher, da nur vier statt wie sonst üblich sechs Datenpunkte für die Bewertung zur Verfügung standen.</t>
+          <t/>
         </is>
       </c>
       <c r="X77" s="6" t="inlineStr">
         <is>
-          <t>XXXThe "Life in Europe" survey (EU-SILC), which was previously conducted separately, was integrated into the microcensus as a sub-sample in 2020. Due to the change from a voluntary survey to a survey requiring information in part, combined with a new sample composition, it is not possible to compare the data of the survey year 2020 with previous years to evaluate the development of the indicators in these years (break in time series).</t>
+          <t/>
         </is>
       </c>
       <c r="Y77" s="4" t="inlineStr">
@@ -17227,27 +17221,27 @@
       </c>
       <c r="AN77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AO77" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AP77" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AQ77" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AR77" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AS77" s="4" t="inlineStr">
@@ -17257,22 +17251,22 @@
       </c>
       <c r="AT77" s="4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AU77" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AV77" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AW77" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AX77" s="4" t="inlineStr">
@@ -17289,7 +17283,7 @@
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>W_1101a_2030</t>
+          <t>W_1101a_2050</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
@@ -17306,19 +17300,19 @@
         <v>1</v>
       </c>
       <c r="E78" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" s="6" t="inlineStr">
         <is>
-          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
+          <t>Flächenverbrauch "Netto-Null" bis 2050</t>
         </is>
       </c>
       <c r="H78" s="4" t="inlineStr">
         <is>
-          <t>Reduction to under 30 ha on average per day by 2030</t>
+          <t>XXXFlächenverbrauch Netto-Null bis 2050</t>
         </is>
       </c>
       <c r="I78" s="4" t="inlineStr">
@@ -17333,10 +17327,13 @@
       </c>
       <c r="K78" s="4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L78" s="7">
+        <v>2050</v>
+      </c>
+      <c r="M78" s="7">
         <v>2030</v>
       </c>
       <c r="P78" s="4" t="inlineStr">
@@ -17350,7 +17347,7 @@
         </is>
       </c>
       <c r="R78" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78" s="8">
         <v>40</v>
@@ -17442,22 +17439,22 @@
       </c>
       <c r="AN78" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AO78" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AP78" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AQ78" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AR78" s="4" t="inlineStr">
@@ -17477,12 +17474,12 @@
       </c>
       <c r="AU78" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AV78" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AW78" s="4" t="inlineStr">
@@ -17504,58 +17501,52 @@
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>W_1101a_2050</t>
+          <t>W_1101b_R</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib01_I01</t>
+          <t>Z11_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_4YAVERAGE</t>
+          <t/>
         </is>
       </c>
       <c r="D79" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E79" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="5" t="b">
         <v>0</v>
       </c>
       <c r="G79" s="6" t="inlineStr">
         <is>
-          <t>Flächenverbrauch "Netto-Null" bis 2050</t>
+          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
         </is>
       </c>
       <c r="H79" s="4" t="inlineStr">
         <is>
-          <t>XXXFlächenverbrauch Netto-Null bis 2050</t>
+          <t>Reduce the loss of per capita open space area</t>
         </is>
       </c>
       <c r="I79" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>R</t>
         </is>
       </c>
       <c r="J79" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K79" s="4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L79" s="7">
-        <v>2050</v>
-      </c>
-      <c r="M79" s="7">
-        <v>2030</v>
+          <t/>
+        </is>
       </c>
       <c r="P79" s="4" t="inlineStr">
         <is>
@@ -17570,9 +17561,6 @@
       <c r="R79" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="T79" s="8">
-        <v>40</v>
-      </c>
       <c r="W79" s="6" t="inlineStr">
         <is>
           <t/>
@@ -17660,27 +17648,27 @@
       </c>
       <c r="AN79" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AO79" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AP79" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AQ79" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AR79" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AS79" s="4" t="inlineStr">
@@ -17690,17 +17678,17 @@
       </c>
       <c r="AT79" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AU79" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AV79" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AW79" s="4" t="inlineStr">
@@ -17722,12 +17710,12 @@
     <row outlineLevel="0" r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>W_1101b_R</t>
+          <t>W_1101c_R</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02_I01</t>
+          <t>Z11_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
@@ -17746,12 +17734,12 @@
       </c>
       <c r="G80" s="6" t="inlineStr">
         <is>
-          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
+          <t>Keine Verringerung der Siedlungsdichte</t>
         </is>
       </c>
       <c r="H80" s="4" t="inlineStr">
         <is>
-          <t>Reduce the loss of per capita open space area</t>
+          <t>No reduction in density of settlements</t>
         </is>
       </c>
       <c r="I80" s="4" t="inlineStr">
@@ -17869,47 +17857,47 @@
       </c>
       <c r="AN80" s="4" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AO80" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AP80" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AQ80" s="4" t="inlineStr">
+        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AO80" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP80" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AQ80" s="4" t="inlineStr">
+      <c r="AR80" s="4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AR80" s="4" t="inlineStr">
+      <c r="AS80" s="4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AS80" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
       <c r="AT80" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AU80" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AV80" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AW80" s="4" t="inlineStr">
@@ -17931,17 +17919,17 @@
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>W_1101c_R</t>
+          <t>W_1102a_2030</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03_I01</t>
+          <t>Z11_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_FINENTRANS</t>
         </is>
       </c>
       <c r="D81" s="5" t="b">
@@ -17951,45 +17939,57 @@
         <v>1</v>
       </c>
       <c r="F81" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="6" t="inlineStr">
         <is>
-          <t>Keine Verringerung der Siedlungsdichte</t>
+          <t>Senkung um 15 bis 20 % bis 2030 gegenüber 2015</t>
         </is>
       </c>
       <c r="H81" s="4" t="inlineStr">
         <is>
-          <t>No reduction in density of settlements</t>
+          <t>Reduction by 15–20 % by 2030</t>
         </is>
       </c>
       <c r="I81" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J81" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K81" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L81" s="7">
+        <v>2030</v>
       </c>
       <c r="P81" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ziel: 85
+bis 80</t>
         </is>
       </c>
       <c r="Q81" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Target:
+between 
+80 and 85</t>
         </is>
       </c>
       <c r="R81" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S81" s="8">
+        <v>17.8</v>
+      </c>
+      <c r="T81" s="8">
+        <v>75</v>
       </c>
       <c r="W81" s="6" t="inlineStr">
         <is>
@@ -18083,27 +18083,27 @@
       </c>
       <c r="AO81" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AP81" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AQ81" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AR81" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AS81" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AT81" s="4" t="inlineStr">
@@ -18140,17 +18140,17 @@
     <row outlineLevel="0" r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>W_1102a_2030</t>
+          <t>W_1102b_2030</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01_I01</t>
+          <t>Z11_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FINENTRANS</t>
+          <t>A_SERIES_ENINPASSTRA</t>
         </is>
       </c>
       <c r="D82" s="5" t="b">
@@ -18210,7 +18210,7 @@
         <v>17.8</v>
       </c>
       <c r="T82" s="8">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="W82" s="6" t="inlineStr">
         <is>
@@ -18329,17 +18329,17 @@
       </c>
       <c r="AT82" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AU82" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AV82" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AW82" s="4" t="inlineStr">
@@ -18361,17 +18361,17 @@
     <row outlineLevel="0" r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>W_1102b_2030</t>
+          <t>W_1102c_R</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02_I01</t>
+          <t>Z11_B02_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENINPASSTRA</t>
+          <t/>
         </is>
       </c>
       <c r="D83" s="5" t="b">
@@ -18381,186 +18381,174 @@
         <v>1</v>
       </c>
       <c r="F83" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" s="6" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030 gegenüber 2015</t>
+          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="H83" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 15–20 % by 2030</t>
+          <t>Reduction of average travel time by public transport</t>
         </is>
       </c>
       <c r="I83" s="4" t="inlineStr">
         <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J83" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R83" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W83" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X83" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL83" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AM83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP83" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR83" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT83" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="J83" s="4" t="inlineStr">
-        <is>
-          <t>sinken</t>
-        </is>
-      </c>
-      <c r="K83" s="4" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="L83" s="7">
-        <v>2030</v>
-      </c>
-      <c r="P83" s="4" t="inlineStr">
-        <is>
-          <t>Ziel: 85
-bis 80</t>
-        </is>
-      </c>
-      <c r="Q83" s="4" t="inlineStr">
-        <is>
-          <t>Target:
-between 
-80 and 85</t>
-        </is>
-      </c>
-      <c r="R83" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S83" s="8">
-        <v>17.8</v>
-      </c>
-      <c r="T83" s="8">
-        <v>80</v>
-      </c>
-      <c r="W83" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X83" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN83" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AO83" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AP83" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AQ83" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AR83" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AS83" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AT83" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
       <c r="AU83" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AV83" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AW83" s="4" t="inlineStr">
@@ -18582,12 +18570,12 @@
     <row outlineLevel="0" r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>W_1102c_R</t>
+          <t>W_1103a_2030</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03_I01</t>
+          <t>Z11_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C84" s="4" t="inlineStr">
@@ -18602,21 +18590,21 @@
         <v>1</v>
       </c>
       <c r="F84" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="6" t="inlineStr">
         <is>
-          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
+          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
         </is>
       </c>
       <c r="H84" s="4" t="inlineStr">
         <is>
-          <t>Reduction of average travel time by public transport</t>
+          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
         </is>
       </c>
       <c r="I84" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J84" s="4" t="inlineStr">
@@ -18626,8 +18614,11 @@
       </c>
       <c r="K84" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L84" s="7">
+        <v>2030</v>
       </c>
       <c r="P84" s="4" t="inlineStr">
         <is>
@@ -18640,16 +18631,19 @@
         </is>
       </c>
       <c r="R84" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T84" s="8">
+        <v>15</v>
       </c>
       <c r="W84" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren  nicht möglich (Zeitreihenbruch). Die Bewertung des Indiaktors kann daher ab 2020 nur für das Berichtsjahr 2023 durchgeführt werden und auch diese ist unsicher, da nur vier statt wie sonst üblich sechs Datenpunkte für die Bewertung zur Verfügung standen.</t>
         </is>
       </c>
       <c r="X84" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>XXXThe "Life in Europe" survey (EU-SILC), which was previously conducted separately, was integrated into the microcensus as a sub-sample in 2020. Due to the change from a voluntary survey to a survey requiring information in part, combined with a new sample composition, it is not possible to compare the data of the survey year 2020 with previous years to evaluate the development of the indicators in these years (break in time series).</t>
         </is>
       </c>
       <c r="Y84" s="4" t="inlineStr">
@@ -18719,62 +18713,62 @@
       </c>
       <c r="AL84" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO84" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AP84" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ84" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AR84" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AS84" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT84" s="4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AU84" s="4" t="inlineStr">
+        <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AM84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP84" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AQ84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR84" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AS84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AT84" s="4" t="inlineStr">
+      <c r="AV84" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AU84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AV84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AW84" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AX84" s="4" t="inlineStr">
@@ -18791,12 +18785,12 @@
     <row outlineLevel="0" r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>W_1103a_2030</t>
+          <t>W_1103b_R</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01_I01</t>
+          <t>Z11_B03_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
@@ -18811,185 +18805,179 @@
         <v>1</v>
       </c>
       <c r="F85" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" s="6" t="inlineStr">
         <is>
-          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
+          <t>Die fußläufige Erreichbarkeit von Stadtgrün, Parks etc. in Städten soll perspektivisch für alle Bewohnerinnen und Bewohnerer möglicht werden</t>
         </is>
       </c>
       <c r="H85" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
+          <t>XXXDie fußläufige Erreichbarkeit von Stadtgrün, Parks etc. in Städten soll perspektivisch für alle Bewohnerinnen und Bewohner ermöglicht werden</t>
         </is>
       </c>
       <c r="I85" s="4" t="inlineStr">
         <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J85" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R85" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W85" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X85" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS85" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AT85" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AU85" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="J85" s="4" t="inlineStr">
-        <is>
-          <t>sinken</t>
-        </is>
-      </c>
-      <c r="K85" s="4" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="L85" s="7">
-        <v>2030</v>
-      </c>
-      <c r="P85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R85" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="T85" s="8">
-        <v>15</v>
-      </c>
-      <c r="W85" s="6" t="inlineStr">
-        <is>
-          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren  nicht möglich (Zeitreihenbruch). Die Bewertung des Indiaktors kann daher ab 2020 nur für das Berichtsjahr 2023 durchgeführt werden und auch diese ist unsicher, da nur vier statt wie sonst üblich sechs Datenpunkte für die Bewertung zur Verfügung standen.</t>
-        </is>
-      </c>
-      <c r="X85" s="6" t="inlineStr">
-        <is>
-          <t>XXXThe "Life in Europe" survey (EU-SILC), which was previously conducted separately, was integrated into the microcensus as a sub-sample in 2020. Due to the change from a voluntary survey to a survey requiring information in part, combined with a new sample composition, it is not possible to compare the data of the survey year 2020 with previous years to evaluate the development of the indicators in these years (break in time series).</t>
-        </is>
-      </c>
-      <c r="Y85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO85" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AP85" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AQ85" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AR85" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AS85" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AT85" s="4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AU85" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AV85" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t/>
         </is>
       </c>
       <c r="AW85" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t/>
         </is>
       </c>
       <c r="AX85" s="4" t="inlineStr">
@@ -19006,12 +18994,12 @@
     <row outlineLevel="0" r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>W_1103b_R</t>
+          <t>W_1201a_2030</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P02_Ib01_I01</t>
+          <t>Z12_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C86" s="4" t="inlineStr">
@@ -19026,21 +19014,21 @@
         <v>1</v>
       </c>
       <c r="F86" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" s="6" t="inlineStr">
         <is>
-          <t>Die fußläufige Erreichbarkeit von Stadtgrün, Parks etc. in Städten soll perspektivisch für alle Bewohnerinnen und Bewohnerer möglicht werden</t>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="H86" s="4" t="inlineStr">
         <is>
-          <t>XXXDie fußläufige Erreichbarkeit von Stadtgrün, Parks etc. in Städten soll perspektivisch für alle Bewohnerinnen und Bewohner ermöglicht werden</t>
+          <t>Increase the market share to 34 % by 2030</t>
         </is>
       </c>
       <c r="I86" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J86" s="4" t="inlineStr">
@@ -19050,8 +19038,11 @@
       </c>
       <c r="K86" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="L86" s="7">
+        <v>2030</v>
       </c>
       <c r="P86" s="4" t="inlineStr">
         <is>
@@ -19064,7 +19055,10 @@
         </is>
       </c>
       <c r="R86" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T86" s="8">
+        <v>37</v>
       </c>
       <c r="W86" s="6" t="inlineStr">
         <is>
@@ -19168,32 +19162,32 @@
       </c>
       <c r="AQ86" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AR86" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AS86" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AT86" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AU86" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AV86" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AW86" s="4" t="inlineStr">
@@ -19215,12 +19209,12 @@
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>W_1201a_2030</t>
+          <t>W_1201ba_R</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01_I01</t>
+          <t>Z12_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
@@ -19235,150 +19229,144 @@
         <v>1</v>
       </c>
       <c r="F87" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="6" t="inlineStr">
         <is>
-          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+          <t>Kontinuierliche Reduzierung</t>
         </is>
       </c>
       <c r="H87" s="4" t="inlineStr">
         <is>
-          <t>Increase the market share to 34 % by 2030</t>
+          <t>Steady reduction</t>
         </is>
       </c>
       <c r="I87" s="4" t="inlineStr">
         <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J87" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="K87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R87" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W87" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X87" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL87" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AM87" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AN87" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="J87" s="4" t="inlineStr">
-        <is>
-          <t>steigen</t>
-        </is>
-      </c>
-      <c r="K87" s="4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="L87" s="7">
-        <v>2030</v>
-      </c>
-      <c r="P87" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q87" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R87" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="T87" s="8">
-        <v>37</v>
-      </c>
-      <c r="W87" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X87" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y87" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z87" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA87" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB87" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC87" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD87" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE87" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF87" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG87" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH87" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI87" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ87" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK87" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL87" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM87" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN87" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AO87" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AP87" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AQ87" s="4" t="inlineStr">
@@ -19388,27 +19376,27 @@
       </c>
       <c r="AR87" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AS87" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AT87" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AU87" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AV87" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AW87" s="4" t="inlineStr">
@@ -19430,12 +19418,12 @@
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>W_1201ba_R</t>
+          <t>W_1201bb_R</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I01</t>
+          <t>Z12_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
@@ -19592,7 +19580,7 @@
       </c>
       <c r="AQ88" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AR88" s="4" t="inlineStr">
@@ -19602,7 +19590,7 @@
       </c>
       <c r="AS88" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AT88" s="4" t="inlineStr">
@@ -19639,12 +19627,12 @@
     <row outlineLevel="0" r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>W_1201bb_R</t>
+          <t>W_1201bc_R</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I02</t>
+          <t>Z12_B01_P01_Ib02_I03</t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
@@ -19811,7 +19799,7 @@
       </c>
       <c r="AS89" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AT89" s="4" t="inlineStr">
@@ -19848,17 +19836,17 @@
     <row outlineLevel="0" r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>W_1201bc_R</t>
+          <t>W_1202a_2030</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I03</t>
+          <t>Z12_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_LOCATIONS</t>
         </is>
       </c>
       <c r="D90" s="5" t="b">
@@ -19868,32 +19856,35 @@
         <v>1</v>
       </c>
       <c r="F90" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="6" t="inlineStr">
         <is>
-          <t>Kontinuierliche Reduzierung</t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="H90" s="4" t="inlineStr">
         <is>
-          <t>Steady reduction</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="I90" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J90" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K90" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="L90" s="7">
+        <v>2030</v>
       </c>
       <c r="P90" s="4" t="inlineStr">
         <is>
@@ -19906,7 +19897,13 @@
         </is>
       </c>
       <c r="R90" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S90" s="8">
+        <v>19.9</v>
+      </c>
+      <c r="T90" s="8">
+        <v>4500</v>
       </c>
       <c r="W90" s="6" t="inlineStr">
         <is>
@@ -19985,67 +19982,67 @@
       </c>
       <c r="AL90" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AM90" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AN90" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t/>
         </is>
       </c>
       <c r="AO90" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AP90" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AQ90" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AR90" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AS90" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AT90" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AU90" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AV90" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AW90" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AX90" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AY90" s="4" t="inlineStr">
@@ -20057,17 +20054,17 @@
     <row outlineLevel="0" r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>W_1202a_2030</t>
+          <t>W_1202b_R</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01_I01</t>
+          <t>Z12_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_LOCATIONS</t>
+          <t/>
         </is>
       </c>
       <c r="D91" s="5" t="b">
@@ -20077,193 +20074,184 @@
         <v>1</v>
       </c>
       <c r="F91" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" s="6" t="inlineStr">
         <is>
-          <t>5 000 Organisationsstandorte bis 2030</t>
+          <t>Erhöhung der Anzahl von Kultureinrichtungen mit entsprechenden Zertifikaten bis 2030</t>
         </is>
       </c>
       <c r="H91" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisation by 2030</t>
+          <t>XXXErhöhung der Anzahl von Kultureinrichtungen mit entsprechenden Zertifikaten bis 2030</t>
         </is>
       </c>
       <c r="I91" s="4" t="inlineStr">
         <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J91" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="K91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R91" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W91" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X91" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX91" s="4" t="inlineStr">
+        <is>
           <t>K</t>
-        </is>
-      </c>
-      <c r="J91" s="4" t="inlineStr">
-        <is>
-          <t>steigen</t>
-        </is>
-      </c>
-      <c r="K91" s="4" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="L91" s="7">
-        <v>2030</v>
-      </c>
-      <c r="P91" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q91" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R91" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S91" s="8">
-        <v>19.9</v>
-      </c>
-      <c r="T91" s="8">
-        <v>4500</v>
-      </c>
-      <c r="W91" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X91" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y91" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z91" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA91" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB91" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC91" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD91" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE91" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF91" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG91" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH91" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI91" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ91" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK91" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL91" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM91" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN91" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO91" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AP91" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AQ91" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AR91" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AS91" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AT91" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AU91" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AV91" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AW91" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AX91" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
         </is>
       </c>
       <c r="AY91" s="4" t="inlineStr">
@@ -20275,12 +20263,12 @@
     <row outlineLevel="0" r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>W_1202b_R</t>
+          <t>W_1203a_R</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P02_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C92" s="4" t="inlineStr">
@@ -20299,12 +20287,12 @@
       </c>
       <c r="G92" s="6" t="inlineStr">
         <is>
-          <t>Erhöhung der Anzahl von Kultureinrichtungen mit entsprechenden Zertifikaten bis 2030</t>
+          <t>Deutliche Steigerung des Anteils der Vergaben in der öffentlichen Beschaffung, bei denen Nachhaltigkeitskriterien berücksichtigt werden, so dass dies bis 2030 im Regelfall erfolgt. Dabei ist zu berücksichtigen, dass die Beschaffungen zur Deckung der Bedarfe der Bundeswehr, der Bundespolizei sowie des Zivil- und Katastrophenschutzes nicht zu einer Steigerung beitragen.</t>
         </is>
       </c>
       <c r="H92" s="4" t="inlineStr">
         <is>
-          <t>XXXErhöhung der Anzahl von Kultureinrichtungen mit entsprechenden Zertifikaten bis 2030</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="I92" s="4" t="inlineStr">
@@ -20457,12 +20445,12 @@
       </c>
       <c r="AU92" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AV92" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K</t>
         </is>
       </c>
       <c r="AW92" s="4" t="inlineStr">
@@ -20472,7 +20460,7 @@
       </c>
       <c r="AX92" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t/>
         </is>
       </c>
       <c r="AY92" s="4" t="inlineStr">
@@ -20484,12 +20472,12 @@
     <row outlineLevel="0" r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>W_1203a_R</t>
+          <t>W_1203b_R</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C93" s="4" t="inlineStr">
@@ -20508,12 +20496,12 @@
       </c>
       <c r="G93" s="6" t="inlineStr">
         <is>
-          <t>Deutliche Steigerung des Anteils der Vergaben in der öffentlichen Beschaffung, bei denen Nachhaltigkeitskriterien berücksichtigt werden, so dass dies bis 2030 im Regelfall erfolgt. Dabei ist zu berücksichtigen, dass die Beschaffungen zur Deckung der Bedarfe der Bundeswehr, der Bundespolizei sowie des Zivil- und Katastrophenschutzes nicht zu einer Steigerung beitragen.</t>
+          <t>Signifikante Senkung</t>
         </is>
       </c>
       <c r="H93" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Significantly reduce</t>
         </is>
       </c>
       <c r="I93" s="4" t="inlineStr">
@@ -20523,7 +20511,7 @@
       </c>
       <c r="J93" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K93" s="4" t="inlineStr">
@@ -20636,42 +20624,42 @@
       </c>
       <c r="AO93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AP93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AQ93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AR93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AS93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K</t>
         </is>
       </c>
       <c r="AT93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AU93" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AV93" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AW93" s="4" t="inlineStr">
@@ -20693,12 +20681,12 @@
     <row outlineLevel="0" r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>W_1203b_R</t>
+          <t>W_1203c_2026</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I02</t>
+          <t>Z12_B03_P01_Ib01_I03</t>
         </is>
       </c>
       <c r="C94" s="4" t="inlineStr">
@@ -20713,32 +20701,35 @@
         <v>1</v>
       </c>
       <c r="F94" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="6" t="inlineStr">
         <is>
-          <t>Signifikante Senkung</t>
+          <t>Steigerung auf 50 % bis 2026</t>
         </is>
       </c>
       <c r="H94" s="4" t="inlineStr">
         <is>
-          <t>Significantly reduce</t>
+          <t>XXXSteigerung auf 50 Prozent bis 2026</t>
         </is>
       </c>
       <c r="I94" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J94" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K94" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L94" s="7">
+        <v>2026</v>
       </c>
       <c r="P94" s="4" t="inlineStr">
         <is>
@@ -20751,7 +20742,10 @@
         </is>
       </c>
       <c r="R94" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T94" s="8">
+        <v>60</v>
       </c>
       <c r="W94" s="6" t="inlineStr">
         <is>
@@ -20845,42 +20839,42 @@
       </c>
       <c r="AO94" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AP94" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AQ94" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AR94" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AS94" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t/>
         </is>
       </c>
       <c r="AT94" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AU94" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AV94" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AW94" s="4" t="inlineStr">
@@ -20902,12 +20896,12 @@
     <row outlineLevel="0" r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>W_1203c_2026</t>
+          <t>W_1204x_2030</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I03</t>
+          <t>Z12_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
@@ -20926,12 +20920,12 @@
       </c>
       <c r="G95" s="6" t="inlineStr">
         <is>
-          <t>Steigerung auf 50 % bis 2026</t>
+          <t>Senkung auf unter 10 % bis 2030</t>
         </is>
       </c>
       <c r="H95" s="4" t="inlineStr">
         <is>
-          <t>XXXSteigerung auf 50 Prozent bis 2026</t>
+          <t>XXXSenkung auf unter 10 Prozent bis 2030</t>
         </is>
       </c>
       <c r="I95" s="4" t="inlineStr">
@@ -20941,16 +20935,16 @@
       </c>
       <c r="J95" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K95" s="4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L95" s="7">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="P95" s="4" t="inlineStr">
         <is>
@@ -20966,7 +20960,7 @@
         <v>1</v>
       </c>
       <c r="T95" s="8">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="W95" s="6" t="inlineStr">
         <is>
@@ -21070,37 +21064,37 @@
       </c>
       <c r="AQ95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AR95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K</t>
         </is>
       </c>
       <c r="AS95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AT95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AU95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AV95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AW95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AX95" s="4" t="inlineStr">
@@ -21117,12 +21111,12 @@
     <row outlineLevel="0" r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>W_1204x_2030</t>
+          <t>W_1301a_2020</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>Z12_B04_P01_Ib01_I01</t>
+          <t>Z13_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C96" s="4" t="inlineStr">
@@ -21134,19 +21128,19 @@
         <v>1</v>
       </c>
       <c r="E96" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G96" s="6" t="inlineStr">
         <is>
-          <t>Senkung auf unter 10 % bis 2030</t>
+          <t>Minderung um mindestens &lt;b&gt;40 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt; gegenüber 1990</t>
         </is>
       </c>
       <c r="H96" s="4" t="inlineStr">
         <is>
-          <t>XXXSenkung auf unter 10 Prozent bis 2030</t>
+          <t>Reduce by at least &lt;b&gt;40 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I96" s="4" t="inlineStr">
@@ -21161,11 +21155,14 @@
       </c>
       <c r="K96" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L96" s="7">
-        <v>2030</v>
+        <v>2020</v>
+      </c>
+      <c r="N96" s="7">
+        <v>2022</v>
       </c>
       <c r="P96" s="4" t="inlineStr">
         <is>
@@ -21178,19 +21175,16 @@
         </is>
       </c>
       <c r="R96" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="T96" s="8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="W96" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
         </is>
       </c>
       <c r="X96" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Omission of 2020 target due to expiration of time.</t>
         </is>
       </c>
       <c r="Y96" s="4" t="inlineStr">
@@ -21275,47 +21269,47 @@
       </c>
       <c r="AO96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AP96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AQ96" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AR96" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AS96" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AT96" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AU96" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AV96" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AW96" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AX96" s="4" t="inlineStr">
@@ -21332,7 +21326,7 @@
     <row outlineLevel="0" r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2020</t>
+          <t>W_1301a_2030</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
@@ -21349,19 +21343,19 @@
         <v>1</v>
       </c>
       <c r="E97" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G97" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;40 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt; gegenüber 1990</t>
+          <t>Minderung um mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt; gegenüber 1990</t>
         </is>
       </c>
       <c r="H97" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;40 %&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;65 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I97" s="4" t="inlineStr">
@@ -21376,13 +21370,16 @@
       </c>
       <c r="K97" s="4" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>35</t>
         </is>
       </c>
       <c r="L97" s="7">
+        <v>2030</v>
+      </c>
+      <c r="M97" s="7">
         <v>2020</v>
       </c>
-      <c r="N97" s="7">
+      <c r="O97" s="7">
         <v>2022</v>
       </c>
       <c r="P97" s="4" t="inlineStr">
@@ -21396,16 +21393,19 @@
         </is>
       </c>
       <c r="R97" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T97" s="8">
+        <v>41</v>
       </c>
       <c r="W97" s="6" t="inlineStr">
         <is>
-          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+          <t/>
         </is>
       </c>
       <c r="X97" s="6" t="inlineStr">
         <is>
-          <t>Omission of 2020 target due to expiration of time.</t>
+          <t/>
         </is>
       </c>
       <c r="Y97" s="4" t="inlineStr">
@@ -21520,17 +21520,17 @@
       </c>
       <c r="AU97" s="4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AV97" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AW97" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AX97" s="4" t="inlineStr">
@@ -21547,7 +21547,7 @@
     <row outlineLevel="0" r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2030</t>
+          <t>W_1301a_2040</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
@@ -21564,19 +21564,19 @@
         <v>1</v>
       </c>
       <c r="E98" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G98" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt; gegenüber 1990</t>
+          <t>Minderung um mindestens &lt;b&gt;88 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt; gegenüber 1990</t>
         </is>
       </c>
       <c r="H98" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;65 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;88 %&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I98" s="4" t="inlineStr">
@@ -21591,14 +21591,14 @@
       </c>
       <c r="K98" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L98" s="7">
+        <v>2040</v>
+      </c>
+      <c r="M98" s="7">
         <v>2030</v>
-      </c>
-      <c r="M98" s="7">
-        <v>2020</v>
       </c>
       <c r="O98" s="7">
         <v>2022</v>
@@ -21617,7 +21617,7 @@
         <v>1</v>
       </c>
       <c r="T98" s="8">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="W98" s="6" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
       </c>
       <c r="AU98" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AV98" s="4" t="inlineStr">
@@ -21768,7 +21768,7 @@
     <row outlineLevel="0" r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2040</t>
+          <t>W_1301a_2045</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
@@ -21792,12 +21792,12 @@
       </c>
       <c r="G99" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;88 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt; gegenüber 1990</t>
+          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2045&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H99" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;88 %&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2045&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I99" s="4" t="inlineStr">
@@ -21812,42 +21812,45 @@
       </c>
       <c r="K99" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L99" s="7">
+        <v>2045</v>
+      </c>
+      <c r="M99" s="7">
         <v>2040</v>
-      </c>
-      <c r="M99" s="7">
-        <v>2030</v>
       </c>
       <c r="O99" s="7">
         <v>2022</v>
       </c>
       <c r="P99" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Netto-Treibhausgasneutralität</t>
         </is>
       </c>
       <c r="Q99" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Net greenhouse gas neutrality</t>
         </is>
       </c>
       <c r="R99" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="S99" s="8">
+        <v>32</v>
+      </c>
       <c r="T99" s="8">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="W99" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Zielwerte und -jahre des Indikators wurden im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gelten für den Indikator die geänderten Ziele (65 % bis 2030, 88 % bis 2040, Erreichung der Treibhausgasneutralität bis 2045).</t>
         </is>
       </c>
       <c r="X99" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>The target values and years of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href="https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1"&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised targets (65 % by 2030, 88 % by 2040, Greenhouse-gas neutrality by 2045) have applied to the indicator.</t>
         </is>
       </c>
       <c r="Y99" s="4" t="inlineStr">
@@ -21989,7 +21992,7 @@
     <row outlineLevel="0" r="100">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2045</t>
+          <t>W_1301ax_2030</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
@@ -22003,22 +22006,22 @@
         </is>
       </c>
       <c r="D100" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F100" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" s="6" t="inlineStr">
         <is>
-          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2045&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;55 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt; gegenüber 1990</t>
         </is>
       </c>
       <c r="H100" s="4" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2045&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;55 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I100" s="4" t="inlineStr">
@@ -22033,45 +22036,36 @@
       </c>
       <c r="K100" s="4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="L100" s="7">
-        <v>2045</v>
-      </c>
-      <c r="M100" s="7">
-        <v>2040</v>
-      </c>
-      <c r="O100" s="7">
+        <v>2030</v>
+      </c>
+      <c r="N100" s="7">
         <v>2022</v>
       </c>
       <c r="P100" s="4" t="inlineStr">
         <is>
-          <t>Netto-Treibhausgasneutralität</t>
+          <t/>
         </is>
       </c>
       <c r="Q100" s="4" t="inlineStr">
         <is>
-          <t>Net greenhouse gas neutrality</t>
+          <t/>
         </is>
       </c>
       <c r="R100" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S100" s="8">
-        <v>32</v>
-      </c>
-      <c r="T100" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W100" s="6" t="inlineStr">
         <is>
-          <t>Die Zielwerte und -jahre des Indikators wurden im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gelten für den Indikator die geänderten Ziele (65 % bis 2030, 88 % bis 2040, Erreichung der Treibhausgasneutralität bis 2045).</t>
+          <t/>
         </is>
       </c>
       <c r="X100" s="6" t="inlineStr">
         <is>
-          <t>The target values and years of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href="https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1"&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised targets (65 % by 2030, 88 % by 2040, Greenhouse-gas neutrality by 2045) have applied to the indicator.</t>
+          <t/>
         </is>
       </c>
       <c r="Y100" s="4" t="inlineStr">
@@ -22176,7 +22170,7 @@
       </c>
       <c r="AS100" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AT100" s="4" t="inlineStr">
@@ -22186,12 +22180,12 @@
       </c>
       <c r="AU100" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AV100" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AW100" s="4" t="inlineStr">
@@ -22213,7 +22207,7 @@
     <row outlineLevel="0" r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>W_1301ax_2030</t>
+          <t>W_1301ax_2050b</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
@@ -22237,12 +22231,12 @@
       </c>
       <c r="G101" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;55 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt; gegenüber 1990</t>
+          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H101" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;55 %&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I101" s="4" t="inlineStr">
@@ -22257,15 +22251,21 @@
       </c>
       <c r="K101" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L101" s="7">
-        <v>2030</v>
+        <v>2050</v>
+      </c>
+      <c r="M101" s="7">
+        <v>2040</v>
       </c>
       <c r="N101" s="7">
         <v>2022</v>
       </c>
+      <c r="O101" s="7">
+        <v>2021</v>
+      </c>
       <c r="P101" s="4" t="inlineStr">
         <is>
           <t/>
@@ -22281,12 +22281,12 @@
       </c>
       <c r="W101" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Das Ziel des Indikators wurde im Rahmen der &lt;a href="https:///www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (Erreichung von Treibhausgas-neutralität bis 2050). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
         </is>
       </c>
       <c r="X101" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>The target of the indicator was adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (Greenhouse-gas neutrality) had applied to the indicator. It was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
         </is>
       </c>
       <c r="Y101" s="4" t="inlineStr">
@@ -22391,7 +22391,7 @@
       </c>
       <c r="AS101" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AT101" s="4" t="inlineStr">
@@ -22428,7 +22428,7 @@
     <row outlineLevel="0" r="102">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>W_1301ax_2050b</t>
+          <t>W_1301ay_2040</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
@@ -22452,12 +22452,12 @@
       </c>
       <c r="G102" s="6" t="inlineStr">
         <is>
-          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;70 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt; gegenüber 1990</t>
         </is>
       </c>
       <c r="H102" s="4" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;70 %&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I102" s="4" t="inlineStr">
@@ -22472,19 +22472,16 @@
       </c>
       <c r="K102" s="4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L102" s="7">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="M102" s="7">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="N102" s="7">
-        <v>2022</v>
-      </c>
-      <c r="O102" s="7">
         <v>2021</v>
       </c>
       <c r="P102" s="4" t="inlineStr">
@@ -22502,12 +22499,12 @@
       </c>
       <c r="W102" s="6" t="inlineStr">
         <is>
-          <t>Das Ziel des Indikators wurde im Rahmen der &lt;a href="https:///www.bundesregierung.de/resource/blob/975274/1873516/6c607bb5f16993ef18440d9e0dae55cb/2021-03-10-dns-2021-finale-langfassung-barrierefrei-data.pdf?download=1"&gt; Weiterentwicklung der Deutschen Nachhaltigkeitsstrategie 2021&lt;/a&gt; angepasst. Seit Inkrafttreten dieses Beschlusses galt für den Indikator das geänderte Ziel (Erreichung von Treibhausgas-neutralität bis 2050). Im Rahmen des Grundsatzbeschlusses 2022 zur Deutschen Nachhaltigkeitsstrategie wurde es erneut angepasst.</t>
+          <t/>
         </is>
       </c>
       <c r="X102" s="6" t="inlineStr">
         <is>
-          <t>The target of the indicator was adjusted as part of the &lt;a href="https://www.bundesregierung.de/resource/blob/974430/1940716/6a4acf041217d39bac6a81cce971381f/2021-07-26-gsds-en-data.pdf?download=1"&gt; update of the German Sustainable Development Strategy 2021&lt;/a&gt;. Since this resolution came into force, the revised target (Greenhouse-gas neutrality) had applied to the indicator. It was adjusted again as part of the Policy Decision 2022 concerning the German Sustainable Development Strategy.</t>
+          <t/>
         </is>
       </c>
       <c r="Y102" s="4" t="inlineStr">
@@ -22612,7 +22609,7 @@
       </c>
       <c r="AS102" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AT102" s="4" t="inlineStr">
@@ -22649,7 +22646,7 @@
     <row outlineLevel="0" r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>W_1301ay_2040</t>
+          <t>W_1301ay_2050a</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
@@ -22673,12 +22670,12 @@
       </c>
       <c r="G103" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;70 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt; gegenüber 1990</t>
+          <t>Minderung um mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;95 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt; gegenüber 1990</t>
         </is>
       </c>
       <c r="H103" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;70 %&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;80 %&lt;/b&gt; to &lt;b&gt;95 %&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="I103" s="4" t="inlineStr">
@@ -22693,14 +22690,11 @@
       </c>
       <c r="K103" s="4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>80</t>
         </is>
       </c>
       <c r="L103" s="7">
-        <v>2040</v>
-      </c>
-      <c r="M103" s="7">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="N103" s="7">
         <v>2021</v>
@@ -22825,12 +22819,12 @@
       </c>
       <c r="AR103" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AS103" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AT103" s="4" t="inlineStr">
@@ -22867,12 +22861,12 @@
     <row outlineLevel="0" r="104">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>W_1301ay_2050a</t>
+          <t>W_1301b_2020</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01_I01</t>
+          <t>Z13_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="C104" s="4" t="inlineStr">
@@ -22881,7 +22875,7 @@
         </is>
       </c>
       <c r="D104" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" s="5" t="b">
         <v>0</v>
@@ -22891,12 +22885,12 @@
       </c>
       <c r="G104" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;95 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt; gegenüber 1990</t>
+          <t>&lt;b&gt;Verdopplung&lt;/b&gt; der Finanzierung bis &lt;b&gt;2020&lt;/b&gt; gegenüber 2014</t>
         </is>
       </c>
       <c r="H104" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;80 %&lt;/b&gt; to &lt;b&gt;95 %&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>&lt;b&gt;Double&lt;/b&gt; finance by &lt;b&gt;2020&lt;/b&gt; compared to 2014</t>
         </is>
       </c>
       <c r="I104" s="4" t="inlineStr">
@@ -22906,19 +22900,19 @@
       </c>
       <c r="J104" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K104" s="4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L104" s="7">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="N104" s="7">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="P104" s="4" t="inlineStr">
         <is>
@@ -22935,12 +22929,12 @@
       </c>
       <c r="W104" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Eine Verdopplung der internationalen Klimafinanzierung von 2014 entsprach einer Erhöhung auf 4 Milliarden Euro.</t>
         </is>
       </c>
       <c r="X104" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>A doubling of international climate finance from 2014 corresponds to an increase to 4 billion euro.</t>
         </is>
       </c>
       <c r="Y104" s="4" t="inlineStr">
@@ -23025,17 +23019,17 @@
       </c>
       <c r="AO104" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AP104" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AQ104" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AR104" s="4" t="inlineStr">
@@ -23055,17 +23049,17 @@
       </c>
       <c r="AU104" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AV104" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AW104" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AX104" s="4" t="inlineStr">
@@ -23082,7 +23076,7 @@
     <row outlineLevel="0" r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>W_1301b_2020</t>
+          <t>W_1301b_2025</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
@@ -23099,19 +23093,19 @@
         <v>1</v>
       </c>
       <c r="E105" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Verdopplung&lt;/b&gt; der Finanzierung bis &lt;b&gt;2020&lt;/b&gt; gegenüber 2014</t>
+          <t>Erhöhung auf jährlich &lt;b&gt;6 Mrd.&lt;/b&gt; Euro bis spätestens &lt;b&gt;2025&lt;/b&gt;</t>
         </is>
       </c>
       <c r="H105" s="4" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Double&lt;/b&gt; finance by &lt;b&gt;2020&lt;/b&gt; compared to 2014</t>
+          <t>Increase international climate finance to at least &lt;b&gt;6 billion&lt;/b&gt; euros by &lt;b&gt;2025&lt;/b&gt; at the latest</t>
         </is>
       </c>
       <c r="I105" s="4" t="inlineStr">
@@ -23126,13 +23120,16 @@
       </c>
       <c r="K105" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L105" s="7">
+        <v>2025</v>
+      </c>
+      <c r="M105" s="7">
         <v>2020</v>
       </c>
-      <c r="N105" s="7">
+      <c r="O105" s="7">
         <v>2022</v>
       </c>
       <c r="P105" s="4" t="inlineStr">
@@ -23146,16 +23143,19 @@
         </is>
       </c>
       <c r="R105" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T105" s="8">
+        <v>7</v>
       </c>
       <c r="W105" s="6" t="inlineStr">
         <is>
-          <t>Eine Verdopplung der internationalen Klimafinanzierung von 2014 entsprach einer Erhöhung auf 4 Milliarden Euro.</t>
+          <t>Zielwert und -jahr des Indikators wurden im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 Milliarden Euro bis spätestens 2025).</t>
         </is>
       </c>
       <c r="X105" s="6" t="inlineStr">
         <is>
-          <t>A doubling of international climate finance from 2014 corresponds to an increase to 4 billion euro.</t>
+          <t>The target value and year of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href="https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1"&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised target (6 billion euros by 2025 at the latest) has applied to the indicator.</t>
         </is>
       </c>
       <c r="Y105" s="4" t="inlineStr">
@@ -23255,7 +23255,7 @@
       </c>
       <c r="AR105" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AS105" s="4" t="inlineStr">
@@ -23270,17 +23270,17 @@
       </c>
       <c r="AU105" s="4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AV105" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AW105" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AX105" s="4" t="inlineStr">
@@ -23297,12 +23297,12 @@
     <row outlineLevel="0" r="106">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>W_1301b_2025</t>
+          <t>W_1401aa_J</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C106" s="4" t="inlineStr">
@@ -23321,62 +23321,53 @@
       </c>
       <c r="G106" s="6" t="inlineStr">
         <is>
-          <t>Erhöhung auf jährlich &lt;b&gt;6 Mrd.&lt;/b&gt; Euro bis spätestens &lt;b&gt;2025&lt;/b&gt;</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee einmündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="H106" s="4" t="inlineStr">
         <is>
-          <t>Increase international climate finance to at least &lt;b&gt;6 billion&lt;/b&gt; euros by &lt;b&gt;2025&lt;/b&gt; at the latest</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
         </is>
       </c>
       <c r="I106" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="J106" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K106" s="4" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="L106" s="7">
-        <v>2025</v>
-      </c>
-      <c r="M106" s="7">
-        <v>2020</v>
-      </c>
-      <c r="O106" s="7">
-        <v>2022</v>
+          <t>2,6</t>
+        </is>
       </c>
       <c r="P106" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Jährliches Ziel Ostsee: 2,6</t>
         </is>
       </c>
       <c r="Q106" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Annual target Baltic Sea: 2,6</t>
         </is>
       </c>
       <c r="R106" s="5" t="b">
         <v>1</v>
       </c>
       <c r="T106" s="8">
-        <v>7</v>
+        <v>2.67</v>
       </c>
       <c r="W106" s="6" t="inlineStr">
         <is>
-          <t>Zielwert und -jahr des Indikators wurden im &lt;a href="https://www.bundesregierung.de/resource/blob/992814/2146150/1cc38031193bf28e03327ba17eb6666b/2022-11-30-dns-grundsatzbeschluss-data.pdf?download=1"&gt;Grundsatzbeschluss 2022 zur Deutschen Nachhaltigkeitsstrategie&lt;/a&gt; an die Vereinbarungen im Koalitionsvertrag angepasst. Seit Inkrafttreten dieses Beschlusses gilt für den Indikator das geänderte Ziel (6 Milliarden Euro bis spätestens 2025).</t>
+          <t/>
         </is>
       </c>
       <c r="X106" s="6" t="inlineStr">
         <is>
-          <t>The target value and year of the indicator were adjusted to the agreements in the coalition agreement in the &lt;a href="https://www.bundesregierung.de/resource/blob/998348/2156614/9aab923ac159c532860d35622b97c5f3/2022-11-30-dns-grundsatzbeschluss-en-data.pdf?download=1"&gt;Policy Decision 2022 concerning the German Sustainable Development Strategy&lt;/a&gt;. Since this resolution came into force, the revised target (6 billion euros by 2025 at the latest) has applied to the indicator.</t>
+          <t/>
         </is>
       </c>
       <c r="Y106" s="4" t="inlineStr">
@@ -23456,22 +23447,22 @@
       </c>
       <c r="AN106" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AO106" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AP106" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AQ106" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AR106" s="4" t="inlineStr">
@@ -23481,27 +23472,27 @@
       </c>
       <c r="AS106" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AT106" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AU106" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AV106" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AW106" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AX106" s="4" t="inlineStr">
@@ -23518,12 +23509,12 @@
     <row outlineLevel="0" r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>W_1401aa_J</t>
+          <t>W_1401ab_J</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C107" s="4" t="inlineStr">
@@ -23542,12 +23533,12 @@
       </c>
       <c r="G107" s="6" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee einmündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee einmündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="H107" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
         </is>
       </c>
       <c r="I107" s="4" t="inlineStr">
@@ -23562,24 +23553,24 @@
       </c>
       <c r="K107" s="4" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="P107" s="4" t="inlineStr">
         <is>
-          <t>Jährliches Ziel Ostsee: 2,6</t>
+          <t>Jährliches Ziel Nordsee: 2,8</t>
         </is>
       </c>
       <c r="Q107" s="4" t="inlineStr">
         <is>
-          <t>Annual target Baltic Sea: 2,6</t>
+          <t>Annual target North Sea: 2,8</t>
         </is>
       </c>
       <c r="R107" s="5" t="b">
         <v>1</v>
       </c>
       <c r="T107" s="8">
-        <v>2.67</v>
+        <v>2.87</v>
       </c>
       <c r="W107" s="6" t="inlineStr">
         <is>
@@ -23698,12 +23689,12 @@
       </c>
       <c r="AT107" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AU107" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AV107" s="4" t="inlineStr">
@@ -23730,72 +23721,78 @@
     <row outlineLevel="0" r="108">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>W_1401ab_J</t>
+          <t>W_1401b_2020</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I02</t>
+          <t>Z14_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="C108" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_COMMEXPL</t>
         </is>
       </c>
       <c r="D108" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E108" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" s="6" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee einmündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
         </is>
       </c>
       <c r="H108" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
+          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
         </is>
       </c>
       <c r="I108" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J108" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K108" s="4" t="inlineStr">
         <is>
-          <t>2,8</t>
-        </is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L108" s="7">
+        <v>2020</v>
       </c>
       <c r="P108" s="4" t="inlineStr">
         <is>
-          <t>Jährliches Ziel Nordsee: 2,8</t>
+          <t/>
         </is>
       </c>
       <c r="Q108" s="4" t="inlineStr">
         <is>
-          <t>Annual target North Sea: 2,8</t>
+          <t/>
         </is>
       </c>
       <c r="R108" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="S108" s="8">
+        <v>16.9</v>
+      </c>
       <c r="T108" s="8">
-        <v>2.87</v>
+        <v>90</v>
       </c>
       <c r="W108" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
         </is>
       </c>
       <c r="X108" s="6" t="inlineStr">
@@ -23895,12 +23892,12 @@
       </c>
       <c r="AQ108" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AR108" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AS108" s="4" t="inlineStr">
@@ -23910,12 +23907,12 @@
       </c>
       <c r="AT108" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AU108" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AV108" s="4" t="inlineStr">
@@ -23942,7 +23939,7 @@
     <row outlineLevel="0" r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>W_1401b_2020</t>
+          <t>W_1401b_2030</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
@@ -23959,19 +23956,19 @@
         <v>1</v>
       </c>
       <c r="E109" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" s="6" t="inlineStr">
         <is>
-          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
+          <t>Anteil nachhaltig bewirtschafteter Fischbestände in Nord- und Ostsee an allen MSY-untersuchten Beständen soll bis 2030 &lt;b&gt;100 %&lt;/b&gt; betragen</t>
         </is>
       </c>
       <c r="H109" s="4" t="inlineStr">
         <is>
-          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
+          <t>XXXAnteil nachhaltig bewirtschafteter Fischbestände in Nord- und Ostsee an allen MSY-untersuchten Beständen soll bis 2030 100 Prozent betragen</t>
         </is>
       </c>
       <c r="I109" s="4" t="inlineStr">
@@ -23990,8 +23987,14 @@
         </is>
       </c>
       <c r="L109" s="7">
+        <v>2030</v>
+      </c>
+      <c r="M109" s="7">
         <v>2020</v>
       </c>
+      <c r="O109" s="7">
+        <v>2025</v>
+      </c>
       <c r="P109" s="4" t="inlineStr">
         <is>
           <t/>
@@ -24006,14 +24009,14 @@
         <v>1</v>
       </c>
       <c r="S109" s="8">
-        <v>16.9</v>
+        <v>19.9</v>
       </c>
       <c r="T109" s="8">
         <v>90</v>
       </c>
       <c r="W109" s="6" t="inlineStr">
         <is>
-          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+          <t/>
         </is>
       </c>
       <c r="X109" s="6" t="inlineStr">
@@ -24098,27 +24101,27 @@
       </c>
       <c r="AN109" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AO109" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AP109" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AQ109" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AR109" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AS109" s="4" t="inlineStr">
@@ -24133,12 +24136,12 @@
       </c>
       <c r="AU109" s="4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AV109" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AW109" s="4" t="inlineStr">
@@ -24160,17 +24163,17 @@
     <row outlineLevel="0" r="110">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>W_1401b_2030</t>
+          <t>W_1501x_2030</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01</t>
+          <t>Z15_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C110" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_COMMEXPL</t>
+          <t/>
         </is>
       </c>
       <c r="D110" s="5" t="b">
@@ -24184,12 +24187,12 @@
       </c>
       <c r="G110" s="6" t="inlineStr">
         <is>
-          <t>Anteil nachhaltig bewirtschafteter Fischbestände in Nord- und Ostsee an allen MSY-untersuchten Beständen soll bis 2030 &lt;b&gt;100 %&lt;/b&gt; betragen</t>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="H110" s="4" t="inlineStr">
         <is>
-          <t>XXXAnteil nachhaltig bewirtschafteter Fischbestände in Nord- und Ostsee an allen MSY-untersuchten Beständen soll bis 2030 100 Prozent betragen</t>
+          <t>Reach the index value of 100 by 2030</t>
         </is>
       </c>
       <c r="I110" s="4" t="inlineStr">
@@ -24210,12 +24213,6 @@
       <c r="L110" s="7">
         <v>2030</v>
       </c>
-      <c r="M110" s="7">
-        <v>2020</v>
-      </c>
-      <c r="O110" s="7">
-        <v>2025</v>
-      </c>
       <c r="P110" s="4" t="inlineStr">
         <is>
           <t/>
@@ -24230,10 +24227,10 @@
         <v>1</v>
       </c>
       <c r="S110" s="8">
-        <v>19.9</v>
+        <v>28.8</v>
       </c>
       <c r="T110" s="8">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="W110" s="6" t="inlineStr">
         <is>
@@ -24302,67 +24299,67 @@
       </c>
       <c r="AJ110" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AK110" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AL110" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AM110" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AN110" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AO110" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AP110" s="4" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AQ110" s="4" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AQ110" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="AR110" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AS110" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AT110" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AU110" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AV110" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AW110" s="4" t="inlineStr">
@@ -24384,12 +24381,12 @@
     <row outlineLevel="0" r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>W_1501x_2030</t>
+          <t>W_1502x_2030</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01</t>
+          <t>Z15_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C111" s="4" t="inlineStr">
@@ -24408,12 +24405,12 @@
       </c>
       <c r="G111" s="6" t="inlineStr">
         <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
+          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
         </is>
       </c>
       <c r="H111" s="4" t="inlineStr">
         <is>
-          <t>Reach the index value of 100 by 2030</t>
+          <t>Reduction by 35% by 2030 compared to 2005</t>
         </is>
       </c>
       <c r="I111" s="4" t="inlineStr">
@@ -24423,12 +24420,12 @@
       </c>
       <c r="J111" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K111" s="4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>52</t>
         </is>
       </c>
       <c r="L111" s="7">
@@ -24436,22 +24433,21 @@
       </c>
       <c r="P111" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ziel: 
+52</t>
         </is>
       </c>
       <c r="Q111" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Target:
+52</t>
         </is>
       </c>
       <c r="R111" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="S111" s="8">
-        <v>28.8</v>
-      </c>
       <c r="T111" s="8">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="W111" s="6" t="inlineStr">
         <is>
@@ -24495,7 +24491,7 @@
       </c>
       <c r="AE111" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AF111" s="4" t="inlineStr">
@@ -24520,52 +24516,52 @@
       </c>
       <c r="AJ111" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK111" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AL111" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AM111" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AN111" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AO111" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AP111" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AQ111" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AR111" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AS111" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AT111" s="4" t="inlineStr">
@@ -24602,12 +24598,12 @@
     <row outlineLevel="0" r="112">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>W_1502x_2030</t>
+          <t>W_1503a_R</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01_I01</t>
+          <t>Z15_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="C112" s="4" t="inlineStr">
@@ -24616,59 +24612,51 @@
         </is>
       </c>
       <c r="D112" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" s="6" t="inlineStr">
         <is>
-          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="H112" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 35% by 2030 compared to 2005</t>
+          <t>Increase payments by 2030</t>
         </is>
       </c>
       <c r="I112" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>R</t>
         </is>
       </c>
       <c r="J112" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K112" s="4" t="inlineStr">
         <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="L112" s="7">
-        <v>2030</v>
+          <t/>
+        </is>
       </c>
       <c r="P112" s="4" t="inlineStr">
         <is>
-          <t>Ziel: 
-52</t>
+          <t/>
         </is>
       </c>
       <c r="Q112" s="4" t="inlineStr">
         <is>
-          <t>Target:
-52</t>
+          <t/>
         </is>
       </c>
       <c r="R112" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="T112" s="8">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="W112" s="6" t="inlineStr">
         <is>
@@ -24712,7 +24700,7 @@
       </c>
       <c r="AE112" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AF112" s="4" t="inlineStr">
@@ -24737,7 +24725,7 @@
       </c>
       <c r="AJ112" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AK112" s="4" t="inlineStr">
@@ -24757,37 +24745,37 @@
       </c>
       <c r="AN112" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AO112" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AP112" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AQ112" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AR112" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AS112" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AT112" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AU112" s="4" t="inlineStr">
@@ -24819,12 +24807,12 @@
     <row outlineLevel="0" r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>W_1503a_R</t>
+          <t>W_1503b_R</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I01</t>
+          <t>Z15_B02_P02_Ib01_I02</t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
@@ -24971,7 +24959,7 @@
       </c>
       <c r="AO113" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AP113" s="4" t="inlineStr">
@@ -24986,7 +24974,7 @@
       </c>
       <c r="AR113" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AS113" s="4" t="inlineStr">
@@ -25028,12 +25016,12 @@
     <row outlineLevel="0" r="114">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>W_1503b_R</t>
+          <t>W_1503x_R</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I02</t>
+          <t>Z15_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C114" s="4" t="inlineStr">
@@ -25042,22 +25030,22 @@
         </is>
       </c>
       <c r="D114" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" s="5" t="b">
         <v>0</v>
       </c>
       <c r="G114" s="6" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Sinkende Zunahme der Bodenversiegelung</t>
         </is>
       </c>
       <c r="H114" s="4" t="inlineStr">
         <is>
-          <t>Increase payments by 2030</t>
+          <t>XXXSinkende Zunahme der Bodenversiegelung</t>
         </is>
       </c>
       <c r="I114" s="4" t="inlineStr">
@@ -25067,7 +25055,7 @@
       </c>
       <c r="J114" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>sinken</t>
         </is>
       </c>
       <c r="K114" s="4" t="inlineStr">
@@ -25086,7 +25074,7 @@
         </is>
       </c>
       <c r="R114" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W114" s="6" t="inlineStr">
         <is>
@@ -25135,7 +25123,7 @@
       </c>
       <c r="AF114" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AG114" s="4" t="inlineStr">
@@ -25150,7 +25138,7 @@
       </c>
       <c r="AI114" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ114" s="4" t="inlineStr">
@@ -25165,7 +25153,7 @@
       </c>
       <c r="AL114" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>X</t>
         </is>
       </c>
       <c r="AM114" s="4" t="inlineStr">
@@ -25175,37 +25163,37 @@
       </c>
       <c r="AN114" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t/>
         </is>
       </c>
       <c r="AO114" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AP114" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AQ114" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AR114" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AS114" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AT114" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t/>
         </is>
       </c>
       <c r="AU114" s="4" t="inlineStr">
@@ -25237,12 +25225,12 @@
     <row outlineLevel="0" r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>W_1503x_R</t>
+          <t>W_1504x_R</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>Z15_B03_P01_Ib01_I01</t>
+          <t>Z15_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C115" s="4" t="inlineStr">
@@ -25261,12 +25249,12 @@
       </c>
       <c r="G115" s="6" t="inlineStr">
         <is>
-          <t>Sinkende Zunahme der Bodenversiegelung</t>
+          <t>Steigerung der nachhaltigen Landnutzung (durch Schutz, nachhaltige Bewirtschaftung, Wiederherstellung) bis 2030</t>
         </is>
       </c>
       <c r="H115" s="4" t="inlineStr">
         <is>
-          <t>XXXSinkende Zunahme der Bodenversiegelung</t>
+          <t>XXXSteigerung der nachhaltigen Landnutzung (durch Schutz, nachhaltige Bewirtschaftung, Wiederherstellung) bis 2030</t>
         </is>
       </c>
       <c r="I115" s="4" t="inlineStr">
@@ -25276,7 +25264,7 @@
       </c>
       <c r="J115" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="K115" s="4" t="inlineStr">
@@ -25344,7 +25332,7 @@
       </c>
       <c r="AF115" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AG115" s="4" t="inlineStr">
@@ -25359,7 +25347,7 @@
       </c>
       <c r="AI115" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AJ115" s="4" t="inlineStr">
@@ -25374,7 +25362,7 @@
       </c>
       <c r="AL115" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AM115" s="4" t="inlineStr">
@@ -25389,7 +25377,7 @@
       </c>
       <c r="AO115" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t/>
         </is>
       </c>
       <c r="AP115" s="4" t="inlineStr">
@@ -25404,7 +25392,7 @@
       </c>
       <c r="AR115" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t/>
         </is>
       </c>
       <c r="AS115" s="4" t="inlineStr">
@@ -25446,12 +25434,12 @@
     <row outlineLevel="0" r="116">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>W_1504x_R</t>
+          <t>W_1602x_2030</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>Z15_B04_P01_Ib01_I01</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C116" s="4" t="inlineStr">
@@ -25466,21 +25454,21 @@
         <v>1</v>
       </c>
       <c r="F116" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" s="6" t="inlineStr">
         <is>
-          <t>Steigerung der nachhaltigen Landnutzung (durch Schutz, nachhaltige Bewirtschaftung, Wiederherstellung) bis 2030</t>
+          <t>Von 2025 bis 2030 Ausbildung von mindestens 1000 Personen durch Expertinnen und Experten der Bundeswehr</t>
         </is>
       </c>
       <c r="H116" s="4" t="inlineStr">
         <is>
-          <t>XXXSteigerung der nachhaltigen Landnutzung (durch Schutz, nachhaltige Bewirtschaftung, Wiederherstellung) bis 2030</t>
+          <t>XXXVon 2025 bis 2030 Ausbildung von mindestens 1.000 Personen durch Expertinnen und Experten der Bundeswehr</t>
         </is>
       </c>
       <c r="I116" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J116" s="4" t="inlineStr">
@@ -25490,8 +25478,11 @@
       </c>
       <c r="K116" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L116" s="7">
+        <v>2030</v>
       </c>
       <c r="P116" s="4" t="inlineStr">
         <is>
@@ -25506,6 +25497,9 @@
       <c r="R116" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="T116" s="8">
+        <v>850</v>
+      </c>
       <c r="W116" s="6" t="inlineStr">
         <is>
           <t/>
@@ -25643,7 +25637,7 @@
       </c>
       <c r="AX116" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K</t>
         </is>
       </c>
       <c r="AY116" s="4" t="inlineStr">
@@ -25655,12 +25649,12 @@
     <row outlineLevel="0" r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>W_1602x_2030</t>
+          <t>W_1603a_R</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C117" s="4" t="inlineStr">
@@ -25675,21 +25669,21 @@
         <v>1</v>
       </c>
       <c r="F117" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" s="6" t="inlineStr">
         <is>
-          <t>Von 2025 bis 2030 Ausbildung von mindestens 1000 Personen durch Expertinnen und Experten der Bundeswehr</t>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
         </is>
       </c>
       <c r="H117" s="4" t="inlineStr">
         <is>
-          <t>XXXVon 2025 bis 2030 Ausbildung von mindestens 1.000 Personen durch Expertinnen und Experten der Bundeswehr</t>
+          <t>Improvement by 2030, compared to 2012</t>
         </is>
       </c>
       <c r="I117" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>R</t>
         </is>
       </c>
       <c r="J117" s="4" t="inlineStr">
@@ -25699,11 +25693,8 @@
       </c>
       <c r="K117" s="4" t="inlineStr">
         <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L117" s="7">
-        <v>2030</v>
+          <t/>
+        </is>
       </c>
       <c r="P117" s="4" t="inlineStr">
         <is>
@@ -25716,10 +25707,7 @@
         </is>
       </c>
       <c r="R117" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="T117" s="8">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="W117" s="6" t="inlineStr">
         <is>
@@ -25823,42 +25811,42 @@
       </c>
       <c r="AQ117" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AR117" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AS117" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AT117" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AU117" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AV117" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AW117" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AX117" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AY117" s="4" t="inlineStr">
@@ -25870,12 +25858,12 @@
     <row outlineLevel="0" r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>W_1603a_R</t>
+          <t>W_1603b_R</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C118" s="4" t="inlineStr">
@@ -25928,7 +25916,7 @@
         </is>
       </c>
       <c r="R118" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W118" s="6" t="inlineStr">
         <is>
@@ -26032,37 +26020,37 @@
       </c>
       <c r="AQ118" s="4" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AR118" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AS118" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AT118" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AU118" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AV118" s="4" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AR118" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AS118" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AT118" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AU118" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AV118" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="AW118" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AX118" s="4" t="inlineStr">
@@ -26079,17 +26067,17 @@
     <row outlineLevel="0" r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>W_1603b_R</t>
+          <t>W_1604x_2029</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02</t>
+          <t>Z16_B04_P01_IB01_I01</t>
         </is>
       </c>
       <c r="C119" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_EFF</t>
         </is>
       </c>
       <c r="D119" s="5" t="b">
@@ -26099,21 +26087,21 @@
         <v>1</v>
       </c>
       <c r="F119" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" s="6" t="inlineStr">
         <is>
-          <t>Verbesserung gegenüber 2012 bis 2030</t>
+          <t>Verbesserung auf mindestens 8 von 11 möglichen Punkten bis 2029</t>
         </is>
       </c>
       <c r="H119" s="4" t="inlineStr">
         <is>
-          <t>Improvement by 2030, compared to 2012</t>
+          <t>XXXVerbesserung auf mindestens 8 von 11 möglichen Punkten bis 2029</t>
         </is>
       </c>
       <c r="I119" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J119" s="4" t="inlineStr">
@@ -26123,8 +26111,11 @@
       </c>
       <c r="K119" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L119" s="7">
+        <v>2029</v>
       </c>
       <c r="P119" s="4" t="inlineStr">
         <is>
@@ -26139,6 +26130,9 @@
       <c r="R119" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="T119" s="8">
+        <v>9</v>
+      </c>
       <c r="W119" s="6" t="inlineStr">
         <is>
           <t/>
@@ -26241,42 +26235,42 @@
       </c>
       <c r="AQ119" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR119" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS119" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT119" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU119" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV119" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AR119" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AS119" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AT119" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AU119" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AV119" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="AW119" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AX119" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AY119" s="4" t="inlineStr">
@@ -26288,17 +26282,17 @@
     <row outlineLevel="0" r="120">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>W_1604x_2029</t>
+          <t>W_1701x_2030</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01_I01</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C120" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EFF</t>
+          <t/>
         </is>
       </c>
       <c r="D120" s="5" t="b">
@@ -26312,12 +26306,12 @@
       </c>
       <c r="G120" s="6" t="inlineStr">
         <is>
-          <t>Verbesserung auf mindestens 8 von 11 möglichen Punkten bis 2029</t>
+          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
         </is>
       </c>
       <c r="H120" s="4" t="inlineStr">
         <is>
-          <t>XXXVerbesserung auf mindestens 8 von 11 möglichen Punkten bis 2029</t>
+          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
         </is>
       </c>
       <c r="I120" s="4" t="inlineStr">
@@ -26332,11 +26326,11 @@
       </c>
       <c r="K120" s="4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="L120" s="7">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="P120" s="4" t="inlineStr">
         <is>
@@ -26351,8 +26345,11 @@
       <c r="R120" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="S120" s="8">
+        <v>28.9</v>
+      </c>
       <c r="T120" s="8">
-        <v>9</v>
+        <v>0.8</v>
       </c>
       <c r="W120" s="6" t="inlineStr">
         <is>
@@ -26446,47 +26443,47 @@
       </c>
       <c r="AO120" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AP120" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AQ120" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AR120" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AS120" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AT120" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AU120" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AV120" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AW120" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AX120" s="4" t="inlineStr">
@@ -26503,12 +26500,12 @@
     <row outlineLevel="0" r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>W_1701x_2030</t>
+          <t>W_1702x_2020</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z17_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C121" s="4" t="inlineStr">
@@ -26520,19 +26517,19 @@
         <v>1</v>
       </c>
       <c r="E121" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" s="6" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
+          <t>Steigerung der Anzahl um &lt;b&gt;10 %&lt;/b&gt; von 2015 bis 2020</t>
         </is>
       </c>
       <c r="H121" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
+          <t>Increase the number by 10 % from 2015 to 2020</t>
         </is>
       </c>
       <c r="I121" s="4" t="inlineStr">
@@ -26547,11 +26544,14 @@
       </c>
       <c r="K121" s="4" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>237000</t>
         </is>
       </c>
       <c r="L121" s="7">
-        <v>2030</v>
+        <v>2020</v>
+      </c>
+      <c r="N121" s="7">
+        <v>2020</v>
       </c>
       <c r="P121" s="4" t="inlineStr">
         <is>
@@ -26564,22 +26564,16 @@
         </is>
       </c>
       <c r="R121" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S121" s="8">
-        <v>28.9</v>
-      </c>
-      <c r="T121" s="8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W121" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
         </is>
       </c>
       <c r="X121" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Omission of 2020 target due to expiration of time.</t>
         </is>
       </c>
       <c r="Y121" s="4" t="inlineStr">
@@ -26694,17 +26688,17 @@
       </c>
       <c r="AU121" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AV121" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AW121" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AX121" s="4" t="inlineStr">
@@ -26721,7 +26715,7 @@
     <row outlineLevel="0" r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>W_1702x_2020</t>
+          <t>W_1702x_J</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
@@ -26738,24 +26732,24 @@
         <v>1</v>
       </c>
       <c r="E122" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" s="6" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl um &lt;b&gt;10 %&lt;/b&gt; von 2015 bis 2020</t>
+          <t>Verstetigung des Zielwertes von 2020</t>
         </is>
       </c>
       <c r="H122" s="4" t="inlineStr">
         <is>
-          <t>Increase the number by 10 % from 2015 to 2020</t>
+          <t>Steadying the 2020 target value</t>
         </is>
       </c>
       <c r="I122" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="J122" s="4" t="inlineStr">
@@ -26768,30 +26762,39 @@
           <t>237000</t>
         </is>
       </c>
-      <c r="L122" s="7">
-        <v>2020</v>
+      <c r="O122" s="7">
+        <v>2021</v>
       </c>
       <c r="P122" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ziel: 237 000</t>
         </is>
       </c>
       <c r="Q122" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Target: 237,000</t>
         </is>
       </c>
       <c r="R122" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S122" s="8">
+        <v>16</v>
+      </c>
+      <c r="T122" s="8">
+        <v>255000</v>
+      </c>
+      <c r="U122" s="7">
+        <v>2019</v>
       </c>
       <c r="W122" s="6" t="inlineStr">
         <is>
-          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+          <t/>
         </is>
       </c>
       <c r="X122" s="6" t="inlineStr">
         <is>
-          <t>Omission of 2020 target due to expiration of time.</t>
+          <t/>
         </is>
       </c>
       <c r="Y122" s="4" t="inlineStr">
@@ -26906,17 +26909,17 @@
       </c>
       <c r="AU122" s="4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AV122" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AW122" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AX122" s="4" t="inlineStr">
@@ -26933,12 +26936,12 @@
     <row outlineLevel="0" r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>W_1702x_J</t>
+          <t>W_1703x_J</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C123" s="4" t="inlineStr">
@@ -26957,17 +26960,17 @@
       </c>
       <c r="G123" s="6" t="inlineStr">
         <is>
-          <t>Verstetigung des Zielwertes von 2020</t>
+          <t>Steigerung des Anteils um &lt;b&gt;100 %&lt;/b&gt; bis 2030 gegenüber 2014</t>
         </is>
       </c>
       <c r="H123" s="4" t="inlineStr">
         <is>
-          <t>Steadying the 2020 target value</t>
+          <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
         </is>
       </c>
       <c r="I123" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="J123" s="4" t="inlineStr">
@@ -26977,30 +26980,30 @@
       </c>
       <c r="K123" s="4" t="inlineStr">
         <is>
-          <t>237000</t>
-        </is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="L123" s="7">
+        <v>2030</v>
       </c>
       <c r="P123" s="4" t="inlineStr">
         <is>
-          <t>Ziel: 237 000</t>
+          <t/>
         </is>
       </c>
       <c r="Q123" s="4" t="inlineStr">
         <is>
-          <t>Target: 237,000</t>
+          <t/>
         </is>
       </c>
       <c r="R123" s="5" t="b">
         <v>1</v>
       </c>
       <c r="S123" s="8">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="T123" s="8">
-        <v>255000</v>
-      </c>
-      <c r="U123" s="7">
-        <v>2019</v>
+        <v>1.45</v>
       </c>
       <c r="W123" s="6" t="inlineStr">
         <is>
@@ -27094,37 +27097,37 @@
       </c>
       <c r="AO123" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AP123" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AQ123" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AR123" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AS123" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AT123" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AU123" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AV123" s="4" t="inlineStr">
@@ -27134,7 +27137,7 @@
       </c>
       <c r="AW123" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AX123" s="4" t="inlineStr">
@@ -27143,224 +27146,6 @@
         </is>
       </c>
       <c r="AY123" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="124">
-      <c r="A124" s="4" t="inlineStr">
-        <is>
-          <t>W_1703x_J</t>
-        </is>
-      </c>
-      <c r="B124" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C124" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D124" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E124" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F124" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G124" s="6" t="inlineStr">
-        <is>
-          <t>Steigerung des Anteils um &lt;b&gt;100 %&lt;/b&gt; bis 2030 gegenüber 2014</t>
-        </is>
-      </c>
-      <c r="H124" s="4" t="inlineStr">
-        <is>
-          <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
-        </is>
-      </c>
-      <c r="I124" s="4" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="J124" s="4" t="inlineStr">
-        <is>
-          <t>steigen</t>
-        </is>
-      </c>
-      <c r="K124" s="4" t="inlineStr">
-        <is>
-          <t>1,43</t>
-        </is>
-      </c>
-      <c r="L124" s="7">
-        <v>2030</v>
-      </c>
-      <c r="P124" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q124" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R124" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S124" s="8">
-        <v>21</v>
-      </c>
-      <c r="T124" s="8">
-        <v>1.45</v>
-      </c>
-      <c r="W124" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X124" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y124" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z124" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA124" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB124" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC124" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD124" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE124" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF124" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG124" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH124" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI124" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ124" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK124" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL124" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM124" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN124" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO124" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP124" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AQ124" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AR124" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AS124" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AT124" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AU124" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AV124" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AW124" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AX124" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AY124" s="4" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -11224,7 +11224,7 @@
       </c>
       <c r="AX49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AY49" s="4" t="inlineStr">
@@ -11442,7 +11442,7 @@
       </c>
       <c r="AX50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AY50" s="4" t="inlineStr">
@@ -11660,7 +11660,7 @@
       </c>
       <c r="AX51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AY51" s="4" t="inlineStr">
@@ -12102,7 +12102,7 @@
       </c>
       <c r="AX53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AY53" s="4" t="inlineStr">
@@ -12320,7 +12320,7 @@
       </c>
       <c r="AX54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AY54" s="4" t="inlineStr">
@@ -12538,7 +12538,7 @@
       </c>
       <c r="AX55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AY55" s="4" t="inlineStr">
@@ -12756,7 +12756,7 @@
       </c>
       <c r="AX56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AY56" s="4" t="inlineStr">
@@ -12974,7 +12974,7 @@
       </c>
       <c r="AX57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AY57" s="4" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="AX58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AY58" s="4" t="inlineStr">
@@ -15779,7 +15779,7 @@
       </c>
       <c r="AW70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AX70" s="4" t="inlineStr">
@@ -15994,7 +15994,7 @@
       </c>
       <c r="AW71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AX71" s="4" t="inlineStr">
@@ -17902,7 +17902,7 @@
       </c>
       <c r="AW80" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AX80" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -11960,7 +11960,7 @@
         <v>1</v>
       </c>
       <c r="S53" s="8">
-        <v>18.9</v>
+        <v>19.9</v>
       </c>
       <c r="T53" s="8">
         <v>65</v>

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -20064,7 +20064,7 @@
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_KULTUR</t>
         </is>
       </c>
       <c r="D91" s="5" t="b">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -21535,7 +21535,7 @@
       </c>
       <c r="AX97" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AY97" s="4" t="inlineStr">
@@ -21756,7 +21756,7 @@
       </c>
       <c r="AX98" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AY98" s="4" t="inlineStr">
@@ -21980,7 +21980,7 @@
       </c>
       <c r="AX99" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AY99" s="4" t="inlineStr">
@@ -22195,7 +22195,7 @@
       </c>
       <c r="AX100" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AY100" s="4" t="inlineStr">
@@ -22416,7 +22416,7 @@
       </c>
       <c r="AX101" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AY101" s="4" t="inlineStr">
@@ -22634,7 +22634,7 @@
       </c>
       <c r="AX102" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AY102" s="4" t="inlineStr">
@@ -22849,7 +22849,7 @@
       </c>
       <c r="AX103" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AY103" s="4" t="inlineStr">

--- a/Tab_5b_Wetter.xlsx
+++ b/Tab_5b_Wetter.xlsx
@@ -26130,6 +26130,9 @@
       <c r="R119" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="S119" s="8">
+        <v>3</v>
+      </c>
       <c r="T119" s="8">
         <v>9</v>
       </c>
